--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA05044-DDA4-4C95-8748-BFD6E06F1CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBD7DF0-3E8E-44D6-95A7-DCBD0B97443E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" tabRatio="693" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" tabRatio="693" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Run 20200811" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="280">
   <si>
     <t>Scenario</t>
   </si>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>To "Valid Given" belongs helper function CreateValidGiven, this should be renamed to CreateRenamedValidGiven, instead a call to MakeRenamedValidGiven is created (with no comment and no helper function</t>
+  </si>
+  <si>
+    <t>Issue 2</t>
   </si>
 </sst>
 </file>
@@ -1720,12 +1723,15 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="84">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1753,12 +1759,59 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0000"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1766,6 +1819,34 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1789,6 +1870,21 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -1808,13 +1904,71 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0000"/>
@@ -1824,6 +1978,41 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1868,6 +2057,203 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1929,386 +2315,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2323,122 +2329,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="73">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="77">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="72">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="69">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:G60" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:G60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
-    <sortCondition ref="A2:A60"/>
-    <sortCondition ref="B2:B60"/>
-  </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:H60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="51">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="50">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="39">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K344" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K344" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:K343" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K149">
     <sortCondition ref="B3:B149"/>
     <sortCondition ref="I3:I149"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="55" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="53" totalsRowDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="52" totalsRowDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="11">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="50" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="49" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="48" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="47" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="46" totalsRowDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="45" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:E7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3119,24 +3122,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3635,13 +3638,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3655,10 +3658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E210D12-4685-43CE-97DA-E3A60E5FBE1A}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,7 +3675,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3694,8 +3697,11 @@
       <c r="G1" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>27</v>
       </c>
@@ -3715,7 +3721,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>27</v>
       </c>
@@ -3735,7 +3741,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>27</v>
       </c>
@@ -3755,7 +3761,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>27</v>
       </c>
@@ -3775,7 +3781,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>27</v>
       </c>
@@ -3795,7 +3801,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>27</v>
       </c>
@@ -3815,7 +3821,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>27</v>
       </c>
@@ -3836,8 +3842,11 @@
       <c r="F8" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="89">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>27</v>
       </c>
@@ -3858,8 +3867,11 @@
       <c r="F9" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="89">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>27</v>
       </c>
@@ -3879,7 +3891,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -3899,7 +3911,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>27</v>
       </c>
@@ -3919,7 +3931,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>27</v>
       </c>
@@ -3939,7 +3951,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>27</v>
       </c>
@@ -3959,7 +3971,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>27</v>
       </c>
@@ -3979,7 +3991,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>28</v>
       </c>
@@ -3999,7 +4011,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -4019,7 +4031,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>28</v>
       </c>
@@ -4040,8 +4052,14 @@
       <c r="F18" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="89">
+        <v>53</v>
+      </c>
+      <c r="H18" s="89">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>28</v>
       </c>
@@ -4061,7 +4079,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>28</v>
       </c>
@@ -4082,8 +4100,14 @@
       <c r="F20" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="89">
+        <v>53</v>
+      </c>
+      <c r="H20" s="89">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>28</v>
       </c>
@@ -4103,7 +4127,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -4123,7 +4147,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -4143,7 +4167,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>28</v>
       </c>
@@ -4163,7 +4187,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -4184,8 +4208,11 @@
       <c r="F25" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="89">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -4205,7 +4232,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -4225,7 +4252,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -4246,8 +4273,11 @@
       <c r="F28" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4268,8 +4298,11 @@
       <c r="F29" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4290,8 +4323,11 @@
       <c r="F30" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -4312,8 +4348,11 @@
       <c r="F31" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4759,6 +4798,9 @@
       <c r="F52" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="G52" s="89">
+        <v>56</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -4800,6 +4842,9 @@
       </c>
       <c r="F54" s="2" t="s">
         <v>244</v>
+      </c>
+      <c r="G54" s="89">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4943,13 +4988,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4960,11 +5005,24 @@
     <hyperlink ref="G55" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/44" xr:uid="{74FACEB3-F86D-4741-BE6E-4FD01661A61C}"/>
     <hyperlink ref="G45" r:id="rId5" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/51" xr:uid="{165016DB-6686-4CB4-978C-5177C03FF3B3}"/>
     <hyperlink ref="G50" r:id="rId6" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/51" xr:uid="{3882B1E2-5655-4B19-9E4B-C13542F60BC0}"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/52" xr:uid="{5D54C956-00A4-4983-92AB-A74B21732150}"/>
+    <hyperlink ref="G9" r:id="rId8" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/52" xr:uid="{337F053B-11D9-4EBF-BE53-5B87B552EA11}"/>
+    <hyperlink ref="G18" r:id="rId9" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/53" xr:uid="{4A7B03B2-1DE5-4EBE-A93D-9CFFBEF25C5D}"/>
+    <hyperlink ref="G20" r:id="rId10" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/53" xr:uid="{5D17D4C3-1744-4023-B0F5-CBE273A52FC2}"/>
+    <hyperlink ref="G25" r:id="rId11" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/53" xr:uid="{FBF559D7-CF62-44F6-93E0-1C29D885D000}"/>
+    <hyperlink ref="H18" r:id="rId12" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/54" xr:uid="{C38BF5EE-7464-48F0-85D4-D59D8C250A9B}"/>
+    <hyperlink ref="H20" r:id="rId13" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/54" xr:uid="{07C47D43-B01C-449C-94C4-63F323B45E68}"/>
+    <hyperlink ref="G28" r:id="rId14" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{2FFBFEE6-6C93-4A6B-8BE9-38773F862480}"/>
+    <hyperlink ref="G29" r:id="rId15" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{84F77E47-34AF-4356-A3F2-BFFEF83B06F8}"/>
+    <hyperlink ref="G30" r:id="rId16" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{EADA9EEF-8698-4BC4-9A0D-A234BBCAF4E2}"/>
+    <hyperlink ref="G31" r:id="rId17" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{497802EF-D2E8-44D9-B316-96E248D498C2}"/>
+    <hyperlink ref="G52" r:id="rId18" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/56" xr:uid="{BE77F74A-0CD4-44AC-ADC2-9F3DA951450A}"/>
+    <hyperlink ref="G54" r:id="rId19" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/56" xr:uid="{821E4586-1080-416B-9C72-1E56D3FF443A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5062,13 +5120,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5084,7 +5142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K344"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J318" sqref="J318"/>
     </sheetView>
   </sheetViews>
@@ -15074,12 +15132,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15108,13 +15166,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE1259-50C7-49D2-832E-5C5E8B7CC934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C055BF-860C-4C30-A5AD-390503F6EE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Run 20200811" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="300">
   <si>
     <t>Scenario</t>
   </si>
@@ -1254,6 +1254,41 @@
   <si>
     <t>All tests that reside in the test project are displayed with right feature, ID and scenario</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1) "Valid Given" is not removed from ATDD.TestScriptor page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(2) ATDD.TestScriptor page does no longer show Scenario</t>
+    </r>
+  </si>
+  <si>
+    <t>Has been solved.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
 </sst>
 </file>
 
@@ -1262,7 +1297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,8 +1442,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,8 +1498,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1493,13 +1541,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1790,13 +1886,64 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2019,274 +2166,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2321,6 +2200,9 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2332,6 +2214,271 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2461,140 +2608,141 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="95">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="83">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="87">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="82">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:H60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="79">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="78">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="64">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+  <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K354" totalsRowCount="1" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K354" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:K353" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K153">
     <sortCondition ref="B7:B153"/>
     <sortCondition ref="I7:I153"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="44" totalsRowDxfId="33">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="42" totalsRowDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="41" totalsRowDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="29">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="39" totalsRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="38" totalsRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="37" totalsRowDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="36" totalsRowDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="35" totalsRowDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="34" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="34" totalsRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" dataDxfId="59">
-  <autoFilter ref="A1:E7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="32">
+  <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3274,24 +3422,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3790,13 +3938,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3812,7 +3960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E210D12-4685-43CE-97DA-E3A60E5FBE1A}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5138,13 +5288,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5270,13 +5420,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5290,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07736E-642F-4113-870C-47BFB0737DE7}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,7 +5457,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5330,7 +5480,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>28</v>
       </c>
@@ -5353,7 +5503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>28</v>
       </c>
@@ -5376,7 +5526,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>28</v>
       </c>
@@ -5399,7 +5549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>28</v>
       </c>
@@ -5422,9 +5572,61 @@
         <v>55</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <v>28</v>
+      </c>
+      <c r="B6" s="99">
+        <v>30</v>
+      </c>
+      <c r="C6" s="65" t="str">
+        <f>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Given</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Remove Given step 3a</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="102">
+        <v>54</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="103">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9">
+        <v>32</v>
+      </c>
+      <c r="C7" s="65" t="str">
+        <f>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Given</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Remove Given step 3b</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="89">
+        <v>54</v>
+      </c>
+      <c r="H7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5436,14 +5638,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5451,11 +5665,13 @@
     <hyperlink ref="G3" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{5442411F-8EDF-4E91-BF6B-AB942DC06AE6}"/>
     <hyperlink ref="G4" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{6EDE31A8-2EA5-4AF1-84D1-0445317CA29D}"/>
     <hyperlink ref="G5" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/55" xr:uid="{667E6963-BF02-4732-AE57-8AA0636981DA}"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/54" xr:uid="{C8B5AE43-0E5B-458F-8B5E-67E41BE44DA9}"/>
+    <hyperlink ref="G7" r:id="rId6" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/54" xr:uid="{64D8C3C8-555F-42A7-8E9B-3866C59C5D7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5464,7 +5680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B224" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -11954,7 +12170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A225" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -11980,7 +12196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A226" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12011,7 +12227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12041,7 +12257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A228" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12069,7 +12285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12097,7 +12313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A230" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12128,7 +12344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A231" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12158,7 +12374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12188,7 +12404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12216,7 +12432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A234" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12247,7 +12463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A235" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12277,7 +12493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A236" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12307,7 +12523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A237" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12337,7 +12553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A238" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12367,7 +12583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12395,7 +12611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A240" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12426,7 +12642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A241" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12456,7 +12672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A242" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12486,7 +12702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12514,7 +12730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A244" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12545,7 +12761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A245" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12575,7 +12791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A246" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12605,7 +12821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A247" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12635,7 +12851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A248" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12665,7 +12881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12691,7 +12907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A250" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12722,7 +12938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A251" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12750,7 +12966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A252" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12778,7 +12994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A253" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12806,7 +13022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A254" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12836,7 +13052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A255" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12864,7 +13080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A256" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12892,7 +13108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -12918,7 +13134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A258" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -12949,7 +13165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A259" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -12977,7 +13193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A260" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13007,7 +13223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A261" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13035,7 +13251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A262" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13063,7 +13279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A263" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13091,7 +13307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A264" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13119,7 +13335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A265" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13147,7 +13363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13173,7 +13389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13204,7 +13420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13232,7 +13448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13262,7 +13478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13290,7 +13506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13318,7 +13534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -15710,12 +15926,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15744,13 +15960,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15764,10 +15980,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB16863-C9D6-47DE-82AF-06BDE2CF5BC1}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15778,7 +15994,7 @@
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -15794,8 +16010,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15809,8 +16028,11 @@
         <v>273</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -15824,8 +16046,11 @@
       <c r="E3" s="89">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -15839,8 +16064,11 @@
       <c r="E4" s="89">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -15854,8 +16082,11 @@
       <c r="E5" s="89">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -15865,12 +16096,17 @@
       <c r="C6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E6" s="89">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -15884,8 +16120,19 @@
       <c r="E7" s="89">
         <v>50</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Solved"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/47" xr:uid="{7ED3BAA5-9FF9-4E61-9BCA-46B887418E89}"/>
     <hyperlink ref="E4" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/48" xr:uid="{13CE0C6E-9DA7-4EC3-B5C2-899D1E1DF82F}"/>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C055BF-860C-4C30-A5AD-390503F6EE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7371E04-F593-404D-81D8-D8E36A5C1BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Run 20200811" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="303">
   <si>
     <t>Scenario</t>
   </si>
@@ -1288,6 +1288,28 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Initialize local helper function added with standard error</t>
+  </si>
+  <si>
+    <t>(1) In this scenario no Initialize helper function yet exist so it needs to be added
+(2) Initialize helper function should have the following structure (with IsInitialized is a global Boolean variable)
+local procedure Initialize()
+var
+    LibraryTestInitialize: Codeunit "Library - Test Initialize";
+begin
+    LibraryTestInitialize.OnTestInitialize(Codeunit::&lt;name of test codeunit&gt;);
+    if IsInitialized then
+        exit;
+    LibraryTestInitialize.OnBeforeTestSuiteInitialize(Codeunit::&lt;name of test codeunit&gt;);
+     IsInitialized := true;
+    Commit();
+    LibraryTestInitialize.OnAfterTestSuiteInitialize(Codeunit::&lt;name of test codeunit&gt;);
+end;</t>
+  </si>
+  <si>
+    <t>Adding Scenario (to existing test codeunit)</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1932,80 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="99">
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1930,19 +2025,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2169,6 +2251,9 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2200,9 +2285,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2217,9 +2299,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2232,10 +2311,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2254,9 +2329,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2271,9 +2343,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2281,25 +2350,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2323,26 +2373,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <i/>
         <strike val="0"/>
         <outline val="0"/>
@@ -2355,9 +2385,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2375,6 +2402,17 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2389,33 +2427,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2608,141 +2620,141 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="94">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="89"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="86">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="85">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:H60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="79">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="78">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="77">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="68">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="60">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K354" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55">
-  <autoFilter ref="A1:K353" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K355" totalsRowCount="1" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:K354" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K153">
     <sortCondition ref="B7:B153"/>
     <sortCondition ref="I7:I153"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="53" totalsRowDxfId="10">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="52" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="51" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="50" totalsRowDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="6">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="48" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="47" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="46" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="45" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="44" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="43" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="42">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3422,24 +3434,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3938,13 +3950,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3960,7 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E210D12-4685-43CE-97DA-E3A60E5FBE1A}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5160,7 +5172,7 @@
       </c>
       <c r="D55" s="1" t="str">
         <f>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Adding Scenario</v>
+        <v>Adding Scenario (to existing test codeunit)</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>11</v>
@@ -5288,13 +5300,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5420,13 +5432,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5638,13 +5650,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5678,10 +5690,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
-  <dimension ref="A1:K354"/>
+  <dimension ref="A1:K355"/>
   <sheetViews>
-    <sheetView topLeftCell="B224" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J328" sqref="J328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5700,7 +5712,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>74</v>
       </c>
@@ -12170,7 +12182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A225" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12196,7 +12208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A226" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12227,7 +12239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12257,7 +12269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A228" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>28</v>
@@ -12285,7 +12297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12313,7 +12325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A230" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12344,7 +12356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A231" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12374,7 +12386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -12404,7 +12416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12432,7 +12444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A234" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12463,7 +12475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A235" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12493,7 +12505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A236" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12523,7 +12535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A237" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12553,7 +12565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A238" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>30</v>
@@ -12583,7 +12595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12611,7 +12623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A240" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12642,7 +12654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A241" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12672,7 +12684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A242" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>31</v>
@@ -12702,7 +12714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A243" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12730,7 +12742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A244" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12761,7 +12773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A245" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12791,7 +12803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A246" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12821,7 +12833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A247" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12851,7 +12863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="248" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A248" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>32</v>
@@ -12881,7 +12893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A249" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12907,7 +12919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A250" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12938,7 +12950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A251" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12966,7 +12978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A252" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -12994,7 +13006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A253" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -13022,7 +13034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A254" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -13052,7 +13064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A255" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -13080,7 +13092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A256" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -13108,7 +13120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13134,7 +13146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A258" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13165,7 +13177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A259" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13193,7 +13205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A260" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13223,7 +13235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A261" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13251,7 +13263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A262" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13279,7 +13291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A263" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13307,7 +13319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A264" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13335,7 +13347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A265" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>40</v>
@@ -13363,7 +13375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13389,7 +13401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13420,7 +13432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A268" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13448,7 +13460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A269" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13478,7 +13490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13506,7 +13518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -13534,7 +13546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="52">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -14981,7 +14993,7 @@
       <c r="D322" s="69"/>
       <c r="E322" s="70"/>
       <c r="F322" s="71" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="H322" s="43"/>
       <c r="I322" s="72">
@@ -15111,7 +15123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="327" spans="1:11" s="67" customFormat="1" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A327" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>55</v>
@@ -15139,56 +15151,61 @@
         <v>38</v>
       </c>
     </row>
-    <row r="328" spans="1:11" s="67" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" s="67" customFormat="1" ht="330.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>55</v>
+      </c>
+      <c r="B328" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="C328" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D328" s="69"/>
+      <c r="E328" s="70"/>
+      <c r="F328" s="71"/>
+      <c r="G328" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H328" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I328" s="72">
+        <v>55</v>
+      </c>
+      <c r="J328" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="K328" s="68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" s="67" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="66">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
       </c>
-      <c r="B328" s="82" t="s">
+      <c r="B329" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="C328" s="83"/>
-      <c r="D328" s="84"/>
-      <c r="E328" s="85"/>
-      <c r="F328" s="86"/>
-      <c r="G328" s="82"/>
-      <c r="H328" s="81" t="s">
+      <c r="C329" s="83"/>
+      <c r="D329" s="84"/>
+      <c r="E329" s="85"/>
+      <c r="F329" s="86"/>
+      <c r="G329" s="82"/>
+      <c r="H329" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I328" s="87"/>
-      <c r="J328" s="88" t="s">
+      <c r="I329" s="87"/>
+      <c r="J329" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="K328" s="83">
+      <c r="K329" s="83">
         <v>39</v>
       </c>
     </row>
-    <row r="329" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="66">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
-      </c>
-      <c r="B329" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="C329" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D329" s="69"/>
-      <c r="E329" s="70"/>
-      <c r="F329" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="H329" s="43"/>
-      <c r="I329" s="72">
-        <v>56</v>
-      </c>
-      <c r="J329" s="73"/>
-      <c r="K329" s="68">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15201,20 +15218,14 @@
       </c>
       <c r="D330" s="69"/>
       <c r="E330" s="70"/>
-      <c r="F330" s="71"/>
-      <c r="G330" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H330" s="43" t="s">
-        <v>55</v>
-      </c>
+      <c r="F330" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="H330" s="43"/>
       <c r="I330" s="72">
         <v>56</v>
       </c>
-      <c r="J330" s="45" t="str">
-        <f>_xlfn.CONCAT("See Scenario ",$I$7)</f>
-        <v>See Scenario 1</v>
-      </c>
+      <c r="J330" s="73"/>
       <c r="K330" s="68">
         <v>39</v>
       </c>
@@ -15237,17 +15248,20 @@
         <v>29</v>
       </c>
       <c r="H331" s="43" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="I331" s="72">
         <v>56</v>
       </c>
-      <c r="J331" s="73"/>
+      <c r="J331" s="45" t="str">
+        <f>_xlfn.CONCAT("See Scenario ",$I$7)</f>
+        <v>See Scenario 1</v>
+      </c>
       <c r="K331" s="68">
         <v>39</v>
       </c>
     </row>
-    <row r="332" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A332" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15262,17 +15276,15 @@
       <c r="E332" s="70"/>
       <c r="F332" s="71"/>
       <c r="G332" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H332" s="43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I332" s="72">
         <v>56</v>
       </c>
-      <c r="J332" s="73" t="s">
-        <v>249</v>
-      </c>
+      <c r="J332" s="73"/>
       <c r="K332" s="68">
         <v>39</v>
       </c>
@@ -15292,23 +15304,25 @@
       <c r="E333" s="70"/>
       <c r="F333" s="71"/>
       <c r="G333" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H333" s="43" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="I333" s="72">
         <v>56</v>
       </c>
-      <c r="J333" s="73"/>
+      <c r="J333" s="73" t="s">
+        <v>249</v>
+      </c>
       <c r="K333" s="68">
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A334" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B334" s="67" t="s">
         <v>247</v>
@@ -15317,22 +15331,23 @@
         <v>58</v>
       </c>
       <c r="D334" s="69"/>
-      <c r="E334" s="70">
+      <c r="E334" s="70"/>
+      <c r="F334" s="71"/>
+      <c r="G334" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H334" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I334" s="72">
         <v>56</v>
-      </c>
-      <c r="F334" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="H334" s="43"/>
-      <c r="I334" s="72">
-        <v>57</v>
       </c>
       <c r="J334" s="73"/>
       <c r="K334" s="68">
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -15347,14 +15362,10 @@
       <c r="E335" s="70">
         <v>56</v>
       </c>
-      <c r="F335" s="71"/>
-      <c r="G335" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H335" s="43" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I330)</f>
-        <v>Result from scenario 56</v>
-      </c>
+      <c r="F335" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H335" s="43"/>
       <c r="I335" s="72">
         <v>57</v>
       </c>
@@ -15380,10 +15391,11 @@
       </c>
       <c r="F336" s="71"/>
       <c r="G336" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H336" s="43" t="s">
-        <v>139</v>
+        <v>29</v>
+      </c>
+      <c r="H336" s="43" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I331)</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I336" s="72">
         <v>57</v>
@@ -15393,7 +15405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A337" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -15410,10 +15422,10 @@
       </c>
       <c r="F337" s="71"/>
       <c r="G337" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H337" s="43" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="I337" s="72">
         <v>57</v>
@@ -15423,10 +15435,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B338" s="67" t="s">
         <v>247</v>
@@ -15436,21 +15448,24 @@
       </c>
       <c r="D338" s="69"/>
       <c r="E338" s="70">
+        <v>56</v>
+      </c>
+      <c r="F338" s="71"/>
+      <c r="G338" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H338" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="I338" s="72">
         <v>57</v>
-      </c>
-      <c r="F338" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="H338" s="43"/>
-      <c r="I338" s="72">
-        <v>58</v>
       </c>
       <c r="J338" s="73"/>
       <c r="K338" s="68">
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15465,14 +15480,10 @@
       <c r="E339" s="70">
         <v>57</v>
       </c>
-      <c r="F339" s="71"/>
-      <c r="G339" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H339" s="43" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I334)</f>
-        <v>Result from scenario 57</v>
-      </c>
+      <c r="F339" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="H339" s="43"/>
       <c r="I339" s="72">
         <v>58</v>
       </c>
@@ -15498,10 +15509,11 @@
       </c>
       <c r="F340" s="71"/>
       <c r="G340" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H340" s="43" t="s">
-        <v>251</v>
+        <v>29</v>
+      </c>
+      <c r="H340" s="43" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I335)</f>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I340" s="72">
         <v>58</v>
@@ -15528,10 +15540,10 @@
       </c>
       <c r="F341" s="71"/>
       <c r="G341" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H341" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I341" s="72">
         <v>58</v>
@@ -15561,7 +15573,7 @@
         <v>31</v>
       </c>
       <c r="H342" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I342" s="72">
         <v>58</v>
@@ -15571,7 +15583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="343" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A343" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15591,7 +15603,7 @@
         <v>31</v>
       </c>
       <c r="H343" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I343" s="72">
         <v>58</v>
@@ -15601,10 +15613,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A344" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B344" s="67" t="s">
         <v>247</v>
@@ -15614,21 +15626,24 @@
       </c>
       <c r="D344" s="69"/>
       <c r="E344" s="70">
-        <v>56</v>
-      </c>
-      <c r="F344" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="H344" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="F344" s="71"/>
+      <c r="G344" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H344" s="43" t="s">
+        <v>253</v>
+      </c>
       <c r="I344" s="72">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J344" s="73"/>
       <c r="K344" s="68">
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -15643,14 +15658,10 @@
       <c r="E345" s="70">
         <v>56</v>
       </c>
-      <c r="F345" s="71"/>
-      <c r="G345" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H345" s="43" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I329)</f>
-        <v>Result from scenario 56</v>
-      </c>
+      <c r="F345" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="H345" s="43"/>
       <c r="I345" s="72">
         <v>59</v>
       </c>
@@ -15676,10 +15687,11 @@
       </c>
       <c r="F346" s="71"/>
       <c r="G346" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="H346" s="43" t="s">
-        <v>150</v>
+        <v>29</v>
+      </c>
+      <c r="H346" s="43" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I330)</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I346" s="72">
         <v>59</v>
@@ -15706,10 +15718,10 @@
       </c>
       <c r="F347" s="71"/>
       <c r="G347" s="67" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="H347" s="43" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="I347" s="72">
         <v>59</v>
@@ -15719,27 +15731,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A348" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B348" s="67" t="s">
         <v>247</v>
       </c>
       <c r="C348" s="68" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="D348" s="69"/>
       <c r="E348" s="70">
-        <v>57</v>
-      </c>
-      <c r="F348" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="H348" s="43"/>
+        <v>56</v>
+      </c>
+      <c r="F348" s="71"/>
+      <c r="G348" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H348" s="43" t="s">
+        <v>193</v>
+      </c>
       <c r="I348" s="72">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J348" s="73"/>
       <c r="K348" s="68">
@@ -15755,20 +15770,16 @@
         <v>247</v>
       </c>
       <c r="C349" s="68" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D349" s="69"/>
       <c r="E349" s="70">
         <v>57</v>
       </c>
-      <c r="F349" s="71"/>
-      <c r="G349" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="H349" s="43" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I334)</f>
-        <v>Result from scenario 57</v>
-      </c>
+      <c r="F349" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="H349" s="43"/>
       <c r="I349" s="72">
         <v>60</v>
       </c>
@@ -15777,7 +15788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -15794,10 +15805,11 @@
       </c>
       <c r="F350" s="71"/>
       <c r="G350" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H350" s="43" t="s">
-        <v>259</v>
+        <v>29</v>
+      </c>
+      <c r="H350" s="43" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I335)</f>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I350" s="72">
         <v>60</v>
@@ -15807,7 +15819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="351" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -15824,10 +15836,10 @@
       </c>
       <c r="F351" s="71"/>
       <c r="G351" s="67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H351" s="43" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I351" s="72">
         <v>60</v>
@@ -15857,7 +15869,7 @@
         <v>31</v>
       </c>
       <c r="H352" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I352" s="72">
         <v>60</v>
@@ -15867,7 +15879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" s="67" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="66">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -15887,7 +15899,7 @@
         <v>31</v>
       </c>
       <c r="H353" s="43" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I353" s="72">
         <v>60</v>
@@ -15897,19 +15909,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="354" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="63"/>
-      <c r="B354" s="1" t="s">
+    <row r="354" spans="1:11" s="67" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="66">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>60</v>
+      </c>
+      <c r="B354" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C354" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D354" s="69"/>
+      <c r="E354" s="70">
+        <v>57</v>
+      </c>
+      <c r="F354" s="71"/>
+      <c r="G354" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H354" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="I354" s="72">
+        <v>60</v>
+      </c>
+      <c r="J354" s="73"/>
+      <c r="K354" s="68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="63"/>
+      <c r="B355" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C354" s="4"/>
-      <c r="E354" s="11">
+      <c r="C355" s="4"/>
+      <c r="E355" s="11">
         <f>Table14[[#Totals],[Scenario '#]]</f>
         <v>63</v>
       </c>
-      <c r="F354" s="7"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="5">
+      <c r="F355" s="7"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="5">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
         <v>63</v>
       </c>
@@ -15926,12 +15968,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15960,13 +16002,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15982,7 +16024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB16863-C9D6-47DE-82AF-06BDE2CF5BC1}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -16126,11 +16168,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Solved"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68DA0A-9CFC-4E7C-8EE2-7119DE413875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FD318-4029-4B85-8C6D-BF42C3DA34A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="309">
   <si>
     <t>Scenario</t>
   </si>
@@ -5845,7 +5845,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5900,6 +5900,9 @@
         <f>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5917,6 +5920,9 @@
         <f>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 2a</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5934,6 +5940,9 @@
         <f>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 3a</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5951,6 +5960,9 @@
         <f>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 2b</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>257</v>
       </c>
@@ -5970,6 +5982,9 @@
         <f>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 3b</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5986,6 +6001,9 @@
       <c r="D7" s="1" t="str">
         <f>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario with initialize</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6025,7 +6043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B332" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K364" sqref="K364"/>
     </sheetView>
   </sheetViews>
@@ -15514,7 +15532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="330" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A330" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15539,7 +15557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A331" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15569,7 +15587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="332" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A332" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15597,7 +15615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="333" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A333" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15627,7 +15645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A334" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -15655,7 +15673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -15682,7 +15700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="336" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A336" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -15713,7 +15731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A337" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -15743,7 +15761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -15773,7 +15791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15800,7 +15818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="340" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A340" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15831,7 +15849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="341" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A341" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15861,7 +15879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="342" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A342" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15891,7 +15909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="343" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A343" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15921,7 +15939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="344" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A344" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -15951,7 +15969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="345" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A345" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -15978,7 +15996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="346" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A346" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -16009,7 +16027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="347" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A347" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -16039,7 +16057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="65" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A348" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -16069,7 +16087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="349" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A349" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -16096,7 +16114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A350" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -16127,7 +16145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="351" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A351" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -16157,7 +16175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="352" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A352" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -16187,7 +16205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -16217,7 +16235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="354" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A354" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -16247,7 +16265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A355" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16272,7 +16290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16302,7 +16320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="357" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A357" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16330,7 +16348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A358" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16358,7 +16376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16386,7 +16404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="360" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A360" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16414,7 +16432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="361" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16442,7 +16460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="362" spans="1:11" s="65" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A362" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16470,7 +16488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:11" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A363" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -16498,7 +16516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A364" s="61"/>
       <c r="B364" s="1" t="s">
         <v>66</v>
@@ -16506,13 +16524,13 @@
       <c r="C364" s="3"/>
       <c r="E364" s="10">
         <f>Table14[[#Totals],[Scenario '#]]</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F364" s="6"/>
       <c r="H364" s="2"/>
       <c r="I364" s="12">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FD318-4029-4B85-8C6D-BF42C3DA34A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051398A9-75F9-4F17-8D0D-0E20A4822459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" tabRatio="693" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Run 20200811" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Test Run 20200925" sheetId="6" r:id="rId4"/>
     <sheet name="Test Run 20200930" sheetId="7" r:id="rId5"/>
     <sheet name="Test Run 20201005" sheetId="8" r:id="rId6"/>
-    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId7"/>
-    <sheet name="Questions" sheetId="2" r:id="rId8"/>
+    <sheet name="Test Run 20201013" sheetId="9" r:id="rId7"/>
+    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId8"/>
+    <sheet name="Questions" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="309">
   <si>
     <t>Scenario</t>
   </si>
@@ -1977,7 +1978,432 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2002,17 +2428,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2027,29 +2442,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2221,63 +2613,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2293,68 +2628,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2389,36 +2662,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2440,98 +2683,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2566,34 +2717,36 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2622,36 +2775,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2677,66 +2800,6 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2751,162 +2814,183 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="125"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="123">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="122">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="121"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="93">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="117"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="115">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="114">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A1:H60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="109"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="107">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="81">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="106">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="105"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="97">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="68">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="96">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="89">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="88">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="80">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="79">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K364" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H5" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:H5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="39">
+      <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="38">
+      <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K364" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A1:K363" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K153">
     <sortCondition ref="B7:B153"/>
     <sortCondition ref="I7:I153"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="3" totalsRowDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="2" totalsRowDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="52" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="28">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="50">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3586,24 +3670,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4102,13 +4186,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4125,7 +4209,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A51" sqref="A51:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,13 +5536,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5584,13 +5668,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5802,13 +5886,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6021,13 +6105,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6040,10 +6124,181 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB92CF9-DDCF-499B-9B19-D410AC01CA9D}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
+        <v>51</v>
+      </c>
+      <c r="C2" s="63" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename duplicate Given</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8">
+        <v>52</v>
+      </c>
+      <c r="C3" s="63" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename duplicate Given step 2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="87">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>53</v>
+      </c>
+      <c r="C4" s="63" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename duplicate Then</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8">
+        <v>54</v>
+      </c>
+      <c r="C5" s="63" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename duplicate Then step 2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="87">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/56" xr:uid="{0B25DBB5-4165-4658-9F41-0AF0E2C3C015}"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/56" xr:uid="{EF6D8FED-5349-45EF-B379-05A327AE4E4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B133" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K364" sqref="K364"/>
     </sheetView>
   </sheetViews>
@@ -9124,7 +9379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -9150,7 +9405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="30.75" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A109" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -9180,7 +9435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A110" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -9208,7 +9463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A111" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -9236,7 +9491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -9264,7 +9519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A113" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -9295,7 +9550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A114" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -9325,7 +9580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A115" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -9355,7 +9610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A116" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -9385,7 +9640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A117" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -9415,7 +9670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -9443,7 +9698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A119" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -9473,7 +9728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A120" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -9503,7 +9758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A121" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -9533,7 +9788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -9561,7 +9816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -9592,7 +9847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -9622,7 +9877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A125" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -9652,7 +9907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -9680,7 +9935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -9711,7 +9966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -9741,7 +9996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A129" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -9771,7 +10026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A130" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -9801,7 +10056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A131" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -9831,7 +10086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -9857,7 +10112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A133" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -9887,7 +10142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A134" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -9915,7 +10170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -9943,7 +10198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A136" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>45</v>
@@ -9971,7 +10226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A137" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>45</v>
@@ -10001,7 +10256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="30.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="30.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>45</v>
@@ -10031,7 +10286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>45</v>
@@ -10061,7 +10316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A140" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>45</v>
@@ -10091,7 +10346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A141" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>45</v>
@@ -10121,7 +10376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -10147,7 +10402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -10177,7 +10432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -10205,7 +10460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -10233,7 +10488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -10261,7 +10516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>52</v>
@@ -10289,7 +10544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>52</v>
@@ -10319,7 +10574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>52</v>
@@ -10349,7 +10604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>52</v>
@@ -10379,7 +10634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>52</v>
@@ -10409,7 +10664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>52</v>
@@ -10439,7 +10694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -16545,12 +16800,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16579,24 +16834,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G356 G358:G1048576">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G357">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16608,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB16863-C9D6-47DE-82AF-06BDE2CF5BC1}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -16756,10 +17011,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Solved"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45747E-118D-4320-BBFF-3AA8BE12FA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966280A-C253-44F1-8A20-3A736214D4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" tabRatio="693" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" tabRatio="693" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200811" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="321">
   <si>
     <t>Scenario</t>
   </si>
@@ -1379,6 +1379,18 @@
   </si>
   <si>
     <t>Setting atddTestScriptor.maxLengthOfDescription equals 11</t>
+  </si>
+  <si>
+    <t>Error: ArrayIndex not passed</t>
+  </si>
+  <si>
+    <t>Revert Rename of Then</t>
+  </si>
+  <si>
+    <t>Revert Rename of Then step 2</t>
+  </si>
+  <si>
+    <t>Duplicate Then control disappears form ATDD.TestScriptor page</t>
   </si>
 </sst>
 </file>
@@ -2006,38 +2018,6 @@
   </cellStyles>
   <dxfs count="153">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2056,345 +2036,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2459,35 +2100,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2516,389 +2128,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2960,6 +2189,789 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2974,227 +2986,223 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="142">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="150"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="148">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="141">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="147">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="146"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K392" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K392" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A1:K391" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K181">
-    <sortCondition ref="B7:B181"/>
-    <sortCondition ref="I7:I181"/>
-  </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="68" totalsRowDxfId="50">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="66" totalsRowDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="65" totalsRowDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="46">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="63" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="62" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="61" totalsRowDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="60" totalsRowDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="59" totalsRowDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="58" totalsRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="57">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="142"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="139">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <autoFilter ref="A1:H60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="122"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="132">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="119">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="131">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="118"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="130"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="109"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="122">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="106">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="121">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="105"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="120"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="98"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="114">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="95">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="113">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="105">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="83">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="104">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="82"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H5" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H5" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="A1:H5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="95">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="70">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="85">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="57">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="84">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H24" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+  <autoFilter ref="A1:H24" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="76">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="75">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3874,24 +3882,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3919,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K392"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F211" sqref="F210:F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4092,7 +4100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -4118,7 +4126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.6" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="409.6" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -4148,7 +4156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -4178,7 +4186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -4206,7 +4214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -4234,7 +4242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -4262,7 +4270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -4291,7 +4299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -4323,7 +4331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -4356,7 +4364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -4387,7 +4395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -4418,7 +4426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -4449,7 +4457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -4621,7 +4629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -4791,7 +4799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -4961,7 +4969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -4989,7 +4997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -5021,7 +5029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -5051,7 +5059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -5081,7 +5089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -5111,7 +5119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -5143,7 +5151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -5175,7 +5183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -5201,7 +5209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -5231,7 +5239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -5261,7 +5269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -5289,7 +5297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -5319,7 +5327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -5347,7 +5355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -5373,7 +5381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -5403,7 +5411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -5433,7 +5441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -5461,7 +5469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -5489,7 +5497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -5519,7 +5527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5545,7 +5553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5575,7 +5583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5603,7 +5611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5633,7 +5641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5661,7 +5669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5689,7 +5697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -5717,7 +5725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5743,7 +5751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5773,7 +5781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5801,7 +5809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5831,7 +5839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5859,7 +5867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5887,7 +5895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -5915,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -10299,7 +10307,7 @@
         <v>25</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="G221" s="31"/>
       <c r="H221" s="41"/>
@@ -10418,7 +10426,7 @@
         <v>26</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="G225" s="31"/>
       <c r="H225" s="41"/>
@@ -15204,13 +15212,13 @@
       <c r="C392" s="3"/>
       <c r="E392" s="10">
         <f>Table14[[#Totals],[Scenario '#]]</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F392" s="6"/>
       <c r="H392" s="2"/>
       <c r="I392" s="12">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -15225,12 +15233,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15259,24 +15267,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G386:G1048576 G1:G384">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G385">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15436,10 +15444,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Solved"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15641,7 +15649,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Revert Rename of When</v>
+        <v>Revert Rename of Then</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -15663,7 +15671,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Revert Rename of When step 2</v>
+        <v>Revert Rename of Then step 2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -15932,13 +15940,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16859,7 +16867,7 @@
       </c>
       <c r="D42" s="1" t="str">
         <f>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Revert Rename of When</v>
+        <v>Revert Rename of Then</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>4</v>
@@ -16879,7 +16887,7 @@
       </c>
       <c r="D43" s="1" t="str">
         <f>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Revert Rename of When step 2</v>
+        <v>Revert Rename of Then step 2</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>4</v>
@@ -17282,13 +17290,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17414,13 +17422,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17632,13 +17640,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17851,13 +17859,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18018,13 +18026,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18210,13 +18218,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18246,10 +18254,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4876A-77FC-48BD-B924-5626AF3104A7}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18290,93 +18298,567 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>30</v>
       </c>
       <c r="B2" s="8">
-        <v>51</v>
-      </c>
-      <c r="C2" s="63" t="str">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
         <v>Updating Given</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Rename duplicate Given</v>
+        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>30</v>
       </c>
       <c r="B3" s="8">
-        <v>52</v>
-      </c>
-      <c r="C3" s="63" t="str">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
         <v>Updating Given</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given" step 2b</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of Given</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of Given step 2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename prefix</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename prefix step 2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8">
+        <v>51</v>
+      </c>
+      <c r="C9" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename duplicate Given</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8">
+        <v>52</v>
+      </c>
+      <c r="C10" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename duplicate Given step 2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="87">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8">
-        <v>53</v>
-      </c>
-      <c r="C4" s="63" t="str">
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When"</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8">
+        <v>21</v>
+      </c>
+      <c r="C12" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8">
+        <v>47</v>
+      </c>
+      <c r="C13" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2b</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>22</v>
+      </c>
+      <c r="C14" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of When</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8">
+        <v>23</v>
+      </c>
+      <c r="C15" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of When step 2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8">
+        <v>24</v>
+      </c>
+      <c r="C16" s="63" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
         <v>Updating Then</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G16" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8">
+        <v>25</v>
+      </c>
+      <c r="C17" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>48</v>
+      </c>
+      <c r="C18" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2b</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8">
+        <v>26</v>
+      </c>
+      <c r="C19" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of Then</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8">
+        <v>27</v>
+      </c>
+      <c r="C20" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of Then step 2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>30</v>
+      </c>
+      <c r="B21" s="8">
+        <v>49</v>
+      </c>
+      <c r="C21" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename prefix</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="8">
+        <v>50</v>
+      </c>
+      <c r="C22" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename prefix step 2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>53</v>
+      </c>
+      <c r="C23" s="63" t="str">
+        <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D23" s="1" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename duplicate Then</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="87">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8">
         <v>54</v>
       </c>
-      <c r="C5" s="63" t="str">
+      <c r="C24" s="63" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</f>
         <v>Updating Then</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D24" s="1" t="str">
         <f>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename duplicate Then step 2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="87">
-        <v>56</v>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="87">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -18404,13 +18886,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/56" xr:uid="{476F105A-6E1B-4866-8C6F-7503E8D7703D}"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/56" xr:uid="{BF68D5FA-30FA-43E5-9B0F-B8E4156C1993}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{BA515DD1-B910-48CE-BE88-B239D6F2C19F}"/>
+    <hyperlink ref="G3:G8" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{3057002B-97A6-44CD-B235-4D6F9BF0DADF}"/>
+    <hyperlink ref="G11" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{7B2D9F48-9D19-4028-87A9-1BD5B01190A8}"/>
+    <hyperlink ref="G12:G18" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{04D8761A-80BF-4398-9697-6BAE8BF909A5}"/>
+    <hyperlink ref="G23" r:id="rId5" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/68" xr:uid="{C170D873-B27E-4EB1-BE80-87F02F5F6BBE}"/>
+    <hyperlink ref="G24" r:id="rId6" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/68" xr:uid="{BADBABEB-557D-40A7-B6CE-3B3BD92F773D}"/>
+    <hyperlink ref="G19:G22" r:id="rId7" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{27162D1D-AADF-438F-A305-01EDFE5B4796}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966280A-C253-44F1-8A20-3A736214D4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DD528-E4B5-4BB0-B1F1-77F7DADCF42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" tabRatio="693" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" tabRatio="693" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200811" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="20201013" sheetId="9" r:id="rId7"/>
     <sheet name="20201014" sheetId="10" r:id="rId8"/>
     <sheet name="20201027" sheetId="11" r:id="rId9"/>
-    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId10"/>
-    <sheet name="Questions" sheetId="2" r:id="rId11"/>
+    <sheet name="20201028" sheetId="12" r:id="rId10"/>
+    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId11"/>
+    <sheet name="Questions" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="335">
   <si>
     <t>Scenario</t>
   </si>
@@ -1295,9 +1296,6 @@
     <t>Adding Scenario (to existing test codeunit)</t>
   </si>
   <si>
-    <t>Removing Scenario with initialize</t>
-  </si>
-  <si>
     <t>Test codeunit with one test function with valid Given-When-Then structure and call to Initialize</t>
   </si>
   <si>
@@ -1390,7 +1388,121 @@
     <t>Revert Rename of Then step 2</t>
   </si>
   <si>
-    <t>Duplicate Then control disappears form ATDD.TestScriptor page</t>
+    <t>Intialize helper function is not removed</t>
+  </si>
+  <si>
+    <t>See codeunit 50104 TestObjectWithUIHandlerFLX.al in AL project test-project</t>
+  </si>
+  <si>
+    <t>Removing Scenario with UI Handler</t>
+  </si>
+  <si>
+    <t>Test codeunit with one test function with valid Given-When-Then structure and UI Handler</t>
+  </si>
+  <si>
+    <t>User confirms removal of UI handler</t>
+  </si>
+  <si>
+    <t>UI handler function is removed</t>
+  </si>
+  <si>
+    <t>Removing Scenario with UI Handler 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confirm removal of UI handler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI handler function is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>removed</t>
+    </r>
+  </si>
+  <si>
+    <t>Removal Mode "No confirmation, but removal"</t>
+  </si>
+  <si>
+    <t>Setting atddTestScriptor.removalMode equals "No confirmation, but removal"</t>
+  </si>
+  <si>
+    <t>Removal Mode "No confirmation &amp; no removal"</t>
+  </si>
+  <si>
+    <t>Setting atddTestScriptor.removalMode equals "No confirmation &amp; no removal"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Given/When/Then helper functions related to scenario are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>removed from test codeunit</t>
+    </r>
+  </si>
+  <si>
+    <t>Removing Scenario with Initialize</t>
+  </si>
+  <si>
+    <t>Duplicate Then control disappears from ATDD.TestScriptor page</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2128,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="166">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2096,6 +2208,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2489,43 +2631,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2690,6 +2795,76 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2986,223 +3161,244 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="150"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="148">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="163"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="161">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="147">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="160">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="146"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="145"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="159"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K392" totalsRowCount="1" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="A1:K391" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="66">
+      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="65">
+      <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="67"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K433" totalsRowCount="1" headerRowDxfId="83" dataDxfId="82">
+  <autoFilter ref="A1:K432" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="68" totalsRowDxfId="50">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="64" totalsRowDxfId="53">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="67" totalsRowDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="66" totalsRowDxfId="48"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="65" totalsRowDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="46">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="62" totalsRowDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="61" totalsRowDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="49">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="63" totalsRowDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="62" totalsRowDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="61" totalsRowDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="60" totalsRowDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="59" totalsRowDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="58" totalsRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="59" totalsRowDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="58" totalsRowDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="57" totalsRowDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="56" totalsRowDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="55" totalsRowDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="54" totalsRowDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="57">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="81">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="142"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="140">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="153">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="139">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="152">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="138"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H60" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:H60" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="134"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="133"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="132">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="147"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="145">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="131">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="144">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="130"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="143"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="141"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="137"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="135">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="121">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="134">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="129"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="127">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="113">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="126">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="107"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="105">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="118">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="104">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="117">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H5" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H5" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
   <autoFilter ref="A1:H5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="97"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="110"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="108">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="94">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="107">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="98">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="84">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="97">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H24" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H24" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="A1:H24" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="91"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="89">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="75">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="88">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3882,24 +4078,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3924,11 +4120,432 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147E497E-232A-46AA-9846-A7D1E9C8C98A}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8">
+        <v>56</v>
+      </c>
+      <c r="C2" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8">
+        <v>57</v>
+      </c>
+      <c r="C3" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario step 2a</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8">
+        <v>58</v>
+      </c>
+      <c r="C4" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario step 3a</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8">
+        <v>59</v>
+      </c>
+      <c r="C5" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario step 2b</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8">
+        <v>60</v>
+      </c>
+      <c r="C6" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario step 3b</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8">
+        <v>68</v>
+      </c>
+      <c r="C7" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario with Initialize</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8">
+        <v>69</v>
+      </c>
+      <c r="C8" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario with UI Handler</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8">
+        <v>70</v>
+      </c>
+      <c r="C9" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario with UI Handler 2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8">
+        <v>71</v>
+      </c>
+      <c r="C10" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removal Mode "No confirmation, but removal"</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8">
+        <v>72</v>
+      </c>
+      <c r="C11" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removal Mode "No confirmation &amp; no removal"</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8">
+        <v>16</v>
+      </c>
+      <c r="C12" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8">
+        <v>17</v>
+      </c>
+      <c r="C13" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Given</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When"</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8">
+        <v>21</v>
+      </c>
+      <c r="C15" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating When</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8">
+        <v>24</v>
+      </c>
+      <c r="C16" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8">
+        <v>25</v>
+      </c>
+      <c r="C17" s="63" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="87">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{DA07DA0C-FBDB-4C62-B4E8-45D331DDBB9D}"/>
+    <hyperlink ref="G15:G17" r:id="rId2" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{DAAA10DB-777C-475C-8437-74C66DDB5645}"/>
+    <hyperlink ref="G13" r:id="rId3" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{EA2539A2-B43C-46A3-8D4F-3F532C9F4B83}"/>
+    <hyperlink ref="G12" r:id="rId4" display="https://github.com/fluxxus-nl/ATDD.TestScriptor.VSCodeExtension/issues/67" xr:uid="{333247E3-88E4-4B24-B856-768568BF28BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F211" sqref="F210:F211"/>
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4507,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K20" s="38">
         <v>27</v>
@@ -4643,7 +5260,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="42"/>
@@ -4679,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K26" s="38">
         <v>27</v>
@@ -4731,7 +5348,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I28" s="12">
         <v>8</v>
@@ -4759,7 +5376,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I29" s="12">
         <v>8</v>
@@ -4789,7 +5406,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I30" s="12">
         <v>8</v>
@@ -4813,7 +5430,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="43"/>
@@ -4849,7 +5466,7 @@
         <v>64</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K32" s="38">
         <v>27</v>
@@ -4901,7 +5518,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I34" s="12">
         <v>64</v>
@@ -4929,7 +5546,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I35" s="12">
         <v>64</v>
@@ -4959,7 +5576,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I36" s="12">
         <v>64</v>
@@ -4985,7 +5602,7 @@
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="43"/>
@@ -5023,7 +5640,7 @@
         <v>66</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K38" s="38">
         <v>27</v>
@@ -5079,7 +5696,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I40" s="12">
         <v>66</v>
@@ -5109,7 +5726,7 @@
         <v>29</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I41" s="12">
         <v>66</v>
@@ -5139,7 +5756,7 @@
         <v>30</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I42" s="12">
         <v>66</v>
@@ -5171,13 +5788,13 @@
         <v>31</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I43" s="12">
         <v>66</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K43" s="38">
         <v>27</v>
@@ -5233,7 +5850,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K45" s="38">
         <v>27</v>
@@ -5405,7 +6022,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K51" s="38">
         <v>27</v>
@@ -5577,7 +6194,7 @@
         <v>14</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K57" s="38">
         <v>27</v>
@@ -5775,7 +6392,7 @@
         <v>61</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K64" s="38">
         <v>27</v>
@@ -5997,7 +6614,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K72" s="38">
         <v>27</v>
@@ -6354,7 +6971,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K84" s="38">
         <v>27</v>
@@ -6490,7 +7107,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="10"/>
       <c r="F89" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="42"/>
@@ -6526,7 +7143,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K90" s="38">
         <v>27</v>
@@ -6578,7 +7195,7 @@
         <v>29</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I92" s="12">
         <v>9</v>
@@ -6606,7 +7223,7 @@
         <v>30</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I93" s="12">
         <v>9</v>
@@ -6636,7 +7253,7 @@
         <v>31</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I94" s="12">
         <v>9</v>
@@ -6660,7 +7277,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="10"/>
       <c r="F95" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="43"/>
@@ -6696,7 +7313,7 @@
         <v>65</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K96" s="38">
         <v>27</v>
@@ -6748,7 +7365,7 @@
         <v>29</v>
       </c>
       <c r="H98" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I98" s="12">
         <v>65</v>
@@ -6776,7 +7393,7 @@
         <v>30</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I99" s="12">
         <v>65</v>
@@ -6806,7 +7423,7 @@
         <v>31</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I100" s="12">
         <v>65</v>
@@ -6832,7 +7449,7 @@
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="43"/>
@@ -6870,7 +7487,7 @@
         <v>67</v>
       </c>
       <c r="J102" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K102" s="38">
         <v>27</v>
@@ -6926,7 +7543,7 @@
         <v>29</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I104" s="12">
         <v>67</v>
@@ -6956,7 +7573,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I105" s="12">
         <v>67</v>
@@ -6986,7 +7603,7 @@
         <v>30</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I106" s="12">
         <v>67</v>
@@ -7018,13 +7635,13 @@
         <v>31</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I107" s="12">
         <v>67</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K107" s="38">
         <v>27</v>
@@ -7080,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K109" s="38">
         <v>27</v>
@@ -7250,7 +7867,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K115" s="38">
         <v>27</v>
@@ -7422,7 +8039,7 @@
         <v>15</v>
       </c>
       <c r="J121" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K121" s="38">
         <v>27</v>
@@ -7862,7 +8479,7 @@
         <v>16</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K137" s="38">
         <v>30</v>
@@ -8569,7 +9186,7 @@
         <v>44</v>
       </c>
       <c r="J161" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K161" s="38">
         <v>30</v>
@@ -8859,7 +9476,7 @@
         <v>51</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K171" s="38">
         <v>30</v>
@@ -9201,7 +9818,7 @@
         <v>20</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K183" s="51">
         <v>30</v>
@@ -9932,7 +10549,7 @@
         <v>24</v>
       </c>
       <c r="J208" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K208" s="51">
         <v>30</v>
@@ -10307,7 +10924,7 @@
         <v>25</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G221" s="31"/>
       <c r="H221" s="41"/>
@@ -10426,7 +11043,7 @@
         <v>26</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G225" s="31"/>
       <c r="H225" s="41"/>
@@ -11255,7 +11872,7 @@
         <v>28</v>
       </c>
       <c r="J254" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K254" s="51">
         <v>28</v>
@@ -11965,7 +12582,7 @@
         <v>38</v>
       </c>
       <c r="J278" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K278" s="51">
         <v>28</v>
@@ -12191,7 +12808,7 @@
         <v>40</v>
       </c>
       <c r="J286" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K286" s="51">
         <v>28</v>
@@ -12445,7 +13062,7 @@
         <v>41</v>
       </c>
       <c r="J295" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K295" s="51">
         <v>28</v>
@@ -12639,7 +13256,7 @@
         <v>33</v>
       </c>
       <c r="J302" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K302" s="51">
         <v>28</v>
@@ -13571,7 +14188,7 @@
         <v>42</v>
       </c>
       <c r="J334" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K334" s="51">
         <v>28</v>
@@ -13797,7 +14414,7 @@
         <v>43</v>
       </c>
       <c r="J342" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K342" s="51">
         <v>28</v>
@@ -14044,7 +14661,7 @@
         <v>55</v>
       </c>
       <c r="J351" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K351" s="72">
         <v>38</v>
@@ -14269,7 +14886,7 @@
         <v>56</v>
       </c>
       <c r="J359" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K359" s="66">
         <v>39</v>
@@ -14802,7 +15419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="378" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A378" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -14833,7 +15450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="379" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A379" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -14863,7 +15480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A380" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -14893,7 +15510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="381" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A381" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -14923,7 +15540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A382" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -14956,7 +15573,7 @@
     <row r="383" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A383" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B383" s="65" t="s">
         <v>240</v>
@@ -14967,21 +15584,21 @@
       <c r="D383" s="67"/>
       <c r="E383" s="68"/>
       <c r="F383" s="69" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H383" s="41"/>
       <c r="I383" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J383" s="71"/>
       <c r="K383" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="384" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A384" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B384" s="65" t="s">
         <v>240</v>
@@ -14996,22 +15613,22 @@
         <v>29</v>
       </c>
       <c r="H384" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I384" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J384" s="71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K384" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="385" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A385" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B385" s="65" t="s">
         <v>240</v>
@@ -15026,20 +15643,20 @@
         <v>29</v>
       </c>
       <c r="H385" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I385" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J385" s="71"/>
       <c r="K385" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="386" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A386" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B386" s="65" t="s">
         <v>240</v>
@@ -15057,17 +15674,17 @@
         <v>241</v>
       </c>
       <c r="I386" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J386" s="71"/>
       <c r="K386" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A387" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B387" s="65" t="s">
         <v>240</v>
@@ -15085,17 +15702,17 @@
         <v>133</v>
       </c>
       <c r="I387" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J387" s="71"/>
       <c r="K387" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A388" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B388" s="65" t="s">
         <v>240</v>
@@ -15113,17 +15730,17 @@
         <v>244</v>
       </c>
       <c r="I388" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J388" s="71"/>
       <c r="K388" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="389" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A389" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B389" s="65" t="s">
         <v>240</v>
@@ -15141,17 +15758,17 @@
         <v>247</v>
       </c>
       <c r="I389" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J389" s="71"/>
       <c r="K389" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A390" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B390" s="65" t="s">
         <v>240</v>
@@ -15166,20 +15783,20 @@
         <v>31</v>
       </c>
       <c r="H390" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I390" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J390" s="71"/>
       <c r="K390" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="391" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A391" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B391" s="65" t="s">
         <v>240</v>
@@ -15194,29 +15811,1157 @@
         <v>31</v>
       </c>
       <c r="H391" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I391" s="70">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J391" s="71"/>
       <c r="K391" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="392" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="61"/>
-      <c r="B392" s="1" t="s">
+    <row r="392" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B392" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C392" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D392" s="67"/>
+      <c r="E392" s="68"/>
+      <c r="F392" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="H392" s="41"/>
+      <c r="I392" s="70">
+        <v>69</v>
+      </c>
+      <c r="J392" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="K392" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A393" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B393" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C393" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D393" s="67"/>
+      <c r="E393" s="68"/>
+      <c r="F393" s="69"/>
+      <c r="G393" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H393" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="I393" s="70">
+        <v>69</v>
+      </c>
+      <c r="J393" s="71"/>
+      <c r="K393" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A394" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B394" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C394" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D394" s="67"/>
+      <c r="E394" s="68"/>
+      <c r="F394" s="69"/>
+      <c r="G394" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H394" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I394" s="70">
+        <v>69</v>
+      </c>
+      <c r="J394" s="71"/>
+      <c r="K394" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A395" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B395" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C395" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D395" s="67"/>
+      <c r="E395" s="68"/>
+      <c r="F395" s="69"/>
+      <c r="G395" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H395" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I395" s="70">
+        <v>69</v>
+      </c>
+      <c r="J395" s="71"/>
+      <c r="K395" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A396" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B396" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C396" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D396" s="67"/>
+      <c r="E396" s="68"/>
+      <c r="F396" s="69"/>
+      <c r="G396" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H396" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I396" s="70">
+        <v>69</v>
+      </c>
+      <c r="J396" s="71"/>
+      <c r="K396" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A397" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B397" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C397" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D397" s="67"/>
+      <c r="E397" s="68"/>
+      <c r="F397" s="69"/>
+      <c r="G397" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H397" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I397" s="70">
+        <v>69</v>
+      </c>
+      <c r="J397" s="71"/>
+      <c r="K397" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A398" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B398" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C398" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D398" s="67"/>
+      <c r="E398" s="68"/>
+      <c r="F398" s="69"/>
+      <c r="G398" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H398" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="I398" s="70">
+        <v>69</v>
+      </c>
+      <c r="J398" s="71"/>
+      <c r="K398" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A399" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B399" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C399" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D399" s="67"/>
+      <c r="E399" s="68"/>
+      <c r="F399" s="69"/>
+      <c r="G399" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H399" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I399" s="70">
+        <v>69</v>
+      </c>
+      <c r="J399" s="71"/>
+      <c r="K399" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A400" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B400" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C400" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D400" s="67"/>
+      <c r="E400" s="68"/>
+      <c r="F400" s="69"/>
+      <c r="G400" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H400" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="I400" s="70">
+        <v>69</v>
+      </c>
+      <c r="J400" s="71"/>
+      <c r="K400" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A401" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B401" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C401" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D401" s="67"/>
+      <c r="E401" s="68"/>
+      <c r="F401" s="69"/>
+      <c r="G401" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H401" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I401" s="70">
+        <v>69</v>
+      </c>
+      <c r="J401" s="71"/>
+      <c r="K401" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A402" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>69</v>
+      </c>
+      <c r="B402" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C402" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D402" s="67"/>
+      <c r="E402" s="68"/>
+      <c r="F402" s="69"/>
+      <c r="G402" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H402" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I402" s="70">
+        <v>69</v>
+      </c>
+      <c r="J402" s="71"/>
+      <c r="K402" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B403" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C403" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D403" s="67"/>
+      <c r="E403" s="68"/>
+      <c r="F403" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="H403" s="41"/>
+      <c r="I403" s="70">
+        <v>70</v>
+      </c>
+      <c r="J403" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="K403" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A404" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B404" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C404" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D404" s="67"/>
+      <c r="E404" s="68"/>
+      <c r="F404" s="69"/>
+      <c r="G404" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H404" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="I404" s="70">
+        <v>70</v>
+      </c>
+      <c r="J404" s="71"/>
+      <c r="K404" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A405" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B405" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C405" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D405" s="67"/>
+      <c r="E405" s="68"/>
+      <c r="F405" s="69"/>
+      <c r="G405" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H405" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I405" s="70">
+        <v>70</v>
+      </c>
+      <c r="J405" s="71"/>
+      <c r="K405" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A406" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B406" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C406" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D406" s="67"/>
+      <c r="E406" s="68"/>
+      <c r="F406" s="69"/>
+      <c r="G406" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H406" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I406" s="70">
+        <v>70</v>
+      </c>
+      <c r="J406" s="71"/>
+      <c r="K406" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A407" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B407" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C407" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D407" s="67"/>
+      <c r="E407" s="68"/>
+      <c r="F407" s="69"/>
+      <c r="G407" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H407" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I407" s="70">
+        <v>70</v>
+      </c>
+      <c r="J407" s="71"/>
+      <c r="K407" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A408" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B408" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C408" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D408" s="67"/>
+      <c r="E408" s="68"/>
+      <c r="F408" s="69"/>
+      <c r="G408" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H408" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I408" s="70">
+        <v>70</v>
+      </c>
+      <c r="J408" s="71"/>
+      <c r="K408" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A409" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B409" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C409" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D409" s="67"/>
+      <c r="E409" s="68"/>
+      <c r="F409" s="69"/>
+      <c r="G409" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H409" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="I409" s="70">
+        <v>70</v>
+      </c>
+      <c r="J409" s="71"/>
+      <c r="K409" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A410" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B410" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C410" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D410" s="67"/>
+      <c r="E410" s="68"/>
+      <c r="F410" s="69"/>
+      <c r="G410" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H410" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I410" s="70">
+        <v>70</v>
+      </c>
+      <c r="J410" s="71"/>
+      <c r="K410" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A411" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B411" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C411" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D411" s="67"/>
+      <c r="E411" s="68"/>
+      <c r="F411" s="69"/>
+      <c r="G411" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H411" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="I411" s="70">
+        <v>70</v>
+      </c>
+      <c r="J411" s="71"/>
+      <c r="K411" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A412" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B412" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C412" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D412" s="67"/>
+      <c r="E412" s="68"/>
+      <c r="F412" s="69"/>
+      <c r="G412" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H412" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I412" s="70">
+        <v>70</v>
+      </c>
+      <c r="J412" s="71"/>
+      <c r="K412" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A413" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>70</v>
+      </c>
+      <c r="B413" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C413" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D413" s="67"/>
+      <c r="E413" s="68"/>
+      <c r="F413" s="69"/>
+      <c r="G413" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H413" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="I413" s="70">
+        <v>70</v>
+      </c>
+      <c r="J413" s="71"/>
+      <c r="K413" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B414" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C414" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D414" s="67"/>
+      <c r="E414" s="68"/>
+      <c r="F414" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="H414" s="41"/>
+      <c r="I414" s="70">
+        <v>71</v>
+      </c>
+      <c r="J414" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="K414" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A415" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B415" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C415" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D415" s="67"/>
+      <c r="E415" s="68"/>
+      <c r="F415" s="69"/>
+      <c r="G415" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H415" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I415" s="70">
+        <v>71</v>
+      </c>
+      <c r="J415" s="71"/>
+      <c r="K415" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A416" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B416" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C416" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D416" s="67"/>
+      <c r="E416" s="68"/>
+      <c r="F416" s="69"/>
+      <c r="G416" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H416" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="I416" s="70">
+        <v>71</v>
+      </c>
+      <c r="J416" s="71"/>
+      <c r="K416" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A417" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B417" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C417" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D417" s="67"/>
+      <c r="E417" s="68"/>
+      <c r="F417" s="69"/>
+      <c r="G417" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H417" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I417" s="70">
+        <v>71</v>
+      </c>
+      <c r="J417" s="71"/>
+      <c r="K417" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A418" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B418" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C418" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D418" s="67"/>
+      <c r="E418" s="68"/>
+      <c r="F418" s="69"/>
+      <c r="G418" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H418" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I418" s="70">
+        <v>71</v>
+      </c>
+      <c r="J418" s="71"/>
+      <c r="K418" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A419" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B419" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C419" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D419" s="67"/>
+      <c r="E419" s="68"/>
+      <c r="F419" s="69"/>
+      <c r="G419" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H419" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I419" s="70">
+        <v>71</v>
+      </c>
+      <c r="J419" s="71"/>
+      <c r="K419" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A420" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B420" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C420" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D420" s="67"/>
+      <c r="E420" s="68"/>
+      <c r="F420" s="69"/>
+      <c r="G420" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H420" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I420" s="70">
+        <v>71</v>
+      </c>
+      <c r="J420" s="71"/>
+      <c r="K420" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A421" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B421" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C421" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D421" s="67"/>
+      <c r="E421" s="68"/>
+      <c r="F421" s="69"/>
+      <c r="G421" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H421" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="I421" s="70">
+        <v>71</v>
+      </c>
+      <c r="J421" s="71"/>
+      <c r="K421" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A422" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>71</v>
+      </c>
+      <c r="B422" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C422" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D422" s="67"/>
+      <c r="E422" s="68"/>
+      <c r="F422" s="69"/>
+      <c r="G422" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H422" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I422" s="70">
+        <v>71</v>
+      </c>
+      <c r="J422" s="71"/>
+      <c r="K422" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B423" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C423" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D423" s="67"/>
+      <c r="E423" s="68"/>
+      <c r="F423" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="H423" s="41"/>
+      <c r="I423" s="70">
+        <v>72</v>
+      </c>
+      <c r="J423" s="71"/>
+      <c r="K423" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B424" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C424" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D424" s="67"/>
+      <c r="E424" s="68"/>
+      <c r="F424" s="69"/>
+      <c r="G424" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H424" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I424" s="70">
+        <v>72</v>
+      </c>
+      <c r="J424" s="71"/>
+      <c r="K424" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B425" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C425" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D425" s="67"/>
+      <c r="E425" s="68"/>
+      <c r="F425" s="69"/>
+      <c r="G425" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H425" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I425" s="70">
+        <v>72</v>
+      </c>
+      <c r="J425" s="71"/>
+      <c r="K425" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B426" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C426" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D426" s="67"/>
+      <c r="E426" s="68"/>
+      <c r="F426" s="69"/>
+      <c r="G426" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H426" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="I426" s="70">
+        <v>72</v>
+      </c>
+      <c r="J426" s="71"/>
+      <c r="K426" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B427" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C427" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D427" s="67"/>
+      <c r="E427" s="68"/>
+      <c r="F427" s="69"/>
+      <c r="G427" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H427" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I427" s="70">
+        <v>72</v>
+      </c>
+      <c r="J427" s="71"/>
+      <c r="K427" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B428" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C428" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D428" s="67"/>
+      <c r="E428" s="68"/>
+      <c r="F428" s="69"/>
+      <c r="G428" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H428" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I428" s="70">
+        <v>72</v>
+      </c>
+      <c r="J428" s="71"/>
+      <c r="K428" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B429" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C429" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D429" s="67"/>
+      <c r="E429" s="68"/>
+      <c r="F429" s="69"/>
+      <c r="G429" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H429" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="I429" s="70">
+        <v>72</v>
+      </c>
+      <c r="J429" s="71"/>
+      <c r="K429" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B430" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C430" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D430" s="67"/>
+      <c r="E430" s="68"/>
+      <c r="F430" s="69"/>
+      <c r="G430" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H430" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I430" s="70">
+        <v>72</v>
+      </c>
+      <c r="J430" s="71"/>
+      <c r="K430" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B431" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C431" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D431" s="67"/>
+      <c r="E431" s="68"/>
+      <c r="F431" s="69"/>
+      <c r="G431" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H431" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="I431" s="70">
+        <v>72</v>
+      </c>
+      <c r="J431" s="71"/>
+      <c r="K431" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>0</v>
+      </c>
+      <c r="C432" s="66"/>
+      <c r="D432" s="67"/>
+      <c r="E432" s="68"/>
+      <c r="F432" s="69"/>
+      <c r="H432" s="41"/>
+      <c r="I432" s="70"/>
+      <c r="J432" s="71"/>
+      <c r="K432" s="66"/>
+    </row>
+    <row r="433" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="61"/>
+      <c r="B433" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C392" s="3"/>
-      <c r="E392" s="10">
+      <c r="C433" s="3"/>
+      <c r="E433" s="10">
         <f>Table14[[#Totals],[Scenario '#]]</f>
         <v>63</v>
       </c>
-      <c r="F392" s="6"/>
-      <c r="H392" s="2"/>
-      <c r="I392" s="12">
+      <c r="F433" s="6"/>
+      <c r="H433" s="2"/>
+      <c r="I433" s="12">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
         <v>63</v>
       </c>
@@ -15266,7 +17011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G386:G1048576 G1:G384">
+  <conditionalFormatting sqref="G1:G384 G386:G1048576">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -15296,7 +17041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB16863-C9D6-47DE-82AF-06BDE2CF5BC1}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -15940,13 +17685,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17290,13 +19035,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17422,13 +19167,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17640,13 +19385,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17683,7 +19428,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17859,13 +19604,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18026,13 +19771,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18053,7 +19798,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18185,7 +19930,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G6" s="87">
         <v>52</v>
@@ -18210,7 +19955,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G7" s="87">
         <v>52</v>
@@ -18218,13 +19963,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18257,7 +20002,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18316,7 +20061,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" s="87">
         <v>67</v>
@@ -18341,7 +20086,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" s="87">
         <v>67</v>
@@ -18366,7 +20111,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G4" s="87">
         <v>67</v>
@@ -18391,7 +20136,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G5" s="87">
         <v>67</v>
@@ -18416,7 +20161,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="87">
         <v>67</v>
@@ -18441,7 +20186,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G7" s="87">
         <v>67</v>
@@ -18466,7 +20211,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G8" s="87">
         <v>67</v>
@@ -18530,7 +20275,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G11" s="87">
         <v>67</v>
@@ -18555,7 +20300,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G12" s="87">
         <v>67</v>
@@ -18580,7 +20325,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G13" s="87">
         <v>67</v>
@@ -18605,7 +20350,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G14" s="87">
         <v>67</v>
@@ -18630,7 +20375,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G15" s="87">
         <v>67</v>
@@ -18655,7 +20400,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="87">
         <v>67</v>
@@ -18680,7 +20425,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G17" s="87">
         <v>67</v>
@@ -18705,7 +20450,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G18" s="87">
         <v>67</v>
@@ -18730,7 +20475,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G19" s="87">
         <v>67</v>
@@ -18755,7 +20500,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G20" s="87">
         <v>67</v>
@@ -18780,7 +20525,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G21" s="87">
         <v>67</v>
@@ -18805,7 +20550,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G22" s="87">
         <v>67</v>
@@ -18830,7 +20575,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G23" s="87">
         <v>68</v>
@@ -18855,7 +20600,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G24" s="87">
         <v>68</v>
@@ -18875,13 +20620,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31105CD2-F970-458F-B7DF-158F5D105EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F348FCDE-8A8A-4B11-BA2B-244B989CE2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="24510" windowHeight="15990" tabRatio="693" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="24510" windowHeight="15990" tabRatio="693" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200811" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="371">
   <si>
     <t>Scenario</t>
   </si>
@@ -1414,9 +1414,6 @@
     <t>Duplicate Then control disappears from ATDD.TestScriptor page</t>
   </si>
   <si>
-    <t>ValidTestFunction ([FEATURE] First test object) in codeunit 50100 TestObjectFLX</t>
-  </si>
-  <si>
     <t>Nothing is renamed</t>
   </si>
   <si>
@@ -1594,6 +1591,88 @@
       </rPr>
       <t>reverted</t>
     </r>
+  </si>
+  <si>
+    <t>FirstTestFunctionWithValidGivenWhenThenstructure ([FEATURE] First test object) in codeunit 50100 TestObjectFLX</t>
+  </si>
+  <si>
+    <t>SecondTestFunctionWithValidGivenWhenThenStructure  ([FEATURE] Duplicate test object) in codeunit 50101 DuplicateTestObjectFLX</t>
+  </si>
+  <si>
+    <t>ThirdTestFunctionWithValidGivenWhenThenStructure  ([FEATURE] Duplicate test object) in codeunit 50101 DuplicateTestObjectFLX</t>
+  </si>
+  <si>
+    <t>Rename "Second test function with valid Given-When-Then structure" to "Third test function with valid Given-When-Then structure" and confirm</t>
+  </si>
+  <si>
+    <t>Rename to already existing scenario name</t>
+  </si>
+  <si>
+    <t>Message "Scenario already exists. Please update your scenario definition so it is unique" appears</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test function  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SecondTestFunctionWithValidGivenWhenThenStructurewith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> valid Given-When-Then structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other test function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThirdTestFunctionWithValidGivenWhenThenStructure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with valid Given-When-Then structure</t>
+    </r>
+  </si>
+  <si>
+    <t>Rename to unique name</t>
+  </si>
+  <si>
+    <t>Change "Third test function with valid Given-When-Then structure" to "Another test function with valid Given-When-Then structure" to and confirm</t>
+  </si>
+  <si>
+    <t>Comment line "[SCENARIO 0002] Second test function with valid Given-When-Then structure" is updated to "[SCENARIO 0002] Valid Given-When-Then structure"</t>
+  </si>
+  <si>
+    <t>Second test function (scenario) is renamed</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2334,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
+  <dxfs count="208">
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2364,6 +2443,69 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3104,36 +3246,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3179,6 +3291,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3495,88 +3637,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="207" dataDxfId="206">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="196"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="194">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="205"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="204"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="203">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="193">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="202">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="192"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="123">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="112">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="121">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="111">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="120">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G73" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <autoFilter ref="A1:G73" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+  <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="113">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="93">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="111">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="92">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="110">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K468" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105">
-  <autoFilter ref="A1:K467" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K470" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105">
+  <autoFilter ref="A1:K469" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="88" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="97" totalsRowDxfId="10">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="86" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="85" totalsRowDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="95" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="94" totalsRowDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="6">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="83" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="82" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="81" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="80" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="79" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="78" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="92" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="91" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="90" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="89" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="88" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="87" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3598,165 +3740,165 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="188"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="187"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="186">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="197"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="195">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="185">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="194">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="184"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="193"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="180"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="178">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="189"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="177">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="186">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="176"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="175"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="174"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="185"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="184"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="183"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="170"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="168">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="177">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="167">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="176">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="166"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="165"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="175"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="160">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="171"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="169">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="159">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="168">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="156"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="167"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="153"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="151">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="160">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="150">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="159">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="149"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="148"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="158"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="143"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="141">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="150">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="149">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="139"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="146"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="142"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="139">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="131">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="121">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="130">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="120"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4436,24 +4578,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4890,13 +5032,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4916,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AAAF6E-78DD-431A-8469-F0039B6C8AAD}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5906,7 +6048,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G46" s="87">
         <v>79</v>
@@ -5932,7 +6074,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G47" s="87">
         <v>79</v>
@@ -5958,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G48" s="87">
         <v>79</v>
@@ -5984,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G49" s="87">
         <v>79</v>
@@ -6099,7 +6241,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G54" s="87">
         <v>79</v>
@@ -6146,7 +6288,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G56" s="87">
         <v>79</v>
@@ -6298,7 +6440,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G63" s="87">
         <v>80</v>
@@ -6325,7 +6467,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -6346,7 +6488,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -6367,7 +6509,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -6388,7 +6530,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -6409,7 +6551,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -6430,7 +6572,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -6451,7 +6593,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -6472,7 +6614,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -6493,7 +6635,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -6513,7 +6655,54 @@
         <v>11</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B74" s="8">
+        <v>83</v>
+      </c>
+      <c r="C74" s="63" t="str">
+        <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Scenario</v>
+      </c>
+      <c r="D74" s="63" t="str">
+        <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename to already existing scenario name</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B75" s="8">
+        <v>84</v>
+      </c>
+      <c r="C75" s="63" t="str">
+        <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Scenario</v>
+      </c>
+      <c r="D75" s="63" t="str">
+        <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename to unique name</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G75" s="87">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6530,13 +6719,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6549,21 +6738,22 @@
     <hyperlink ref="G48" r:id="rId6" display="79" xr:uid="{C3DC6227-8481-40BC-813C-08D2DCF92080}"/>
     <hyperlink ref="G49" r:id="rId7" display="79" xr:uid="{2BE836F4-1F2F-4143-966B-B1B9339DD4E9}"/>
     <hyperlink ref="G63" r:id="rId8" display="80" xr:uid="{CD0C66B0-2546-4B51-B47C-A3C0BDF29DEF}"/>
+    <hyperlink ref="G75" r:id="rId9" display="81" xr:uid="{D8B964F8-E918-4135-8DBE-60EA9E0D6823}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
-  <dimension ref="A1:K468"/>
+  <dimension ref="A1:K470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H384" sqref="H384"/>
+    <sheetView topLeftCell="B382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H392" sqref="H392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6787,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K8" s="38">
         <v>27</v>
@@ -6907,7 +7097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7094,7 +7284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7144,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K20" s="38">
         <v>27</v>
@@ -7266,7 +7456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7316,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K26" s="38">
         <v>27</v>
@@ -7436,7 +7626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7486,7 +7676,7 @@
         <v>64</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K32" s="38">
         <v>27</v>
@@ -7606,7 +7796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7660,7 +7850,7 @@
         <v>66</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K38" s="38">
         <v>27</v>
@@ -7820,7 +8010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -7870,7 +8060,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K45" s="38">
         <v>27</v>
@@ -7992,7 +8182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8042,7 +8232,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K51" s="38">
         <v>27</v>
@@ -8164,7 +8354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8214,7 +8404,7 @@
         <v>14</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K57" s="38">
         <v>27</v>
@@ -8362,7 +8552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8412,7 +8602,7 @@
         <v>61</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K64" s="38">
         <v>27</v>
@@ -8634,7 +8824,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K72" s="38">
         <v>27</v>
@@ -8754,7 +8944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>5</v>
@@ -8941,7 +9131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>6</v>
@@ -8991,7 +9181,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K84" s="38">
         <v>27</v>
@@ -9113,7 +9303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>9</v>
@@ -9163,7 +9353,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K90" s="38">
         <v>27</v>
@@ -9283,7 +9473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>65</v>
@@ -9333,7 +9523,7 @@
         <v>65</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K96" s="38">
         <v>27</v>
@@ -9453,7 +9643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>67</v>
@@ -9507,7 +9697,7 @@
         <v>67</v>
       </c>
       <c r="J102" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K102" s="38">
         <v>27</v>
@@ -9667,7 +9857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>11</v>
@@ -9717,7 +9907,7 @@
         <v>11</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K109" s="38">
         <v>27</v>
@@ -9837,7 +10027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>13</v>
@@ -9887,7 +10077,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K115" s="38">
         <v>27</v>
@@ -10009,7 +10199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>15</v>
@@ -10059,7 +10249,7 @@
         <v>15</v>
       </c>
       <c r="J121" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K121" s="38">
         <v>27</v>
@@ -10207,7 +10397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>62</v>
@@ -10449,7 +10639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -10475,7 +10665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30.75" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A137" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -10499,13 +10689,13 @@
         <v>16</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K137" s="38">
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -10533,7 +10723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -10561,7 +10751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -10589,7 +10779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A141" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -10620,7 +10810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -10650,7 +10840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -10680,7 +10870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -10710,7 +10900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -10740,7 +10930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -10768,7 +10958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -10798,7 +10988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A148" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -10828,7 +11018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A149" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -10848,7 +11038,7 @@
         <v>31</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I149" s="12">
         <v>46</v>
@@ -10858,7 +11048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -10878,7 +11068,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I150" s="12">
         <v>46</v>
@@ -10888,7 +11078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -11007,7 +11197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -11186,7 +11376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:11" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11212,7 +11402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A162" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11236,13 +11426,13 @@
         <v>44</v>
       </c>
       <c r="J162" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K162" s="38">
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A163" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11270,7 +11460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11288,19 +11478,19 @@
         <v>29</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I164" s="12">
         <v>44</v>
       </c>
       <c r="J164" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K164" s="38">
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A165" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11328,7 +11518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A166" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11356,7 +11546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -11384,7 +11574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A168" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11410,7 +11600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A169" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11434,13 +11624,13 @@
         <v>51</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K169" s="38">
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11458,7 +11648,7 @@
         <v>29</v>
       </c>
       <c r="H170" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I170" s="12">
         <v>51</v>
@@ -11468,7 +11658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A171" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11486,19 +11676,19 @@
         <v>29</v>
       </c>
       <c r="H171" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I171" s="12">
         <v>51</v>
       </c>
       <c r="J171" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K171" s="38">
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A172" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11526,7 +11716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A173" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11554,7 +11744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A174" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11582,7 +11772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -11610,7 +11800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -11684,7 +11874,7 @@
         <v>20</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K178" s="51">
         <v>30</v>
@@ -11746,7 +11936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="16" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" s="16" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>21</v>
@@ -11925,7 +12115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="16" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" s="16" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>47</v>
@@ -11973,7 +12163,7 @@
         <v>29</v>
       </c>
       <c r="H188" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I188" s="18">
         <v>47</v>
@@ -12043,7 +12233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" s="16" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" s="16" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A191" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>22</v>
@@ -12122,7 +12312,7 @@
         <v>30</v>
       </c>
       <c r="H193" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I193" s="18">
         <v>22</v>
@@ -12415,7 +12605,7 @@
         <v>24</v>
       </c>
       <c r="J203" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K203" s="51">
         <v>30</v>
@@ -12477,7 +12667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12656,7 +12846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A212" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -12774,7 +12964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A216" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -12853,7 +13043,7 @@
         <v>30</v>
       </c>
       <c r="H218" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I218" s="18">
         <v>26</v>
@@ -12893,7 +13083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13072,7 +13262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13172,13 +13362,13 @@
         <v>29</v>
       </c>
       <c r="H229" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I229" s="18">
         <v>49</v>
       </c>
       <c r="J229" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K229" s="51">
         <v>30</v>
@@ -13268,7 +13458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13340,7 +13530,7 @@
         <v>29</v>
       </c>
       <c r="H235" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I235" s="18">
         <v>53</v>
@@ -13368,13 +13558,13 @@
         <v>29</v>
       </c>
       <c r="H236" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I236" s="18">
         <v>53</v>
       </c>
       <c r="J236" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K236" s="51">
         <v>30</v>
@@ -13426,7 +13616,7 @@
         <v>31</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I238" s="18">
         <v>53</v>
@@ -13566,7 +13756,7 @@
         <v>28</v>
       </c>
       <c r="J243" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K243" s="51">
         <v>28</v>
@@ -13630,7 +13820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A246" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>29</v>
@@ -14226,7 +14416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A266" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>38</v>
@@ -14276,7 +14466,7 @@
         <v>38</v>
       </c>
       <c r="J267" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K267" s="51">
         <v>28</v>
@@ -14502,7 +14692,7 @@
         <v>40</v>
       </c>
       <c r="J275" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K275" s="51">
         <v>28</v>
@@ -14706,7 +14896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A283" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>41</v>
@@ -14756,7 +14946,7 @@
         <v>41</v>
       </c>
       <c r="J284" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K284" s="51">
         <v>28</v>
@@ -14950,7 +15140,7 @@
         <v>33</v>
       </c>
       <c r="J291" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K291" s="51">
         <v>28</v>
@@ -15882,7 +16072,7 @@
         <v>42</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K323" s="51">
         <v>28</v>
@@ -16086,7 +16276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>43</v>
@@ -16108,7 +16298,7 @@
         <v>43</v>
       </c>
       <c r="J331" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K331" s="51">
         <v>28</v>
@@ -16355,7 +16545,7 @@
         <v>55</v>
       </c>
       <c r="J340" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K340" s="72">
         <v>38</v>
@@ -16437,7 +16627,7 @@
         <v>31</v>
       </c>
       <c r="H343" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I343" s="70">
         <v>55</v>
@@ -16467,7 +16657,7 @@
         <v>31</v>
       </c>
       <c r="H344" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I344" s="70">
         <v>55</v>
@@ -16501,7 +16691,7 @@
         <v>55</v>
       </c>
       <c r="J345" s="71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K345" s="66">
         <v>38</v>
@@ -16523,7 +16713,7 @@
         <v>55</v>
       </c>
       <c r="F346" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H346" s="41"/>
       <c r="I346" s="70">
@@ -16647,7 +16837,7 @@
         <v>31</v>
       </c>
       <c r="H350" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I350" s="70">
         <v>73</v>
@@ -16679,7 +16869,7 @@
         <v>31</v>
       </c>
       <c r="H351" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I351" s="70">
         <v>73</v>
@@ -16709,7 +16899,7 @@
         <v>31</v>
       </c>
       <c r="H352" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I352" s="70">
         <v>73</v>
@@ -16733,7 +16923,7 @@
       <c r="D353" s="67"/>
       <c r="E353" s="68"/>
       <c r="F353" s="69" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H353" s="41"/>
       <c r="I353" s="70">
@@ -16818,13 +17008,13 @@
         <v>29</v>
       </c>
       <c r="H356" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I356" s="70">
         <v>78</v>
       </c>
       <c r="J356" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K356" s="66">
         <v>38</v>
@@ -16848,13 +17038,13 @@
         <v>30</v>
       </c>
       <c r="H357" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I357" s="70">
         <v>78</v>
       </c>
       <c r="J357" s="71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K357" s="66"/>
     </row>
@@ -16876,13 +17066,13 @@
         <v>31</v>
       </c>
       <c r="H358" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I358" s="70">
         <v>78</v>
       </c>
       <c r="J358" s="71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K358" s="66">
         <v>38</v>
@@ -16906,13 +17096,13 @@
         <v>31</v>
       </c>
       <c r="H359" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I359" s="70">
         <v>78</v>
       </c>
       <c r="J359" s="71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K359" s="66">
         <v>38</v>
@@ -16936,13 +17126,13 @@
         <v>31</v>
       </c>
       <c r="H360" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I360" s="70">
         <v>78</v>
       </c>
       <c r="J360" s="71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K360" s="66">
         <v>38</v>
@@ -16964,7 +17154,7 @@
         <v>78</v>
       </c>
       <c r="F361" s="69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H361" s="41"/>
       <c r="I361" s="70">
@@ -17056,7 +17246,7 @@
         <v>29</v>
       </c>
       <c r="H364" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I364" s="70">
         <v>79</v>
@@ -17086,13 +17276,13 @@
         <v>30</v>
       </c>
       <c r="H365" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I365" s="70">
         <v>79</v>
       </c>
       <c r="J365" s="71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K365" s="66">
         <v>38</v>
@@ -17118,13 +17308,13 @@
         <v>31</v>
       </c>
       <c r="H366" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I366" s="70">
         <v>79</v>
       </c>
       <c r="J366" s="71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K366" s="66">
         <v>38</v>
@@ -17150,13 +17340,13 @@
         <v>31</v>
       </c>
       <c r="H367" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I367" s="70">
         <v>79</v>
       </c>
       <c r="J367" s="71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K367" s="66">
         <v>38</v>
@@ -17182,13 +17372,13 @@
         <v>31</v>
       </c>
       <c r="H368" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I368" s="70">
         <v>79</v>
       </c>
       <c r="J368" s="71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K368" s="66">
         <v>38</v>
@@ -17200,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="B369" s="80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C369" s="81"/>
       <c r="D369" s="82"/>
@@ -17223,7 +17413,7 @@
         <v>80</v>
       </c>
       <c r="B370" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C370" s="66" t="s">
         <v>57</v>
@@ -17249,7 +17439,7 @@
         <v>80</v>
       </c>
       <c r="B371" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C371" s="66" t="s">
         <v>57</v>
@@ -17267,7 +17457,7 @@
         <v>80</v>
       </c>
       <c r="J371" s="43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K371" s="66">
         <v>60</v>
@@ -17279,7 +17469,7 @@
         <v>80</v>
       </c>
       <c r="B372" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C372" s="66" t="s">
         <v>57</v>
@@ -17291,7 +17481,7 @@
         <v>30</v>
       </c>
       <c r="H372" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I372" s="70">
         <v>80</v>
@@ -17307,7 +17497,7 @@
         <v>80</v>
       </c>
       <c r="B373" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C373" s="66" t="s">
         <v>57</v>
@@ -17335,7 +17525,7 @@
         <v>81</v>
       </c>
       <c r="B374" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C374" s="66" t="s">
         <v>57</v>
@@ -17363,7 +17553,7 @@
         <v>81</v>
       </c>
       <c r="B375" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C375" s="66" t="s">
         <v>57</v>
@@ -17394,7 +17584,7 @@
         <v>81</v>
       </c>
       <c r="B376" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C376" s="66" t="s">
         <v>57</v>
@@ -17424,7 +17614,7 @@
         <v>81</v>
       </c>
       <c r="B377" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C377" s="66" t="s">
         <v>57</v>
@@ -17438,7 +17628,7 @@
         <v>31</v>
       </c>
       <c r="H377" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I377" s="70">
         <v>81</v>
@@ -17454,7 +17644,7 @@
         <v>81</v>
       </c>
       <c r="B378" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C378" s="66" t="s">
         <v>57</v>
@@ -17468,7 +17658,7 @@
         <v>31</v>
       </c>
       <c r="H378" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I378" s="70">
         <v>81</v>
@@ -17484,7 +17674,7 @@
         <v>82</v>
       </c>
       <c r="B379" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C379" s="66" t="s">
         <v>57</v>
@@ -17512,7 +17702,7 @@
         <v>82</v>
       </c>
       <c r="B380" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C380" s="66" t="s">
         <v>57</v>
@@ -17543,7 +17733,7 @@
         <v>82</v>
       </c>
       <c r="B381" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C381" s="66" t="s">
         <v>57</v>
@@ -17557,7 +17747,7 @@
         <v>30</v>
       </c>
       <c r="H381" s="41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I381" s="70">
         <v>82</v>
@@ -17573,7 +17763,7 @@
         <v>82</v>
       </c>
       <c r="B382" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C382" s="66" t="s">
         <v>57</v>
@@ -17587,7 +17777,7 @@
         <v>31</v>
       </c>
       <c r="H382" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I382" s="70">
         <v>82</v>
@@ -17603,7 +17793,7 @@
         <v>82</v>
       </c>
       <c r="B383" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C383" s="66" t="s">
         <v>57</v>
@@ -17617,7 +17807,7 @@
         <v>31</v>
       </c>
       <c r="H383" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I383" s="70">
         <v>82</v>
@@ -17633,88 +17823,114 @@
         <v>83</v>
       </c>
       <c r="B384" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C384" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D384" s="67"/>
+      <c r="D384" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="E384" s="68"/>
-      <c r="F384" s="6"/>
+      <c r="F384" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="G384" s="37"/>
       <c r="H384" s="41"/>
       <c r="I384" s="70">
         <v>83</v>
       </c>
-      <c r="J384" s="71"/>
+      <c r="J384" s="43"/>
       <c r="K384" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B385" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C385" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D385" s="67"/>
+      <c r="D385" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="E385" s="68"/>
       <c r="F385" s="6"/>
-      <c r="G385" s="37"/>
-      <c r="H385" s="41"/>
+      <c r="G385" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H385" s="41" t="s">
+        <v>365</v>
+      </c>
       <c r="I385" s="70">
         <v>83</v>
       </c>
-      <c r="J385" s="71"/>
+      <c r="J385" s="43" t="s">
+        <v>360</v>
+      </c>
       <c r="K385" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B386" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C386" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D386" s="67"/>
+      <c r="D386" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="E386" s="68"/>
       <c r="F386" s="6"/>
-      <c r="G386" s="37"/>
-      <c r="H386" s="41"/>
+      <c r="G386" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H386" s="41" t="s">
+        <v>366</v>
+      </c>
       <c r="I386" s="70">
         <v>83</v>
       </c>
-      <c r="J386" s="71"/>
+      <c r="J386" s="43" t="s">
+        <v>361</v>
+      </c>
       <c r="K386" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="387" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B387" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C387" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D387" s="67"/>
+      <c r="D387" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="E387" s="68"/>
       <c r="F387" s="6"/>
-      <c r="G387" s="37"/>
-      <c r="H387" s="41"/>
+      <c r="G387" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H387" s="41" t="s">
+        <v>362</v>
+      </c>
       <c r="I387" s="70">
         <v>83</v>
       </c>
@@ -17723,22 +17939,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="388" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B388" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C388" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D388" s="67"/>
+      <c r="D388" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="E388" s="68"/>
       <c r="F388" s="6"/>
-      <c r="G388" s="37"/>
-      <c r="H388" s="41"/>
+      <c r="G388" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H388" s="41" t="s">
+        <v>364</v>
+      </c>
       <c r="I388" s="70">
         <v>83</v>
       </c>
@@ -17750,21 +17972,25 @@
     <row r="389" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>84</v>
+      </c>
+      <c r="B389" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C389" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D389" s="67"/>
+      <c r="E389" s="68">
         <v>83</v>
       </c>
-      <c r="B389" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="C389" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D389" s="67"/>
-      <c r="E389" s="68"/>
-      <c r="F389" s="6"/>
+      <c r="F389" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="G389" s="37"/>
       <c r="H389" s="41"/>
       <c r="I389" s="70">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J389" s="71"/>
       <c r="K389" s="66">
@@ -17774,131 +18000,149 @@
     <row r="390" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>84</v>
+      </c>
+      <c r="B390" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C390" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D390" s="67"/>
+      <c r="E390" s="68">
         <v>83</v>
       </c>
-      <c r="B390" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="C390" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D390" s="67"/>
-      <c r="E390" s="68"/>
       <c r="F390" s="6"/>
-      <c r="G390" s="37"/>
-      <c r="H390" s="41"/>
+      <c r="G390" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H390" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I385)</f>
+        <v>Result from scenario 83</v>
+      </c>
       <c r="I390" s="70">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J390" s="71"/>
       <c r="K390" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:11" s="114" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" s="114" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>84</v>
+      </c>
+      <c r="B391" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C391" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D391" s="67"/>
+      <c r="E391" s="68">
         <v>83</v>
       </c>
-      <c r="B391" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="C391" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D391" s="67"/>
-      <c r="E391" s="68"/>
       <c r="F391" s="6"/>
-      <c r="G391" s="37"/>
-      <c r="H391" s="41"/>
+      <c r="G391" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H391" s="41" t="s">
+        <v>368</v>
+      </c>
       <c r="I391" s="70">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J391" s="71"/>
       <c r="K391" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:11" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="105">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>0</v>
-      </c>
-      <c r="B392" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="C392" s="107"/>
-      <c r="D392" s="108"/>
-      <c r="E392" s="109"/>
-      <c r="F392" s="110"/>
-      <c r="G392" s="106"/>
-      <c r="H392" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="I392" s="111"/>
-      <c r="J392" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="K392" s="107">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A392" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>84</v>
+      </c>
+      <c r="B392" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C392" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D392" s="67"/>
+      <c r="E392" s="68">
+        <v>83</v>
+      </c>
+      <c r="F392" s="6"/>
+      <c r="G392" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H392" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="I392" s="70">
+        <v>84</v>
+      </c>
+      <c r="J392" s="71"/>
+      <c r="K392" s="66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" s="114" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B393" s="65" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="C393" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D393" s="67"/>
-      <c r="E393" s="68"/>
-      <c r="F393" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="H393" s="41"/>
+      <c r="E393" s="68">
+        <v>83</v>
+      </c>
+      <c r="F393" s="6"/>
+      <c r="G393" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H393" s="41" t="s">
+        <v>354</v>
+      </c>
       <c r="I393" s="70">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="J393" s="71"/>
       <c r="K393" s="66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A394" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
-      </c>
-      <c r="B394" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="105">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>0</v>
+      </c>
+      <c r="B394" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="C394" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D394" s="67"/>
-      <c r="E394" s="68"/>
-      <c r="F394" s="69"/>
-      <c r="G394" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H394" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I394" s="70">
-        <v>56</v>
-      </c>
-      <c r="J394" s="43" t="s">
-        <v>319</v>
+      <c r="C394" s="107"/>
+      <c r="D394" s="108"/>
+      <c r="E394" s="109"/>
+      <c r="F394" s="110"/>
+      <c r="G394" s="106"/>
+      <c r="H394" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I394" s="111"/>
+      <c r="J394" s="112" t="s">
+        <v>2</v>
       </c>
       <c r="K394" s="66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A395" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17911,13 +18155,10 @@
       </c>
       <c r="D395" s="67"/>
       <c r="E395" s="68"/>
-      <c r="F395" s="69"/>
-      <c r="G395" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H395" s="41" t="s">
-        <v>227</v>
-      </c>
+      <c r="F395" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="H395" s="41"/>
       <c r="I395" s="70">
         <v>56</v>
       </c>
@@ -17926,7 +18167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="396" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A396" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17941,22 +18182,22 @@
       <c r="E396" s="68"/>
       <c r="F396" s="69"/>
       <c r="G396" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H396" s="41" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="I396" s="70">
         <v>56</v>
       </c>
-      <c r="J396" s="71" t="s">
-        <v>233</v>
+      <c r="J396" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="K396" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="397" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A397" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17971,10 +18212,10 @@
       <c r="E397" s="68"/>
       <c r="F397" s="69"/>
       <c r="G397" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H397" s="41" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="I397" s="70">
         <v>56</v>
@@ -17987,7 +18228,7 @@
     <row r="398" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A398" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B398" s="65" t="s">
         <v>231</v>
@@ -17996,25 +18237,28 @@
         <v>57</v>
       </c>
       <c r="D398" s="67"/>
-      <c r="E398" s="68">
+      <c r="E398" s="68"/>
+      <c r="F398" s="69"/>
+      <c r="G398" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H398" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I398" s="70">
         <v>56</v>
       </c>
-      <c r="F398" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="H398" s="41"/>
-      <c r="I398" s="70">
-        <v>57</v>
-      </c>
-      <c r="J398" s="71"/>
+      <c r="J398" s="71" t="s">
+        <v>233</v>
+      </c>
       <c r="K398" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="399" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A399" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B399" s="65" t="s">
         <v>231</v>
@@ -18023,19 +18267,16 @@
         <v>57</v>
       </c>
       <c r="D399" s="67"/>
-      <c r="E399" s="68">
-        <v>56</v>
-      </c>
+      <c r="E399" s="68"/>
       <c r="F399" s="69"/>
       <c r="G399" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H399" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I394)</f>
-        <v>Result from scenario 56</v>
+        <v>31</v>
+      </c>
+      <c r="H399" s="41" t="s">
+        <v>131</v>
       </c>
       <c r="I399" s="70">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J399" s="71"/>
       <c r="K399" s="66">
@@ -18057,13 +18298,10 @@
       <c r="E400" s="68">
         <v>56</v>
       </c>
-      <c r="F400" s="69"/>
-      <c r="G400" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H400" s="41" t="s">
-        <v>133</v>
-      </c>
+      <c r="F400" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H400" s="41"/>
       <c r="I400" s="70">
         <v>57</v>
       </c>
@@ -18072,7 +18310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="401" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A401" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -18089,10 +18327,11 @@
       </c>
       <c r="F401" s="69"/>
       <c r="G401" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H401" s="41" t="s">
-        <v>234</v>
+        <v>29</v>
+      </c>
+      <c r="H401" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I396)</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I401" s="70">
         <v>57</v>
@@ -18105,7 +18344,7 @@
     <row r="402" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A402" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B402" s="65" t="s">
         <v>231</v>
@@ -18115,24 +18354,27 @@
       </c>
       <c r="D402" s="67"/>
       <c r="E402" s="68">
-        <v>57</v>
-      </c>
-      <c r="F402" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="H402" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="F402" s="69"/>
+      <c r="G402" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H402" s="41" t="s">
+        <v>133</v>
+      </c>
       <c r="I402" s="70">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J402" s="71"/>
       <c r="K402" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="403" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A403" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B403" s="65" t="s">
         <v>231</v>
@@ -18142,18 +18384,17 @@
       </c>
       <c r="D403" s="67"/>
       <c r="E403" s="68">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F403" s="69"/>
       <c r="G403" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H403" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I398)</f>
-        <v>Result from scenario 57</v>
+        <v>31</v>
+      </c>
+      <c r="H403" s="41" t="s">
+        <v>234</v>
       </c>
       <c r="I403" s="70">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J403" s="71"/>
       <c r="K403" s="66">
@@ -18175,13 +18416,10 @@
       <c r="E404" s="68">
         <v>57</v>
       </c>
-      <c r="F404" s="69"/>
-      <c r="G404" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H404" s="41" t="s">
-        <v>235</v>
-      </c>
+      <c r="F404" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="H404" s="41"/>
       <c r="I404" s="70">
         <v>58</v>
       </c>
@@ -18207,10 +18445,11 @@
       </c>
       <c r="F405" s="69"/>
       <c r="G405" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H405" s="41" t="s">
-        <v>236</v>
+        <v>29</v>
+      </c>
+      <c r="H405" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I400)</f>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I405" s="70">
         <v>58</v>
@@ -18237,10 +18476,10 @@
       </c>
       <c r="F406" s="69"/>
       <c r="G406" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H406" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I406" s="70">
         <v>58</v>
@@ -18250,7 +18489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="407" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A407" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -18270,7 +18509,7 @@
         <v>31</v>
       </c>
       <c r="H407" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I407" s="70">
         <v>58</v>
@@ -18283,7 +18522,7 @@
     <row r="408" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A408" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B408" s="65" t="s">
         <v>231</v>
@@ -18293,24 +18532,27 @@
       </c>
       <c r="D408" s="67"/>
       <c r="E408" s="68">
-        <v>56</v>
-      </c>
-      <c r="F408" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="H408" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="F408" s="69"/>
+      <c r="G408" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H408" s="41" t="s">
+        <v>238</v>
+      </c>
       <c r="I408" s="70">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J408" s="71"/>
       <c r="K408" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A409" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B409" s="65" t="s">
         <v>231</v>
@@ -18320,18 +18562,17 @@
       </c>
       <c r="D409" s="67"/>
       <c r="E409" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F409" s="69"/>
       <c r="G409" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H409" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I393)</f>
-        <v>Result from scenario 56</v>
+        <v>31</v>
+      </c>
+      <c r="H409" s="41" t="s">
+        <v>237</v>
       </c>
       <c r="I409" s="70">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J409" s="71"/>
       <c r="K409" s="66">
@@ -18353,13 +18594,10 @@
       <c r="E410" s="68">
         <v>56</v>
       </c>
-      <c r="F410" s="69"/>
-      <c r="G410" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="H410" s="41" t="s">
-        <v>144</v>
-      </c>
+      <c r="F410" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="H410" s="41"/>
       <c r="I410" s="70">
         <v>59</v>
       </c>
@@ -18368,7 +18606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="411" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A411" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18385,10 +18623,11 @@
       </c>
       <c r="F411" s="69"/>
       <c r="G411" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H411" s="41" t="s">
-        <v>186</v>
+        <v>29</v>
+      </c>
+      <c r="H411" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I395)</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I411" s="70">
         <v>59</v>
@@ -18401,34 +18640,37 @@
     <row r="412" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A412" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B412" s="65" t="s">
         <v>231</v>
       </c>
       <c r="C412" s="66" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="D412" s="67"/>
       <c r="E412" s="68">
-        <v>57</v>
-      </c>
-      <c r="F412" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="H412" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="F412" s="69"/>
+      <c r="G412" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H412" s="41" t="s">
+        <v>144</v>
+      </c>
       <c r="I412" s="70">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J412" s="71"/>
       <c r="K412" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="413" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A413" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B413" s="65" t="s">
         <v>231</v>
@@ -18438,25 +18680,24 @@
       </c>
       <c r="D413" s="67"/>
       <c r="E413" s="68">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F413" s="69"/>
       <c r="G413" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H413" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I398)</f>
-        <v>Result from scenario 57</v>
+        <v>31</v>
+      </c>
+      <c r="H413" s="41" t="s">
+        <v>186</v>
       </c>
       <c r="I413" s="70">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J413" s="71"/>
       <c r="K413" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="414" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A414" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18465,19 +18706,16 @@
         <v>231</v>
       </c>
       <c r="C414" s="66" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="D414" s="67"/>
       <c r="E414" s="68">
         <v>57</v>
       </c>
-      <c r="F414" s="69"/>
-      <c r="G414" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H414" s="41" t="s">
-        <v>243</v>
-      </c>
+      <c r="F414" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="H414" s="41"/>
       <c r="I414" s="70">
         <v>60</v>
       </c>
@@ -18503,10 +18741,11 @@
       </c>
       <c r="F415" s="69"/>
       <c r="G415" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H415" s="41" t="s">
-        <v>236</v>
+        <v>29</v>
+      </c>
+      <c r="H415" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",I400)</f>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I415" s="70">
         <v>60</v>
@@ -18516,7 +18755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="416" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A416" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18533,10 +18772,10 @@
       </c>
       <c r="F416" s="69"/>
       <c r="G416" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H416" s="41" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="I416" s="70">
         <v>60</v>
@@ -18546,7 +18785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="417" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A417" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18566,7 +18805,7 @@
         <v>31</v>
       </c>
       <c r="H417" s="41" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I417" s="70">
         <v>60</v>
@@ -18579,7 +18818,7 @@
     <row r="418" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A418" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B418" s="65" t="s">
         <v>231</v>
@@ -18588,23 +18827,28 @@
         <v>57</v>
       </c>
       <c r="D418" s="67"/>
-      <c r="E418" s="68"/>
-      <c r="F418" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="H418" s="41"/>
+      <c r="E418" s="68">
+        <v>57</v>
+      </c>
+      <c r="F418" s="69"/>
+      <c r="G418" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H418" s="41" t="s">
+        <v>238</v>
+      </c>
       <c r="I418" s="70">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J418" s="71"/>
       <c r="K418" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="419" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A419" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B419" s="65" t="s">
         <v>231</v>
@@ -18613,25 +18857,25 @@
         <v>57</v>
       </c>
       <c r="D419" s="67"/>
-      <c r="E419" s="68"/>
+      <c r="E419" s="68">
+        <v>57</v>
+      </c>
       <c r="F419" s="69"/>
       <c r="G419" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H419" s="41" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="I419" s="70">
-        <v>68</v>
-      </c>
-      <c r="J419" s="71" t="s">
-        <v>283</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J419" s="71"/>
       <c r="K419" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="420" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A420" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18644,13 +18888,10 @@
       </c>
       <c r="D420" s="67"/>
       <c r="E420" s="68"/>
-      <c r="F420" s="69"/>
-      <c r="G420" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H420" s="41" t="s">
-        <v>282</v>
-      </c>
+      <c r="F420" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="H420" s="41"/>
       <c r="I420" s="70">
         <v>68</v>
       </c>
@@ -18659,7 +18900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="421" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A421" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18677,17 +18918,19 @@
         <v>29</v>
       </c>
       <c r="H421" s="41" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="I421" s="70">
         <v>68</v>
       </c>
-      <c r="J421" s="71"/>
+      <c r="J421" s="71" t="s">
+        <v>283</v>
+      </c>
       <c r="K421" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="422" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A422" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18705,7 +18948,7 @@
         <v>29</v>
       </c>
       <c r="H422" s="41" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I422" s="70">
         <v>68</v>
@@ -18730,10 +18973,10 @@
       <c r="E423" s="68"/>
       <c r="F423" s="69"/>
       <c r="G423" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H423" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I423" s="70">
         <v>68</v>
@@ -18758,10 +19001,10 @@
       <c r="E424" s="68"/>
       <c r="F424" s="69"/>
       <c r="G424" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H424" s="41" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="I424" s="70">
         <v>68</v>
@@ -18771,7 +19014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A425" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18786,10 +19029,10 @@
       <c r="E425" s="68"/>
       <c r="F425" s="69"/>
       <c r="G425" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H425" s="41" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="I425" s="70">
         <v>68</v>
@@ -18799,7 +19042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="426" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A426" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18817,7 +19060,7 @@
         <v>31</v>
       </c>
       <c r="H426" s="41" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="I426" s="70">
         <v>68</v>
@@ -18827,10 +19070,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="427" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A427" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B427" s="65" t="s">
         <v>231</v>
@@ -18840,24 +19083,25 @@
       </c>
       <c r="D427" s="67"/>
       <c r="E427" s="68"/>
-      <c r="F427" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="H427" s="41"/>
+      <c r="F427" s="69"/>
+      <c r="G427" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H427" s="41" t="s">
+        <v>284</v>
+      </c>
       <c r="I427" s="70">
-        <v>69</v>
-      </c>
-      <c r="J427" s="71" t="s">
-        <v>304</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J427" s="71"/>
       <c r="K427" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="428" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A428" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B428" s="65" t="s">
         <v>231</v>
@@ -18869,20 +19113,20 @@
       <c r="E428" s="68"/>
       <c r="F428" s="69"/>
       <c r="G428" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H428" s="41" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="I428" s="70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J428" s="71"/>
       <c r="K428" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="429" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A429" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18895,22 +19139,21 @@
       </c>
       <c r="D429" s="67"/>
       <c r="E429" s="68"/>
-      <c r="F429" s="69"/>
-      <c r="G429" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H429" s="41" t="s">
-        <v>282</v>
-      </c>
+      <c r="F429" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="H429" s="41"/>
       <c r="I429" s="70">
         <v>69</v>
       </c>
-      <c r="J429" s="71"/>
+      <c r="J429" s="71" t="s">
+        <v>304</v>
+      </c>
       <c r="K429" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="430" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A430" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18928,7 +19171,7 @@
         <v>29</v>
       </c>
       <c r="H430" s="41" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="I430" s="70">
         <v>69</v>
@@ -18938,7 +19181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="431" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A431" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18956,7 +19199,7 @@
         <v>29</v>
       </c>
       <c r="H431" s="41" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I431" s="70">
         <v>69</v>
@@ -18984,7 +19227,7 @@
         <v>29</v>
       </c>
       <c r="H432" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I432" s="70">
         <v>69</v>
@@ -19009,10 +19252,10 @@
       <c r="E433" s="68"/>
       <c r="F433" s="69"/>
       <c r="G433" s="65" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="H433" s="41" t="s">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="I433" s="70">
         <v>69</v>
@@ -19037,10 +19280,10 @@
       <c r="E434" s="68"/>
       <c r="F434" s="69"/>
       <c r="G434" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H434" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I434" s="70">
         <v>69</v>
@@ -19050,7 +19293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A435" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -19065,10 +19308,10 @@
       <c r="E435" s="68"/>
       <c r="F435" s="69"/>
       <c r="G435" s="65" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H435" s="41" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I435" s="70">
         <v>69</v>
@@ -19096,7 +19339,7 @@
         <v>31</v>
       </c>
       <c r="H436" s="41" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="I436" s="70">
         <v>69</v>
@@ -19106,7 +19349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="437" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A437" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -19124,7 +19367,7 @@
         <v>31</v>
       </c>
       <c r="H437" s="41" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="I437" s="70">
         <v>69</v>
@@ -19137,7 +19380,7 @@
     <row r="438" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A438" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B438" s="65" t="s">
         <v>231</v>
@@ -19147,24 +19390,25 @@
       </c>
       <c r="D438" s="67"/>
       <c r="E438" s="68"/>
-      <c r="F438" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="H438" s="41"/>
+      <c r="F438" s="69"/>
+      <c r="G438" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H438" s="41" t="s">
+        <v>303</v>
+      </c>
       <c r="I438" s="70">
-        <v>70</v>
-      </c>
-      <c r="J438" s="71" t="s">
-        <v>304</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J438" s="71"/>
       <c r="K438" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A439" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B439" s="65" t="s">
         <v>231</v>
@@ -19176,20 +19420,20 @@
       <c r="E439" s="68"/>
       <c r="F439" s="69"/>
       <c r="G439" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H439" s="41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I439" s="70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J439" s="71"/>
       <c r="K439" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="440" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A440" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19202,22 +19446,21 @@
       </c>
       <c r="D440" s="67"/>
       <c r="E440" s="68"/>
-      <c r="F440" s="69"/>
-      <c r="G440" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H440" s="41" t="s">
-        <v>282</v>
-      </c>
+      <c r="F440" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="H440" s="41"/>
       <c r="I440" s="70">
         <v>70</v>
       </c>
-      <c r="J440" s="71"/>
+      <c r="J440" s="71" t="s">
+        <v>304</v>
+      </c>
       <c r="K440" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="441" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A441" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19235,7 +19478,7 @@
         <v>29</v>
       </c>
       <c r="H441" s="41" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="I441" s="70">
         <v>70</v>
@@ -19245,7 +19488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="442" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A442" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19263,7 +19506,7 @@
         <v>29</v>
       </c>
       <c r="H442" s="41" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I442" s="70">
         <v>70</v>
@@ -19291,7 +19534,7 @@
         <v>29</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I443" s="70">
         <v>70</v>
@@ -19316,10 +19559,10 @@
       <c r="E444" s="68"/>
       <c r="F444" s="69"/>
       <c r="G444" s="65" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="H444" s="41" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="I444" s="70">
         <v>70</v>
@@ -19344,10 +19587,10 @@
       <c r="E445" s="68"/>
       <c r="F445" s="69"/>
       <c r="G445" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H445" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I445" s="70">
         <v>70</v>
@@ -19357,7 +19600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="446" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A446" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19372,10 +19615,10 @@
       <c r="E446" s="68"/>
       <c r="F446" s="69"/>
       <c r="G446" s="65" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H446" s="41" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="I446" s="70">
         <v>70</v>
@@ -19403,7 +19646,7 @@
         <v>31</v>
       </c>
       <c r="H447" s="41" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="I447" s="70">
         <v>70</v>
@@ -19413,7 +19656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A448" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19431,7 +19674,7 @@
         <v>31</v>
       </c>
       <c r="H448" s="41" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="I448" s="70">
         <v>70</v>
@@ -19444,7 +19687,7 @@
     <row r="449" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A449" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B449" s="65" t="s">
         <v>231</v>
@@ -19454,24 +19697,25 @@
       </c>
       <c r="D449" s="67"/>
       <c r="E449" s="68"/>
-      <c r="F449" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="H449" s="41"/>
+      <c r="F449" s="69"/>
+      <c r="G449" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H449" s="41" t="s">
+        <v>303</v>
+      </c>
       <c r="I449" s="70">
-        <v>71</v>
-      </c>
-      <c r="J449" s="71" t="s">
-        <v>283</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J449" s="71"/>
       <c r="K449" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="450" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B450" s="65" t="s">
         <v>231</v>
@@ -19483,20 +19727,20 @@
       <c r="E450" s="68"/>
       <c r="F450" s="69"/>
       <c r="G450" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H450" s="41" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="I450" s="70">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J450" s="71"/>
       <c r="K450" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="451" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A451" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19509,17 +19753,16 @@
       </c>
       <c r="D451" s="67"/>
       <c r="E451" s="68"/>
-      <c r="F451" s="69"/>
-      <c r="G451" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H451" s="41" t="s">
-        <v>313</v>
-      </c>
+      <c r="F451" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="H451" s="41"/>
       <c r="I451" s="70">
         <v>71</v>
       </c>
-      <c r="J451" s="71"/>
+      <c r="J451" s="71" t="s">
+        <v>283</v>
+      </c>
       <c r="K451" s="66">
         <v>39</v>
       </c>
@@ -19542,7 +19785,7 @@
         <v>29</v>
       </c>
       <c r="H452" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I452" s="70">
         <v>71</v>
@@ -19552,7 +19795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="453" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A453" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19570,7 +19813,7 @@
         <v>29</v>
       </c>
       <c r="H453" s="41" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="I453" s="70">
         <v>71</v>
@@ -19580,7 +19823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="454" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A454" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19595,10 +19838,10 @@
       <c r="E454" s="68"/>
       <c r="F454" s="69"/>
       <c r="G454" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H454" s="41" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I454" s="70">
         <v>71</v>
@@ -19623,10 +19866,10 @@
       <c r="E455" s="68"/>
       <c r="F455" s="69"/>
       <c r="G455" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H455" s="41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I455" s="70">
         <v>71</v>
@@ -19636,7 +19879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="456" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A456" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19651,10 +19894,10 @@
       <c r="E456" s="68"/>
       <c r="F456" s="69"/>
       <c r="G456" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H456" s="41" t="s">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="I456" s="70">
         <v>71</v>
@@ -19664,7 +19907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="457" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A457" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19682,7 +19925,7 @@
         <v>31</v>
       </c>
       <c r="H457" s="41" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="I457" s="70">
         <v>71</v>
@@ -19692,10 +19935,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="458" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A458" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B458" s="65" t="s">
         <v>231</v>
@@ -19705,22 +19948,25 @@
       </c>
       <c r="D458" s="67"/>
       <c r="E458" s="68"/>
-      <c r="F458" s="69" t="s">
-        <v>314</v>
-      </c>
-      <c r="H458" s="41"/>
+      <c r="F458" s="69"/>
+      <c r="G458" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H458" s="41" t="s">
+        <v>284</v>
+      </c>
       <c r="I458" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J458" s="71"/>
       <c r="K458" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="459" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A459" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B459" s="65" t="s">
         <v>231</v>
@@ -19732,20 +19978,20 @@
       <c r="E459" s="68"/>
       <c r="F459" s="69"/>
       <c r="G459" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H459" s="41" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I459" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J459" s="71"/>
       <c r="K459" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="460" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A460" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19758,13 +20004,10 @@
       </c>
       <c r="D460" s="67"/>
       <c r="E460" s="68"/>
-      <c r="F460" s="69"/>
-      <c r="G460" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H460" s="41" t="s">
-        <v>315</v>
-      </c>
+      <c r="F460" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="H460" s="41"/>
       <c r="I460" s="70">
         <v>72</v>
       </c>
@@ -19791,7 +20034,7 @@
         <v>29</v>
       </c>
       <c r="H461" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I461" s="70">
         <v>72</v>
@@ -19801,7 +20044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="462" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A462" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19819,7 +20062,7 @@
         <v>29</v>
       </c>
       <c r="H462" s="41" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="I462" s="70">
         <v>72</v>
@@ -19829,7 +20072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="463" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A463" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19844,10 +20087,10 @@
       <c r="E463" s="68"/>
       <c r="F463" s="69"/>
       <c r="G463" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H463" s="41" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
       <c r="I463" s="70">
         <v>72</v>
@@ -19872,10 +20115,10 @@
       <c r="E464" s="68"/>
       <c r="F464" s="69"/>
       <c r="G464" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H464" s="41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I464" s="70">
         <v>72</v>
@@ -19885,7 +20128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="465" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A465" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19900,10 +20143,10 @@
       <c r="E465" s="68"/>
       <c r="F465" s="69"/>
       <c r="G465" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H465" s="41" t="s">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="I465" s="70">
         <v>72</v>
@@ -19931,7 +20174,7 @@
         <v>31</v>
       </c>
       <c r="H466" s="41" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="I466" s="70">
         <v>72</v>
@@ -19941,42 +20184,98 @@
         <v>39</v>
       </c>
     </row>
-    <row r="467" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A467" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>0</v>
-      </c>
-      <c r="B467" s="65"/>
-      <c r="C467" s="66"/>
+        <v>72</v>
+      </c>
+      <c r="B467" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="C467" s="66" t="s">
+        <v>57</v>
+      </c>
       <c r="D467" s="67"/>
       <c r="E467" s="68"/>
       <c r="F467" s="69"/>
-      <c r="G467" s="65"/>
-      <c r="H467" s="41"/>
-      <c r="I467" s="70"/>
+      <c r="G467" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H467" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="I467" s="70">
+        <v>72</v>
+      </c>
       <c r="J467" s="71"/>
-      <c r="K467" s="66"/>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="61"/>
-      <c r="B468" s="1" t="s">
+      <c r="K467" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>72</v>
+      </c>
+      <c r="B468" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="C468" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D468" s="67"/>
+      <c r="E468" s="68"/>
+      <c r="F468" s="69"/>
+      <c r="G468" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H468" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="I468" s="70">
+        <v>72</v>
+      </c>
+      <c r="J468" s="71"/>
+      <c r="K468" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>0</v>
+      </c>
+      <c r="B469" s="65"/>
+      <c r="C469" s="66"/>
+      <c r="D469" s="67"/>
+      <c r="E469" s="68"/>
+      <c r="F469" s="69"/>
+      <c r="G469" s="65"/>
+      <c r="H469" s="41"/>
+      <c r="I469" s="70"/>
+      <c r="J469" s="71"/>
+      <c r="K469" s="66"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="61"/>
+      <c r="B470" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C468" s="3"/>
-      <c r="E468" s="10">
+      <c r="C470" s="3"/>
+      <c r="E470" s="10">
         <f>Table14[[#Totals],[Scenario '#]]</f>
-        <v>83</v>
-      </c>
-      <c r="F468" s="6"/>
-      <c r="H468" s="2"/>
-      <c r="I468" s="12">
+        <v>84</v>
+      </c>
+      <c r="F470" s="6"/>
+      <c r="H470" s="2"/>
+      <c r="I470" s="12">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19986,17 +20285,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20008,7 +20307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="102">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20019,7 +20318,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G421:G1048576 G1:G345 G369 G392:G419">
+  <conditionalFormatting sqref="G423:G1048576 G1:G345 G369 G394:G421">
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+      <formula>"Then"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+      <formula>"Given"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G422">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+      <formula>"Then"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+      <formula>"Given"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G346:G352">
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+      <formula>"Then"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>"Given"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G353:G360">
     <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20030,7 +20362,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G420">
+  <conditionalFormatting sqref="G361:G363">
     <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20041,7 +20373,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G346:G352">
+  <conditionalFormatting sqref="G364:G368">
     <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20052,7 +20384,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G353:G360">
+  <conditionalFormatting sqref="G370:G373">
     <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20063,7 +20395,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G361:G363">
+  <conditionalFormatting sqref="G374:G378">
     <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20074,7 +20406,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G364:G368">
+  <conditionalFormatting sqref="G379:G384 G388:G392">
     <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20085,7 +20417,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G370:G373">
+  <conditionalFormatting sqref="G385:G386">
     <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20096,7 +20428,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G374:G378">
+  <conditionalFormatting sqref="G387">
     <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20107,7 +20439,7 @@
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G379:G391">
+  <conditionalFormatting sqref="G393">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -20770,13 +21102,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22040,13 +22372,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22172,13 +22504,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22390,13 +22722,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22609,13 +22941,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22736,13 +23068,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22928,13 +23260,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23490,13 +23822,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F348FCDE-8A8A-4B11-BA2B-244B989CE2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842B603-0A8F-4B80-9201-95A056D85C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="24510" windowHeight="15990" tabRatio="693" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="24510" windowHeight="15990" tabRatio="693" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200811" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="376">
   <si>
     <t>Scenario</t>
   </si>
@@ -776,9 +776,6 @@
     <t>Remove "New Then !@#$%^&amp;*()"</t>
   </si>
   <si>
-    <t>Result from scenario 16</t>
-  </si>
-  <si>
     <t>Rename prefix</t>
   </si>
   <si>
@@ -1444,9 +1441,6 @@
     <t>Duplicate "Valid Then"</t>
   </si>
   <si>
-    <t>Result from scenario 20</t>
-  </si>
-  <si>
     <t>Rename "Renamed Valid When" to "Valid When"</t>
   </si>
   <si>
@@ -1673,6 +1667,27 @@
   </si>
   <si>
     <t>Second test function (scenario) is renamed</t>
+  </si>
+  <si>
+    <t>Adding Feature</t>
+  </si>
+  <si>
+    <t>User selects green Features control on TestScriptor to open Features Pane</t>
+  </si>
+  <si>
+    <t>"Add Feature" action = green "+ Feature" button</t>
+  </si>
+  <si>
+    <t>User selects "Add Feature" action</t>
+  </si>
+  <si>
+    <t>Empty Feature control opens</t>
+  </si>
+  <si>
+    <t>Adding Feature 2a</t>
+  </si>
+  <si>
+    <t>Enter "New Feature"in empty control</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1892,6 +1907,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +2007,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2328,13 +2349,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="211">
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2423,6 +2471,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3637,268 +3706,268 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="207" dataDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="205"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="204"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="203">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="208"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="206">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="202">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="205">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="201"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="204"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="123">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="126">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="121">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="124">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="120">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="123">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="113">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="116">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="111">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="114">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="110">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="113">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="109"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="107"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K470" totalsRowCount="1" headerRowDxfId="106" dataDxfId="105">
-  <autoFilter ref="A1:K469" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K478" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108">
+  <autoFilter ref="A1:K477" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="97" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="100" totalsRowDxfId="10">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="95" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="94" totalsRowDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="99" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="98" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="97" totalsRowDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="6">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="92" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="91" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="90" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="89" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="88" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="87" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="95" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="94" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="93" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="92" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="91" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="90" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="107">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="197"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="195">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="200"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="198">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="194">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="197">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="193"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="195"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="189"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="187">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="192"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="190">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="186">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="189">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="185"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="184"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="183"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="182"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="188"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="178"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="177">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="182"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="181"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="180">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="176">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="179">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="175"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="174"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="178"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="171"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="170"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="169">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="174"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="172">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="168">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="171">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="167"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="165"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="170"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="160">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="165"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="163">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="159">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="162">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="161"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="159"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="150">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="155"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="153">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="152">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="145"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="149"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="142"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="140">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="145"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="143">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="139">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="142">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="138"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="136"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="134">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="133">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="132"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="129"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4578,24 +4647,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="86" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4658,10 +4727,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5032,13 +5101,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5060,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AAAF6E-78DD-431A-8469-F0039B6C8AAD}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,7 +5164,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6048,7 +6117,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G46" s="87">
         <v>79</v>
@@ -6074,7 +6143,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G47" s="87">
         <v>79</v>
@@ -6100,7 +6169,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G48" s="87">
         <v>79</v>
@@ -6126,7 +6195,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G49" s="87">
         <v>79</v>
@@ -6152,7 +6221,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G50" s="87">
         <v>51</v>
@@ -6241,7 +6310,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G54" s="87">
         <v>79</v>
@@ -6288,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G56" s="87">
         <v>79</v>
@@ -6440,7 +6509,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G63" s="87">
         <v>80</v>
@@ -6655,7 +6724,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -6699,7 +6768,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G75" s="87">
         <v>81</v>
@@ -6719,13 +6788,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6750,10 +6819,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
-  <dimension ref="A1:K470"/>
+  <dimension ref="A1:K478"/>
   <sheetViews>
-    <sheetView topLeftCell="B382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H392" sqref="H392"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I476" sqref="I476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6813,7 +6882,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>57</v>
@@ -6821,7 +6890,7 @@
       <c r="D2" s="91"/>
       <c r="E2" s="92"/>
       <c r="F2" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
@@ -6837,7 +6906,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>57</v>
@@ -6848,7 +6917,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" s="101">
         <v>63</v>
@@ -6861,7 +6930,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>57</v>
@@ -6872,7 +6941,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I4" s="101">
         <v>63</v>
@@ -6885,7 +6954,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>57</v>
@@ -6896,7 +6965,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I5" s="101">
         <v>63</v>
@@ -6927,7 +6996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -6953,7 +7022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30.75" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -6977,13 +7046,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K8" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7013,7 +7082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7041,7 +7110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7069,7 +7138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7097,7 +7166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7126,7 +7195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7147,7 +7216,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I7)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 1</v>
       </c>
       <c r="I14" s="12">
@@ -7158,7 +7227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7191,7 +7260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7222,7 +7291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7253,7 +7322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7284,7 +7353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7298,7 +7367,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="10"/>
       <c r="F19" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="41"/>
@@ -7310,7 +7379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7334,13 +7403,13 @@
         <v>3</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K20" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7358,7 +7427,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="12">
         <v>3</v>
@@ -7370,7 +7439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7388,7 +7457,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" s="12">
         <v>3</v>
@@ -7398,7 +7467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7416,7 +7485,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I23" s="12">
         <v>3</v>
@@ -7426,7 +7495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7444,7 +7513,7 @@
         <v>31</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I24" s="12">
         <v>3</v>
@@ -7456,7 +7525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7470,7 +7539,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="42"/>
@@ -7482,7 +7551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7506,13 +7575,13 @@
         <v>8</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K26" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7540,7 +7609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7558,7 +7627,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I28" s="12">
         <v>8</v>
@@ -7568,7 +7637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7586,7 +7655,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I29" s="12">
         <v>8</v>
@@ -7598,7 +7667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7616,7 +7685,7 @@
         <v>31</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I30" s="12">
         <v>8</v>
@@ -7626,7 +7695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7640,7 +7709,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="43"/>
@@ -7652,7 +7721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7676,13 +7745,13 @@
         <v>64</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K32" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7710,7 +7779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7728,7 +7797,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I34" s="12">
         <v>64</v>
@@ -7738,7 +7807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7756,7 +7825,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I35" s="12">
         <v>64</v>
@@ -7768,7 +7837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7786,7 +7855,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I36" s="12">
         <v>64</v>
@@ -7796,7 +7865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7812,7 +7881,7 @@
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="43"/>
@@ -7824,7 +7893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7850,13 +7919,13 @@
         <v>66</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K38" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7886,7 +7955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7906,7 +7975,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I40" s="12">
         <v>66</v>
@@ -7916,7 +7985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7936,7 +8005,7 @@
         <v>29</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I41" s="12">
         <v>66</v>
@@ -7946,7 +8015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7966,7 +8035,7 @@
         <v>30</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I42" s="12">
         <v>66</v>
@@ -7978,7 +8047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7998,19 +8067,19 @@
         <v>31</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I43" s="12">
         <v>66</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K43" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8036,7 +8105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8060,13 +8129,13 @@
         <v>10</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K45" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8096,7 +8165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8124,7 +8193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8154,7 +8223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8182,7 +8251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8208,7 +8277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8232,13 +8301,13 @@
         <v>12</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K51" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8268,7 +8337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8296,7 +8365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8324,7 +8393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8354,7 +8423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8380,7 +8449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8404,13 +8473,13 @@
         <v>14</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K57" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8438,7 +8507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8468,7 +8537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8496,7 +8565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8524,7 +8593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8552,7 +8621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8566,7 +8635,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="10"/>
       <c r="F63" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="41"/>
@@ -8578,7 +8647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8602,13 +8671,13 @@
         <v>61</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K64" s="38">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8626,7 +8695,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I65" s="12">
         <v>61</v>
@@ -8636,7 +8705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8666,7 +8735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8694,7 +8763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8722,7 +8791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8740,7 +8809,7 @@
         <v>31</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I69" s="12">
         <v>61</v>
@@ -8750,7 +8819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -8824,7 +8893,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K72" s="38">
         <v>27</v>
@@ -8994,7 +9063,7 @@
         <v>29</v>
       </c>
       <c r="H78" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I71)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 4</v>
       </c>
       <c r="I78" s="12">
@@ -9145,7 +9214,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="10"/>
       <c r="F83" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G83" s="37"/>
       <c r="H83" s="41"/>
@@ -9181,7 +9250,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K84" s="38">
         <v>27</v>
@@ -9205,7 +9274,7 @@
         <v>30</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I85" s="12">
         <v>6</v>
@@ -9235,7 +9304,7 @@
         <v>31</v>
       </c>
       <c r="H86" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I86" s="12">
         <v>6</v>
@@ -9263,7 +9332,7 @@
         <v>31</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I87" s="12">
         <v>6</v>
@@ -9291,7 +9360,7 @@
         <v>31</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I88" s="12">
         <v>6</v>
@@ -9317,7 +9386,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="10"/>
       <c r="F89" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="42"/>
@@ -9353,7 +9422,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K90" s="38">
         <v>27</v>
@@ -9405,7 +9474,7 @@
         <v>29</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I92" s="12">
         <v>9</v>
@@ -9433,7 +9502,7 @@
         <v>30</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I93" s="12">
         <v>9</v>
@@ -9463,7 +9532,7 @@
         <v>31</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I94" s="12">
         <v>9</v>
@@ -9487,7 +9556,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="10"/>
       <c r="F95" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="43"/>
@@ -9523,7 +9592,7 @@
         <v>65</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K96" s="38">
         <v>27</v>
@@ -9575,7 +9644,7 @@
         <v>29</v>
       </c>
       <c r="H98" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I98" s="12">
         <v>65</v>
@@ -9603,7 +9672,7 @@
         <v>30</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I99" s="12">
         <v>65</v>
@@ -9633,7 +9702,7 @@
         <v>31</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I100" s="12">
         <v>65</v>
@@ -9659,7 +9728,7 @@
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="43"/>
@@ -9697,7 +9766,7 @@
         <v>67</v>
       </c>
       <c r="J102" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K102" s="38">
         <v>27</v>
@@ -9753,7 +9822,7 @@
         <v>29</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I104" s="12">
         <v>67</v>
@@ -9783,7 +9852,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I105" s="12">
         <v>67</v>
@@ -9813,7 +9882,7 @@
         <v>30</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I106" s="12">
         <v>67</v>
@@ -9845,13 +9914,13 @@
         <v>31</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I107" s="12">
         <v>67</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K107" s="38">
         <v>27</v>
@@ -9907,7 +9976,7 @@
         <v>11</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K109" s="38">
         <v>27</v>
@@ -10077,7 +10146,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K115" s="38">
         <v>27</v>
@@ -10249,7 +10318,7 @@
         <v>15</v>
       </c>
       <c r="J121" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K121" s="38">
         <v>27</v>
@@ -10411,7 +10480,7 @@
       <c r="D127" s="39"/>
       <c r="E127" s="10"/>
       <c r="F127" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G127" s="37"/>
       <c r="H127" s="41"/>
@@ -10469,7 +10538,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I129" s="12">
         <v>62</v>
@@ -10553,7 +10622,7 @@
         <v>31</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I132" s="12">
         <v>62</v>
@@ -10581,7 +10650,7 @@
         <v>31</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I133" s="12">
         <v>62</v>
@@ -10689,7 +10758,7 @@
         <v>16</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K137" s="38">
         <v>30</v>
@@ -10767,7 +10836,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G140" s="37"/>
       <c r="H140" s="41"/>
@@ -10799,7 +10868,7 @@
         <v>29</v>
       </c>
       <c r="H141" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I136)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 16</v>
       </c>
       <c r="I141" s="12">
@@ -10920,7 +10989,7 @@
         <v>31</v>
       </c>
       <c r="H145" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I145" s="12">
         <v>17</v>
@@ -10946,7 +11015,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G146" s="37"/>
       <c r="H146" s="41"/>
@@ -10977,8 +11046,9 @@
       <c r="G147" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H147" s="41" t="s">
-        <v>190</v>
+      <c r="H147" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 16</v>
       </c>
       <c r="I147" s="12">
         <v>46</v>
@@ -11008,7 +11078,7 @@
         <v>30</v>
       </c>
       <c r="H148" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I148" s="12">
         <v>46</v>
@@ -11038,7 +11108,7 @@
         <v>31</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I149" s="12">
         <v>46</v>
@@ -11068,7 +11138,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I150" s="12">
         <v>46</v>
@@ -11126,7 +11196,7 @@
         <v>29</v>
       </c>
       <c r="H152" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I140)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 17</v>
       </c>
       <c r="I152" s="12">
@@ -11157,7 +11227,7 @@
         <v>30</v>
       </c>
       <c r="H153" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I153" s="12">
         <v>18</v>
@@ -11245,7 +11315,7 @@
         <v>29</v>
       </c>
       <c r="H156" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I152)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 18</v>
       </c>
       <c r="I156" s="12">
@@ -11390,7 +11460,7 @@
       <c r="D161" s="39"/>
       <c r="E161" s="10"/>
       <c r="F161" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="41"/>
@@ -11426,7 +11496,7 @@
         <v>44</v>
       </c>
       <c r="J162" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K162" s="38">
         <v>30</v>
@@ -11478,13 +11548,13 @@
         <v>29</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I164" s="12">
         <v>44</v>
       </c>
       <c r="J164" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K164" s="38">
         <v>30</v>
@@ -11588,7 +11658,7 @@
       <c r="D168" s="39"/>
       <c r="E168" s="10"/>
       <c r="F168" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G168" s="37"/>
       <c r="H168" s="41"/>
@@ -11624,7 +11694,7 @@
         <v>51</v>
       </c>
       <c r="J169" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K169" s="38">
         <v>30</v>
@@ -11648,7 +11718,7 @@
         <v>29</v>
       </c>
       <c r="H170" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I170" s="12">
         <v>51</v>
@@ -11676,13 +11746,13 @@
         <v>29</v>
       </c>
       <c r="H171" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I171" s="12">
         <v>51</v>
       </c>
       <c r="J171" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K171" s="38">
         <v>30</v>
@@ -11734,7 +11804,7 @@
         <v>31</v>
       </c>
       <c r="H173" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I173" s="12">
         <v>51</v>
@@ -11762,7 +11832,7 @@
         <v>31</v>
       </c>
       <c r="H174" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I174" s="12">
         <v>51</v>
@@ -11790,7 +11860,7 @@
         <v>31</v>
       </c>
       <c r="H175" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I175" s="12">
         <v>51</v>
@@ -11874,7 +11944,7 @@
         <v>20</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K178" s="51">
         <v>30</v>
@@ -11952,7 +12022,7 @@
         <v>20</v>
       </c>
       <c r="F181" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G181" s="31"/>
       <c r="H181" s="41"/>
@@ -11984,7 +12054,7 @@
         <v>29</v>
       </c>
       <c r="H182" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I177)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 20</v>
       </c>
       <c r="I182" s="18">
@@ -12131,7 +12201,7 @@
         <v>20</v>
       </c>
       <c r="F187" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G187" s="31"/>
       <c r="H187" s="41"/>
@@ -12162,8 +12232,9 @@
       <c r="G188" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H188" s="41" t="s">
-        <v>329</v>
+      <c r="H188" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 20</v>
       </c>
       <c r="I188" s="18">
         <v>47</v>
@@ -12193,7 +12264,7 @@
         <v>30</v>
       </c>
       <c r="H189" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I189" s="18">
         <v>47</v>
@@ -12281,7 +12352,7 @@
         <v>29</v>
       </c>
       <c r="H192" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I181)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 21</v>
       </c>
       <c r="I192" s="18">
@@ -12312,7 +12383,7 @@
         <v>30</v>
       </c>
       <c r="H193" s="41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I193" s="18">
         <v>22</v>
@@ -12400,7 +12471,7 @@
         <v>29</v>
       </c>
       <c r="H196" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I192)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 22</v>
       </c>
       <c r="I196" s="18">
@@ -12605,7 +12676,7 @@
         <v>24</v>
       </c>
       <c r="J203" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K203" s="51">
         <v>30</v>
@@ -12683,7 +12754,7 @@
         <v>24</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G206" s="31"/>
       <c r="H206" s="41"/>
@@ -12715,7 +12786,7 @@
         <v>29</v>
       </c>
       <c r="H207" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I202)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 24</v>
       </c>
       <c r="I207" s="18">
@@ -12862,7 +12933,7 @@
         <v>24</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G212" s="31"/>
       <c r="H212" s="41"/>
@@ -12893,8 +12964,9 @@
       <c r="G213" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H213" s="41" t="s">
-        <v>190</v>
+      <c r="H213" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 24</v>
       </c>
       <c r="I213" s="18">
         <v>48</v>
@@ -12924,7 +12996,7 @@
         <v>30</v>
       </c>
       <c r="H214" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I214" s="18">
         <v>48</v>
@@ -12980,7 +13052,7 @@
         <v>25</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G216" s="31"/>
       <c r="H216" s="41"/>
@@ -13012,7 +13084,7 @@
         <v>29</v>
       </c>
       <c r="H217" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I207)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 25</v>
       </c>
       <c r="I217" s="18">
@@ -13043,7 +13115,7 @@
         <v>30</v>
       </c>
       <c r="H218" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I218" s="18">
         <v>26</v>
@@ -13099,7 +13171,7 @@
         <v>26</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G220" s="31"/>
       <c r="H220" s="41"/>
@@ -13131,7 +13203,7 @@
         <v>29</v>
       </c>
       <c r="H221" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I217)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 26</v>
       </c>
       <c r="I221" s="18">
@@ -13276,7 +13348,7 @@
       <c r="D226" s="52"/>
       <c r="E226" s="29"/>
       <c r="F226" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G226" s="31"/>
       <c r="H226" s="41"/>
@@ -13362,13 +13434,13 @@
         <v>29</v>
       </c>
       <c r="H229" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I229" s="18">
         <v>49</v>
       </c>
       <c r="J229" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K229" s="51">
         <v>30</v>
@@ -13472,7 +13544,7 @@
       <c r="D233" s="52"/>
       <c r="E233" s="29"/>
       <c r="F233" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G233" s="31"/>
       <c r="H233" s="41"/>
@@ -13530,7 +13602,7 @@
         <v>29</v>
       </c>
       <c r="H235" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I235" s="18">
         <v>53</v>
@@ -13558,13 +13630,13 @@
         <v>29</v>
       </c>
       <c r="H236" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I236" s="18">
         <v>53</v>
       </c>
       <c r="J236" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K236" s="51">
         <v>30</v>
@@ -13616,7 +13688,7 @@
         <v>31</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I238" s="18">
         <v>53</v>
@@ -13644,7 +13716,7 @@
         <v>31</v>
       </c>
       <c r="H239" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I239" s="18">
         <v>53</v>
@@ -13672,7 +13744,7 @@
         <v>31</v>
       </c>
       <c r="H240" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I240" s="18">
         <v>53</v>
@@ -13756,7 +13828,7 @@
         <v>28</v>
       </c>
       <c r="J243" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K243" s="51">
         <v>28</v>
@@ -13868,7 +13940,7 @@
         <v>29</v>
       </c>
       <c r="H247" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I242)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 28</v>
       </c>
       <c r="I247" s="18">
@@ -13987,7 +14059,7 @@
         <v>29</v>
       </c>
       <c r="H251" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I246)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 29</v>
       </c>
       <c r="I251" s="18">
@@ -14166,7 +14238,7 @@
         <v>29</v>
       </c>
       <c r="H257" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I242)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 28</v>
       </c>
       <c r="I257" s="18">
@@ -14285,7 +14357,7 @@
         <v>29</v>
       </c>
       <c r="H261" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I246)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 29</v>
       </c>
       <c r="I261" s="18">
@@ -14466,7 +14538,7 @@
         <v>38</v>
       </c>
       <c r="J267" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K267" s="51">
         <v>28</v>
@@ -14692,7 +14764,7 @@
         <v>40</v>
       </c>
       <c r="J275" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K275" s="51">
         <v>28</v>
@@ -14716,7 +14788,7 @@
         <v>29</v>
       </c>
       <c r="H276" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I276" s="12">
         <v>40</v>
@@ -14802,7 +14874,7 @@
         <v>30</v>
       </c>
       <c r="H279" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I279" s="12">
         <v>40</v>
@@ -14830,7 +14902,7 @@
         <v>31</v>
       </c>
       <c r="H280" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I280" s="12">
         <v>40</v>
@@ -14858,7 +14930,7 @@
         <v>31</v>
       </c>
       <c r="H281" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I281" s="12">
         <v>40</v>
@@ -14886,7 +14958,7 @@
         <v>31</v>
       </c>
       <c r="H282" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I282" s="12">
         <v>40</v>
@@ -14946,7 +15018,7 @@
         <v>41</v>
       </c>
       <c r="J284" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K284" s="51">
         <v>28</v>
@@ -14970,7 +15042,7 @@
         <v>29</v>
       </c>
       <c r="H285" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I285" s="12">
         <v>41</v>
@@ -14998,7 +15070,7 @@
         <v>29</v>
       </c>
       <c r="H286" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I286" s="12">
         <v>41</v>
@@ -15140,7 +15212,7 @@
         <v>33</v>
       </c>
       <c r="J291" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K291" s="51">
         <v>28</v>
@@ -15252,7 +15324,7 @@
         <v>29</v>
       </c>
       <c r="H295" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I290)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 33</v>
       </c>
       <c r="I295" s="18">
@@ -15371,7 +15443,7 @@
         <v>29</v>
       </c>
       <c r="H299" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I294)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 34</v>
       </c>
       <c r="I299" s="18">
@@ -15550,7 +15622,7 @@
         <v>29</v>
       </c>
       <c r="H305" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I290)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 33</v>
       </c>
       <c r="I305" s="18">
@@ -15669,7 +15741,7 @@
         <v>29</v>
       </c>
       <c r="H309" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I294)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 34</v>
       </c>
       <c r="I309" s="18">
@@ -16072,7 +16144,7 @@
         <v>42</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K323" s="51">
         <v>28</v>
@@ -16096,7 +16168,7 @@
         <v>29</v>
       </c>
       <c r="H324" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I324" s="18">
         <v>42</v>
@@ -16124,7 +16196,7 @@
         <v>29</v>
       </c>
       <c r="H325" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I325" s="18">
         <v>42</v>
@@ -16182,7 +16254,7 @@
         <v>30</v>
       </c>
       <c r="H327" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I327" s="18">
         <v>42</v>
@@ -16210,7 +16282,7 @@
         <v>31</v>
       </c>
       <c r="H328" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I328" s="18">
         <v>42</v>
@@ -16238,7 +16310,7 @@
         <v>31</v>
       </c>
       <c r="H329" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I329" s="18">
         <v>42</v>
@@ -16266,7 +16338,7 @@
         <v>31</v>
       </c>
       <c r="H330" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I330" s="18">
         <v>42</v>
@@ -16298,7 +16370,7 @@
         <v>43</v>
       </c>
       <c r="J331" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K331" s="51">
         <v>28</v>
@@ -16478,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="B338" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C338" s="72"/>
       <c r="D338" s="73"/>
@@ -16502,7 +16574,7 @@
         <v>55</v>
       </c>
       <c r="B339" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C339" s="66" t="s">
         <v>57</v>
@@ -16510,7 +16582,7 @@
       <c r="D339" s="67"/>
       <c r="E339" s="68"/>
       <c r="F339" s="69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H339" s="41"/>
       <c r="I339" s="70">
@@ -16527,7 +16599,7 @@
         <v>55</v>
       </c>
       <c r="B340" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C340" s="66" t="s">
         <v>57</v>
@@ -16545,7 +16617,7 @@
         <v>55</v>
       </c>
       <c r="J340" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K340" s="72">
         <v>38</v>
@@ -16557,7 +16629,7 @@
         <v>55</v>
       </c>
       <c r="B341" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C341" s="66" t="s">
         <v>57</v>
@@ -16569,7 +16641,7 @@
         <v>29</v>
       </c>
       <c r="H341" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I341" s="70">
         <v>55</v>
@@ -16585,7 +16657,7 @@
         <v>55</v>
       </c>
       <c r="B342" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C342" s="66" t="s">
         <v>57</v>
@@ -16597,13 +16669,13 @@
         <v>30</v>
       </c>
       <c r="H342" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I342" s="70">
         <v>55</v>
       </c>
       <c r="J342" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K342" s="72">
         <v>38</v>
@@ -16615,7 +16687,7 @@
         <v>55</v>
       </c>
       <c r="B343" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C343" s="66" t="s">
         <v>57</v>
@@ -16627,13 +16699,13 @@
         <v>31</v>
       </c>
       <c r="H343" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I343" s="70">
         <v>55</v>
       </c>
       <c r="J343" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K343" s="66">
         <v>38</v>
@@ -16645,7 +16717,7 @@
         <v>55</v>
       </c>
       <c r="B344" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C344" s="66" t="s">
         <v>57</v>
@@ -16657,7 +16729,7 @@
         <v>31</v>
       </c>
       <c r="H344" s="41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I344" s="70">
         <v>55</v>
@@ -16673,7 +16745,7 @@
         <v>55</v>
       </c>
       <c r="B345" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C345" s="66" t="s">
         <v>57</v>
@@ -16685,13 +16757,13 @@
         <v>31</v>
       </c>
       <c r="H345" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I345" s="70">
         <v>55</v>
       </c>
       <c r="J345" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K345" s="66">
         <v>38</v>
@@ -16703,7 +16775,7 @@
         <v>73</v>
       </c>
       <c r="B346" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C346" s="66" t="s">
         <v>57</v>
@@ -16713,7 +16785,7 @@
         <v>55</v>
       </c>
       <c r="F346" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H346" s="41"/>
       <c r="I346" s="70">
@@ -16724,13 +16796,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A347" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>73</v>
       </c>
       <c r="B347" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C347" s="66" t="s">
         <v>57</v>
@@ -16744,7 +16816,7 @@
         <v>29</v>
       </c>
       <c r="H347" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I342)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 55</v>
       </c>
       <c r="I347" s="70">
@@ -16755,13 +16827,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A348" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>73</v>
       </c>
       <c r="B348" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C348" s="66" t="s">
         <v>57</v>
@@ -16775,7 +16847,7 @@
         <v>29</v>
       </c>
       <c r="H348" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I348" s="70">
         <v>73</v>
@@ -16785,13 +16857,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="349" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A349" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>73</v>
       </c>
       <c r="B349" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C349" s="66" t="s">
         <v>57</v>
@@ -16805,25 +16877,25 @@
         <v>30</v>
       </c>
       <c r="H349" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I349" s="70">
         <v>73</v>
       </c>
       <c r="J349" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K349" s="66">
         <v>38</v>
       </c>
     </row>
-    <row r="350" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A350" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>73</v>
       </c>
       <c r="B350" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C350" s="66" t="s">
         <v>57</v>
@@ -16837,25 +16909,25 @@
         <v>31</v>
       </c>
       <c r="H350" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I350" s="70">
         <v>73</v>
       </c>
       <c r="J350" s="71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K350" s="66">
         <v>38</v>
       </c>
     </row>
-    <row r="351" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A351" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>73</v>
       </c>
       <c r="B351" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C351" s="66" t="s">
         <v>57</v>
@@ -16869,7 +16941,7 @@
         <v>31</v>
       </c>
       <c r="H351" s="41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I351" s="70">
         <v>73</v>
@@ -16879,13 +16951,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="352" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A352" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>73</v>
       </c>
       <c r="B352" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C352" s="66" t="s">
         <v>57</v>
@@ -16899,7 +16971,7 @@
         <v>31</v>
       </c>
       <c r="H352" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I352" s="70">
         <v>73</v>
@@ -16915,7 +16987,7 @@
         <v>78</v>
       </c>
       <c r="B353" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C353" s="66" t="s">
         <v>57</v>
@@ -16923,7 +16995,7 @@
       <c r="D353" s="67"/>
       <c r="E353" s="68"/>
       <c r="F353" s="69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H353" s="41"/>
       <c r="I353" s="70">
@@ -16934,13 +17006,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A354" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B354" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C354" s="66" t="s">
         <v>57</v>
@@ -16962,13 +17034,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="355" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A355" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B355" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C355" s="66" t="s">
         <v>57</v>
@@ -16980,7 +17052,7 @@
         <v>29</v>
       </c>
       <c r="H355" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I355" s="70">
         <v>78</v>
@@ -16990,13 +17062,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A356" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B356" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C356" s="66" t="s">
         <v>57</v>
@@ -17008,25 +17080,25 @@
         <v>29</v>
       </c>
       <c r="H356" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I356" s="70">
         <v>78</v>
       </c>
       <c r="J356" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K356" s="66">
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A357" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B357" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C357" s="66" t="s">
         <v>57</v>
@@ -17038,23 +17110,23 @@
         <v>30</v>
       </c>
       <c r="H357" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I357" s="70">
         <v>78</v>
       </c>
       <c r="J357" s="71" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K357" s="66"/>
     </row>
-    <row r="358" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A358" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B358" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C358" s="66" t="s">
         <v>57</v>
@@ -17066,25 +17138,25 @@
         <v>31</v>
       </c>
       <c r="H358" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I358" s="70">
         <v>78</v>
       </c>
       <c r="J358" s="71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K358" s="66">
         <v>38</v>
       </c>
     </row>
-    <row r="359" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A359" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B359" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C359" s="66" t="s">
         <v>57</v>
@@ -17096,25 +17168,25 @@
         <v>31</v>
       </c>
       <c r="H359" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I359" s="70">
         <v>78</v>
       </c>
       <c r="J359" s="71" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K359" s="66">
         <v>38</v>
       </c>
     </row>
-    <row r="360" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A360" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>78</v>
       </c>
       <c r="B360" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C360" s="66" t="s">
         <v>57</v>
@@ -17126,13 +17198,13 @@
         <v>31</v>
       </c>
       <c r="H360" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I360" s="70">
         <v>78</v>
       </c>
       <c r="J360" s="71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K360" s="66">
         <v>38</v>
@@ -17144,7 +17216,7 @@
         <v>79</v>
       </c>
       <c r="B361" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C361" s="66" t="s">
         <v>57</v>
@@ -17154,7 +17226,7 @@
         <v>78</v>
       </c>
       <c r="F361" s="69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H361" s="41"/>
       <c r="I361" s="70">
@@ -17171,7 +17243,7 @@
         <v>79</v>
       </c>
       <c r="B362" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C362" s="66" t="s">
         <v>57</v>
@@ -17185,7 +17257,7 @@
         <v>29</v>
       </c>
       <c r="H362" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I357)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 78</v>
       </c>
       <c r="I362" s="70">
@@ -17202,7 +17274,7 @@
         <v>79</v>
       </c>
       <c r="B363" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C363" s="66" t="s">
         <v>57</v>
@@ -17216,7 +17288,7 @@
         <v>29</v>
       </c>
       <c r="H363" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I363" s="70">
         <v>79</v>
@@ -17232,7 +17304,7 @@
         <v>79</v>
       </c>
       <c r="B364" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C364" s="66" t="s">
         <v>57</v>
@@ -17246,7 +17318,7 @@
         <v>29</v>
       </c>
       <c r="H364" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I364" s="70">
         <v>79</v>
@@ -17262,7 +17334,7 @@
         <v>79</v>
       </c>
       <c r="B365" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C365" s="66" t="s">
         <v>57</v>
@@ -17276,13 +17348,13 @@
         <v>30</v>
       </c>
       <c r="H365" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I365" s="70">
         <v>79</v>
       </c>
       <c r="J365" s="71" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K365" s="66">
         <v>38</v>
@@ -17294,7 +17366,7 @@
         <v>79</v>
       </c>
       <c r="B366" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C366" s="66" t="s">
         <v>57</v>
@@ -17308,13 +17380,13 @@
         <v>31</v>
       </c>
       <c r="H366" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I366" s="70">
         <v>79</v>
       </c>
       <c r="J366" s="71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K366" s="66">
         <v>38</v>
@@ -17326,7 +17398,7 @@
         <v>79</v>
       </c>
       <c r="B367" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C367" s="66" t="s">
         <v>57</v>
@@ -17340,13 +17412,13 @@
         <v>31</v>
       </c>
       <c r="H367" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I367" s="70">
         <v>79</v>
       </c>
       <c r="J367" s="71" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K367" s="66">
         <v>38</v>
@@ -17358,7 +17430,7 @@
         <v>79</v>
       </c>
       <c r="B368" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C368" s="66" t="s">
         <v>57</v>
@@ -17372,13 +17444,13 @@
         <v>31</v>
       </c>
       <c r="H368" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I368" s="70">
         <v>79</v>
       </c>
       <c r="J368" s="71" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K368" s="66">
         <v>38</v>
@@ -17390,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="B369" s="80" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C369" s="81"/>
       <c r="D369" s="82"/>
@@ -17407,13 +17479,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="370" spans="1:11" s="114" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" s="114" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
       </c>
       <c r="B370" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C370" s="66" t="s">
         <v>57</v>
@@ -17433,13 +17505,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="371" spans="1:11" s="114" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" s="114" customFormat="1" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A371" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
       </c>
       <c r="B371" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C371" s="66" t="s">
         <v>57</v>
@@ -17457,19 +17529,19 @@
         <v>80</v>
       </c>
       <c r="J371" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K371" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="372" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" s="114" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
       </c>
       <c r="B372" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C372" s="66" t="s">
         <v>57</v>
@@ -17481,7 +17553,7 @@
         <v>30</v>
       </c>
       <c r="H372" s="41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I372" s="70">
         <v>80</v>
@@ -17491,13 +17563,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A373" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
       </c>
       <c r="B373" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C373" s="66" t="s">
         <v>57</v>
@@ -17519,13 +17591,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A374" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
       </c>
       <c r="B374" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C374" s="66" t="s">
         <v>57</v>
@@ -17535,7 +17607,7 @@
         <v>80</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G374" s="37"/>
       <c r="H374" s="41"/>
@@ -17547,13 +17619,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A375" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
       </c>
       <c r="B375" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C375" s="66" t="s">
         <v>57</v>
@@ -17567,7 +17639,7 @@
         <v>29</v>
       </c>
       <c r="H375" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I370)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 80</v>
       </c>
       <c r="I375" s="70">
@@ -17578,13 +17650,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A376" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
       </c>
       <c r="B376" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C376" s="66" t="s">
         <v>57</v>
@@ -17608,13 +17680,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="377" spans="1:11" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" s="114" customFormat="1" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A377" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
       </c>
       <c r="B377" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C377" s="66" t="s">
         <v>57</v>
@@ -17628,7 +17700,7 @@
         <v>31</v>
       </c>
       <c r="H377" s="41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I377" s="70">
         <v>81</v>
@@ -17638,13 +17710,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:11" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" s="114" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A378" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
       </c>
       <c r="B378" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C378" s="66" t="s">
         <v>57</v>
@@ -17658,7 +17730,7 @@
         <v>31</v>
       </c>
       <c r="H378" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I378" s="70">
         <v>81</v>
@@ -17668,13 +17740,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
       </c>
       <c r="B379" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C379" s="66" t="s">
         <v>57</v>
@@ -17684,7 +17756,7 @@
         <v>80</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G379" s="37"/>
       <c r="H379" s="41"/>
@@ -17696,13 +17768,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A380" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
       </c>
       <c r="B380" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C380" s="66" t="s">
         <v>57</v>
@@ -17716,8 +17788,8 @@
         <v>29</v>
       </c>
       <c r="H380" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I375)</f>
-        <v>Result from scenario 81</v>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 80</v>
       </c>
       <c r="I380" s="70">
         <v>82</v>
@@ -17727,13 +17799,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A381" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
       </c>
       <c r="B381" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C381" s="66" t="s">
         <v>57</v>
@@ -17747,7 +17819,7 @@
         <v>30</v>
       </c>
       <c r="H381" s="41" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I381" s="70">
         <v>82</v>
@@ -17757,13 +17829,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="382" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A382" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
       </c>
       <c r="B382" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C382" s="66" t="s">
         <v>57</v>
@@ -17777,7 +17849,7 @@
         <v>31</v>
       </c>
       <c r="H382" s="41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I382" s="70">
         <v>82</v>
@@ -17787,13 +17859,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="383" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A383" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
       </c>
       <c r="B383" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C383" s="66" t="s">
         <v>57</v>
@@ -17807,7 +17879,7 @@
         <v>31</v>
       </c>
       <c r="H383" s="41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I383" s="70">
         <v>82</v>
@@ -17817,13 +17889,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="384" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A384" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B384" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C384" s="66" t="s">
         <v>57</v>
@@ -17833,7 +17905,7 @@
       </c>
       <c r="E384" s="68"/>
       <c r="F384" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G384" s="37"/>
       <c r="H384" s="41"/>
@@ -17845,13 +17917,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" s="114" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A385" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B385" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C385" s="66" t="s">
         <v>57</v>
@@ -17865,25 +17937,25 @@
         <v>29</v>
       </c>
       <c r="H385" s="41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I385" s="70">
         <v>83</v>
       </c>
       <c r="J385" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K385" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" s="114" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A386" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B386" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C386" s="66" t="s">
         <v>57</v>
@@ -17897,25 +17969,25 @@
         <v>29</v>
       </c>
       <c r="H386" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I386" s="70">
         <v>83</v>
       </c>
       <c r="J386" s="43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K386" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="387" spans="1:11" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" s="114" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A387" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B387" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C387" s="66" t="s">
         <v>57</v>
@@ -17929,7 +18001,7 @@
         <v>30</v>
       </c>
       <c r="H387" s="41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I387" s="70">
         <v>83</v>
@@ -17939,13 +18011,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="388" spans="1:11" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" s="114" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A388" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B388" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C388" s="66" t="s">
         <v>57</v>
@@ -17959,7 +18031,7 @@
         <v>31</v>
       </c>
       <c r="H388" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I388" s="70">
         <v>83</v>
@@ -17969,13 +18041,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="389" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A389" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>84</v>
       </c>
       <c r="B389" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C389" s="66" t="s">
         <v>57</v>
@@ -17985,7 +18057,7 @@
         <v>83</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G389" s="37"/>
       <c r="H389" s="41"/>
@@ -17997,13 +18069,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" spans="1:11" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" s="114" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A390" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>84</v>
       </c>
       <c r="B390" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C390" s="66" t="s">
         <v>57</v>
@@ -18017,7 +18089,7 @@
         <v>29</v>
       </c>
       <c r="H390" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I385)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 83</v>
       </c>
       <c r="I390" s="70">
@@ -18028,13 +18100,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:11" s="114" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" s="114" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A391" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>84</v>
       </c>
       <c r="B391" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C391" s="66" t="s">
         <v>57</v>
@@ -18048,7 +18120,7 @@
         <v>30</v>
       </c>
       <c r="H391" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I391" s="70">
         <v>84</v>
@@ -18058,13 +18130,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:11" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" s="114" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A392" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>84</v>
       </c>
       <c r="B392" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C392" s="66" t="s">
         <v>57</v>
@@ -18078,7 +18150,7 @@
         <v>31</v>
       </c>
       <c r="H392" s="41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I392" s="70">
         <v>84</v>
@@ -18088,13 +18160,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="393" spans="1:11" s="114" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" s="114" customFormat="1" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>84</v>
       </c>
       <c r="B393" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C393" s="66" t="s">
         <v>57</v>
@@ -18108,7 +18180,7 @@
         <v>31</v>
       </c>
       <c r="H393" s="41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I393" s="70">
         <v>84</v>
@@ -18118,13 +18190,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="394" spans="1:11" s="65" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" s="65" customFormat="1" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="105">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
       </c>
       <c r="B394" s="106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C394" s="107"/>
       <c r="D394" s="108"/>
@@ -18148,7 +18220,7 @@
         <v>56</v>
       </c>
       <c r="B395" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C395" s="66" t="s">
         <v>57</v>
@@ -18156,7 +18228,7 @@
       <c r="D395" s="67"/>
       <c r="E395" s="68"/>
       <c r="F395" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H395" s="41"/>
       <c r="I395" s="70">
@@ -18173,7 +18245,7 @@
         <v>56</v>
       </c>
       <c r="B396" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C396" s="66" t="s">
         <v>57</v>
@@ -18191,7 +18263,7 @@
         <v>56</v>
       </c>
       <c r="J396" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K396" s="66">
         <v>39</v>
@@ -18203,7 +18275,7 @@
         <v>56</v>
       </c>
       <c r="B397" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C397" s="66" t="s">
         <v>57</v>
@@ -18215,7 +18287,7 @@
         <v>29</v>
       </c>
       <c r="H397" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I397" s="70">
         <v>56</v>
@@ -18231,7 +18303,7 @@
         <v>56</v>
       </c>
       <c r="B398" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C398" s="66" t="s">
         <v>57</v>
@@ -18243,13 +18315,13 @@
         <v>30</v>
       </c>
       <c r="H398" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I398" s="70">
         <v>56</v>
       </c>
       <c r="J398" s="71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K398" s="66">
         <v>39</v>
@@ -18261,7 +18333,7 @@
         <v>56</v>
       </c>
       <c r="B399" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C399" s="66" t="s">
         <v>57</v>
@@ -18289,7 +18361,7 @@
         <v>57</v>
       </c>
       <c r="B400" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C400" s="66" t="s">
         <v>57</v>
@@ -18299,7 +18371,7 @@
         <v>56</v>
       </c>
       <c r="F400" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H400" s="41"/>
       <c r="I400" s="70">
@@ -18316,7 +18388,7 @@
         <v>57</v>
       </c>
       <c r="B401" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C401" s="66" t="s">
         <v>57</v>
@@ -18330,7 +18402,7 @@
         <v>29</v>
       </c>
       <c r="H401" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I396)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 56</v>
       </c>
       <c r="I401" s="70">
@@ -18347,7 +18419,7 @@
         <v>57</v>
       </c>
       <c r="B402" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C402" s="66" t="s">
         <v>57</v>
@@ -18377,7 +18449,7 @@
         <v>57</v>
       </c>
       <c r="B403" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C403" s="66" t="s">
         <v>57</v>
@@ -18391,7 +18463,7 @@
         <v>31</v>
       </c>
       <c r="H403" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I403" s="70">
         <v>57</v>
@@ -18407,7 +18479,7 @@
         <v>58</v>
       </c>
       <c r="B404" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C404" s="66" t="s">
         <v>57</v>
@@ -18417,7 +18489,7 @@
         <v>57</v>
       </c>
       <c r="F404" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H404" s="41"/>
       <c r="I404" s="70">
@@ -18434,7 +18506,7 @@
         <v>58</v>
       </c>
       <c r="B405" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C405" s="66" t="s">
         <v>57</v>
@@ -18448,7 +18520,7 @@
         <v>29</v>
       </c>
       <c r="H405" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I400)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 57</v>
       </c>
       <c r="I405" s="70">
@@ -18465,7 +18537,7 @@
         <v>58</v>
       </c>
       <c r="B406" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C406" s="66" t="s">
         <v>57</v>
@@ -18479,7 +18551,7 @@
         <v>30</v>
       </c>
       <c r="H406" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I406" s="70">
         <v>58</v>
@@ -18495,7 +18567,7 @@
         <v>58</v>
       </c>
       <c r="B407" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C407" s="66" t="s">
         <v>57</v>
@@ -18509,7 +18581,7 @@
         <v>31</v>
       </c>
       <c r="H407" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I407" s="70">
         <v>58</v>
@@ -18525,7 +18597,7 @@
         <v>58</v>
       </c>
       <c r="B408" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C408" s="66" t="s">
         <v>57</v>
@@ -18539,7 +18611,7 @@
         <v>31</v>
       </c>
       <c r="H408" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I408" s="70">
         <v>58</v>
@@ -18555,7 +18627,7 @@
         <v>58</v>
       </c>
       <c r="B409" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C409" s="66" t="s">
         <v>57</v>
@@ -18569,7 +18641,7 @@
         <v>31</v>
       </c>
       <c r="H409" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I409" s="70">
         <v>58</v>
@@ -18585,7 +18657,7 @@
         <v>59</v>
       </c>
       <c r="B410" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C410" s="66" t="s">
         <v>57</v>
@@ -18595,7 +18667,7 @@
         <v>56</v>
       </c>
       <c r="F410" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H410" s="41"/>
       <c r="I410" s="70">
@@ -18612,7 +18684,7 @@
         <v>59</v>
       </c>
       <c r="B411" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C411" s="66" t="s">
         <v>57</v>
@@ -18626,7 +18698,7 @@
         <v>29</v>
       </c>
       <c r="H411" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I395)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 56</v>
       </c>
       <c r="I411" s="70">
@@ -18643,7 +18715,7 @@
         <v>59</v>
       </c>
       <c r="B412" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C412" s="66" t="s">
         <v>57</v>
@@ -18673,7 +18745,7 @@
         <v>59</v>
       </c>
       <c r="B413" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C413" s="66" t="s">
         <v>57</v>
@@ -18703,7 +18775,7 @@
         <v>60</v>
       </c>
       <c r="B414" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C414" s="66" t="s">
         <v>172</v>
@@ -18713,7 +18785,7 @@
         <v>57</v>
       </c>
       <c r="F414" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H414" s="41"/>
       <c r="I414" s="70">
@@ -18730,7 +18802,7 @@
         <v>60</v>
       </c>
       <c r="B415" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C415" s="66" t="s">
         <v>57</v>
@@ -18744,7 +18816,7 @@
         <v>29</v>
       </c>
       <c r="H415" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",I400)</f>
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
         <v>Result from scenario 57</v>
       </c>
       <c r="I415" s="70">
@@ -18761,7 +18833,7 @@
         <v>60</v>
       </c>
       <c r="B416" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C416" s="66" t="s">
         <v>57</v>
@@ -18775,7 +18847,7 @@
         <v>30</v>
       </c>
       <c r="H416" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I416" s="70">
         <v>60</v>
@@ -18791,7 +18863,7 @@
         <v>60</v>
       </c>
       <c r="B417" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C417" s="66" t="s">
         <v>57</v>
@@ -18805,7 +18877,7 @@
         <v>31</v>
       </c>
       <c r="H417" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I417" s="70">
         <v>60</v>
@@ -18821,7 +18893,7 @@
         <v>60</v>
       </c>
       <c r="B418" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C418" s="66" t="s">
         <v>57</v>
@@ -18835,7 +18907,7 @@
         <v>31</v>
       </c>
       <c r="H418" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I418" s="70">
         <v>60</v>
@@ -18851,7 +18923,7 @@
         <v>60</v>
       </c>
       <c r="B419" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C419" s="66" t="s">
         <v>57</v>
@@ -18865,7 +18937,7 @@
         <v>31</v>
       </c>
       <c r="H419" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I419" s="70">
         <v>60</v>
@@ -18881,7 +18953,7 @@
         <v>68</v>
       </c>
       <c r="B420" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C420" s="66" t="s">
         <v>57</v>
@@ -18889,7 +18961,7 @@
       <c r="D420" s="67"/>
       <c r="E420" s="68"/>
       <c r="F420" s="69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H420" s="41"/>
       <c r="I420" s="70">
@@ -18906,7 +18978,7 @@
         <v>68</v>
       </c>
       <c r="B421" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C421" s="66" t="s">
         <v>57</v>
@@ -18918,13 +18990,13 @@
         <v>29</v>
       </c>
       <c r="H421" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I421" s="70">
         <v>68</v>
       </c>
       <c r="J421" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K421" s="66">
         <v>39</v>
@@ -18936,7 +19008,7 @@
         <v>68</v>
       </c>
       <c r="B422" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C422" s="66" t="s">
         <v>57</v>
@@ -18948,7 +19020,7 @@
         <v>29</v>
       </c>
       <c r="H422" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I422" s="70">
         <v>68</v>
@@ -18964,7 +19036,7 @@
         <v>68</v>
       </c>
       <c r="B423" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C423" s="66" t="s">
         <v>57</v>
@@ -18976,7 +19048,7 @@
         <v>29</v>
       </c>
       <c r="H423" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I423" s="70">
         <v>68</v>
@@ -18992,7 +19064,7 @@
         <v>68</v>
       </c>
       <c r="B424" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C424" s="66" t="s">
         <v>57</v>
@@ -19020,7 +19092,7 @@
         <v>68</v>
       </c>
       <c r="B425" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C425" s="66" t="s">
         <v>57</v>
@@ -19032,7 +19104,7 @@
         <v>30</v>
       </c>
       <c r="H425" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I425" s="70">
         <v>68</v>
@@ -19048,7 +19120,7 @@
         <v>68</v>
       </c>
       <c r="B426" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C426" s="66" t="s">
         <v>57</v>
@@ -19060,7 +19132,7 @@
         <v>31</v>
       </c>
       <c r="H426" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I426" s="70">
         <v>68</v>
@@ -19076,7 +19148,7 @@
         <v>68</v>
       </c>
       <c r="B427" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C427" s="66" t="s">
         <v>57</v>
@@ -19088,7 +19160,7 @@
         <v>31</v>
       </c>
       <c r="H427" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I427" s="70">
         <v>68</v>
@@ -19104,7 +19176,7 @@
         <v>68</v>
       </c>
       <c r="B428" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C428" s="66" t="s">
         <v>57</v>
@@ -19116,7 +19188,7 @@
         <v>31</v>
       </c>
       <c r="H428" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I428" s="70">
         <v>68</v>
@@ -19132,7 +19204,7 @@
         <v>69</v>
       </c>
       <c r="B429" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C429" s="66" t="s">
         <v>57</v>
@@ -19140,14 +19212,14 @@
       <c r="D429" s="67"/>
       <c r="E429" s="68"/>
       <c r="F429" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H429" s="41"/>
       <c r="I429" s="70">
         <v>69</v>
       </c>
       <c r="J429" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K429" s="66">
         <v>39</v>
@@ -19159,7 +19231,7 @@
         <v>69</v>
       </c>
       <c r="B430" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C430" s="66" t="s">
         <v>57</v>
@@ -19171,7 +19243,7 @@
         <v>29</v>
       </c>
       <c r="H430" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I430" s="70">
         <v>69</v>
@@ -19187,7 +19259,7 @@
         <v>69</v>
       </c>
       <c r="B431" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C431" s="66" t="s">
         <v>57</v>
@@ -19199,7 +19271,7 @@
         <v>29</v>
       </c>
       <c r="H431" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I431" s="70">
         <v>69</v>
@@ -19215,7 +19287,7 @@
         <v>69</v>
       </c>
       <c r="B432" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C432" s="66" t="s">
         <v>57</v>
@@ -19227,7 +19299,7 @@
         <v>29</v>
       </c>
       <c r="H432" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I432" s="70">
         <v>69</v>
@@ -19243,7 +19315,7 @@
         <v>69</v>
       </c>
       <c r="B433" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C433" s="66" t="s">
         <v>57</v>
@@ -19271,7 +19343,7 @@
         <v>69</v>
       </c>
       <c r="B434" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C434" s="66" t="s">
         <v>57</v>
@@ -19283,7 +19355,7 @@
         <v>29</v>
       </c>
       <c r="H434" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I434" s="70">
         <v>69</v>
@@ -19299,7 +19371,7 @@
         <v>69</v>
       </c>
       <c r="B435" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C435" s="66" t="s">
         <v>57</v>
@@ -19311,7 +19383,7 @@
         <v>132</v>
       </c>
       <c r="H435" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I435" s="70">
         <v>69</v>
@@ -19327,7 +19399,7 @@
         <v>69</v>
       </c>
       <c r="B436" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C436" s="66" t="s">
         <v>57</v>
@@ -19339,7 +19411,7 @@
         <v>31</v>
       </c>
       <c r="H436" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I436" s="70">
         <v>69</v>
@@ -19355,7 +19427,7 @@
         <v>69</v>
       </c>
       <c r="B437" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C437" s="66" t="s">
         <v>57</v>
@@ -19367,7 +19439,7 @@
         <v>31</v>
       </c>
       <c r="H437" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I437" s="70">
         <v>69</v>
@@ -19383,7 +19455,7 @@
         <v>69</v>
       </c>
       <c r="B438" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C438" s="66" t="s">
         <v>57</v>
@@ -19395,7 +19467,7 @@
         <v>31</v>
       </c>
       <c r="H438" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I438" s="70">
         <v>69</v>
@@ -19411,7 +19483,7 @@
         <v>69</v>
       </c>
       <c r="B439" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C439" s="66" t="s">
         <v>57</v>
@@ -19423,7 +19495,7 @@
         <v>31</v>
       </c>
       <c r="H439" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I439" s="70">
         <v>69</v>
@@ -19439,7 +19511,7 @@
         <v>70</v>
       </c>
       <c r="B440" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C440" s="66" t="s">
         <v>57</v>
@@ -19447,14 +19519,14 @@
       <c r="D440" s="67"/>
       <c r="E440" s="68"/>
       <c r="F440" s="69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H440" s="41"/>
       <c r="I440" s="70">
         <v>70</v>
       </c>
       <c r="J440" s="71" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K440" s="66">
         <v>39</v>
@@ -19466,7 +19538,7 @@
         <v>70</v>
       </c>
       <c r="B441" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C441" s="66" t="s">
         <v>57</v>
@@ -19478,7 +19550,7 @@
         <v>29</v>
       </c>
       <c r="H441" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I441" s="70">
         <v>70</v>
@@ -19494,7 +19566,7 @@
         <v>70</v>
       </c>
       <c r="B442" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C442" s="66" t="s">
         <v>57</v>
@@ -19506,7 +19578,7 @@
         <v>29</v>
       </c>
       <c r="H442" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I442" s="70">
         <v>70</v>
@@ -19522,7 +19594,7 @@
         <v>70</v>
       </c>
       <c r="B443" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C443" s="66" t="s">
         <v>57</v>
@@ -19534,7 +19606,7 @@
         <v>29</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I443" s="70">
         <v>70</v>
@@ -19550,7 +19622,7 @@
         <v>70</v>
       </c>
       <c r="B444" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C444" s="66" t="s">
         <v>57</v>
@@ -19578,7 +19650,7 @@
         <v>70</v>
       </c>
       <c r="B445" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C445" s="66" t="s">
         <v>57</v>
@@ -19590,7 +19662,7 @@
         <v>29</v>
       </c>
       <c r="H445" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I445" s="70">
         <v>70</v>
@@ -19606,7 +19678,7 @@
         <v>70</v>
       </c>
       <c r="B446" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C446" s="66" t="s">
         <v>57</v>
@@ -19618,7 +19690,7 @@
         <v>132</v>
       </c>
       <c r="H446" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I446" s="70">
         <v>70</v>
@@ -19634,7 +19706,7 @@
         <v>70</v>
       </c>
       <c r="B447" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C447" s="66" t="s">
         <v>57</v>
@@ -19646,7 +19718,7 @@
         <v>31</v>
       </c>
       <c r="H447" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I447" s="70">
         <v>70</v>
@@ -19662,7 +19734,7 @@
         <v>70</v>
       </c>
       <c r="B448" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C448" s="66" t="s">
         <v>57</v>
@@ -19674,7 +19746,7 @@
         <v>31</v>
       </c>
       <c r="H448" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I448" s="70">
         <v>70</v>
@@ -19690,7 +19762,7 @@
         <v>70</v>
       </c>
       <c r="B449" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C449" s="66" t="s">
         <v>57</v>
@@ -19702,7 +19774,7 @@
         <v>31</v>
       </c>
       <c r="H449" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I449" s="70">
         <v>70</v>
@@ -19718,7 +19790,7 @@
         <v>70</v>
       </c>
       <c r="B450" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C450" s="66" t="s">
         <v>57</v>
@@ -19730,7 +19802,7 @@
         <v>31</v>
       </c>
       <c r="H450" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I450" s="70">
         <v>70</v>
@@ -19746,7 +19818,7 @@
         <v>71</v>
       </c>
       <c r="B451" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C451" s="66" t="s">
         <v>57</v>
@@ -19754,14 +19826,14 @@
       <c r="D451" s="67"/>
       <c r="E451" s="68"/>
       <c r="F451" s="69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H451" s="41"/>
       <c r="I451" s="70">
         <v>71</v>
       </c>
       <c r="J451" s="71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K451" s="66">
         <v>39</v>
@@ -19773,7 +19845,7 @@
         <v>71</v>
       </c>
       <c r="B452" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C452" s="66" t="s">
         <v>57</v>
@@ -19785,7 +19857,7 @@
         <v>29</v>
       </c>
       <c r="H452" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I452" s="70">
         <v>71</v>
@@ -19801,7 +19873,7 @@
         <v>71</v>
       </c>
       <c r="B453" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C453" s="66" t="s">
         <v>57</v>
@@ -19813,7 +19885,7 @@
         <v>29</v>
       </c>
       <c r="H453" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I453" s="70">
         <v>71</v>
@@ -19829,7 +19901,7 @@
         <v>71</v>
       </c>
       <c r="B454" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C454" s="66" t="s">
         <v>57</v>
@@ -19841,7 +19913,7 @@
         <v>29</v>
       </c>
       <c r="H454" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I454" s="70">
         <v>71</v>
@@ -19857,7 +19929,7 @@
         <v>71</v>
       </c>
       <c r="B455" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C455" s="66" t="s">
         <v>57</v>
@@ -19869,7 +19941,7 @@
         <v>29</v>
       </c>
       <c r="H455" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I455" s="70">
         <v>71</v>
@@ -19885,7 +19957,7 @@
         <v>71</v>
       </c>
       <c r="B456" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C456" s="66" t="s">
         <v>57</v>
@@ -19913,7 +19985,7 @@
         <v>71</v>
       </c>
       <c r="B457" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C457" s="66" t="s">
         <v>57</v>
@@ -19925,7 +19997,7 @@
         <v>31</v>
       </c>
       <c r="H457" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I457" s="70">
         <v>71</v>
@@ -19941,7 +20013,7 @@
         <v>71</v>
       </c>
       <c r="B458" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C458" s="66" t="s">
         <v>57</v>
@@ -19953,7 +20025,7 @@
         <v>31</v>
       </c>
       <c r="H458" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I458" s="70">
         <v>71</v>
@@ -19969,7 +20041,7 @@
         <v>71</v>
       </c>
       <c r="B459" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C459" s="66" t="s">
         <v>57</v>
@@ -19981,7 +20053,7 @@
         <v>31</v>
       </c>
       <c r="H459" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I459" s="70">
         <v>71</v>
@@ -19997,7 +20069,7 @@
         <v>72</v>
       </c>
       <c r="B460" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C460" s="66" t="s">
         <v>57</v>
@@ -20005,7 +20077,7 @@
       <c r="D460" s="67"/>
       <c r="E460" s="68"/>
       <c r="F460" s="69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H460" s="41"/>
       <c r="I460" s="70">
@@ -20022,7 +20094,7 @@
         <v>72</v>
       </c>
       <c r="B461" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C461" s="66" t="s">
         <v>57</v>
@@ -20034,7 +20106,7 @@
         <v>29</v>
       </c>
       <c r="H461" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I461" s="70">
         <v>72</v>
@@ -20050,7 +20122,7 @@
         <v>72</v>
       </c>
       <c r="B462" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C462" s="66" t="s">
         <v>57</v>
@@ -20062,7 +20134,7 @@
         <v>29</v>
       </c>
       <c r="H462" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I462" s="70">
         <v>72</v>
@@ -20078,7 +20150,7 @@
         <v>72</v>
       </c>
       <c r="B463" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C463" s="66" t="s">
         <v>57</v>
@@ -20090,7 +20162,7 @@
         <v>29</v>
       </c>
       <c r="H463" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I463" s="70">
         <v>72</v>
@@ -20106,7 +20178,7 @@
         <v>72</v>
       </c>
       <c r="B464" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C464" s="66" t="s">
         <v>57</v>
@@ -20118,7 +20190,7 @@
         <v>29</v>
       </c>
       <c r="H464" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I464" s="70">
         <v>72</v>
@@ -20134,7 +20206,7 @@
         <v>72</v>
       </c>
       <c r="B465" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C465" s="66" t="s">
         <v>57</v>
@@ -20162,7 +20234,7 @@
         <v>72</v>
       </c>
       <c r="B466" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C466" s="66" t="s">
         <v>57</v>
@@ -20174,7 +20246,7 @@
         <v>31</v>
       </c>
       <c r="H466" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I466" s="70">
         <v>72</v>
@@ -20190,7 +20262,7 @@
         <v>72</v>
       </c>
       <c r="B467" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C467" s="66" t="s">
         <v>57</v>
@@ -20202,7 +20274,7 @@
         <v>31</v>
       </c>
       <c r="H467" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I467" s="70">
         <v>72</v>
@@ -20212,13 +20284,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" s="65" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
       </c>
       <c r="B468" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C468" s="66" t="s">
         <v>57</v>
@@ -20230,7 +20302,7 @@
         <v>31</v>
       </c>
       <c r="H468" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I468" s="70">
         <v>72</v>
@@ -20240,42 +20312,277 @@
         <v>39</v>
       </c>
     </row>
-    <row r="469" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="64">
+    <row r="469" spans="1:11" s="123" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="115">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
       </c>
-      <c r="B469" s="65"/>
-      <c r="C469" s="66"/>
-      <c r="D469" s="67"/>
-      <c r="E469" s="68"/>
-      <c r="F469" s="69"/>
-      <c r="G469" s="65"/>
-      <c r="H469" s="41"/>
-      <c r="I469" s="70"/>
-      <c r="J469" s="71"/>
-      <c r="K469" s="66"/>
+      <c r="B469" s="116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C469" s="117"/>
+      <c r="D469" s="118"/>
+      <c r="E469" s="119"/>
+      <c r="F469" s="120"/>
+      <c r="G469" s="116"/>
+      <c r="H469" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I469" s="121"/>
+      <c r="J469" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="K469" s="117">
+        <v>61</v>
+      </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="61"/>
-      <c r="B470" s="1" t="s">
+      <c r="A470" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B470" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C470" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D470" s="67"/>
+      <c r="E470" s="68"/>
+      <c r="F470" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="G470" s="65"/>
+      <c r="H470" s="41"/>
+      <c r="I470" s="70">
+        <v>85</v>
+      </c>
+      <c r="J470" s="71"/>
+      <c r="K470" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A471" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B471" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C471" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D471" s="67"/>
+      <c r="E471" s="68"/>
+      <c r="F471" s="69"/>
+      <c r="G471" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H471" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="I471" s="70">
+        <v>85</v>
+      </c>
+      <c r="J471" s="71"/>
+      <c r="K471" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B472" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C472" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D472" s="67"/>
+      <c r="E472" s="68"/>
+      <c r="F472" s="69"/>
+      <c r="G472" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H472" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="I472" s="70">
+        <v>85</v>
+      </c>
+      <c r="J472" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="K472" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B473" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C473" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D473" s="67"/>
+      <c r="E473" s="68"/>
+      <c r="F473" s="69"/>
+      <c r="G473" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H473" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="I473" s="70">
+        <v>85</v>
+      </c>
+      <c r="J473" s="71"/>
+      <c r="K473" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B474" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C474" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D474" s="67"/>
+      <c r="E474" s="68">
+        <v>85</v>
+      </c>
+      <c r="F474" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="G474" s="65"/>
+      <c r="H474" s="41"/>
+      <c r="I474" s="70">
+        <v>86</v>
+      </c>
+      <c r="J474" s="71"/>
+      <c r="K474" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B475" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C475" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D475" s="67"/>
+      <c r="E475" s="68">
+        <v>85</v>
+      </c>
+      <c r="F475" s="69"/>
+      <c r="G475" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H475" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 85</v>
+      </c>
+      <c r="I475" s="70">
+        <v>86</v>
+      </c>
+      <c r="J475" s="71"/>
+      <c r="K475" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B476" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C476" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D476" s="67"/>
+      <c r="E476" s="68">
+        <v>85</v>
+      </c>
+      <c r="F476" s="69"/>
+      <c r="G476" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H476" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="I476" s="70">
+        <v>86</v>
+      </c>
+      <c r="J476" s="71"/>
+      <c r="K476" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B477" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C477" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D477" s="67"/>
+      <c r="E477" s="68">
+        <v>85</v>
+      </c>
+      <c r="F477" s="69"/>
+      <c r="G477" s="65"/>
+      <c r="H477" s="41"/>
+      <c r="I477" s="70">
+        <v>86</v>
+      </c>
+      <c r="J477" s="71"/>
+      <c r="K477" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="61"/>
+      <c r="B478" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C470" s="3"/>
-      <c r="E470" s="10">
+      <c r="C478" s="3"/>
+      <c r="E478" s="10">
         <f>Table14[[#Totals],[Scenario '#]]</f>
-        <v>84</v>
-      </c>
-      <c r="F470" s="6"/>
-      <c r="H470" s="2"/>
-      <c r="I470" s="12">
+        <v>86</v>
+      </c>
+      <c r="F478" s="6"/>
+      <c r="H478" s="2"/>
+      <c r="I478" s="12">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20285,17 +20592,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20307,7 +20614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20318,135 +20625,146 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G423:G1048576 G1:G345 G369 G394:G421">
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+  <conditionalFormatting sqref="G1:G345 G369 G394:G421 G423:G474 G476:G1048576">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G422">
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G346:G352">
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G353:G360">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G361:G363">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G364:G368">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G370:G373">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G374:G378">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G379:G384 G388:G392">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G385:G386">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G387">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G393">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"Given"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G475">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"Then"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"When"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20491,7 +20809,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -20505,11 +20823,11 @@
         <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -20527,7 +20845,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20545,7 +20863,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -20563,7 +20881,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -20577,13 +20895,13 @@
         <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="87">
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -20594,22 +20912,22 @@
         <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="87">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Solved"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21102,13 +21420,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21159,10 +21477,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -21514,7 +21832,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="87">
         <v>53</v>
@@ -21562,7 +21880,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G20" s="87">
         <v>53</v>
@@ -21670,7 +21988,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G25" s="87">
         <v>53</v>
@@ -22075,7 +22393,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G44" s="87">
         <v>51</v>
@@ -22100,7 +22418,7 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G45" s="87">
         <v>43</v>
@@ -22125,7 +22443,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G46" s="87">
         <v>43</v>
@@ -22150,7 +22468,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G47" s="87">
         <v>43</v>
@@ -22175,7 +22493,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G48" s="87">
         <v>51</v>
@@ -22200,7 +22518,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G49" s="87">
         <v>56</v>
@@ -22225,7 +22543,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G50" s="87">
         <v>56</v>
@@ -22250,7 +22568,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G51" s="87">
         <v>44</v>
@@ -22335,7 +22653,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -22372,13 +22690,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22504,13 +22822,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22561,7 +22879,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -22675,7 +22993,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="99">
         <v>54</v>
@@ -22701,7 +23019,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="87">
         <v>54</v>
@@ -22722,13 +23040,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22799,10 +23117,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -22884,7 +23202,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -22941,13 +23259,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22998,10 +23316,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -23023,7 +23341,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="87">
         <v>56</v>
@@ -23048,7 +23366,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="87">
         <v>56</v>
@@ -23068,13 +23386,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23129,7 +23447,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -23227,7 +23545,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G6" s="87">
         <v>52</v>
@@ -23252,7 +23570,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" s="87">
         <v>52</v>
@@ -23260,13 +23578,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23333,10 +23651,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -23358,7 +23676,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="87">
         <v>67</v>
@@ -23383,7 +23701,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G3" s="87">
         <v>67</v>
@@ -23408,7 +23726,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="87">
         <v>67</v>
@@ -23433,7 +23751,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="87">
         <v>67</v>
@@ -23458,7 +23776,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="87">
         <v>67</v>
@@ -23483,7 +23801,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="87">
         <v>67</v>
@@ -23527,7 +23845,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G9" s="87">
         <v>67</v>
@@ -23552,7 +23870,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="87">
         <v>67</v>
@@ -23577,7 +23895,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="87">
         <v>67</v>
@@ -23602,7 +23920,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G12" s="87">
         <v>67</v>
@@ -23627,7 +23945,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G13" s="87">
         <v>67</v>
@@ -23652,7 +23970,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="87">
         <v>67</v>
@@ -23677,7 +23995,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="87">
         <v>67</v>
@@ -23702,7 +24020,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G16" s="87">
         <v>67</v>
@@ -23727,7 +24045,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G17" s="87">
         <v>67</v>
@@ -23752,7 +24070,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G18" s="87">
         <v>67</v>
@@ -23777,7 +24095,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G19" s="87">
         <v>67</v>
@@ -23802,7 +24120,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G20" s="87">
         <v>68</v>
@@ -23822,13 +24140,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvanv\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842B603-0A8F-4B80-9201-95A056D85C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAC4142-538B-47A6-849C-F95E6105B47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="24510" windowHeight="15990" tabRatio="693" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="24510" windowHeight="15990" tabRatio="693" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200811" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="20201027" sheetId="11" r:id="rId9"/>
     <sheet name="20201028" sheetId="12" r:id="rId10"/>
     <sheet name="20201121" sheetId="13" r:id="rId11"/>
-    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId12"/>
-    <sheet name="Questions" sheetId="2" r:id="rId13"/>
+    <sheet name="20201122" sheetId="14" r:id="rId12"/>
+    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId13"/>
+    <sheet name="Questions" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="378">
   <si>
     <t>Scenario</t>
   </si>
@@ -1688,6 +1689,12 @@
   </si>
   <si>
     <t>Enter "New Feature"in empty control</t>
+  </si>
+  <si>
+    <t>To "Valid Then" belongs helper function CreateValidThen, this should be renamed to CreateRenamedValidThen, instead a call to MakeRenamedValidThen is created (with no comment and no helper function</t>
+  </si>
+  <si>
+    <t>cannot reproduce</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2389,78 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="229">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2474,6 +2552,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFC00000"/>
@@ -2492,26 +2590,6 @@
         <i val="0"/>
         <color rgb="FF0070C0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3147,6 +3225,92 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3310,43 +3474,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3706,268 +3833,290 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="228" dataDxfId="227">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="208"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="206">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="226"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="225"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="224">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="205">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="223">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="204"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="203"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="222"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="144">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="124">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="142">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="123">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="141">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="122"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="120"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="140"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
   <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="116">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="134">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="114">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="132">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="113">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="131">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="130"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K478" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="102"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K478" totalsRowCount="1" headerRowDxfId="127" dataDxfId="126">
   <autoFilter ref="A1:K477" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="100" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="125" totalsRowDxfId="19">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="99" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="98" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="97" totalsRowDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="124" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="123" totalsRowDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="122" totalsRowDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="15">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="95" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="94" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="93" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="92" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="91" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="90" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="120" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="119" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="118" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="117" totalsRowDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="116" totalsRowDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="115" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="107">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="114">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="200"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="199"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="198">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="218"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="216">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="197">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="215">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="196"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="195"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="214"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="213"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="192"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="190">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="208">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="189">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="207">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="188"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="206"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="204"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="182"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="181"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="180">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="200"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="198">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="179">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="197">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="178"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="177"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="195"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="176" dataDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="174"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="173"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="172">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="192"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="190">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="171">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="189">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="170"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="188"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="164"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="163">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="183"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="181">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="162">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="180">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="160"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="158"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="179"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="177"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="155"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="154"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="153">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="173"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="171">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="152">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="170">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="151"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="150"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="169"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="168"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="167"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="145"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="144"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="143">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="163"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="161">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="142">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="160">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="141"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="139"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="159"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="156" dataDxfId="155">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="136"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="134">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="154"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="152">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="151">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="132"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="150"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4647,24 +4796,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5101,13 +5250,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5129,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AAAF6E-78DD-431A-8469-F0039B6C8AAD}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6788,13 +6937,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6818,11 +6967,349 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3776AF98-0090-4511-ADEE-DA882ECBACE1}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
+        <v>24</v>
+      </c>
+      <c r="C2" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D2" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then"</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B3" s="8">
+        <v>25</v>
+      </c>
+      <c r="C3" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D3" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>26</v>
+      </c>
+      <c r="C4" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D4" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of Then</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B5" s="8">
+        <v>27</v>
+      </c>
+      <c r="C5" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D5" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Revert Rename of Then step 2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B6" s="8">
+        <v>48</v>
+      </c>
+      <c r="C6" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D6" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename "Valid Then" to "Renamed Valid Then" step 2b</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B7" s="8">
+        <v>49</v>
+      </c>
+      <c r="C7" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D7" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename prefix</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="87">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="B8" s="8">
+        <v>53</v>
+      </c>
+      <c r="C8" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Then</v>
+      </c>
+      <c r="D8" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename duplicate Then</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B9" s="8">
+        <v>56</v>
+      </c>
+      <c r="C9" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D9" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B10" s="8">
+        <v>57</v>
+      </c>
+      <c r="C10" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D10" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario step 2a</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="B11" s="8">
+        <v>58</v>
+      </c>
+      <c r="C11" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Removing Scenario</v>
+      </c>
+      <c r="D11" s="63" t="str">
+        <f>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Removing Scenario step 3a</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="87">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E11">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="79" xr:uid="{9AF6A301-427B-4D65-AE20-92BC89FB3E04}"/>
+    <hyperlink ref="G3" r:id="rId2" display="79" xr:uid="{42D87E32-837E-4065-B25D-828BED3C65C7}"/>
+    <hyperlink ref="G4" r:id="rId3" display="79" xr:uid="{CD8164CF-83C5-4EF6-B598-93F03B26844F}"/>
+    <hyperlink ref="G5" r:id="rId4" display="79" xr:uid="{45CF0FFD-1899-4854-9441-05942DB1C911}"/>
+    <hyperlink ref="G7" r:id="rId5" display="51" xr:uid="{7A961CC3-5617-4A50-B6D7-CDBC57077F35}"/>
+    <hyperlink ref="G11" r:id="rId6" display="80" xr:uid="{E58F64F3-AB36-4760-94CC-34B583AB9D41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I476" sqref="I476"/>
+    <sheetView topLeftCell="B216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6996,7 +7483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7022,7 +7509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.75" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7052,7 +7539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7082,7 +7569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7110,7 +7597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7138,7 +7625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>1</v>
@@ -7166,7 +7653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7195,7 +7682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7227,7 +7714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7260,7 +7747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7291,7 +7778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7322,7 +7809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>2</v>
@@ -7353,7 +7840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7379,7 +7866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7409,7 +7896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7439,7 +7926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7467,7 +7954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7495,7 +7982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>3</v>
@@ -7525,7 +8012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7551,7 +8038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7581,7 +8068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7609,7 +8096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7637,7 +8124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7667,7 +8154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>8</v>
@@ -7695,7 +8182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7721,7 +8208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7751,7 +8238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7779,7 +8266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7807,7 +8294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7837,7 +8324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>64</v>
@@ -7865,7 +8352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7893,7 +8380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7925,7 +8412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7955,7 +8442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -7985,7 +8472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -8015,7 +8502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -8047,7 +8534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>66</v>
@@ -8079,7 +8566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8105,7 +8592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8135,7 +8622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8165,7 +8652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8193,7 +8680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8223,7 +8710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>10</v>
@@ -8251,7 +8738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8277,7 +8764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8307,7 +8794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8337,7 +8824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8365,7 +8852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8393,7 +8880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>12</v>
@@ -8423,7 +8910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8449,7 +8936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8479,7 +8966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8507,7 +8994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8537,7 +9024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8565,7 +9052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8593,7 +9080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>14</v>
@@ -8621,7 +9108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8647,7 +9134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8677,7 +9164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8705,7 +9192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8735,7 +9222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8763,7 +9250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8791,7 +9278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>61</v>
@@ -8819,7 +9306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -12626,7 +13113,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A202" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -12652,7 +13139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -12682,7 +13169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -12710,7 +13197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A205" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -12738,7 +13225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A206" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12766,7 +13253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A207" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12797,7 +13284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12827,7 +13314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A209" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12857,7 +13344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12887,7 +13374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -12917,7 +13404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A212" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -12945,7 +13432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -12976,7 +13463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A214" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -12996,7 +13483,7 @@
         <v>30</v>
       </c>
       <c r="H214" s="41" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="I214" s="18">
         <v>48</v>
@@ -13006,7 +13493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A215" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -13036,7 +13523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A216" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -13064,7 +13551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A217" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -13095,7 +13582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A218" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -13125,7 +13612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A219" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -13155,7 +13642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A220" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13183,7 +13670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A221" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13214,7 +13701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A222" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13244,7 +13731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A223" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13274,7 +13761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A224" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13304,7 +13791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A225" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -13334,7 +13821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13360,7 +13847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13388,7 +13875,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A228" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13416,7 +13903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A229" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13446,7 +13933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A230" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13474,7 +13961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A231" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13502,7 +13989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -13530,7 +14017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13556,7 +14043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A234" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13584,7 +14071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13612,7 +14099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A236" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13642,7 +14129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A237" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13670,7 +14157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A238" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13698,7 +14185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13726,7 +14213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -13754,7 +14241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -20592,12 +21079,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="48" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20626,145 +21113,145 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G345 G369 G394:G421 G423:G474 G476:G1048576">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="40" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G422">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G346:G352">
-    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G353:G360">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G361:G363">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="30" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G364:G368">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G370:G373">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G374:G378">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="21" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G379:G384 G388:G392">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G385:G386">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G387">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G393">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20776,7 +21263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB16863-C9D6-47DE-82AF-06BDE2CF5BC1}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -20924,10 +21411,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Solved"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21420,13 +21907,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22690,13 +23177,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22822,13 +23309,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23040,13 +23527,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23259,13 +23746,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23386,13 +23873,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23578,13 +24065,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24140,13 +24627,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C6199-4685-419B-A8CD-534C50B08C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5273A1EB-FB22-4FCF-A803-0AAE0E2C5FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="693" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15990" tabRatio="693" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20200811" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="20201121" sheetId="13" r:id="rId11"/>
     <sheet name="20201122" sheetId="14" r:id="rId12"/>
     <sheet name="20201128" sheetId="15" r:id="rId13"/>
-    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId14"/>
-    <sheet name="Questions" sheetId="2" r:id="rId15"/>
+    <sheet name="20210121" sheetId="16" r:id="rId14"/>
+    <sheet name="ATDD Scenarios" sheetId="3" r:id="rId15"/>
+    <sheet name="Questions" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="396">
   <si>
     <t>Scenario</t>
   </si>
@@ -1641,18 +1642,6 @@
     </r>
   </si>
   <si>
-    <t>Rename to unique name</t>
-  </si>
-  <si>
-    <t>Change "Third test function with valid Given-When-Then structure" to "Another test function with valid Given-When-Then structure" to and confirm</t>
-  </si>
-  <si>
-    <t>Comment line "[SCENARIO 0002] Second test function with valid Given-When-Then structure" is updated to "[SCENARIO 0002] Valid Given-When-Then structure"</t>
-  </si>
-  <si>
-    <t>Second test function (scenario) is renamed</t>
-  </si>
-  <si>
     <t>Adding Feature</t>
   </si>
   <si>
@@ -1770,6 +1759,21 @@
   </si>
   <si>
     <t>Call to VerifyValidThen helper function remains and is positioned after CheckRenamedValidThen</t>
+  </si>
+  <si>
+    <t>Given change is reverted</t>
+  </si>
+  <si>
+    <t>Rename scenario step 2b</t>
+  </si>
+  <si>
+    <t>Rename scenario step 2a</t>
+  </si>
+  <si>
+    <t>Rename scenario</t>
+  </si>
+  <si>
+    <t>Second test function (scenario) is renamed (Note tat this test has been removed)</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +2465,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="256">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2799,24 +2803,23 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
+        <color rgb="FF006100"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2835,6 +2838,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3691,6 +3704,36 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3998,116 +4041,138 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="246" dataDxfId="245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="255" dataDxfId="254">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="244"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="243"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="242">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="253"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="252"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="251">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="241">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="250">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="240"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="239"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="249"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="248"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="162">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="171">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="160">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="169">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="159">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="168">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="167"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="165"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="152">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="161">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="150">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="159">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="158">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="157"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="143">
+    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="152">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="141">
+    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="150">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="149">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="139"/>
-    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="143">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="112">
+    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="141">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="111">
+    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K504" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135">
-  <autoFilter ref="A1:K503" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CD807E79-84C6-4174-92DA-26DB54E8608E}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+  <autoFilter ref="A1:G2" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="114">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="112">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="111">
+      <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="108"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K500" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135">
+  <autoFilter ref="A1:K499" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="134" totalsRowDxfId="107">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
@@ -4129,7 +4194,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="123">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
@@ -4145,165 +4210,165 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="238" dataDxfId="237">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="247" dataDxfId="246">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="236"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="235"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="234">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="245"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="244"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="243">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="233">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="242">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="232"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="231"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="241"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="240"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="230" dataDxfId="229">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="228"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="227"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="226">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="237"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="235">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="225">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="234">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="224"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="222"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="221"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="233"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="232"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="231"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="230"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="218"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="217"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="216">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="227"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="225">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="215">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="224">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="214"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="213"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="223"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="210"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="209"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="208">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="219"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="217">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="207">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="216">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="206"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="204"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="215"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="214"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="213"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="201"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="200"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="199">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="208">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="198">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="207">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="197"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="196"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="195"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="194"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="206"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="204"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="193" dataDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="191"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="190"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="189">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="200"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="199"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="198">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="188">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="197">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="187"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="196"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="181"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="179">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="190"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="188">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="178">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="177"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="175"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="186"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="172"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="170">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="179">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="169">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="178">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="167"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="166"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="165"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="175"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5466,7 +5531,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:D50"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7012,7 +7077,7 @@
       </c>
       <c r="D71" s="63" t="str">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given"</v>
+        <v>Rename scenario</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>4</v>
@@ -7033,7 +7098,7 @@
       </c>
       <c r="D72" s="63" t="str">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
+        <v>Rename scenario step 2a</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>4</v>
@@ -7054,7 +7119,7 @@
       </c>
       <c r="D73" s="63" t="str">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Rename "Valid Given" to "Renamed Valid Given" step 2b</v>
+        <v>Rename scenario step 2b</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>11</v>
@@ -7085,26 +7150,26 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75" s="1" t="e">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>60</v>
+        <v>#N/A</v>
       </c>
       <c r="B75" s="8">
         <v>84</v>
       </c>
-      <c r="C75" s="63" t="str">
+      <c r="C75" s="63" t="e">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>Updating Scenario</v>
-      </c>
-      <c r="D75" s="63" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D75" s="63" t="e">
         <f>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>Rename to unique name</v>
+        <v>#N/A</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="G75" s="87">
         <v>81</v>
@@ -7332,7 +7397,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G7" s="87">
         <v>51</v>
@@ -7422,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G11" s="87">
         <v>80</v>
@@ -7495,7 +7560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415B8470-3120-4A23-AC9C-68C31B8E933B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -7661,11 +7726,106 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F9A43B-31F1-4142-BBC4-1FC07DFD9AB4}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="90.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],11,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="B2" s="8">
+        <v>83</v>
+      </c>
+      <c r="C2" s="63" t="str">
+        <f>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],2,FALSE)</f>
+        <v>Updating Scenario</v>
+      </c>
+      <c r="D2" s="63" t="str">
+        <f>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],6,FALSE)</f>
+        <v>Rename to already existing scenario name</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
-    <sheetView topLeftCell="B241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView topLeftCell="B404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B416" sqref="A416:XFD420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -11551,7 +11711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -11577,7 +11737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="30.75" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A137" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -11607,7 +11767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A138" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -11635,7 +11795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A139" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>16</v>
@@ -11663,7 +11823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -11691,7 +11851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A141" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -11722,7 +11882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -11752,7 +11912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -11782,7 +11942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -11812,7 +11972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>17</v>
@@ -11842,7 +12002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A146" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -11870,7 +12030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -11901,7 +12061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A148" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -11931,7 +12091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A149" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -11961,7 +12121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>46</v>
@@ -11991,7 +12151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A151" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -12019,7 +12179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -12050,7 +12210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A153" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -12080,7 +12240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A154" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>18</v>
@@ -12110,7 +12270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -12138,7 +12298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A156" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -12169,7 +12329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A157" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -12199,7 +12359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A158" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -12229,7 +12389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A159" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -12259,7 +12419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>19</v>
@@ -12279,7 +12439,7 @@
         <v>31</v>
       </c>
       <c r="H160" s="41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I160" s="12">
         <v>19</v>
@@ -12289,7 +12449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A161" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12303,7 +12463,7 @@
       <c r="D161" s="39"/>
       <c r="E161" s="10"/>
       <c r="F161" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="41"/>
@@ -12315,7 +12475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A162" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12345,7 +12505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A163" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12373,7 +12533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12391,7 +12551,7 @@
         <v>29</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I164" s="12">
         <v>44</v>
@@ -12401,7 +12561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A165" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12431,7 +12591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A166" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12459,7 +12619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12487,7 +12647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A168" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12505,7 +12665,7 @@
         <v>31</v>
       </c>
       <c r="H168" s="41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I168" s="12">
         <v>44</v>
@@ -12515,7 +12675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A169" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>44</v>
@@ -12533,7 +12693,7 @@
         <v>31</v>
       </c>
       <c r="H169" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I169" s="12">
         <v>44</v>
@@ -12543,7 +12703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12557,7 +12717,7 @@
       <c r="D170" s="39"/>
       <c r="E170" s="10"/>
       <c r="F170" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="41"/>
@@ -12571,7 +12731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A171" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12599,7 +12759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A172" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12627,7 +12787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A173" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12645,7 +12805,7 @@
         <v>29</v>
       </c>
       <c r="H173" s="41" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I173" s="12">
         <v>87</v>
@@ -12657,7 +12817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A174" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12685,7 +12845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A175" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12713,7 +12873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A176" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12741,7 +12901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A177" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12759,7 +12919,7 @@
         <v>31</v>
       </c>
       <c r="H177" s="41" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I177" s="12">
         <v>87</v>
@@ -12769,7 +12929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A178" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12787,7 +12947,7 @@
         <v>31</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I178" s="12">
         <v>87</v>
@@ -12797,7 +12957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12815,7 +12975,7 @@
         <v>31</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I179" s="12">
         <v>87</v>
@@ -12825,7 +12985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A180" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>87</v>
@@ -12843,7 +13003,7 @@
         <v>31</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I180" s="12">
         <v>87</v>
@@ -12853,7 +13013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A181" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -12879,7 +13039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A182" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -12909,7 +13069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -12937,7 +13097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -12967,7 +13127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A185" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -12995,7 +13155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A186" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -13023,7 +13183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A187" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -13051,7 +13211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>51</v>
@@ -13079,7 +13239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -13384,7 +13544,7 @@
         <v>31</v>
       </c>
       <c r="H199" s="41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I199" s="18">
         <v>21</v>
@@ -13801,7 +13961,7 @@
         <v>31</v>
       </c>
       <c r="H213" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I213" s="18">
         <v>23</v>
@@ -13835,7 +13995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A215" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -13861,7 +14021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A216" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -13891,7 +14051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A217" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -13919,7 +14079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A218" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>24</v>
@@ -13947,7 +14107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -13975,7 +14135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A220" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -14006,7 +14166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A221" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -14036,7 +14196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A222" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -14066,7 +14226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A223" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -14096,7 +14256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A224" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>25</v>
@@ -14116,7 +14276,7 @@
         <v>31</v>
       </c>
       <c r="H224" s="41" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I224" s="18">
         <v>25</v>
@@ -14126,7 +14286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -14154,7 +14314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A226" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -14185,7 +14345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -14215,7 +14375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A228" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>48</v>
@@ -14245,7 +14405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A229" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -14273,7 +14433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A230" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -14304,7 +14464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A231" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -14334,7 +14494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>26</v>
@@ -14364,7 +14524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -14392,7 +14552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A234" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -14423,7 +14583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A235" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -14453,7 +14613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A236" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -14483,7 +14643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A237" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -14513,7 +14673,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A238" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>27</v>
@@ -14533,7 +14693,7 @@
         <v>31</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I238" s="18">
         <v>27</v>
@@ -14543,7 +14703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A239" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14557,7 +14717,7 @@
       <c r="D239" s="52"/>
       <c r="E239" s="29"/>
       <c r="F239" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G239" s="31"/>
       <c r="H239" s="41"/>
@@ -14569,7 +14729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A240" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14597,7 +14757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A241" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14625,7 +14785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A242" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14643,7 +14803,7 @@
         <v>29</v>
       </c>
       <c r="H242" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I242" s="18">
         <v>49</v>
@@ -14653,7 +14813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A243" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14683,7 +14843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A244" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14711,7 +14871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A245" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14739,7 +14899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A246" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14757,7 +14917,7 @@
         <v>31</v>
       </c>
       <c r="H246" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I246" s="18">
         <v>49</v>
@@ -14767,7 +14927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A247" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>49</v>
@@ -14785,7 +14945,7 @@
         <v>31</v>
       </c>
       <c r="H247" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I247" s="18">
         <v>49</v>
@@ -14795,7 +14955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A248" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14809,7 +14969,7 @@
       <c r="D248" s="52"/>
       <c r="E248" s="29"/>
       <c r="F248" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G248" s="37"/>
       <c r="H248" s="41"/>
@@ -14821,7 +14981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A249" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14849,7 +15009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A250" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14877,7 +15037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A251" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14895,7 +15055,7 @@
         <v>29</v>
       </c>
       <c r="H251" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I251" s="18">
         <v>88</v>
@@ -14905,7 +15065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A252" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14933,7 +15093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A253" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14961,7 +15121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A254" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -14989,7 +15149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A255" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -15007,7 +15167,7 @@
         <v>31</v>
       </c>
       <c r="H255" s="41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I255" s="18">
         <v>88</v>
@@ -15017,7 +15177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A256" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -15035,7 +15195,7 @@
         <v>31</v>
       </c>
       <c r="H256" s="41" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I256" s="18">
         <v>88</v>
@@ -15045,7 +15205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A257" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -15063,7 +15223,7 @@
         <v>31</v>
       </c>
       <c r="H257" s="41" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I257" s="18">
         <v>88</v>
@@ -15073,7 +15233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A258" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>88</v>
@@ -15091,7 +15251,7 @@
         <v>31</v>
       </c>
       <c r="H258" s="41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I258" s="18">
         <v>88</v>
@@ -15101,7 +15261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A259" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15127,7 +15287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15155,7 +15315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15183,7 +15343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15213,7 +15373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15241,7 +15401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15269,7 +15429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15297,7 +15457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -15325,7 +15485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
@@ -19048,10 +19208,10 @@
         <v>2</v>
       </c>
       <c r="K395" s="81">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" s="113" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" s="113" customFormat="1" ht="16.5" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
@@ -19065,7 +19225,7 @@
       <c r="D396" s="67"/>
       <c r="E396" s="68"/>
       <c r="F396" s="6" t="s">
-        <v>89</v>
+        <v>394</v>
       </c>
       <c r="G396" s="37"/>
       <c r="H396" s="40"/>
@@ -19077,7 +19237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="397" spans="1:11" s="113" customFormat="1" ht="30.75" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" s="113" customFormat="1" ht="30.75" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A397" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
@@ -19107,7 +19267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="398" spans="1:11" s="113" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" s="113" customFormat="1" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A398" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
@@ -19135,7 +19295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="399" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A399" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>80</v>
@@ -19163,7 +19323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="400" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A400" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
@@ -19179,7 +19339,7 @@
         <v>80</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>186</v>
+        <v>393</v>
       </c>
       <c r="G400" s="37"/>
       <c r="H400" s="41"/>
@@ -19191,7 +19351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="401" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A401" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
@@ -19222,7 +19382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="402" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A402" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
@@ -19252,7 +19412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="403" spans="1:11" s="113" customFormat="1" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" s="113" customFormat="1" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A403" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
@@ -19282,7 +19442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:11" s="113" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" s="113" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A404" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
@@ -19312,7 +19472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="405" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A405" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
@@ -19328,7 +19488,7 @@
         <v>80</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="G405" s="37"/>
       <c r="H405" s="41"/>
@@ -19340,7 +19500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="406" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A406" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
@@ -19371,7 +19531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A407" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
@@ -19401,7 +19561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A408" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
@@ -19431,7 +19591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="409" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" s="113" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A409" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
@@ -19461,7 +19621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="410" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
@@ -19489,7 +19649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:11" s="113" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" s="113" customFormat="1" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A411" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
@@ -19521,7 +19681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:11" s="113" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" s="113" customFormat="1" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
@@ -19553,7 +19713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="413" spans="1:11" s="113" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" s="113" customFormat="1" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A413" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
@@ -19583,7 +19743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="414" spans="1:11" s="113" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" s="113" customFormat="1" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
@@ -19613,10 +19773,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="415" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" s="113" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B415" s="65" t="s">
         <v>343</v>
@@ -19624,169 +19784,163 @@
       <c r="C415" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D415" s="67"/>
-      <c r="E415" s="68">
+      <c r="D415" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E415" s="68"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H415" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="I415" s="70">
         <v>83</v>
-      </c>
-      <c r="F415" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="G415" s="37"/>
-      <c r="H415" s="41"/>
-      <c r="I415" s="70">
-        <v>84</v>
       </c>
       <c r="J415" s="71"/>
       <c r="K415" s="66">
         <v>60</v>
       </c>
     </row>
-    <row r="416" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>84</v>
-      </c>
-      <c r="B416" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="C416" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D416" s="67"/>
-      <c r="E416" s="68">
-        <v>83</v>
-      </c>
-      <c r="F416" s="6"/>
-      <c r="G416" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H416" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 83</v>
-      </c>
-      <c r="I416" s="70">
-        <v>84</v>
-      </c>
-      <c r="J416" s="71"/>
+    <row r="416" spans="1:11" s="65" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="105">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>0</v>
+      </c>
+      <c r="B416" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="C416" s="107"/>
+      <c r="D416" s="108"/>
+      <c r="E416" s="109"/>
+      <c r="F416" s="110"/>
+      <c r="G416" s="106"/>
+      <c r="H416" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I416" s="111"/>
+      <c r="J416" s="112" t="s">
+        <v>2</v>
+      </c>
       <c r="K416" s="66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" s="113" customFormat="1" ht="48.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A417" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B417" s="65" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="C417" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D417" s="67"/>
-      <c r="E417" s="68">
-        <v>83</v>
-      </c>
-      <c r="F417" s="6"/>
-      <c r="G417" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H417" s="41" t="s">
-        <v>360</v>
-      </c>
+      <c r="E417" s="68"/>
+      <c r="F417" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="H417" s="41"/>
       <c r="I417" s="70">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J417" s="71"/>
       <c r="K417" s="66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" s="113" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A418" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B418" s="65" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="C418" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D418" s="67"/>
-      <c r="E418" s="68">
-        <v>83</v>
-      </c>
-      <c r="F418" s="6"/>
-      <c r="G418" s="37" t="s">
-        <v>31</v>
+      <c r="E418" s="68"/>
+      <c r="F418" s="69"/>
+      <c r="G418" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="H418" s="41" t="s">
-        <v>361</v>
+        <v>55</v>
       </c>
       <c r="I418" s="70">
-        <v>84</v>
-      </c>
-      <c r="J418" s="71"/>
+        <v>56</v>
+      </c>
+      <c r="J418" s="43" t="s">
+        <v>351</v>
+      </c>
       <c r="K418" s="66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" s="113" customFormat="1" ht="30.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A419" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B419" s="65" t="s">
-        <v>343</v>
+        <v>224</v>
       </c>
       <c r="C419" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D419" s="67"/>
-      <c r="E419" s="68">
-        <v>83</v>
-      </c>
-      <c r="F419" s="6"/>
-      <c r="G419" s="37" t="s">
-        <v>31</v>
+      <c r="E419" s="68"/>
+      <c r="F419" s="69"/>
+      <c r="G419" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="H419" s="41" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="I419" s="70">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="J419" s="71"/>
       <c r="K419" s="66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" s="65" customFormat="1" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="105">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>0</v>
-      </c>
-      <c r="B420" s="106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A420" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>56</v>
+      </c>
+      <c r="B420" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C420" s="107"/>
-      <c r="D420" s="108"/>
-      <c r="E420" s="109"/>
-      <c r="F420" s="110"/>
-      <c r="G420" s="106"/>
-      <c r="H420" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="I420" s="111"/>
-      <c r="J420" s="112" t="s">
-        <v>2</v>
+      <c r="C420" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D420" s="67"/>
+      <c r="E420" s="68"/>
+      <c r="F420" s="69"/>
+      <c r="G420" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H420" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="I420" s="70">
+        <v>56</v>
+      </c>
+      <c r="J420" s="71" t="s">
+        <v>226</v>
       </c>
       <c r="K420" s="66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -19799,10 +19953,13 @@
       </c>
       <c r="D421" s="67"/>
       <c r="E421" s="68"/>
-      <c r="F421" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="H421" s="41"/>
+      <c r="F421" s="69"/>
+      <c r="G421" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H421" s="41" t="s">
+        <v>126</v>
+      </c>
       <c r="I421" s="70">
         <v>56</v>
       </c>
@@ -19811,10 +19968,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="422" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A422" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B422" s="65" t="s">
         <v>224</v>
@@ -19823,28 +19980,25 @@
         <v>57</v>
       </c>
       <c r="D422" s="67"/>
-      <c r="E422" s="68"/>
-      <c r="F422" s="69"/>
-      <c r="G422" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H422" s="41" t="s">
-        <v>55</v>
-      </c>
+      <c r="E422" s="68">
+        <v>56</v>
+      </c>
+      <c r="F422" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="H422" s="41"/>
       <c r="I422" s="70">
-        <v>56</v>
-      </c>
-      <c r="J422" s="43" t="s">
-        <v>351</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J422" s="71"/>
       <c r="K422" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="423" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A423" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B423" s="65" t="s">
         <v>224</v>
@@ -19853,16 +20007,19 @@
         <v>57</v>
       </c>
       <c r="D423" s="67"/>
-      <c r="E423" s="68"/>
+      <c r="E423" s="68">
+        <v>56</v>
+      </c>
       <c r="F423" s="69"/>
       <c r="G423" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H423" s="41" t="s">
-        <v>220</v>
+      <c r="H423" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I423" s="70">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J423" s="71"/>
       <c r="K423" s="66">
@@ -19872,7 +20029,7 @@
     <row r="424" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A424" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B424" s="65" t="s">
         <v>224</v>
@@ -19881,28 +20038,28 @@
         <v>57</v>
       </c>
       <c r="D424" s="67"/>
-      <c r="E424" s="68"/>
+      <c r="E424" s="68">
+        <v>56</v>
+      </c>
       <c r="F424" s="69"/>
       <c r="G424" s="65" t="s">
         <v>30</v>
       </c>
       <c r="H424" s="41" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="I424" s="70">
-        <v>56</v>
-      </c>
-      <c r="J424" s="71" t="s">
-        <v>226</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="J424" s="71"/>
       <c r="K424" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="425" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A425" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B425" s="65" t="s">
         <v>224</v>
@@ -19911,16 +20068,18 @@
         <v>57</v>
       </c>
       <c r="D425" s="67"/>
-      <c r="E425" s="68"/>
+      <c r="E425" s="68">
+        <v>56</v>
+      </c>
       <c r="F425" s="69"/>
       <c r="G425" s="65" t="s">
         <v>31</v>
       </c>
       <c r="H425" s="41" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="I425" s="70">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J425" s="71"/>
       <c r="K425" s="66">
@@ -19930,7 +20089,7 @@
     <row r="426" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A426" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B426" s="65" t="s">
         <v>224</v>
@@ -19940,14 +20099,14 @@
       </c>
       <c r="D426" s="67"/>
       <c r="E426" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F426" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H426" s="41"/>
       <c r="I426" s="70">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J426" s="71"/>
       <c r="K426" s="66">
@@ -19957,7 +20116,7 @@
     <row r="427" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A427" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B427" s="65" t="s">
         <v>224</v>
@@ -19967,7 +20126,7 @@
       </c>
       <c r="D427" s="67"/>
       <c r="E427" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F427" s="69"/>
       <c r="G427" s="65" t="s">
@@ -19975,10 +20134,10 @@
       </c>
       <c r="H427" s="41" t="str">
         <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 56</v>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I427" s="70">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J427" s="71"/>
       <c r="K427" s="66">
@@ -19988,7 +20147,7 @@
     <row r="428" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A428" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B428" s="65" t="s">
         <v>224</v>
@@ -19998,27 +20157,27 @@
       </c>
       <c r="D428" s="67"/>
       <c r="E428" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F428" s="69"/>
       <c r="G428" s="65" t="s">
         <v>30</v>
       </c>
       <c r="H428" s="41" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="I428" s="70">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J428" s="71"/>
       <c r="K428" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="429" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A429" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B429" s="65" t="s">
         <v>224</v>
@@ -20028,17 +20187,17 @@
       </c>
       <c r="D429" s="67"/>
       <c r="E429" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F429" s="69"/>
       <c r="G429" s="65" t="s">
         <v>31</v>
       </c>
       <c r="H429" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I429" s="70">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J429" s="71"/>
       <c r="K429" s="66">
@@ -20060,10 +20219,13 @@
       <c r="E430" s="68">
         <v>57</v>
       </c>
-      <c r="F430" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="H430" s="41"/>
+      <c r="F430" s="69"/>
+      <c r="G430" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H430" s="41" t="s">
+        <v>231</v>
+      </c>
       <c r="I430" s="70">
         <v>58</v>
       </c>
@@ -20072,7 +20234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="431" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A431" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -20089,11 +20251,10 @@
       </c>
       <c r="F431" s="69"/>
       <c r="G431" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H431" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 57</v>
+        <v>31</v>
+      </c>
+      <c r="H431" s="41" t="s">
+        <v>230</v>
       </c>
       <c r="I431" s="70">
         <v>58</v>
@@ -20106,7 +20267,7 @@
     <row r="432" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A432" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B432" s="65" t="s">
         <v>224</v>
@@ -20116,17 +20277,14 @@
       </c>
       <c r="D432" s="67"/>
       <c r="E432" s="68">
-        <v>57</v>
-      </c>
-      <c r="F432" s="69"/>
-      <c r="G432" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H432" s="41" t="s">
-        <v>228</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F432" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H432" s="41"/>
       <c r="I432" s="70">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J432" s="71"/>
       <c r="K432" s="66">
@@ -20136,7 +20294,7 @@
     <row r="433" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A433" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B433" s="65" t="s">
         <v>224</v>
@@ -20146,17 +20304,18 @@
       </c>
       <c r="D433" s="67"/>
       <c r="E433" s="68">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F433" s="69"/>
       <c r="G433" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H433" s="41" t="s">
-        <v>229</v>
+        <v>29</v>
+      </c>
+      <c r="H433" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I433" s="70">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J433" s="71"/>
       <c r="K433" s="66">
@@ -20166,7 +20325,7 @@
     <row r="434" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A434" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B434" s="65" t="s">
         <v>224</v>
@@ -20176,27 +20335,27 @@
       </c>
       <c r="D434" s="67"/>
       <c r="E434" s="68">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F434" s="69"/>
       <c r="G434" s="65" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H434" s="41" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="I434" s="70">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J434" s="71"/>
       <c r="K434" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="435" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A435" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B435" s="65" t="s">
         <v>224</v>
@@ -20206,17 +20365,17 @@
       </c>
       <c r="D435" s="67"/>
       <c r="E435" s="68">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F435" s="69"/>
       <c r="G435" s="65" t="s">
         <v>31</v>
       </c>
       <c r="H435" s="41" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="I435" s="70">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J435" s="71"/>
       <c r="K435" s="66">
@@ -20226,24 +20385,24 @@
     <row r="436" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A436" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B436" s="65" t="s">
         <v>224</v>
       </c>
       <c r="C436" s="66" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="D436" s="67"/>
       <c r="E436" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F436" s="69" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H436" s="41"/>
       <c r="I436" s="70">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J436" s="71"/>
       <c r="K436" s="66">
@@ -20253,7 +20412,7 @@
     <row r="437" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A437" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B437" s="65" t="s">
         <v>224</v>
@@ -20263,7 +20422,7 @@
       </c>
       <c r="D437" s="67"/>
       <c r="E437" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F437" s="69"/>
       <c r="G437" s="65" t="s">
@@ -20271,20 +20430,20 @@
       </c>
       <c r="H437" s="41" t="str">
         <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 56</v>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I437" s="70">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J437" s="71"/>
       <c r="K437" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="438" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A438" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B438" s="65" t="s">
         <v>224</v>
@@ -20294,27 +20453,27 @@
       </c>
       <c r="D438" s="67"/>
       <c r="E438" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F438" s="69"/>
       <c r="G438" s="65" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H438" s="41" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="I438" s="70">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J438" s="71"/>
       <c r="K438" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="439" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A439" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B439" s="65" t="s">
         <v>224</v>
@@ -20324,17 +20483,17 @@
       </c>
       <c r="D439" s="67"/>
       <c r="E439" s="68">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F439" s="69"/>
       <c r="G439" s="65" t="s">
         <v>31</v>
       </c>
       <c r="H439" s="41" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="I439" s="70">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J439" s="71"/>
       <c r="K439" s="66">
@@ -20350,16 +20509,19 @@
         <v>224</v>
       </c>
       <c r="C440" s="66" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="D440" s="67"/>
       <c r="E440" s="68">
         <v>57</v>
       </c>
-      <c r="F440" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="H440" s="41"/>
+      <c r="F440" s="69"/>
+      <c r="G440" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H440" s="41" t="s">
+        <v>231</v>
+      </c>
       <c r="I440" s="70">
         <v>60</v>
       </c>
@@ -20368,7 +20530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="441" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A441" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -20385,11 +20547,10 @@
       </c>
       <c r="F441" s="69"/>
       <c r="G441" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H441" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 57</v>
+        <v>31</v>
+      </c>
+      <c r="H441" s="41" t="s">
+        <v>237</v>
       </c>
       <c r="I441" s="70">
         <v>60</v>
@@ -20399,10 +20560,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="442" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A442" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B442" s="65" t="s">
         <v>224</v>
@@ -20411,28 +20572,23 @@
         <v>57</v>
       </c>
       <c r="D442" s="67"/>
-      <c r="E442" s="68">
-        <v>57</v>
-      </c>
-      <c r="F442" s="69"/>
-      <c r="G442" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H442" s="41" t="s">
-        <v>236</v>
-      </c>
+      <c r="E442" s="68"/>
+      <c r="F442" s="69" t="s">
+        <v>310</v>
+      </c>
+      <c r="H442" s="41"/>
       <c r="I442" s="70">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J442" s="71"/>
       <c r="K442" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A443" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B443" s="65" t="s">
         <v>224</v>
@@ -20441,28 +20597,28 @@
         <v>57</v>
       </c>
       <c r="D443" s="67"/>
-      <c r="E443" s="68">
-        <v>57</v>
-      </c>
+      <c r="E443" s="68"/>
       <c r="F443" s="69"/>
       <c r="G443" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I443" s="70">
-        <v>60</v>
-      </c>
-      <c r="J443" s="71"/>
+        <v>68</v>
+      </c>
+      <c r="J443" s="71" t="s">
+        <v>276</v>
+      </c>
       <c r="K443" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="444" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A444" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B444" s="65" t="s">
         <v>224</v>
@@ -20471,28 +20627,26 @@
         <v>57</v>
       </c>
       <c r="D444" s="67"/>
-      <c r="E444" s="68">
-        <v>57</v>
-      </c>
+      <c r="E444" s="68"/>
       <c r="F444" s="69"/>
       <c r="G444" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H444" s="41" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="I444" s="70">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J444" s="71"/>
       <c r="K444" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="445" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A445" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B445" s="65" t="s">
         <v>224</v>
@@ -20501,18 +20655,16 @@
         <v>57</v>
       </c>
       <c r="D445" s="67"/>
-      <c r="E445" s="68">
-        <v>57</v>
-      </c>
+      <c r="E445" s="68"/>
       <c r="F445" s="69"/>
       <c r="G445" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H445" s="41" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I445" s="70">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J445" s="71"/>
       <c r="K445" s="66">
@@ -20532,10 +20684,13 @@
       </c>
       <c r="D446" s="67"/>
       <c r="E446" s="68"/>
-      <c r="F446" s="69" t="s">
-        <v>310</v>
-      </c>
-      <c r="H446" s="41"/>
+      <c r="F446" s="69"/>
+      <c r="G446" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H446" s="41" t="s">
+        <v>128</v>
+      </c>
       <c r="I446" s="70">
         <v>68</v>
       </c>
@@ -20544,7 +20699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="447" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A447" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -20559,22 +20714,20 @@
       <c r="E447" s="68"/>
       <c r="F447" s="69"/>
       <c r="G447" s="65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H447" s="41" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="I447" s="70">
         <v>68</v>
       </c>
-      <c r="J447" s="71" t="s">
-        <v>276</v>
-      </c>
+      <c r="J447" s="71"/>
       <c r="K447" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="448" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A448" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -20589,10 +20742,10 @@
       <c r="E448" s="68"/>
       <c r="F448" s="69"/>
       <c r="G448" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H448" s="41" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I448" s="70">
         <v>68</v>
@@ -20602,7 +20755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="449" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A449" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -20617,10 +20770,10 @@
       <c r="E449" s="68"/>
       <c r="F449" s="69"/>
       <c r="G449" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H449" s="41" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="I449" s="70">
         <v>68</v>
@@ -20630,7 +20783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="450" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -20645,10 +20798,10 @@
       <c r="E450" s="68"/>
       <c r="F450" s="69"/>
       <c r="G450" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H450" s="41" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="I450" s="70">
         <v>68</v>
@@ -20661,7 +20814,7 @@
     <row r="451" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A451" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B451" s="65" t="s">
         <v>224</v>
@@ -20671,25 +20824,24 @@
       </c>
       <c r="D451" s="67"/>
       <c r="E451" s="68"/>
-      <c r="F451" s="69"/>
-      <c r="G451" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H451" s="41" t="s">
-        <v>228</v>
-      </c>
+      <c r="F451" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="H451" s="41"/>
       <c r="I451" s="70">
-        <v>68</v>
-      </c>
-      <c r="J451" s="71"/>
+        <v>69</v>
+      </c>
+      <c r="J451" s="71" t="s">
+        <v>297</v>
+      </c>
       <c r="K451" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="452" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A452" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B452" s="65" t="s">
         <v>224</v>
@@ -20701,13 +20853,13 @@
       <c r="E452" s="68"/>
       <c r="F452" s="69"/>
       <c r="G452" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H452" s="41" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="I452" s="70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J452" s="71"/>
       <c r="K452" s="66">
@@ -20717,7 +20869,7 @@
     <row r="453" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A453" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B453" s="65" t="s">
         <v>224</v>
@@ -20729,23 +20881,23 @@
       <c r="E453" s="68"/>
       <c r="F453" s="69"/>
       <c r="G453" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H453" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I453" s="70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J453" s="71"/>
       <c r="K453" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="454" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A454" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B454" s="65" t="s">
         <v>224</v>
@@ -20757,13 +20909,13 @@
       <c r="E454" s="68"/>
       <c r="F454" s="69"/>
       <c r="G454" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H454" s="41" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="I454" s="70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J454" s="71"/>
       <c r="K454" s="66">
@@ -20783,21 +20935,22 @@
       </c>
       <c r="D455" s="67"/>
       <c r="E455" s="68"/>
-      <c r="F455" s="69" t="s">
-        <v>298</v>
-      </c>
-      <c r="H455" s="41"/>
+      <c r="F455" s="69"/>
+      <c r="G455" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H455" s="41" t="s">
+        <v>128</v>
+      </c>
       <c r="I455" s="70">
         <v>69</v>
       </c>
-      <c r="J455" s="71" t="s">
-        <v>297</v>
-      </c>
+      <c r="J455" s="71"/>
       <c r="K455" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="456" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A456" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -20815,7 +20968,7 @@
         <v>29</v>
       </c>
       <c r="H456" s="41" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="I456" s="70">
         <v>69</v>
@@ -20825,7 +20978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="457" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A457" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -20840,10 +20993,10 @@
       <c r="E457" s="68"/>
       <c r="F457" s="69"/>
       <c r="G457" s="65" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="H457" s="41" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="I457" s="70">
         <v>69</v>
@@ -20868,10 +21021,10 @@
       <c r="E458" s="68"/>
       <c r="F458" s="69"/>
       <c r="G458" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H458" s="41" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I458" s="70">
         <v>69</v>
@@ -20881,7 +21034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="459" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A459" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -20896,10 +21049,10 @@
       <c r="E459" s="68"/>
       <c r="F459" s="69"/>
       <c r="G459" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H459" s="41" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="I459" s="70">
         <v>69</v>
@@ -20924,10 +21077,10 @@
       <c r="E460" s="68"/>
       <c r="F460" s="69"/>
       <c r="G460" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H460" s="41" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="I460" s="70">
         <v>69</v>
@@ -20937,7 +21090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A461" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -20952,10 +21105,10 @@
       <c r="E461" s="68"/>
       <c r="F461" s="69"/>
       <c r="G461" s="65" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="H461" s="41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I461" s="70">
         <v>69</v>
@@ -20968,7 +21121,7 @@
     <row r="462" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A462" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B462" s="65" t="s">
         <v>224</v>
@@ -20978,17 +21131,16 @@
       </c>
       <c r="D462" s="67"/>
       <c r="E462" s="68"/>
-      <c r="F462" s="69"/>
-      <c r="G462" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H462" s="41" t="s">
-        <v>231</v>
-      </c>
+      <c r="F462" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="H462" s="41"/>
       <c r="I462" s="70">
-        <v>69</v>
-      </c>
-      <c r="J462" s="71"/>
+        <v>70</v>
+      </c>
+      <c r="J462" s="71" t="s">
+        <v>297</v>
+      </c>
       <c r="K462" s="66">
         <v>39</v>
       </c>
@@ -20996,7 +21148,7 @@
     <row r="463" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A463" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B463" s="65" t="s">
         <v>224</v>
@@ -21008,23 +21160,23 @@
       <c r="E463" s="68"/>
       <c r="F463" s="69"/>
       <c r="G463" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H463" s="41" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="I463" s="70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J463" s="71"/>
       <c r="K463" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="464" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A464" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B464" s="65" t="s">
         <v>224</v>
@@ -21036,23 +21188,23 @@
       <c r="E464" s="68"/>
       <c r="F464" s="69"/>
       <c r="G464" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H464" s="41" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="I464" s="70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J464" s="71"/>
       <c r="K464" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="465" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A465" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B465" s="65" t="s">
         <v>224</v>
@@ -21064,13 +21216,13 @@
       <c r="E465" s="68"/>
       <c r="F465" s="69"/>
       <c r="G465" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H465" s="41" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="I465" s="70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J465" s="71"/>
       <c r="K465" s="66">
@@ -21090,21 +21242,22 @@
       </c>
       <c r="D466" s="67"/>
       <c r="E466" s="68"/>
-      <c r="F466" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="H466" s="41"/>
+      <c r="F466" s="69"/>
+      <c r="G466" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H466" s="41" t="s">
+        <v>128</v>
+      </c>
       <c r="I466" s="70">
         <v>70</v>
       </c>
-      <c r="J466" s="71" t="s">
-        <v>297</v>
-      </c>
+      <c r="J466" s="71"/>
       <c r="K466" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="467" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A467" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -21122,7 +21275,7 @@
         <v>29</v>
       </c>
       <c r="H467" s="41" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="I467" s="70">
         <v>70</v>
@@ -21132,7 +21285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A468" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -21147,10 +21300,10 @@
       <c r="E468" s="68"/>
       <c r="F468" s="69"/>
       <c r="G468" s="65" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="H468" s="41" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="I468" s="70">
         <v>70</v>
@@ -21175,10 +21328,10 @@
       <c r="E469" s="68"/>
       <c r="F469" s="69"/>
       <c r="G469" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H469" s="41" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I469" s="70">
         <v>70</v>
@@ -21188,7 +21341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="470" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A470" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -21203,10 +21356,10 @@
       <c r="E470" s="68"/>
       <c r="F470" s="69"/>
       <c r="G470" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H470" s="41" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="I470" s="70">
         <v>70</v>
@@ -21231,10 +21384,10 @@
       <c r="E471" s="68"/>
       <c r="F471" s="69"/>
       <c r="G471" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H471" s="41" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="I471" s="70">
         <v>70</v>
@@ -21244,7 +21397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="472" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A472" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -21259,10 +21412,10 @@
       <c r="E472" s="68"/>
       <c r="F472" s="69"/>
       <c r="G472" s="65" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="H472" s="41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I472" s="70">
         <v>70</v>
@@ -21275,7 +21428,7 @@
     <row r="473" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A473" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B473" s="65" t="s">
         <v>224</v>
@@ -21285,17 +21438,16 @@
       </c>
       <c r="D473" s="67"/>
       <c r="E473" s="68"/>
-      <c r="F473" s="69"/>
-      <c r="G473" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H473" s="41" t="s">
-        <v>231</v>
-      </c>
+      <c r="F473" s="69" t="s">
+        <v>305</v>
+      </c>
+      <c r="H473" s="41"/>
       <c r="I473" s="70">
-        <v>70</v>
-      </c>
-      <c r="J473" s="71"/>
+        <v>71</v>
+      </c>
+      <c r="J473" s="71" t="s">
+        <v>276</v>
+      </c>
       <c r="K473" s="66">
         <v>39</v>
       </c>
@@ -21303,7 +21455,7 @@
     <row r="474" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A474" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B474" s="65" t="s">
         <v>224</v>
@@ -21315,23 +21467,23 @@
       <c r="E474" s="68"/>
       <c r="F474" s="69"/>
       <c r="G474" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H474" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I474" s="70">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J474" s="71"/>
       <c r="K474" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="475" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A475" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B475" s="65" t="s">
         <v>224</v>
@@ -21343,23 +21495,23 @@
       <c r="E475" s="68"/>
       <c r="F475" s="69"/>
       <c r="G475" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H475" s="41" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="I475" s="70">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J475" s="71"/>
       <c r="K475" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="476" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A476" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B476" s="65" t="s">
         <v>224</v>
@@ -21371,13 +21523,13 @@
       <c r="E476" s="68"/>
       <c r="F476" s="69"/>
       <c r="G476" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H476" s="41" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="I476" s="70">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J476" s="71"/>
       <c r="K476" s="66">
@@ -21397,21 +21549,22 @@
       </c>
       <c r="D477" s="67"/>
       <c r="E477" s="68"/>
-      <c r="F477" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="H477" s="41"/>
+      <c r="F477" s="69"/>
+      <c r="G477" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H477" s="41" t="s">
+        <v>225</v>
+      </c>
       <c r="I477" s="70">
         <v>71</v>
       </c>
-      <c r="J477" s="71" t="s">
-        <v>276</v>
-      </c>
+      <c r="J477" s="71"/>
       <c r="K477" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="478" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A478" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -21426,10 +21579,10 @@
       <c r="E478" s="68"/>
       <c r="F478" s="69"/>
       <c r="G478" s="65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H478" s="41" t="s">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="I478" s="70">
         <v>71</v>
@@ -21439,7 +21592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="479" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A479" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -21454,10 +21607,10 @@
       <c r="E479" s="68"/>
       <c r="F479" s="69"/>
       <c r="G479" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H479" s="41" t="s">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="I479" s="70">
         <v>71</v>
@@ -21482,10 +21635,10 @@
       <c r="E480" s="68"/>
       <c r="F480" s="69"/>
       <c r="G480" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H480" s="41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I480" s="70">
         <v>71</v>
@@ -21495,7 +21648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="481" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A481" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -21510,10 +21663,10 @@
       <c r="E481" s="68"/>
       <c r="F481" s="69"/>
       <c r="G481" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H481" s="41" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="I481" s="70">
         <v>71</v>
@@ -21523,10 +21676,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="482" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A482" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B482" s="65" t="s">
         <v>224</v>
@@ -21536,25 +21689,22 @@
       </c>
       <c r="D482" s="67"/>
       <c r="E482" s="68"/>
-      <c r="F482" s="69"/>
-      <c r="G482" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H482" s="41" t="s">
-        <v>128</v>
-      </c>
+      <c r="F482" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="H482" s="41"/>
       <c r="I482" s="70">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J482" s="71"/>
       <c r="K482" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="483" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A483" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B483" s="65" t="s">
         <v>224</v>
@@ -21566,23 +21716,23 @@
       <c r="E483" s="68"/>
       <c r="F483" s="69"/>
       <c r="G483" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H483" s="41" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="I483" s="70">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J483" s="71"/>
       <c r="K483" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="484" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A484" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B484" s="65" t="s">
         <v>224</v>
@@ -21594,23 +21744,23 @@
       <c r="E484" s="68"/>
       <c r="F484" s="69"/>
       <c r="G484" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H484" s="41" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="I484" s="70">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J484" s="71"/>
       <c r="K484" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="485" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A485" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B485" s="65" t="s">
         <v>224</v>
@@ -21622,13 +21772,13 @@
       <c r="E485" s="68"/>
       <c r="F485" s="69"/>
       <c r="G485" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H485" s="41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I485" s="70">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J485" s="71"/>
       <c r="K485" s="66">
@@ -21648,10 +21798,13 @@
       </c>
       <c r="D486" s="67"/>
       <c r="E486" s="68"/>
-      <c r="F486" s="69" t="s">
-        <v>307</v>
-      </c>
-      <c r="H486" s="41"/>
+      <c r="F486" s="69"/>
+      <c r="G486" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H486" s="41" t="s">
+        <v>225</v>
+      </c>
       <c r="I486" s="70">
         <v>72</v>
       </c>
@@ -21660,7 +21813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="487" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A487" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -21675,10 +21828,10 @@
       <c r="E487" s="68"/>
       <c r="F487" s="69"/>
       <c r="G487" s="65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H487" s="41" t="s">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="I487" s="70">
         <v>72</v>
@@ -21688,7 +21841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="488" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A488" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -21703,10 +21856,10 @@
       <c r="E488" s="68"/>
       <c r="F488" s="69"/>
       <c r="G488" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H488" s="41" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="I488" s="70">
         <v>72</v>
@@ -21731,10 +21884,10 @@
       <c r="E489" s="68"/>
       <c r="F489" s="69"/>
       <c r="G489" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H489" s="41" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="I489" s="70">
         <v>72</v>
@@ -21744,7 +21897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" s="65" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -21759,10 +21912,10 @@
       <c r="E490" s="68"/>
       <c r="F490" s="69"/>
       <c r="G490" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H490" s="41" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="I490" s="70">
         <v>72</v>
@@ -21772,69 +21925,63 @@
         <v>39</v>
       </c>
     </row>
-    <row r="491" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" s="16" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A491" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
-      </c>
-      <c r="B491" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="C491" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D491" s="67"/>
-      <c r="E491" s="68"/>
-      <c r="F491" s="69"/>
-      <c r="G491" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H491" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I491" s="70">
-        <v>72</v>
-      </c>
-      <c r="J491" s="71"/>
-      <c r="K491" s="66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="492" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B491" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="C491" s="115"/>
+      <c r="D491" s="116"/>
+      <c r="E491" s="117"/>
+      <c r="F491" s="118"/>
+      <c r="G491" s="114"/>
+      <c r="H491" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="I491" s="119"/>
+      <c r="J491" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="K491" s="115">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B492" s="65" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="C492" s="66" t="s">
         <v>57</v>
       </c>
       <c r="D492" s="67"/>
       <c r="E492" s="68"/>
-      <c r="F492" s="69"/>
-      <c r="G492" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H492" s="41" t="s">
-        <v>231</v>
-      </c>
+      <c r="F492" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="G492" s="65"/>
+      <c r="H492" s="41"/>
       <c r="I492" s="70">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J492" s="71"/>
       <c r="K492" s="66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="493" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B493" s="65" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="C493" s="66" t="s">
         <v>57</v>
@@ -21843,26 +21990,26 @@
       <c r="E493" s="68"/>
       <c r="F493" s="69"/>
       <c r="G493" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H493" s="41" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="I493" s="70">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J493" s="71"/>
       <c r="K493" s="66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="494" spans="1:11" s="65" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B494" s="65" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="C494" s="66" t="s">
         <v>57</v>
@@ -21871,91 +22018,102 @@
       <c r="E494" s="68"/>
       <c r="F494" s="69"/>
       <c r="G494" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H494" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="I494" s="70">
+        <v>85</v>
+      </c>
+      <c r="J494" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="K494" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B495" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C495" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D495" s="67"/>
+      <c r="E495" s="68"/>
+      <c r="F495" s="69"/>
+      <c r="G495" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H494" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="I494" s="70">
-        <v>72</v>
-      </c>
-      <c r="J494" s="71"/>
-      <c r="K494" s="66">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="495" spans="1:11" s="16" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>0</v>
-      </c>
-      <c r="B495" s="114" t="s">
+      <c r="H495" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="C495" s="115"/>
-      <c r="D495" s="116"/>
-      <c r="E495" s="117"/>
-      <c r="F495" s="118"/>
-      <c r="G495" s="114"/>
-      <c r="H495" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="I495" s="119"/>
-      <c r="J495" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="K495" s="115">
+      <c r="I495" s="70">
+        <v>85</v>
+      </c>
+      <c r="J495" s="71"/>
+      <c r="K495" s="66">
         <v>61</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B496" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C496" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D496" s="67"/>
+      <c r="E496" s="68">
         <v>85</v>
       </c>
-      <c r="B496" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C496" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D496" s="67"/>
-      <c r="E496" s="68"/>
       <c r="F496" s="69" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G496" s="65"/>
       <c r="H496" s="41"/>
       <c r="I496" s="70">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J496" s="71"/>
       <c r="K496" s="66">
         <v>61</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B497" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C497" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D497" s="67"/>
+      <c r="E497" s="68">
         <v>85</v>
       </c>
-      <c r="B497" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C497" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D497" s="67"/>
-      <c r="E497" s="68"/>
       <c r="F497" s="69"/>
       <c r="G497" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H497" s="41" t="s">
-        <v>364</v>
+      <c r="H497" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 85</v>
       </c>
       <c r="I497" s="70">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J497" s="71"/>
       <c r="K497" s="66">
@@ -21965,29 +22123,29 @@
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B498" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C498" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D498" s="67"/>
+      <c r="E498" s="68">
         <v>85</v>
       </c>
-      <c r="B498" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C498" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D498" s="67"/>
-      <c r="E498" s="68"/>
       <c r="F498" s="69"/>
       <c r="G498" s="65" t="s">
         <v>30</v>
       </c>
       <c r="H498" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I498" s="70">
-        <v>85</v>
-      </c>
-      <c r="J498" s="71" t="s">
-        <v>365</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J498" s="71"/>
       <c r="K498" s="66">
         <v>61</v>
       </c>
@@ -21995,25 +22153,23 @@
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B499" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C499" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D499" s="67"/>
+      <c r="E499" s="68">
         <v>85</v>
       </c>
-      <c r="B499" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C499" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D499" s="67"/>
-      <c r="E499" s="68"/>
       <c r="F499" s="69"/>
-      <c r="G499" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H499" s="41" t="s">
-        <v>367</v>
-      </c>
+      <c r="G499" s="65"/>
+      <c r="H499" s="41"/>
       <c r="I499" s="70">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J499" s="71"/>
       <c r="K499" s="66">
@@ -22021,135 +22177,20 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
+      <c r="A500" s="61"/>
+      <c r="B500" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C500" s="3"/>
+      <c r="E500" s="10">
+        <f>Table14[[#Totals],[Scenario '#]]</f>
         <v>86</v>
       </c>
-      <c r="B500" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C500" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D500" s="67"/>
-      <c r="E500" s="68">
-        <v>85</v>
-      </c>
-      <c r="F500" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="G500" s="65"/>
-      <c r="H500" s="41"/>
-      <c r="I500" s="70">
+      <c r="F500" s="6"/>
+      <c r="H500" s="2"/>
+      <c r="I500" s="12">
+        <f>SUBTOTAL(104,Table14[Scenario '#])</f>
         <v>86</v>
-      </c>
-      <c r="J500" s="71"/>
-      <c r="K500" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
-      </c>
-      <c r="B501" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C501" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D501" s="67"/>
-      <c r="E501" s="68">
-        <v>85</v>
-      </c>
-      <c r="F501" s="69"/>
-      <c r="G501" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H501" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 85</v>
-      </c>
-      <c r="I501" s="70">
-        <v>86</v>
-      </c>
-      <c r="J501" s="71"/>
-      <c r="K501" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
-      </c>
-      <c r="B502" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C502" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D502" s="67"/>
-      <c r="E502" s="68">
-        <v>85</v>
-      </c>
-      <c r="F502" s="69"/>
-      <c r="G502" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H502" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="I502" s="70">
-        <v>86</v>
-      </c>
-      <c r="J502" s="71"/>
-      <c r="K502" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="64">
-        <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
-      </c>
-      <c r="B503" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="C503" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D503" s="67"/>
-      <c r="E503" s="68">
-        <v>85</v>
-      </c>
-      <c r="F503" s="69"/>
-      <c r="G503" s="65"/>
-      <c r="H503" s="41"/>
-      <c r="I503" s="70">
-        <v>86</v>
-      </c>
-      <c r="J503" s="71"/>
-      <c r="K503" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="61"/>
-      <c r="B504" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C504" s="3"/>
-      <c r="E504" s="10">
-        <f>Table14[[#Totals],[Scenario '#]]</f>
-        <v>88</v>
-      </c>
-      <c r="F504" s="6"/>
-      <c r="H504" s="2"/>
-      <c r="I504" s="12">
-        <f>SUBTOTAL(104,Table14[Scenario '#])</f>
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -22164,12 +22205,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="51" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22197,139 +22238,128 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G395 G420:G447 G449:G500 G502:G1048576 G1:G170 G181:G247 G259:G371">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+  <conditionalFormatting sqref="G395 G416:G443 G445:G496 G498:G1048576 G1:G170 G181:G247 G259:G371">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G448">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+  <conditionalFormatting sqref="G444">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G372:G378">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G379:G386">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G387:G389">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G390:G394">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G396:G399">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G400:G404">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G405:G410 G414:G418">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+  <conditionalFormatting sqref="G405:G410 G414:G415">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G411:G412">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G413">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G419">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"Then"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>"Given"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G501">
+  <conditionalFormatting sqref="G497">
     <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
@@ -22381,7 +22411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB16863-C9D6-47DE-82AF-06BDE2CF5BC1}">
   <dimension ref="A1:F7"/>
   <sheetViews>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289358D9-52EF-4587-9C41-7B46FAD84506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9391FB-F43C-4659-B45E-4274B44EAECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15990" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="412">
   <si>
     <t>Scenario</t>
   </si>
@@ -898,9 +898,6 @@
     <t>Rename duplicate Then</t>
   </si>
   <si>
-    <t>Comment line of duplcate Given "[GIVEN] Valid Given"is updated to ""[GIVEN] Renamed Valid Given"</t>
-  </si>
-  <si>
     <t>Call to CreateRenamedValidGiven helper function added after new [GIVEN] comment line</t>
   </si>
   <si>
@@ -1840,6 +1837,15 @@
       </rPr>
       <t xml:space="preserve"> removed</t>
     </r>
+  </si>
+  <si>
+    <t>Comment line of duplicate Given "[GIVEN] Valid Given"is updated to ""[GIVEN] Renamed Valid Given"</t>
+  </si>
+  <si>
+    <t>Renamed duplicate "Valid Given" to "Renamed Valid Given"</t>
+  </si>
+  <si>
+    <t>Renamed duplicate "Valid Then" to "Renamed Valid Then"</t>
   </si>
 </sst>
 </file>
@@ -2531,7 +2537,29 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="238">
+  <dxfs count="233">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2620,28 +2648,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3170,47 +3176,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3936,365 +3901,362 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K535" totalsRowCount="1" headerRowDxfId="237" dataDxfId="236">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K535" totalsRowCount="1" headerRowDxfId="232" dataDxfId="231">
   <autoFilter ref="A1:K534" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="235" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="230" totalsRowDxfId="17">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="234" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="233" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="232" totalsRowDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="231" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="229" totalsRowDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="228" totalsRowDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="227" totalsRowDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="226" totalsRowDxfId="13">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="230" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="229" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="228" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="227" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="226" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="225" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="225" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="224" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="223" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="222" totalsRowDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="221" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="220" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="148"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="146">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="143"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="141">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="145">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="144"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="136">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="131">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="135">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="130">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="134"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="123"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="121">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="125">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="120">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="124"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="122"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="117">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="112">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="116">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="111">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="111"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="106"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="104">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="108">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="103">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="107"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="99">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="98">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="85">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="82">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="83"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0CA1625E-B949-475F-AD44-FA7F1E12DD0E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G96" totalsRowCount="1" headerRowDxfId="224" dataDxfId="223">
-  <autoFilter ref="A1:G95" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0CA1625E-B949-475F-AD44-FA7F1E12DD0E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G86" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
+  <autoFilter ref="A1:G85" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}">
     <filterColumn colId="0">
       <filters>
-        <filter val="28"/>
+        <filter val="30"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G95">
-    <sortCondition ref="A1:A95"/>
-  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="222" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowFunction="max" dataDxfId="221" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" dataDxfId="220" totalsRowDxfId="15">
+    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowFunction="max" dataDxfId="216" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="215" totalsRowDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="219" totalsRowDxfId="14">
+    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="214" totalsRowDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="218" totalsRowDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="217" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="216" totalsRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="212" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CD807E79-84C6-4174-92DA-26DB54E8608E}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CD807E79-84C6-4174-92DA-26DB54E8608E}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
   <autoFilter ref="A1:G2" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="213">
+    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="208">
       <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="212"/>
-    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="211">
+    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="206">
       <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="210">
+    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="205">
       <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="209"/>
-    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="207"/>
+    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="204"/>
+    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="203"/>
+    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
   <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="204">
+    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="199">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="202">
+    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="197">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="201">
+    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="196">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="200"/>
-    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="199"/>
-    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="198"/>
+    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="195"/>
+    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="195">
+    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="190">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="193">
+    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="188">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="192">
+    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="191"/>
-    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="189"/>
+    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="186"/>
+    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
   <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="186">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="181">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="184">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="179">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="183">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="178">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="182"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="180"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="177">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="172">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="175">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="170">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="174">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="169">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="173"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="172"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="171"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="170"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="166"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="166"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="165">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="160">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="164">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="159">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="163"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="162"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="161"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="160"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="158"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="157"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="155">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="150">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="154">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="149">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="153"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4565,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K535"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H314" sqref="H314"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4626,7 +4588,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>57</v>
@@ -4634,7 +4596,7 @@
       <c r="D2" s="91"/>
       <c r="E2" s="92"/>
       <c r="F2" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
@@ -4650,7 +4612,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>57</v>
@@ -4661,7 +4623,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" s="101">
         <v>63</v>
@@ -4674,7 +4636,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>57</v>
@@ -4685,7 +4647,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" s="101">
         <v>63</v>
@@ -4698,7 +4660,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>57</v>
@@ -4709,7 +4671,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I5" s="101">
         <v>63</v>
@@ -4790,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K8" s="38">
         <v>27</v>
@@ -5147,7 +5109,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K20" s="38">
         <v>27</v>
@@ -5283,7 +5245,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="42"/>
@@ -5319,7 +5281,7 @@
         <v>8</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K26" s="38">
         <v>27</v>
@@ -5371,7 +5333,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I28" s="12">
         <v>8</v>
@@ -5399,7 +5361,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I29" s="12">
         <v>8</v>
@@ -5429,13 +5391,13 @@
         <v>31</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I30" s="12">
         <v>8</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K30" s="38">
         <v>27</v>
@@ -5455,7 +5417,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="43"/>
@@ -5491,7 +5453,7 @@
         <v>64</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K32" s="38">
         <v>27</v>
@@ -5543,7 +5505,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I34" s="12">
         <v>64</v>
@@ -5571,7 +5533,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" s="12">
         <v>64</v>
@@ -5601,7 +5563,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I36" s="12">
         <v>64</v>
@@ -5627,7 +5589,7 @@
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="43"/>
@@ -5665,7 +5627,7 @@
         <v>66</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K38" s="38">
         <v>27</v>
@@ -5721,7 +5683,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I40" s="12">
         <v>66</v>
@@ -5751,7 +5713,7 @@
         <v>29</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I41" s="12">
         <v>66</v>
@@ -5781,7 +5743,7 @@
         <v>30</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I42" s="12">
         <v>66</v>
@@ -5813,13 +5775,13 @@
         <v>31</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I43" s="12">
         <v>66</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K43" s="38">
         <v>27</v>
@@ -5875,7 +5837,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K45" s="38">
         <v>27</v>
@@ -6047,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K51" s="38">
         <v>27</v>
@@ -6219,7 +6181,7 @@
         <v>14</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K57" s="38">
         <v>27</v>
@@ -6381,7 +6343,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="10"/>
       <c r="F63" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="41"/>
@@ -6417,7 +6379,7 @@
         <v>61</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K64" s="38">
         <v>27</v>
@@ -6441,7 +6403,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I65" s="12">
         <v>61</v>
@@ -6555,7 +6517,7 @@
         <v>31</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I69" s="12">
         <v>61</v>
@@ -6639,7 +6601,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K72" s="38">
         <v>27</v>
@@ -6996,7 +6958,7 @@
         <v>6</v>
       </c>
       <c r="J84" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K84" s="38">
         <v>27</v>
@@ -7132,7 +7094,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="10"/>
       <c r="F89" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="42"/>
@@ -7168,7 +7130,7 @@
         <v>9</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K90" s="38">
         <v>27</v>
@@ -7220,7 +7182,7 @@
         <v>29</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I92" s="12">
         <v>9</v>
@@ -7248,7 +7210,7 @@
         <v>30</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I93" s="12">
         <v>9</v>
@@ -7278,7 +7240,7 @@
         <v>31</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I94" s="12">
         <v>9</v>
@@ -7302,7 +7264,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="10"/>
       <c r="F95" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="43"/>
@@ -7338,7 +7300,7 @@
         <v>65</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K96" s="38">
         <v>27</v>
@@ -7390,7 +7352,7 @@
         <v>29</v>
       </c>
       <c r="H98" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I98" s="12">
         <v>65</v>
@@ -7418,7 +7380,7 @@
         <v>30</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I99" s="12">
         <v>65</v>
@@ -7448,7 +7410,7 @@
         <v>31</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I100" s="12">
         <v>65</v>
@@ -7474,7 +7436,7 @@
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="43"/>
@@ -7512,7 +7474,7 @@
         <v>67</v>
       </c>
       <c r="J102" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K102" s="38">
         <v>27</v>
@@ -7568,7 +7530,7 @@
         <v>29</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I104" s="12">
         <v>67</v>
@@ -7598,7 +7560,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I105" s="12">
         <v>67</v>
@@ -7628,7 +7590,7 @@
         <v>30</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I106" s="12">
         <v>67</v>
@@ -7660,13 +7622,13 @@
         <v>31</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I107" s="12">
         <v>67</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K107" s="38">
         <v>27</v>
@@ -7722,7 +7684,7 @@
         <v>11</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K109" s="38">
         <v>27</v>
@@ -7892,7 +7854,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K115" s="38">
         <v>27</v>
@@ -8064,7 +8026,7 @@
         <v>15</v>
       </c>
       <c r="J121" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K121" s="38">
         <v>27</v>
@@ -8226,7 +8188,7 @@
       <c r="D127" s="39"/>
       <c r="E127" s="10"/>
       <c r="F127" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G127" s="37"/>
       <c r="H127" s="41"/>
@@ -8284,7 +8246,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I129" s="12">
         <v>62</v>
@@ -8368,7 +8330,7 @@
         <v>31</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I132" s="12">
         <v>62</v>
@@ -8396,7 +8358,7 @@
         <v>31</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I133" s="12">
         <v>62</v>
@@ -8504,7 +8466,7 @@
         <v>16</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K137" s="38">
         <v>30</v>
@@ -8735,7 +8697,7 @@
         <v>31</v>
       </c>
       <c r="H145" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I145" s="12">
         <v>17</v>
@@ -8854,7 +8816,7 @@
         <v>31</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I149" s="12">
         <v>46</v>
@@ -8884,7 +8846,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I150" s="12">
         <v>46</v>
@@ -9182,7 +9144,7 @@
         <v>31</v>
       </c>
       <c r="H160" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I160" s="12">
         <v>19</v>
@@ -9206,7 +9168,7 @@
       <c r="D161" s="39"/>
       <c r="E161" s="10"/>
       <c r="F161" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="41"/>
@@ -9242,7 +9204,7 @@
         <v>44</v>
       </c>
       <c r="J162" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K162" s="38">
         <v>30</v>
@@ -9294,7 +9256,7 @@
         <v>29</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I164" s="12">
         <v>44</v>
@@ -9322,13 +9284,13 @@
         <v>29</v>
       </c>
       <c r="H165" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I165" s="12">
         <v>44</v>
       </c>
       <c r="J165" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K165" s="38">
         <v>30</v>
@@ -9408,7 +9370,7 @@
         <v>31</v>
       </c>
       <c r="H168" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I168" s="12">
         <v>44</v>
@@ -9436,7 +9398,7 @@
         <v>31</v>
       </c>
       <c r="H169" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I169" s="12">
         <v>44</v>
@@ -9460,7 +9422,7 @@
       <c r="D170" s="39"/>
       <c r="E170" s="10"/>
       <c r="F170" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="41"/>
@@ -9468,7 +9430,7 @@
         <v>87</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K170" s="38">
         <v>30</v>
@@ -9548,13 +9510,13 @@
         <v>29</v>
       </c>
       <c r="H173" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I173" s="12">
         <v>87</v>
       </c>
       <c r="J173" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K173" s="38">
         <v>30</v>
@@ -9578,7 +9540,7 @@
         <v>29</v>
       </c>
       <c r="H174" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I174" s="12">
         <v>87</v>
@@ -9662,7 +9624,7 @@
         <v>31</v>
       </c>
       <c r="H177" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I177" s="12">
         <v>87</v>
@@ -9690,7 +9652,7 @@
         <v>31</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I178" s="12">
         <v>87</v>
@@ -9718,7 +9680,7 @@
         <v>31</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I179" s="12">
         <v>87</v>
@@ -9746,7 +9708,7 @@
         <v>31</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I180" s="12">
         <v>87</v>
@@ -9806,7 +9768,7 @@
         <v>51</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K182" s="38">
         <v>30</v>
@@ -9830,7 +9792,7 @@
         <v>29</v>
       </c>
       <c r="H183" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I183" s="12">
         <v>51</v>
@@ -9858,13 +9820,13 @@
         <v>29</v>
       </c>
       <c r="H184" s="41" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="I184" s="12">
         <v>51</v>
       </c>
       <c r="J184" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K184" s="38">
         <v>30</v>
@@ -9916,7 +9878,7 @@
         <v>31</v>
       </c>
       <c r="H186" s="41" t="s">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="I186" s="12">
         <v>51</v>
@@ -9944,7 +9906,7 @@
         <v>31</v>
       </c>
       <c r="H187" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I187" s="12">
         <v>51</v>
@@ -9972,7 +9934,7 @@
         <v>31</v>
       </c>
       <c r="H188" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I188" s="12">
         <v>51</v>
@@ -10056,7 +10018,7 @@
         <v>20</v>
       </c>
       <c r="J191" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K191" s="51">
         <v>30</v>
@@ -10287,7 +10249,7 @@
         <v>31</v>
       </c>
       <c r="H199" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I199" s="18">
         <v>21</v>
@@ -10495,7 +10457,7 @@
         <v>30</v>
       </c>
       <c r="H206" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I206" s="18">
         <v>22</v>
@@ -10704,7 +10666,7 @@
         <v>31</v>
       </c>
       <c r="H213" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I213" s="18">
         <v>23</v>
@@ -10788,7 +10750,7 @@
         <v>24</v>
       </c>
       <c r="J216" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K216" s="51">
         <v>30</v>
@@ -11019,7 +10981,7 @@
         <v>31</v>
       </c>
       <c r="H224" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I224" s="18">
         <v>25</v>
@@ -11108,7 +11070,7 @@
         <v>30</v>
       </c>
       <c r="H227" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I227" s="18">
         <v>48</v>
@@ -11164,7 +11126,7 @@
         <v>25</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G229" s="31"/>
       <c r="H229" s="41"/>
@@ -11227,7 +11189,7 @@
         <v>30</v>
       </c>
       <c r="H231" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I231" s="18">
         <v>26</v>
@@ -11283,7 +11245,7 @@
         <v>26</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G233" s="31"/>
       <c r="H233" s="41"/>
@@ -11436,7 +11398,7 @@
         <v>31</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I238" s="18">
         <v>27</v>
@@ -11460,7 +11422,7 @@
       <c r="D239" s="52"/>
       <c r="E239" s="29"/>
       <c r="F239" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G239" s="31"/>
       <c r="H239" s="41"/>
@@ -11546,7 +11508,7 @@
         <v>29</v>
       </c>
       <c r="H242" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I242" s="18">
         <v>49</v>
@@ -11574,13 +11536,13 @@
         <v>29</v>
       </c>
       <c r="H243" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I243" s="18">
         <v>49</v>
       </c>
       <c r="J243" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K243" s="51">
         <v>30</v>
@@ -11660,7 +11622,7 @@
         <v>31</v>
       </c>
       <c r="H246" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I246" s="18">
         <v>49</v>
@@ -11688,7 +11650,7 @@
         <v>31</v>
       </c>
       <c r="H247" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I247" s="18">
         <v>49</v>
@@ -11712,7 +11674,7 @@
       <c r="D248" s="52"/>
       <c r="E248" s="29"/>
       <c r="F248" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G248" s="37"/>
       <c r="H248" s="41"/>
@@ -11798,7 +11760,7 @@
         <v>29</v>
       </c>
       <c r="H251" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I251" s="18">
         <v>88</v>
@@ -11826,7 +11788,7 @@
         <v>29</v>
       </c>
       <c r="H252" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I252" s="18">
         <v>88</v>
@@ -11910,7 +11872,7 @@
         <v>31</v>
       </c>
       <c r="H255" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I255" s="18">
         <v>88</v>
@@ -11938,7 +11900,7 @@
         <v>31</v>
       </c>
       <c r="H256" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I256" s="18">
         <v>88</v>
@@ -11966,7 +11928,7 @@
         <v>31</v>
       </c>
       <c r="H257" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I257" s="18">
         <v>88</v>
@@ -11994,7 +11956,7 @@
         <v>31</v>
       </c>
       <c r="H258" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I258" s="18">
         <v>88</v>
@@ -12076,7 +12038,7 @@
         <v>29</v>
       </c>
       <c r="H261" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I261" s="18">
         <v>53</v>
@@ -12086,7 +12048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="50">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>53</v>
@@ -12104,13 +12066,13 @@
         <v>29</v>
       </c>
       <c r="H262" s="41" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="I262" s="18">
         <v>53</v>
       </c>
       <c r="J262" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K262" s="51">
         <v>30</v>
@@ -12162,7 +12124,7 @@
         <v>31</v>
       </c>
       <c r="H264" s="41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I264" s="18">
         <v>53</v>
@@ -12190,7 +12152,7 @@
         <v>31</v>
       </c>
       <c r="H265" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I265" s="18">
         <v>53</v>
@@ -12218,7 +12180,7 @@
         <v>31</v>
       </c>
       <c r="H266" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I266" s="18">
         <v>53</v>
@@ -12302,7 +12264,7 @@
         <v>28</v>
       </c>
       <c r="J269" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K269" s="51">
         <v>28</v>
@@ -12326,7 +12288,7 @@
         <v>30</v>
       </c>
       <c r="H270" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I270" s="18">
         <v>28</v>
@@ -12680,7 +12642,7 @@
         <v>31</v>
       </c>
       <c r="H282" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I282" s="18">
         <v>30</v>
@@ -13006,7 +12968,7 @@
         <v>31</v>
       </c>
       <c r="H293" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I293" s="18">
         <v>32</v>
@@ -13066,7 +13028,7 @@
         <v>38</v>
       </c>
       <c r="J295" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K295" s="51">
         <v>28</v>
@@ -13292,7 +13254,7 @@
         <v>40</v>
       </c>
       <c r="J303" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K303" s="51">
         <v>28</v>
@@ -13316,7 +13278,7 @@
         <v>29</v>
       </c>
       <c r="H304" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I304" s="12">
         <v>40</v>
@@ -13350,7 +13312,7 @@
         <v>40</v>
       </c>
       <c r="J305" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K305" s="51">
         <v>28</v>
@@ -13402,7 +13364,7 @@
         <v>30</v>
       </c>
       <c r="H307" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I307" s="12">
         <v>40</v>
@@ -13430,7 +13392,7 @@
         <v>31</v>
       </c>
       <c r="H308" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I308" s="12">
         <v>40</v>
@@ -13458,7 +13420,7 @@
         <v>31</v>
       </c>
       <c r="H309" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I309" s="12">
         <v>40</v>
@@ -13486,7 +13448,7 @@
         <v>31</v>
       </c>
       <c r="H310" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I310" s="12">
         <v>40</v>
@@ -13514,7 +13476,7 @@
         <v>31</v>
       </c>
       <c r="H311" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I311" s="12">
         <v>40</v>
@@ -13574,7 +13536,7 @@
         <v>41</v>
       </c>
       <c r="J313" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K313" s="51">
         <v>28</v>
@@ -13598,7 +13560,7 @@
         <v>29</v>
       </c>
       <c r="H314" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I314" s="12">
         <v>41</v>
@@ -13626,13 +13588,13 @@
         <v>29</v>
       </c>
       <c r="H315" s="41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I315" s="12">
         <v>41</v>
       </c>
       <c r="J315" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K315" s="51">
         <v>28</v>
@@ -13708,7 +13670,7 @@
       <c r="D318" s="52"/>
       <c r="E318" s="29"/>
       <c r="F318" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G318" s="37"/>
       <c r="H318" s="41"/>
@@ -13766,7 +13728,7 @@
         <v>30</v>
       </c>
       <c r="H320" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I320" s="12">
         <v>89</v>
@@ -13800,7 +13762,7 @@
         <v>89</v>
       </c>
       <c r="J321" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K321" s="51">
         <v>28</v>
@@ -13822,7 +13784,7 @@
         <v>89</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G322" s="31"/>
       <c r="H322" s="41"/>
@@ -13941,7 +13903,7 @@
         <v>90</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G326" s="31"/>
       <c r="H326" s="41"/>
@@ -14124,7 +14086,7 @@
         <v>31</v>
       </c>
       <c r="H332" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I332" s="12">
         <v>91</v>
@@ -14208,7 +14170,7 @@
         <v>33</v>
       </c>
       <c r="J335" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K335" s="51">
         <v>28</v>
@@ -14232,13 +14194,13 @@
         <v>30</v>
       </c>
       <c r="H336" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I336" s="18">
         <v>33</v>
       </c>
       <c r="J336" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K336" s="51">
         <v>28</v>
@@ -14590,7 +14552,7 @@
         <v>31</v>
       </c>
       <c r="H348" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I348" s="18">
         <v>35</v>
@@ -14828,7 +14790,7 @@
         <v>31</v>
       </c>
       <c r="H356" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I356" s="18">
         <v>37</v>
@@ -14918,7 +14880,7 @@
         <v>31</v>
       </c>
       <c r="H359" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I359" s="18">
         <v>37</v>
@@ -15084,7 +15046,7 @@
         <v>31</v>
       </c>
       <c r="H365" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I365" s="18">
         <v>39</v>
@@ -15200,7 +15162,7 @@
         <v>42</v>
       </c>
       <c r="J369" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K369" s="51">
         <v>28</v>
@@ -15224,7 +15186,7 @@
         <v>29</v>
       </c>
       <c r="H370" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I370" s="18">
         <v>42</v>
@@ -15252,13 +15214,13 @@
         <v>29</v>
       </c>
       <c r="H371" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I371" s="18">
         <v>42</v>
       </c>
       <c r="J371" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K371" s="51">
         <v>28</v>
@@ -15310,7 +15272,7 @@
         <v>30</v>
       </c>
       <c r="H373" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I373" s="18">
         <v>42</v>
@@ -15338,7 +15300,7 @@
         <v>31</v>
       </c>
       <c r="H374" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I374" s="18">
         <v>42</v>
@@ -15366,7 +15328,7 @@
         <v>31</v>
       </c>
       <c r="H375" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I375" s="18">
         <v>42</v>
@@ -15394,7 +15356,7 @@
         <v>31</v>
       </c>
       <c r="H376" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I376" s="18">
         <v>42</v>
@@ -15426,7 +15388,7 @@
         <v>43</v>
       </c>
       <c r="J377" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K377" s="51">
         <v>28</v>
@@ -15480,13 +15442,13 @@
         <v>29</v>
       </c>
       <c r="H379" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I379" s="18">
         <v>43</v>
       </c>
       <c r="J379" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K379" s="51">
         <v>28</v>
@@ -15590,7 +15552,7 @@
       <c r="D383" s="52"/>
       <c r="E383" s="29"/>
       <c r="F383" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G383" s="37"/>
       <c r="H383" s="41"/>
@@ -15620,7 +15582,7 @@
         <v>29</v>
       </c>
       <c r="H384" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I384" s="18">
         <v>92</v>
@@ -15648,7 +15610,7 @@
         <v>30</v>
       </c>
       <c r="H385" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I385" s="18">
         <v>92</v>
@@ -15682,7 +15644,7 @@
         <v>92</v>
       </c>
       <c r="J386" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K386" s="51">
         <v>28</v>
@@ -15704,7 +15666,7 @@
         <v>92</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G387" s="31"/>
       <c r="H387" s="41"/>
@@ -15823,7 +15785,7 @@
         <v>93</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G391" s="31"/>
       <c r="H391" s="41"/>
@@ -15916,7 +15878,7 @@
         <v>31</v>
       </c>
       <c r="H394" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I394" s="18">
         <v>94</v>
@@ -15946,7 +15908,7 @@
         <v>31</v>
       </c>
       <c r="H395" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I395" s="18">
         <v>94</v>
@@ -16006,7 +15968,7 @@
         <v>31</v>
       </c>
       <c r="H397" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I397" s="18">
         <v>94</v>
@@ -16046,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="B399" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C399" s="72"/>
       <c r="D399" s="73"/>
@@ -16070,7 +16032,7 @@
         <v>55</v>
       </c>
       <c r="B400" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C400" s="66" t="s">
         <v>57</v>
@@ -16078,7 +16040,7 @@
       <c r="D400" s="67"/>
       <c r="E400" s="68"/>
       <c r="F400" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H400" s="41"/>
       <c r="I400" s="70">
@@ -16095,7 +16057,7 @@
         <v>55</v>
       </c>
       <c r="B401" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C401" s="66" t="s">
         <v>57</v>
@@ -16113,7 +16075,7 @@
         <v>55</v>
       </c>
       <c r="J401" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K401" s="72">
         <v>38</v>
@@ -16125,7 +16087,7 @@
         <v>55</v>
       </c>
       <c r="B402" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C402" s="66" t="s">
         <v>57</v>
@@ -16137,7 +16099,7 @@
         <v>29</v>
       </c>
       <c r="H402" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I402" s="70">
         <v>55</v>
@@ -16153,7 +16115,7 @@
         <v>55</v>
       </c>
       <c r="B403" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C403" s="66" t="s">
         <v>57</v>
@@ -16165,13 +16127,13 @@
         <v>30</v>
       </c>
       <c r="H403" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I403" s="70">
         <v>55</v>
       </c>
       <c r="J403" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K403" s="72">
         <v>38</v>
@@ -16183,7 +16145,7 @@
         <v>55</v>
       </c>
       <c r="B404" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C404" s="66" t="s">
         <v>57</v>
@@ -16195,13 +16157,13 @@
         <v>31</v>
       </c>
       <c r="H404" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I404" s="70">
         <v>55</v>
       </c>
       <c r="J404" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K404" s="66">
         <v>38</v>
@@ -16213,7 +16175,7 @@
         <v>55</v>
       </c>
       <c r="B405" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C405" s="66" t="s">
         <v>57</v>
@@ -16225,7 +16187,7 @@
         <v>31</v>
       </c>
       <c r="H405" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I405" s="70">
         <v>55</v>
@@ -16241,7 +16203,7 @@
         <v>55</v>
       </c>
       <c r="B406" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C406" s="66" t="s">
         <v>57</v>
@@ -16253,13 +16215,13 @@
         <v>31</v>
       </c>
       <c r="H406" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I406" s="70">
         <v>55</v>
       </c>
       <c r="J406" s="71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K406" s="66">
         <v>38</v>
@@ -16271,7 +16233,7 @@
         <v>73</v>
       </c>
       <c r="B407" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C407" s="66" t="s">
         <v>57</v>
@@ -16281,7 +16243,7 @@
         <v>55</v>
       </c>
       <c r="F407" s="69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H407" s="41"/>
       <c r="I407" s="70">
@@ -16298,7 +16260,7 @@
         <v>73</v>
       </c>
       <c r="B408" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C408" s="66" t="s">
         <v>57</v>
@@ -16329,7 +16291,7 @@
         <v>73</v>
       </c>
       <c r="B409" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C409" s="66" t="s">
         <v>57</v>
@@ -16343,7 +16305,7 @@
         <v>29</v>
       </c>
       <c r="H409" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I409" s="70">
         <v>73</v>
@@ -16359,7 +16321,7 @@
         <v>73</v>
       </c>
       <c r="B410" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C410" s="66" t="s">
         <v>57</v>
@@ -16373,13 +16335,13 @@
         <v>30</v>
       </c>
       <c r="H410" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I410" s="70">
         <v>73</v>
       </c>
       <c r="J410" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K410" s="66">
         <v>38</v>
@@ -16391,7 +16353,7 @@
         <v>73</v>
       </c>
       <c r="B411" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C411" s="66" t="s">
         <v>57</v>
@@ -16405,13 +16367,13 @@
         <v>31</v>
       </c>
       <c r="H411" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I411" s="70">
         <v>73</v>
       </c>
       <c r="J411" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K411" s="66">
         <v>38</v>
@@ -16423,7 +16385,7 @@
         <v>73</v>
       </c>
       <c r="B412" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C412" s="66" t="s">
         <v>57</v>
@@ -16437,7 +16399,7 @@
         <v>31</v>
       </c>
       <c r="H412" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I412" s="70">
         <v>73</v>
@@ -16453,7 +16415,7 @@
         <v>73</v>
       </c>
       <c r="B413" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C413" s="66" t="s">
         <v>57</v>
@@ -16467,7 +16429,7 @@
         <v>31</v>
       </c>
       <c r="H413" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I413" s="70">
         <v>73</v>
@@ -16483,7 +16445,7 @@
         <v>78</v>
       </c>
       <c r="B414" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C414" s="66" t="s">
         <v>57</v>
@@ -16491,7 +16453,7 @@
       <c r="D414" s="67"/>
       <c r="E414" s="68"/>
       <c r="F414" s="69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H414" s="41"/>
       <c r="I414" s="70">
@@ -16508,7 +16470,7 @@
         <v>78</v>
       </c>
       <c r="B415" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C415" s="66" t="s">
         <v>57</v>
@@ -16536,7 +16498,7 @@
         <v>78</v>
       </c>
       <c r="B416" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C416" s="66" t="s">
         <v>57</v>
@@ -16548,7 +16510,7 @@
         <v>29</v>
       </c>
       <c r="H416" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I416" s="70">
         <v>78</v>
@@ -16564,7 +16526,7 @@
         <v>78</v>
       </c>
       <c r="B417" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C417" s="66" t="s">
         <v>57</v>
@@ -16576,13 +16538,13 @@
         <v>29</v>
       </c>
       <c r="H417" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I417" s="70">
         <v>78</v>
       </c>
       <c r="J417" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K417" s="66">
         <v>38</v>
@@ -16594,7 +16556,7 @@
         <v>78</v>
       </c>
       <c r="B418" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C418" s="66" t="s">
         <v>57</v>
@@ -16606,13 +16568,13 @@
         <v>30</v>
       </c>
       <c r="H418" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I418" s="70">
         <v>78</v>
       </c>
       <c r="J418" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K418" s="66"/>
     </row>
@@ -16622,7 +16584,7 @@
         <v>78</v>
       </c>
       <c r="B419" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C419" s="66" t="s">
         <v>57</v>
@@ -16634,13 +16596,13 @@
         <v>31</v>
       </c>
       <c r="H419" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I419" s="70">
         <v>78</v>
       </c>
       <c r="J419" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K419" s="66">
         <v>38</v>
@@ -16652,7 +16614,7 @@
         <v>78</v>
       </c>
       <c r="B420" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C420" s="66" t="s">
         <v>57</v>
@@ -16664,13 +16626,13 @@
         <v>31</v>
       </c>
       <c r="H420" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I420" s="70">
         <v>78</v>
       </c>
       <c r="J420" s="71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K420" s="66">
         <v>38</v>
@@ -16682,7 +16644,7 @@
         <v>78</v>
       </c>
       <c r="B421" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C421" s="66" t="s">
         <v>57</v>
@@ -16694,13 +16656,13 @@
         <v>31</v>
       </c>
       <c r="H421" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I421" s="70">
         <v>78</v>
       </c>
       <c r="J421" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K421" s="66">
         <v>38</v>
@@ -16712,7 +16674,7 @@
         <v>79</v>
       </c>
       <c r="B422" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C422" s="66" t="s">
         <v>57</v>
@@ -16722,7 +16684,7 @@
         <v>78</v>
       </c>
       <c r="F422" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H422" s="41"/>
       <c r="I422" s="70">
@@ -16739,7 +16701,7 @@
         <v>79</v>
       </c>
       <c r="B423" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C423" s="66" t="s">
         <v>57</v>
@@ -16770,7 +16732,7 @@
         <v>79</v>
       </c>
       <c r="B424" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C424" s="66" t="s">
         <v>57</v>
@@ -16784,7 +16746,7 @@
         <v>29</v>
       </c>
       <c r="H424" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I424" s="70">
         <v>79</v>
@@ -16800,7 +16762,7 @@
         <v>79</v>
       </c>
       <c r="B425" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C425" s="66" t="s">
         <v>57</v>
@@ -16814,7 +16776,7 @@
         <v>29</v>
       </c>
       <c r="H425" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I425" s="70">
         <v>79</v>
@@ -16830,7 +16792,7 @@
         <v>79</v>
       </c>
       <c r="B426" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C426" s="66" t="s">
         <v>57</v>
@@ -16844,13 +16806,13 @@
         <v>30</v>
       </c>
       <c r="H426" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I426" s="70">
         <v>79</v>
       </c>
       <c r="J426" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K426" s="66">
         <v>38</v>
@@ -16862,7 +16824,7 @@
         <v>79</v>
       </c>
       <c r="B427" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C427" s="66" t="s">
         <v>57</v>
@@ -16876,13 +16838,13 @@
         <v>31</v>
       </c>
       <c r="H427" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I427" s="70">
         <v>79</v>
       </c>
       <c r="J427" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K427" s="66">
         <v>38</v>
@@ -16894,7 +16856,7 @@
         <v>79</v>
       </c>
       <c r="B428" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C428" s="66" t="s">
         <v>57</v>
@@ -16908,13 +16870,13 @@
         <v>31</v>
       </c>
       <c r="H428" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I428" s="70">
         <v>79</v>
       </c>
       <c r="J428" s="71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K428" s="66">
         <v>38</v>
@@ -16926,7 +16888,7 @@
         <v>79</v>
       </c>
       <c r="B429" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C429" s="66" t="s">
         <v>57</v>
@@ -16940,13 +16902,13 @@
         <v>31</v>
       </c>
       <c r="H429" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I429" s="70">
         <v>79</v>
       </c>
       <c r="J429" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K429" s="66">
         <v>38</v>
@@ -16958,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="B430" s="80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C430" s="81"/>
       <c r="D430" s="82"/>
@@ -16982,7 +16944,7 @@
         <v>80</v>
       </c>
       <c r="B431" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C431" s="66" t="s">
         <v>57</v>
@@ -16990,7 +16952,7 @@
       <c r="D431" s="67"/>
       <c r="E431" s="68"/>
       <c r="F431" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G431" s="37"/>
       <c r="H431" s="40"/>
@@ -17008,7 +16970,7 @@
         <v>80</v>
       </c>
       <c r="B432" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C432" s="66" t="s">
         <v>57</v>
@@ -17026,7 +16988,7 @@
         <v>80</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K432" s="66">
         <v>60</v>
@@ -17038,7 +17000,7 @@
         <v>80</v>
       </c>
       <c r="B433" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C433" s="66" t="s">
         <v>57</v>
@@ -17050,7 +17012,7 @@
         <v>30</v>
       </c>
       <c r="H433" s="41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I433" s="70">
         <v>80</v>
@@ -17066,7 +17028,7 @@
         <v>80</v>
       </c>
       <c r="B434" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C434" s="66" t="s">
         <v>57</v>
@@ -17094,7 +17056,7 @@
         <v>81</v>
       </c>
       <c r="B435" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C435" s="66" t="s">
         <v>57</v>
@@ -17104,7 +17066,7 @@
         <v>80</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G435" s="37"/>
       <c r="H435" s="41"/>
@@ -17122,7 +17084,7 @@
         <v>81</v>
       </c>
       <c r="B436" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C436" s="66" t="s">
         <v>57</v>
@@ -17153,7 +17115,7 @@
         <v>81</v>
       </c>
       <c r="B437" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C437" s="66" t="s">
         <v>57</v>
@@ -17183,7 +17145,7 @@
         <v>81</v>
       </c>
       <c r="B438" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C438" s="66" t="s">
         <v>57</v>
@@ -17197,7 +17159,7 @@
         <v>31</v>
       </c>
       <c r="H438" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I438" s="70">
         <v>81</v>
@@ -17213,7 +17175,7 @@
         <v>81</v>
       </c>
       <c r="B439" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C439" s="66" t="s">
         <v>57</v>
@@ -17227,7 +17189,7 @@
         <v>31</v>
       </c>
       <c r="H439" s="41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I439" s="70">
         <v>81</v>
@@ -17243,7 +17205,7 @@
         <v>82</v>
       </c>
       <c r="B440" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C440" s="66" t="s">
         <v>57</v>
@@ -17253,7 +17215,7 @@
         <v>80</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G440" s="37"/>
       <c r="H440" s="41"/>
@@ -17271,7 +17233,7 @@
         <v>82</v>
       </c>
       <c r="B441" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C441" s="66" t="s">
         <v>57</v>
@@ -17302,7 +17264,7 @@
         <v>82</v>
       </c>
       <c r="B442" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C442" s="66" t="s">
         <v>57</v>
@@ -17316,7 +17278,7 @@
         <v>30</v>
       </c>
       <c r="H442" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I442" s="70">
         <v>82</v>
@@ -17332,7 +17294,7 @@
         <v>82</v>
       </c>
       <c r="B443" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C443" s="66" t="s">
         <v>57</v>
@@ -17346,7 +17308,7 @@
         <v>31</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I443" s="70">
         <v>82</v>
@@ -17362,7 +17324,7 @@
         <v>82</v>
       </c>
       <c r="B444" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C444" s="66" t="s">
         <v>57</v>
@@ -17376,7 +17338,7 @@
         <v>31</v>
       </c>
       <c r="H444" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I444" s="70">
         <v>82</v>
@@ -17392,7 +17354,7 @@
         <v>83</v>
       </c>
       <c r="B445" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C445" s="66" t="s">
         <v>57</v>
@@ -17402,7 +17364,7 @@
       </c>
       <c r="E445" s="68"/>
       <c r="F445" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G445" s="37"/>
       <c r="H445" s="41"/>
@@ -17420,7 +17382,7 @@
         <v>83</v>
       </c>
       <c r="B446" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C446" s="66" t="s">
         <v>57</v>
@@ -17434,13 +17396,13 @@
         <v>29</v>
       </c>
       <c r="H446" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I446" s="70">
         <v>83</v>
       </c>
       <c r="J446" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K446" s="66">
         <v>60</v>
@@ -17452,7 +17414,7 @@
         <v>83</v>
       </c>
       <c r="B447" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C447" s="66" t="s">
         <v>57</v>
@@ -17466,13 +17428,13 @@
         <v>29</v>
       </c>
       <c r="H447" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I447" s="70">
         <v>83</v>
       </c>
       <c r="J447" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K447" s="66">
         <v>60</v>
@@ -17484,7 +17446,7 @@
         <v>83</v>
       </c>
       <c r="B448" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C448" s="66" t="s">
         <v>57</v>
@@ -17498,7 +17460,7 @@
         <v>30</v>
       </c>
       <c r="H448" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I448" s="70">
         <v>83</v>
@@ -17514,7 +17476,7 @@
         <v>83</v>
       </c>
       <c r="B449" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C449" s="66" t="s">
         <v>57</v>
@@ -17528,7 +17490,7 @@
         <v>31</v>
       </c>
       <c r="H449" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I449" s="70">
         <v>83</v>
@@ -17544,7 +17506,7 @@
         <v>83</v>
       </c>
       <c r="B450" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C450" s="66" t="s">
         <v>57</v>
@@ -17558,7 +17520,7 @@
         <v>31</v>
       </c>
       <c r="H450" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I450" s="70">
         <v>83</v>
@@ -17574,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="B451" s="106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C451" s="107"/>
       <c r="D451" s="108"/>
@@ -17598,7 +17560,7 @@
         <v>56</v>
       </c>
       <c r="B452" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C452" s="66" t="s">
         <v>57</v>
@@ -17606,7 +17568,7 @@
       <c r="D452" s="67"/>
       <c r="E452" s="68"/>
       <c r="F452" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H452" s="41"/>
       <c r="I452" s="70">
@@ -17623,7 +17585,7 @@
         <v>56</v>
       </c>
       <c r="B453" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C453" s="66" t="s">
         <v>57</v>
@@ -17641,7 +17603,7 @@
         <v>56</v>
       </c>
       <c r="J453" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K453" s="66">
         <v>39</v>
@@ -17653,7 +17615,7 @@
         <v>56</v>
       </c>
       <c r="B454" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C454" s="66" t="s">
         <v>57</v>
@@ -17665,7 +17627,7 @@
         <v>29</v>
       </c>
       <c r="H454" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I454" s="70">
         <v>56</v>
@@ -17681,7 +17643,7 @@
         <v>56</v>
       </c>
       <c r="B455" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C455" s="66" t="s">
         <v>57</v>
@@ -17693,13 +17655,13 @@
         <v>30</v>
       </c>
       <c r="H455" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I455" s="70">
         <v>56</v>
       </c>
       <c r="J455" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K455" s="66">
         <v>39</v>
@@ -17711,7 +17673,7 @@
         <v>56</v>
       </c>
       <c r="B456" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C456" s="66" t="s">
         <v>57</v>
@@ -17739,7 +17701,7 @@
         <v>57</v>
       </c>
       <c r="B457" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C457" s="66" t="s">
         <v>57</v>
@@ -17749,7 +17711,7 @@
         <v>56</v>
       </c>
       <c r="F457" s="69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H457" s="41"/>
       <c r="I457" s="70">
@@ -17766,7 +17728,7 @@
         <v>57</v>
       </c>
       <c r="B458" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C458" s="66" t="s">
         <v>57</v>
@@ -17797,7 +17759,7 @@
         <v>57</v>
       </c>
       <c r="B459" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C459" s="66" t="s">
         <v>57</v>
@@ -17827,7 +17789,7 @@
         <v>57</v>
       </c>
       <c r="B460" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C460" s="66" t="s">
         <v>57</v>
@@ -17841,7 +17803,7 @@
         <v>31</v>
       </c>
       <c r="H460" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I460" s="70">
         <v>57</v>
@@ -17857,7 +17819,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C461" s="66" t="s">
         <v>57</v>
@@ -17867,7 +17829,7 @@
         <v>57</v>
       </c>
       <c r="F461" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H461" s="41"/>
       <c r="I461" s="70">
@@ -17884,7 +17846,7 @@
         <v>58</v>
       </c>
       <c r="B462" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C462" s="66" t="s">
         <v>57</v>
@@ -17915,7 +17877,7 @@
         <v>58</v>
       </c>
       <c r="B463" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C463" s="66" t="s">
         <v>57</v>
@@ -17929,7 +17891,7 @@
         <v>30</v>
       </c>
       <c r="H463" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I463" s="70">
         <v>58</v>
@@ -17945,7 +17907,7 @@
         <v>58</v>
       </c>
       <c r="B464" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C464" s="66" t="s">
         <v>57</v>
@@ -17959,7 +17921,7 @@
         <v>31</v>
       </c>
       <c r="H464" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I464" s="70">
         <v>58</v>
@@ -17975,7 +17937,7 @@
         <v>58</v>
       </c>
       <c r="B465" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C465" s="66" t="s">
         <v>57</v>
@@ -17989,7 +17951,7 @@
         <v>31</v>
       </c>
       <c r="H465" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I465" s="70">
         <v>58</v>
@@ -18005,7 +17967,7 @@
         <v>58</v>
       </c>
       <c r="B466" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C466" s="66" t="s">
         <v>57</v>
@@ -18019,7 +17981,7 @@
         <v>31</v>
       </c>
       <c r="H466" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I466" s="70">
         <v>58</v>
@@ -18035,7 +17997,7 @@
         <v>59</v>
       </c>
       <c r="B467" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C467" s="66" t="s">
         <v>57</v>
@@ -18045,7 +18007,7 @@
         <v>56</v>
       </c>
       <c r="F467" s="69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H467" s="41"/>
       <c r="I467" s="70">
@@ -18062,7 +18024,7 @@
         <v>59</v>
       </c>
       <c r="B468" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C468" s="66" t="s">
         <v>57</v>
@@ -18093,7 +18055,7 @@
         <v>59</v>
       </c>
       <c r="B469" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C469" s="66" t="s">
         <v>57</v>
@@ -18123,7 +18085,7 @@
         <v>59</v>
       </c>
       <c r="B470" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C470" s="66" t="s">
         <v>57</v>
@@ -18153,7 +18115,7 @@
         <v>60</v>
       </c>
       <c r="B471" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C471" s="66" t="s">
         <v>162</v>
@@ -18163,7 +18125,7 @@
         <v>57</v>
       </c>
       <c r="F471" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H471" s="41"/>
       <c r="I471" s="70">
@@ -18180,7 +18142,7 @@
         <v>60</v>
       </c>
       <c r="B472" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C472" s="66" t="s">
         <v>57</v>
@@ -18211,7 +18173,7 @@
         <v>60</v>
       </c>
       <c r="B473" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C473" s="66" t="s">
         <v>57</v>
@@ -18225,7 +18187,7 @@
         <v>30</v>
       </c>
       <c r="H473" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I473" s="70">
         <v>60</v>
@@ -18241,7 +18203,7 @@
         <v>60</v>
       </c>
       <c r="B474" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C474" s="66" t="s">
         <v>57</v>
@@ -18255,7 +18217,7 @@
         <v>31</v>
       </c>
       <c r="H474" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I474" s="70">
         <v>60</v>
@@ -18271,7 +18233,7 @@
         <v>60</v>
       </c>
       <c r="B475" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C475" s="66" t="s">
         <v>57</v>
@@ -18285,7 +18247,7 @@
         <v>31</v>
       </c>
       <c r="H475" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I475" s="70">
         <v>60</v>
@@ -18301,7 +18263,7 @@
         <v>60</v>
       </c>
       <c r="B476" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C476" s="66" t="s">
         <v>57</v>
@@ -18315,7 +18277,7 @@
         <v>31</v>
       </c>
       <c r="H476" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I476" s="70">
         <v>60</v>
@@ -18331,7 +18293,7 @@
         <v>68</v>
       </c>
       <c r="B477" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C477" s="66" t="s">
         <v>57</v>
@@ -18339,7 +18301,7 @@
       <c r="D477" s="67"/>
       <c r="E477" s="68"/>
       <c r="F477" s="69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H477" s="41"/>
       <c r="I477" s="70">
@@ -18356,7 +18318,7 @@
         <v>68</v>
       </c>
       <c r="B478" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C478" s="66" t="s">
         <v>57</v>
@@ -18368,13 +18330,13 @@
         <v>29</v>
       </c>
       <c r="H478" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I478" s="70">
         <v>68</v>
       </c>
       <c r="J478" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K478" s="66">
         <v>39</v>
@@ -18386,7 +18348,7 @@
         <v>68</v>
       </c>
       <c r="B479" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C479" s="66" t="s">
         <v>57</v>
@@ -18398,7 +18360,7 @@
         <v>29</v>
       </c>
       <c r="H479" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I479" s="70">
         <v>68</v>
@@ -18414,7 +18376,7 @@
         <v>68</v>
       </c>
       <c r="B480" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C480" s="66" t="s">
         <v>57</v>
@@ -18426,7 +18388,7 @@
         <v>29</v>
       </c>
       <c r="H480" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I480" s="70">
         <v>68</v>
@@ -18442,7 +18404,7 @@
         <v>68</v>
       </c>
       <c r="B481" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C481" s="66" t="s">
         <v>57</v>
@@ -18470,7 +18432,7 @@
         <v>68</v>
       </c>
       <c r="B482" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C482" s="66" t="s">
         <v>57</v>
@@ -18482,7 +18444,7 @@
         <v>30</v>
       </c>
       <c r="H482" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I482" s="70">
         <v>68</v>
@@ -18498,7 +18460,7 @@
         <v>68</v>
       </c>
       <c r="B483" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C483" s="66" t="s">
         <v>57</v>
@@ -18510,7 +18472,7 @@
         <v>31</v>
       </c>
       <c r="H483" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I483" s="70">
         <v>68</v>
@@ -18526,7 +18488,7 @@
         <v>68</v>
       </c>
       <c r="B484" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C484" s="66" t="s">
         <v>57</v>
@@ -18538,7 +18500,7 @@
         <v>31</v>
       </c>
       <c r="H484" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I484" s="70">
         <v>68</v>
@@ -18554,7 +18516,7 @@
         <v>68</v>
       </c>
       <c r="B485" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C485" s="66" t="s">
         <v>57</v>
@@ -18566,7 +18528,7 @@
         <v>31</v>
       </c>
       <c r="H485" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I485" s="70">
         <v>68</v>
@@ -18582,7 +18544,7 @@
         <v>69</v>
       </c>
       <c r="B486" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C486" s="66" t="s">
         <v>57</v>
@@ -18590,14 +18552,14 @@
       <c r="D486" s="67"/>
       <c r="E486" s="68"/>
       <c r="F486" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H486" s="41"/>
       <c r="I486" s="70">
         <v>69</v>
       </c>
       <c r="J486" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K486" s="66">
         <v>39</v>
@@ -18609,7 +18571,7 @@
         <v>69</v>
       </c>
       <c r="B487" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C487" s="66" t="s">
         <v>57</v>
@@ -18621,7 +18583,7 @@
         <v>29</v>
       </c>
       <c r="H487" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I487" s="70">
         <v>69</v>
@@ -18637,7 +18599,7 @@
         <v>69</v>
       </c>
       <c r="B488" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C488" s="66" t="s">
         <v>57</v>
@@ -18649,7 +18611,7 @@
         <v>29</v>
       </c>
       <c r="H488" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I488" s="70">
         <v>69</v>
@@ -18665,7 +18627,7 @@
         <v>69</v>
       </c>
       <c r="B489" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C489" s="66" t="s">
         <v>57</v>
@@ -18677,7 +18639,7 @@
         <v>29</v>
       </c>
       <c r="H489" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I489" s="70">
         <v>69</v>
@@ -18693,7 +18655,7 @@
         <v>69</v>
       </c>
       <c r="B490" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C490" s="66" t="s">
         <v>57</v>
@@ -18721,7 +18683,7 @@
         <v>69</v>
       </c>
       <c r="B491" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C491" s="66" t="s">
         <v>57</v>
@@ -18733,7 +18695,7 @@
         <v>29</v>
       </c>
       <c r="H491" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I491" s="70">
         <v>69</v>
@@ -18749,7 +18711,7 @@
         <v>69</v>
       </c>
       <c r="B492" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C492" s="66" t="s">
         <v>57</v>
@@ -18761,7 +18723,7 @@
         <v>125</v>
       </c>
       <c r="H492" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I492" s="70">
         <v>69</v>
@@ -18777,7 +18739,7 @@
         <v>69</v>
       </c>
       <c r="B493" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C493" s="66" t="s">
         <v>57</v>
@@ -18789,7 +18751,7 @@
         <v>31</v>
       </c>
       <c r="H493" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I493" s="70">
         <v>69</v>
@@ -18805,7 +18767,7 @@
         <v>69</v>
       </c>
       <c r="B494" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C494" s="66" t="s">
         <v>57</v>
@@ -18817,7 +18779,7 @@
         <v>31</v>
       </c>
       <c r="H494" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I494" s="70">
         <v>69</v>
@@ -18833,7 +18795,7 @@
         <v>69</v>
       </c>
       <c r="B495" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C495" s="66" t="s">
         <v>57</v>
@@ -18845,7 +18807,7 @@
         <v>31</v>
       </c>
       <c r="H495" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I495" s="70">
         <v>69</v>
@@ -18861,7 +18823,7 @@
         <v>69</v>
       </c>
       <c r="B496" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C496" s="66" t="s">
         <v>57</v>
@@ -18873,7 +18835,7 @@
         <v>31</v>
       </c>
       <c r="H496" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I496" s="70">
         <v>69</v>
@@ -18889,7 +18851,7 @@
         <v>70</v>
       </c>
       <c r="B497" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C497" s="66" t="s">
         <v>57</v>
@@ -18897,14 +18859,14 @@
       <c r="D497" s="67"/>
       <c r="E497" s="68"/>
       <c r="F497" s="69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H497" s="41"/>
       <c r="I497" s="70">
         <v>70</v>
       </c>
       <c r="J497" s="71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K497" s="66">
         <v>39</v>
@@ -18916,7 +18878,7 @@
         <v>70</v>
       </c>
       <c r="B498" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C498" s="66" t="s">
         <v>57</v>
@@ -18928,7 +18890,7 @@
         <v>29</v>
       </c>
       <c r="H498" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I498" s="70">
         <v>70</v>
@@ -18944,7 +18906,7 @@
         <v>70</v>
       </c>
       <c r="B499" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C499" s="66" t="s">
         <v>57</v>
@@ -18956,7 +18918,7 @@
         <v>29</v>
       </c>
       <c r="H499" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I499" s="70">
         <v>70</v>
@@ -18972,7 +18934,7 @@
         <v>70</v>
       </c>
       <c r="B500" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C500" s="66" t="s">
         <v>57</v>
@@ -18984,7 +18946,7 @@
         <v>29</v>
       </c>
       <c r="H500" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I500" s="70">
         <v>70</v>
@@ -19000,7 +18962,7 @@
         <v>70</v>
       </c>
       <c r="B501" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C501" s="66" t="s">
         <v>57</v>
@@ -19028,7 +18990,7 @@
         <v>70</v>
       </c>
       <c r="B502" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C502" s="66" t="s">
         <v>57</v>
@@ -19040,7 +19002,7 @@
         <v>29</v>
       </c>
       <c r="H502" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I502" s="70">
         <v>70</v>
@@ -19056,7 +19018,7 @@
         <v>70</v>
       </c>
       <c r="B503" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C503" s="66" t="s">
         <v>57</v>
@@ -19068,7 +19030,7 @@
         <v>125</v>
       </c>
       <c r="H503" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I503" s="70">
         <v>70</v>
@@ -19084,7 +19046,7 @@
         <v>70</v>
       </c>
       <c r="B504" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C504" s="66" t="s">
         <v>57</v>
@@ -19096,7 +19058,7 @@
         <v>31</v>
       </c>
       <c r="H504" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I504" s="70">
         <v>70</v>
@@ -19112,7 +19074,7 @@
         <v>70</v>
       </c>
       <c r="B505" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C505" s="66" t="s">
         <v>57</v>
@@ -19124,7 +19086,7 @@
         <v>31</v>
       </c>
       <c r="H505" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I505" s="70">
         <v>70</v>
@@ -19140,7 +19102,7 @@
         <v>70</v>
       </c>
       <c r="B506" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C506" s="66" t="s">
         <v>57</v>
@@ -19152,7 +19114,7 @@
         <v>31</v>
       </c>
       <c r="H506" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I506" s="70">
         <v>70</v>
@@ -19168,7 +19130,7 @@
         <v>70</v>
       </c>
       <c r="B507" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C507" s="66" t="s">
         <v>57</v>
@@ -19180,7 +19142,7 @@
         <v>31</v>
       </c>
       <c r="H507" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I507" s="70">
         <v>70</v>
@@ -19196,7 +19158,7 @@
         <v>71</v>
       </c>
       <c r="B508" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C508" s="66" t="s">
         <v>57</v>
@@ -19204,14 +19166,14 @@
       <c r="D508" s="67"/>
       <c r="E508" s="68"/>
       <c r="F508" s="69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H508" s="41"/>
       <c r="I508" s="70">
         <v>71</v>
       </c>
       <c r="J508" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K508" s="66">
         <v>39</v>
@@ -19223,7 +19185,7 @@
         <v>71</v>
       </c>
       <c r="B509" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C509" s="66" t="s">
         <v>57</v>
@@ -19235,7 +19197,7 @@
         <v>29</v>
       </c>
       <c r="H509" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I509" s="70">
         <v>71</v>
@@ -19251,7 +19213,7 @@
         <v>71</v>
       </c>
       <c r="B510" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C510" s="66" t="s">
         <v>57</v>
@@ -19263,7 +19225,7 @@
         <v>29</v>
       </c>
       <c r="H510" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I510" s="70">
         <v>71</v>
@@ -19279,7 +19241,7 @@
         <v>71</v>
       </c>
       <c r="B511" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C511" s="66" t="s">
         <v>57</v>
@@ -19291,7 +19253,7 @@
         <v>29</v>
       </c>
       <c r="H511" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I511" s="70">
         <v>71</v>
@@ -19307,7 +19269,7 @@
         <v>71</v>
       </c>
       <c r="B512" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C512" s="66" t="s">
         <v>57</v>
@@ -19319,7 +19281,7 @@
         <v>29</v>
       </c>
       <c r="H512" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I512" s="70">
         <v>71</v>
@@ -19335,7 +19297,7 @@
         <v>71</v>
       </c>
       <c r="B513" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C513" s="66" t="s">
         <v>57</v>
@@ -19363,7 +19325,7 @@
         <v>71</v>
       </c>
       <c r="B514" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C514" s="66" t="s">
         <v>57</v>
@@ -19375,7 +19337,7 @@
         <v>31</v>
       </c>
       <c r="H514" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I514" s="70">
         <v>71</v>
@@ -19391,7 +19353,7 @@
         <v>71</v>
       </c>
       <c r="B515" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C515" s="66" t="s">
         <v>57</v>
@@ -19403,7 +19365,7 @@
         <v>31</v>
       </c>
       <c r="H515" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I515" s="70">
         <v>71</v>
@@ -19419,7 +19381,7 @@
         <v>71</v>
       </c>
       <c r="B516" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C516" s="66" t="s">
         <v>57</v>
@@ -19431,7 +19393,7 @@
         <v>31</v>
       </c>
       <c r="H516" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I516" s="70">
         <v>71</v>
@@ -19447,7 +19409,7 @@
         <v>72</v>
       </c>
       <c r="B517" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C517" s="66" t="s">
         <v>57</v>
@@ -19455,7 +19417,7 @@
       <c r="D517" s="67"/>
       <c r="E517" s="68"/>
       <c r="F517" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H517" s="41"/>
       <c r="I517" s="70">
@@ -19472,7 +19434,7 @@
         <v>72</v>
       </c>
       <c r="B518" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C518" s="66" t="s">
         <v>57</v>
@@ -19484,7 +19446,7 @@
         <v>29</v>
       </c>
       <c r="H518" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I518" s="70">
         <v>72</v>
@@ -19500,7 +19462,7 @@
         <v>72</v>
       </c>
       <c r="B519" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C519" s="66" t="s">
         <v>57</v>
@@ -19512,7 +19474,7 @@
         <v>29</v>
       </c>
       <c r="H519" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I519" s="70">
         <v>72</v>
@@ -19528,7 +19490,7 @@
         <v>72</v>
       </c>
       <c r="B520" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C520" s="66" t="s">
         <v>57</v>
@@ -19540,7 +19502,7 @@
         <v>29</v>
       </c>
       <c r="H520" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I520" s="70">
         <v>72</v>
@@ -19556,7 +19518,7 @@
         <v>72</v>
       </c>
       <c r="B521" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C521" s="66" t="s">
         <v>57</v>
@@ -19568,7 +19530,7 @@
         <v>29</v>
       </c>
       <c r="H521" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I521" s="70">
         <v>72</v>
@@ -19584,7 +19546,7 @@
         <v>72</v>
       </c>
       <c r="B522" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C522" s="66" t="s">
         <v>57</v>
@@ -19612,7 +19574,7 @@
         <v>72</v>
       </c>
       <c r="B523" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C523" s="66" t="s">
         <v>57</v>
@@ -19624,7 +19586,7 @@
         <v>31</v>
       </c>
       <c r="H523" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I523" s="70">
         <v>72</v>
@@ -19640,7 +19602,7 @@
         <v>72</v>
       </c>
       <c r="B524" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C524" s="66" t="s">
         <v>57</v>
@@ -19652,7 +19614,7 @@
         <v>31</v>
       </c>
       <c r="H524" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I524" s="70">
         <v>72</v>
@@ -19668,7 +19630,7 @@
         <v>72</v>
       </c>
       <c r="B525" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C525" s="66" t="s">
         <v>57</v>
@@ -19680,7 +19642,7 @@
         <v>31</v>
       </c>
       <c r="H525" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I525" s="70">
         <v>72</v>
@@ -19696,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="B526" s="114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C526" s="115"/>
       <c r="D526" s="116"/>
@@ -19720,7 +19682,7 @@
         <v>85</v>
       </c>
       <c r="B527" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C527" s="66" t="s">
         <v>57</v>
@@ -19728,7 +19690,7 @@
       <c r="D527" s="67"/>
       <c r="E527" s="68"/>
       <c r="F527" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G527" s="65"/>
       <c r="H527" s="41"/>
@@ -19746,7 +19708,7 @@
         <v>85</v>
       </c>
       <c r="B528" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C528" s="66" t="s">
         <v>57</v>
@@ -19758,7 +19720,7 @@
         <v>29</v>
       </c>
       <c r="H528" s="41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I528" s="70">
         <v>85</v>
@@ -19774,7 +19736,7 @@
         <v>85</v>
       </c>
       <c r="B529" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C529" s="66" t="s">
         <v>57</v>
@@ -19786,13 +19748,13 @@
         <v>30</v>
       </c>
       <c r="H529" s="41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I529" s="70">
         <v>85</v>
       </c>
       <c r="J529" s="71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K529" s="66">
         <v>61</v>
@@ -19804,7 +19766,7 @@
         <v>85</v>
       </c>
       <c r="B530" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C530" s="66" t="s">
         <v>57</v>
@@ -19816,7 +19778,7 @@
         <v>31</v>
       </c>
       <c r="H530" s="41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I530" s="70">
         <v>85</v>
@@ -19832,7 +19794,7 @@
         <v>86</v>
       </c>
       <c r="B531" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C531" s="66" t="s">
         <v>57</v>
@@ -19842,7 +19804,7 @@
         <v>85</v>
       </c>
       <c r="F531" s="69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G531" s="65"/>
       <c r="H531" s="41"/>
@@ -19860,7 +19822,7 @@
         <v>86</v>
       </c>
       <c r="B532" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C532" s="66" t="s">
         <v>57</v>
@@ -19891,7 +19853,7 @@
         <v>86</v>
       </c>
       <c r="B533" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C533" s="66" t="s">
         <v>57</v>
@@ -19905,7 +19867,7 @@
         <v>30</v>
       </c>
       <c r="H533" s="41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I533" s="70">
         <v>86</v>
@@ -19921,7 +19883,7 @@
         <v>86</v>
       </c>
       <c r="B534" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C534" s="66" t="s">
         <v>57</v>
@@ -20061,10 +20023,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20086,7 +20048,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="87">
         <v>56</v>
@@ -20111,7 +20073,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="87">
         <v>56</v>
@@ -20192,10 +20154,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20277,7 +20239,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -20391,7 +20353,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20505,7 +20467,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G6" s="99">
         <v>54</v>
@@ -20531,7 +20493,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G7" s="87">
         <v>54</v>
@@ -20740,10 +20702,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -21656,7 +21618,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G44" s="87">
         <v>51</v>
@@ -21756,7 +21718,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G48" s="87">
         <v>51</v>
@@ -21781,7 +21743,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G49" s="87">
         <v>56</v>
@@ -21806,7 +21768,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G50" s="87">
         <v>56</v>
@@ -21831,7 +21793,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G51" s="87">
         <v>44</v>
@@ -21916,7 +21878,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -22972,7 +22934,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -22986,11 +22948,11 @@
         <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23008,7 +22970,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -23026,7 +22988,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -23044,7 +23006,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23058,13 +23020,13 @@
         <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="87">
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23075,14 +23037,14 @@
         <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="87">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -23110,10 +23072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB6A8DF-4065-42B5-9CAC-CBAA6A687101}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23147,7 +23109,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -23591,7 +23553,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23612,7 +23574,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23633,7 +23595,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23654,7 +23616,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23675,7 +23637,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23696,7 +23658,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23717,7 +23679,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23738,7 +23700,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23759,7 +23721,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23780,7 +23742,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23801,7 +23763,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23822,7 +23784,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23843,7 +23805,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23864,7 +23826,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23885,7 +23847,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23906,7 +23868,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23927,7 +23889,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23948,7 +23910,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23969,7 +23931,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -23993,7 +23955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -24014,7 +23976,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -24035,7 +23997,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>28</v>
@@ -24059,7 +24021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24075,9 +24037,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid Given" to "Renamed Valid Given"</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24093,9 +24058,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid Given" to "Renamed Valid Given" step 2a</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24111,9 +24079,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Revert Rename of Given</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24129,9 +24100,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Revert Rename of Given step 2</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24147,9 +24121,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid When" to "Renamed Valid When"</v>
       </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24165,9 +24142,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid When" to "Renamed Valid When" step 2a</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24183,9 +24163,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Revert Rename of When</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24201,9 +24184,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Revert Rename of When step 2</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24219,9 +24205,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid Then" to "Renamed Valid Then"</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24237,9 +24226,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid Then" to "Renamed Valid Then" step 2a</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24255,9 +24247,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Revert Rename of Then</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24273,9 +24268,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Revert Rename of Then step 2</v>
       </c>
+      <c r="E56" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24291,9 +24289,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename with other prefix</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24309,9 +24310,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid Given" to "Renamed Valid Given" step 2b</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24327,9 +24331,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid When" to "Renamed Valid When" step 2b</v>
       </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24345,9 +24352,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename "Valid Then" to "Renamed Valid Then" step 2b</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24363,9 +24373,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename with other prefix</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24381,9 +24394,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename duplicate Given</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24399,9 +24415,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename duplicate Then</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24417,9 +24436,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename with other prefix 2</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>30</v>
@@ -24434,6 +24456,9 @@
       <c r="D65" s="63" t="str">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename with other prefix 2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F65" s="2"/>
     </row>
@@ -24779,7 +24804,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>61</v>
@@ -24797,206 +24822,30 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B86" s="8">
-        <v>7</v>
-      </c>
-      <c r="C86" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D86" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
+        <f>SUBTOTAL(104,Table156913141718['#])</f>
+        <v>88</v>
+      </c>
+      <c r="C86" s="1">
+        <f>SUBTOTAL(103,Table156913141718[Feature])</f>
+        <v>21</v>
+      </c>
+      <c r="E86" s="1">
+        <f>SUBTOTAL(103,Table156913141718[Result])</f>
+        <v>21</v>
       </c>
       <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B87" s="8">
-        <v>45</v>
-      </c>
-      <c r="C87" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D87" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B88" s="8">
-        <v>50</v>
-      </c>
-      <c r="C88" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B89" s="8">
-        <v>52</v>
-      </c>
-      <c r="C89" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D89" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B90" s="8">
-        <v>54</v>
-      </c>
-      <c r="C90" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D90" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B91" s="8">
-        <v>74</v>
-      </c>
-      <c r="C91" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D91" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B92" s="8">
-        <v>75</v>
-      </c>
-      <c r="C92" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D92" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B93" s="8">
-        <v>76</v>
-      </c>
-      <c r="C93" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D93" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B94" s="8">
-        <v>77</v>
-      </c>
-      <c r="C94" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D94" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B95" s="8">
-        <v>84</v>
-      </c>
-      <c r="C95" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D95" s="63" t="e">
-        <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="8">
-        <f>SUBTOTAL(104,Table156913141718['#])</f>
-        <v>94</v>
-      </c>
-      <c r="E96" s="1">
-        <f>SUBTOTAL(103,Table156913141718[Result])</f>
-        <v>22</v>
-      </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="1">
+      <c r="G86" s="1">
         <f>SUBTOTAL(103,Table156913141718[Issue])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A97:A1048576 A1:A95">
+  <conditionalFormatting sqref="A87:A1048576 A1:A85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -25008,7 +24857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E95 E97:E1048576">
+  <conditionalFormatting sqref="E1:E85 E87:E1048576">
     <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
@@ -25070,7 +24919,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -25165,7 +25014,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -25334,7 +25183,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -25474,7 +25323,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="87">
         <v>51</v>
@@ -25564,7 +25413,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G11" s="87">
         <v>80</v>
@@ -25672,7 +25521,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -26625,7 +26474,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G46" s="87">
         <v>79</v>
@@ -26651,7 +26500,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G47" s="87">
         <v>79</v>
@@ -26677,7 +26526,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G48" s="87">
         <v>79</v>
@@ -26703,7 +26552,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G49" s="87">
         <v>79</v>
@@ -26729,7 +26578,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G50" s="87">
         <v>51</v>
@@ -26818,7 +26667,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G54" s="87">
         <v>79</v>
@@ -26865,7 +26714,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G56" s="87">
         <v>79</v>
@@ -27017,7 +26866,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G63" s="87">
         <v>80</v>
@@ -27232,7 +27081,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -27276,7 +27125,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G75" s="87">
         <v>81</v>
@@ -27364,10 +27213,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27801,10 +27650,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27826,7 +27675,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G2" s="87">
         <v>67</v>
@@ -27851,7 +27700,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G3" s="87">
         <v>67</v>
@@ -27876,7 +27725,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" s="87">
         <v>67</v>
@@ -27901,7 +27750,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G5" s="87">
         <v>67</v>
@@ -27926,7 +27775,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G6" s="87">
         <v>67</v>
@@ -27951,7 +27800,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G7" s="87">
         <v>67</v>
@@ -27995,7 +27844,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G9" s="87">
         <v>67</v>
@@ -28020,7 +27869,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G10" s="87">
         <v>67</v>
@@ -28045,7 +27894,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G11" s="87">
         <v>67</v>
@@ -28070,7 +27919,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G12" s="87">
         <v>67</v>
@@ -28095,7 +27944,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G13" s="87">
         <v>67</v>
@@ -28120,7 +27969,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G14" s="87">
         <v>67</v>
@@ -28145,7 +27994,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G15" s="87">
         <v>67</v>
@@ -28170,7 +28019,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="87">
         <v>67</v>
@@ -28195,7 +28044,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G17" s="87">
         <v>67</v>
@@ -28220,7 +28069,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G18" s="87">
         <v>67</v>
@@ -28245,7 +28094,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="87">
         <v>67</v>
@@ -28270,7 +28119,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G20" s="87">
         <v>68</v>
@@ -28355,7 +28204,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -28453,7 +28302,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" s="87">
         <v>52</v>
@@ -28478,7 +28327,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G7" s="87">
         <v>52</v>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A75C6-516B-47CA-9BBD-0E438E3F0B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E70AB-C56B-4C31-A91F-4BFF0BE357E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15990" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15990" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATDD Scenarios" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="416">
   <si>
     <t>Scenario</t>
   </si>
@@ -1855,6 +1855,9 @@
   </si>
   <si>
     <t>"Full given" means a [THEN] comment line, call to helper function and no new helper function</t>
+  </si>
+  <si>
+    <t>Scenario is removed from ATTD.TestScriptor page</t>
   </si>
 </sst>
 </file>
@@ -2660,6 +2663,1061 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2825,1020 +3883,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -3855,47 +3899,6 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3910,207 +3913,207 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K535" totalsRowCount="1" headerRowDxfId="227" dataDxfId="226">
-  <autoFilter ref="A1:K534" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K541" totalsRowCount="1" headerRowDxfId="232" dataDxfId="231">
+  <autoFilter ref="A1:K540" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="28" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="230" totalsRowDxfId="17">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="26" totalsRowDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="25" totalsRowDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="13">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="229" totalsRowDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="228" totalsRowDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="227" totalsRowDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="226" totalsRowDxfId="13">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="23" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="22" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="225" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="224" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="223" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="222" totalsRowDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="221" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="220" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="117">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="143"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="141">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="116">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="114"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="139"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="131">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="130">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="91">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="123"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="121">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="120">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="79">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="114"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="112">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="78">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="111">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="77"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="106"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="104">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="67">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="103">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="96"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="94">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="54">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="85">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="82">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0CA1625E-B949-475F-AD44-FA7F1E12DD0E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G86" totalsRowCount="1" headerRowDxfId="222" dataDxfId="221">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0CA1625E-B949-475F-AD44-FA7F1E12DD0E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G86" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
   <autoFilter ref="A1:G85" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}">
     <filterColumn colId="0">
       <filters>
-        <filter val="38"/>
+        <filter val="39"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="220" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowFunction="max" dataDxfId="219" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="218" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowFunction="max" dataDxfId="216" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="215" totalsRowDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="217" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="214" totalsRowDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="216" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="215" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="214" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="212" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4139,133 +4142,133 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
   <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="196">
+    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="199">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="194">
+    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="197">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="193">
+    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="196">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="192"/>
-    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="190"/>
+    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="195"/>
+    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
   <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="181">
+    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="190">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="179">
+    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="188">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="178">
+    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="177"/>
-    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="175"/>
+    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="186"/>
+    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
   <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="169">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="181">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="167">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="179">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="166">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="178">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="165"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="164"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="157">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="172">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="155">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="170">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="154">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="169">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="153"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="151"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="168"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="166"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="144"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="142">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="162"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="160">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="141">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="159">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="140"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="138"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="158"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="131"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="129">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="152"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="150">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="128">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="149">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="147"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4534,10 +4537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
-  <dimension ref="A1:K535"/>
+  <dimension ref="A1:K541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J429" sqref="J429"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B530" sqref="B530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -16677,7 +16680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="422" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A422" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>79</v>
@@ -17449,7 +17452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:11" s="113" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" s="113" customFormat="1" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A448" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
@@ -17563,7 +17566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="452" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A452" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17676,7 +17679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="456" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A456" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17704,7 +17707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="457" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A457" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17792,7 +17795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="460" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A460" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17825,7 +17828,7 @@
     <row r="461" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A461" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B461" s="65" t="s">
         <v>215</v>
@@ -17835,21 +17838,21 @@
       </c>
       <c r="D461" s="67"/>
       <c r="E461" s="68">
+        <v>56</v>
+      </c>
+      <c r="F461" s="69"/>
+      <c r="H461" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="I461" s="70">
         <v>57</v>
-      </c>
-      <c r="F461" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="H461" s="41"/>
-      <c r="I461" s="70">
-        <v>58</v>
       </c>
       <c r="J461" s="71"/>
       <c r="K461" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="462" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A462" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17864,14 +17867,10 @@
       <c r="E462" s="68">
         <v>57</v>
       </c>
-      <c r="F462" s="69"/>
-      <c r="G462" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H462" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 57</v>
-      </c>
+      <c r="F462" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="H462" s="41"/>
       <c r="I462" s="70">
         <v>58</v>
       </c>
@@ -17897,10 +17896,11 @@
       </c>
       <c r="F463" s="69"/>
       <c r="G463" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H463" s="41" t="s">
-        <v>219</v>
+        <v>29</v>
+      </c>
+      <c r="H463" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I463" s="70">
         <v>58</v>
@@ -17927,10 +17927,10 @@
       </c>
       <c r="F464" s="69"/>
       <c r="G464" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H464" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I464" s="70">
         <v>58</v>
@@ -17960,7 +17960,7 @@
         <v>31</v>
       </c>
       <c r="H465" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I465" s="70">
         <v>58</v>
@@ -17970,7 +17970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="466" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A466" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17990,7 +17990,7 @@
         <v>31</v>
       </c>
       <c r="H466" s="41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I466" s="70">
         <v>58</v>
@@ -18000,10 +18000,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="467" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A467" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B467" s="65" t="s">
         <v>215</v>
@@ -18013,21 +18013,24 @@
       </c>
       <c r="D467" s="67"/>
       <c r="E467" s="68">
-        <v>56</v>
-      </c>
-      <c r="F467" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="H467" s="41"/>
+        <v>57</v>
+      </c>
+      <c r="F467" s="69"/>
+      <c r="G467" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H467" s="41" t="s">
+        <v>221</v>
+      </c>
       <c r="I467" s="70">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J467" s="71"/>
       <c r="K467" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A468" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18042,14 +18045,10 @@
       <c r="E468" s="68">
         <v>56</v>
       </c>
-      <c r="F468" s="69"/>
-      <c r="G468" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H468" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 56</v>
-      </c>
+      <c r="F468" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="H468" s="41"/>
       <c r="I468" s="70">
         <v>59</v>
       </c>
@@ -18075,10 +18074,11 @@
       </c>
       <c r="F469" s="69"/>
       <c r="G469" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H469" s="41" t="s">
-        <v>135</v>
+        <v>29</v>
+      </c>
+      <c r="H469" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 56</v>
       </c>
       <c r="I469" s="70">
         <v>59</v>
@@ -18088,7 +18088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="470" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A470" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18105,10 +18105,10 @@
       </c>
       <c r="F470" s="69"/>
       <c r="G470" s="65" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H470" s="41" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I470" s="70">
         <v>59</v>
@@ -18121,31 +18121,34 @@
     <row r="471" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A471" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B471" s="65" t="s">
         <v>215</v>
       </c>
       <c r="C471" s="66" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="D471" s="67"/>
       <c r="E471" s="68">
-        <v>57</v>
-      </c>
-      <c r="F471" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="H471" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="F471" s="69"/>
+      <c r="G471" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H471" s="41" t="s">
+        <v>174</v>
+      </c>
       <c r="I471" s="70">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J471" s="71"/>
       <c r="K471" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="472" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A472" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18154,20 +18157,16 @@
         <v>215</v>
       </c>
       <c r="C472" s="66" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D472" s="67"/>
       <c r="E472" s="68">
         <v>57</v>
       </c>
-      <c r="F472" s="69"/>
-      <c r="G472" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H472" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 57</v>
-      </c>
+      <c r="F472" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="H472" s="41"/>
       <c r="I472" s="70">
         <v>60</v>
       </c>
@@ -18176,7 +18175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="473" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A473" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18193,10 +18192,11 @@
       </c>
       <c r="F473" s="69"/>
       <c r="G473" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H473" s="41" t="s">
-        <v>227</v>
+        <v>29</v>
+      </c>
+      <c r="H473" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 57</v>
       </c>
       <c r="I473" s="70">
         <v>60</v>
@@ -18206,7 +18206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="474" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A474" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18223,10 +18223,10 @@
       </c>
       <c r="F474" s="69"/>
       <c r="G474" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H474" s="41" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I474" s="70">
         <v>60</v>
@@ -18256,7 +18256,7 @@
         <v>31</v>
       </c>
       <c r="H475" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I475" s="70">
         <v>60</v>
@@ -18266,7 +18266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="476" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A476" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18286,7 +18286,7 @@
         <v>31</v>
       </c>
       <c r="H476" s="41" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I476" s="70">
         <v>60</v>
@@ -18296,10 +18296,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="477" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A477" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B477" s="65" t="s">
         <v>215</v>
@@ -18308,20 +18308,25 @@
         <v>56</v>
       </c>
       <c r="D477" s="67"/>
-      <c r="E477" s="68"/>
-      <c r="F477" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="H477" s="41"/>
+      <c r="E477" s="68">
+        <v>57</v>
+      </c>
+      <c r="F477" s="69"/>
+      <c r="G477" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H477" s="41" t="s">
+        <v>228</v>
+      </c>
       <c r="I477" s="70">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J477" s="71"/>
       <c r="K477" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="478" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A478" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18334,24 +18339,19 @@
       </c>
       <c r="D478" s="67"/>
       <c r="E478" s="68"/>
-      <c r="F478" s="69"/>
-      <c r="G478" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H478" s="41" t="s">
-        <v>407</v>
-      </c>
+      <c r="F478" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="H478" s="41"/>
       <c r="I478" s="70">
         <v>68</v>
       </c>
-      <c r="J478" s="71" t="s">
-        <v>266</v>
-      </c>
+      <c r="J478" s="71"/>
       <c r="K478" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="479" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A479" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18369,17 +18369,19 @@
         <v>29</v>
       </c>
       <c r="H479" s="41" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="I479" s="70">
         <v>68</v>
       </c>
-      <c r="J479" s="71"/>
+      <c r="J479" s="71" t="s">
+        <v>266</v>
+      </c>
       <c r="K479" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="480" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A480" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18397,7 +18399,7 @@
         <v>29</v>
       </c>
       <c r="H480" s="41" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="I480" s="70">
         <v>68</v>
@@ -18425,7 +18427,7 @@
         <v>29</v>
       </c>
       <c r="H481" s="41" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="I481" s="70">
         <v>68</v>
@@ -18450,10 +18452,10 @@
       <c r="E482" s="68"/>
       <c r="F482" s="69"/>
       <c r="G482" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H482" s="41" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="I482" s="70">
         <v>68</v>
@@ -18478,10 +18480,10 @@
       <c r="E483" s="68"/>
       <c r="F483" s="69"/>
       <c r="G483" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H483" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I483" s="70">
         <v>68</v>
@@ -18491,7 +18493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="484" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A484" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18509,7 +18511,7 @@
         <v>31</v>
       </c>
       <c r="H484" s="41" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="I484" s="70">
         <v>68</v>
@@ -18519,7 +18521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="485" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A485" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18537,7 +18539,7 @@
         <v>31</v>
       </c>
       <c r="H485" s="41" t="s">
-        <v>268</v>
+        <v>415</v>
       </c>
       <c r="I485" s="70">
         <v>68</v>
@@ -18547,10 +18549,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A486" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B486" s="65" t="s">
         <v>215</v>
@@ -18560,24 +18562,25 @@
       </c>
       <c r="D486" s="67"/>
       <c r="E486" s="68"/>
-      <c r="F486" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="H486" s="41"/>
+      <c r="F486" s="69"/>
+      <c r="G486" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H486" s="41" t="s">
+        <v>267</v>
+      </c>
       <c r="I486" s="70">
-        <v>69</v>
-      </c>
-      <c r="J486" s="71" t="s">
-        <v>287</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J486" s="71"/>
       <c r="K486" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="487" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A487" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B487" s="65" t="s">
         <v>215</v>
@@ -18589,20 +18592,20 @@
       <c r="E487" s="68"/>
       <c r="F487" s="69"/>
       <c r="G487" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H487" s="41" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="I487" s="70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J487" s="71"/>
       <c r="K487" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="488" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A488" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18615,22 +18618,21 @@
       </c>
       <c r="D488" s="67"/>
       <c r="E488" s="68"/>
-      <c r="F488" s="69"/>
-      <c r="G488" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H488" s="41" t="s">
-        <v>265</v>
-      </c>
+      <c r="F488" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="H488" s="41"/>
       <c r="I488" s="70">
         <v>69</v>
       </c>
-      <c r="J488" s="71"/>
+      <c r="J488" s="71" t="s">
+        <v>287</v>
+      </c>
       <c r="K488" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="489" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A489" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18648,7 +18650,7 @@
         <v>29</v>
       </c>
       <c r="H489" s="41" t="s">
-        <v>216</v>
+        <v>408</v>
       </c>
       <c r="I489" s="70">
         <v>69</v>
@@ -18658,7 +18660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A490" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18676,7 +18678,7 @@
         <v>29</v>
       </c>
       <c r="H490" s="41" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="I490" s="70">
         <v>69</v>
@@ -18704,7 +18706,7 @@
         <v>29</v>
       </c>
       <c r="H491" s="41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I491" s="70">
         <v>69</v>
@@ -18729,10 +18731,10 @@
       <c r="E492" s="68"/>
       <c r="F492" s="69"/>
       <c r="G492" s="65" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="H492" s="41" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="I492" s="70">
         <v>69</v>
@@ -18757,10 +18759,10 @@
       <c r="E493" s="68"/>
       <c r="F493" s="69"/>
       <c r="G493" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H493" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I493" s="70">
         <v>69</v>
@@ -18770,7 +18772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="494" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A494" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18785,10 +18787,10 @@
       <c r="E494" s="68"/>
       <c r="F494" s="69"/>
       <c r="G494" s="65" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H494" s="41" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="I494" s="70">
         <v>69</v>
@@ -18816,7 +18818,7 @@
         <v>31</v>
       </c>
       <c r="H495" s="41" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="I495" s="70">
         <v>69</v>
@@ -18826,7 +18828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="496" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A496" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18844,7 +18846,7 @@
         <v>31</v>
       </c>
       <c r="H496" s="41" t="s">
-        <v>290</v>
+        <v>415</v>
       </c>
       <c r="I496" s="70">
         <v>69</v>
@@ -18854,10 +18856,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="497" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A497" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B497" s="65" t="s">
         <v>215</v>
@@ -18867,24 +18869,25 @@
       </c>
       <c r="D497" s="67"/>
       <c r="E497" s="68"/>
-      <c r="F497" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="H497" s="41"/>
+      <c r="F497" s="69"/>
+      <c r="G497" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H497" s="41" t="s">
+        <v>267</v>
+      </c>
       <c r="I497" s="70">
-        <v>70</v>
-      </c>
-      <c r="J497" s="71" t="s">
-        <v>287</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J497" s="71"/>
       <c r="K497" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A498" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B498" s="65" t="s">
         <v>215</v>
@@ -18896,23 +18899,23 @@
       <c r="E498" s="68"/>
       <c r="F498" s="69"/>
       <c r="G498" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H498" s="41" t="s">
-        <v>408</v>
+        <v>286</v>
       </c>
       <c r="I498" s="70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J498" s="71"/>
       <c r="K498" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="499" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A499" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B499" s="65" t="s">
         <v>215</v>
@@ -18924,20 +18927,20 @@
       <c r="E499" s="68"/>
       <c r="F499" s="69"/>
       <c r="G499" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H499" s="41" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="I499" s="70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J499" s="71"/>
       <c r="K499" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A500" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -18950,22 +18953,21 @@
       </c>
       <c r="D500" s="67"/>
       <c r="E500" s="68"/>
-      <c r="F500" s="69"/>
-      <c r="G500" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H500" s="41" t="s">
-        <v>216</v>
-      </c>
+      <c r="F500" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="H500" s="41"/>
       <c r="I500" s="70">
         <v>70</v>
       </c>
-      <c r="J500" s="71"/>
+      <c r="J500" s="71" t="s">
+        <v>287</v>
+      </c>
       <c r="K500" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="501" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A501" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -18983,7 +18985,7 @@
         <v>29</v>
       </c>
       <c r="H501" s="41" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="I501" s="70">
         <v>70</v>
@@ -18993,7 +18995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="502" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A502" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19011,7 +19013,7 @@
         <v>29</v>
       </c>
       <c r="H502" s="41" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="I502" s="70">
         <v>70</v>
@@ -19036,10 +19038,10 @@
       <c r="E503" s="68"/>
       <c r="F503" s="69"/>
       <c r="G503" s="65" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="H503" s="41" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="I503" s="70">
         <v>70</v>
@@ -19064,10 +19066,10 @@
       <c r="E504" s="68"/>
       <c r="F504" s="69"/>
       <c r="G504" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H504" s="41" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="I504" s="70">
         <v>70</v>
@@ -19077,7 +19079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="505" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A505" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19092,10 +19094,10 @@
       <c r="E505" s="68"/>
       <c r="F505" s="69"/>
       <c r="G505" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H505" s="41" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="I505" s="70">
         <v>70</v>
@@ -19120,10 +19122,10 @@
       <c r="E506" s="68"/>
       <c r="F506" s="69"/>
       <c r="G506" s="65" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H506" s="41" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I506" s="70">
         <v>70</v>
@@ -19133,7 +19135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="507" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A507" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19151,7 +19153,7 @@
         <v>31</v>
       </c>
       <c r="H507" s="41" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="I507" s="70">
         <v>70</v>
@@ -19164,7 +19166,7 @@
     <row r="508" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A508" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B508" s="65" t="s">
         <v>215</v>
@@ -19174,16 +19176,17 @@
       </c>
       <c r="D508" s="67"/>
       <c r="E508" s="68"/>
-      <c r="F508" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="H508" s="41"/>
+      <c r="F508" s="69"/>
+      <c r="G508" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H508" s="41" t="s">
+        <v>415</v>
+      </c>
       <c r="I508" s="70">
-        <v>71</v>
-      </c>
-      <c r="J508" s="71" t="s">
-        <v>266</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J508" s="71"/>
       <c r="K508" s="66">
         <v>39</v>
       </c>
@@ -19191,7 +19194,7 @@
     <row r="509" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A509" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B509" s="65" t="s">
         <v>215</v>
@@ -19203,23 +19206,23 @@
       <c r="E509" s="68"/>
       <c r="F509" s="69"/>
       <c r="G509" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H509" s="41" t="s">
-        <v>407</v>
+        <v>267</v>
       </c>
       <c r="I509" s="70">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J509" s="71"/>
       <c r="K509" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="510" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A510" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B510" s="65" t="s">
         <v>215</v>
@@ -19231,23 +19234,23 @@
       <c r="E510" s="68"/>
       <c r="F510" s="69"/>
       <c r="G510" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H510" s="41" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="I510" s="70">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J510" s="71"/>
       <c r="K510" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A511" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B511" s="65" t="s">
         <v>215</v>
@@ -19259,20 +19262,20 @@
       <c r="E511" s="68"/>
       <c r="F511" s="69"/>
       <c r="G511" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H511" s="41" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="I511" s="70">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J511" s="71"/>
       <c r="K511" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="512" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A512" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19285,22 +19288,21 @@
       </c>
       <c r="D512" s="67"/>
       <c r="E512" s="68"/>
-      <c r="F512" s="69"/>
-      <c r="G512" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H512" s="41" t="s">
-        <v>216</v>
-      </c>
+      <c r="F512" s="69" t="s">
+        <v>294</v>
+      </c>
+      <c r="H512" s="41"/>
       <c r="I512" s="70">
         <v>71</v>
       </c>
-      <c r="J512" s="71"/>
+      <c r="J512" s="71" t="s">
+        <v>266</v>
+      </c>
       <c r="K512" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="513" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A513" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19315,10 +19317,10 @@
       <c r="E513" s="68"/>
       <c r="F513" s="69"/>
       <c r="G513" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H513" s="41" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
       <c r="I513" s="70">
         <v>71</v>
@@ -19328,7 +19330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A514" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19343,10 +19345,10 @@
       <c r="E514" s="68"/>
       <c r="F514" s="69"/>
       <c r="G514" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H514" s="41" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="I514" s="70">
         <v>71</v>
@@ -19371,10 +19373,10 @@
       <c r="E515" s="68"/>
       <c r="F515" s="69"/>
       <c r="G515" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H515" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I515" s="70">
         <v>71</v>
@@ -19384,7 +19386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="516" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A516" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19399,10 +19401,10 @@
       <c r="E516" s="68"/>
       <c r="F516" s="69"/>
       <c r="G516" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H516" s="41" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="I516" s="70">
         <v>71</v>
@@ -19412,10 +19414,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A517" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B517" s="65" t="s">
         <v>215</v>
@@ -19425,22 +19427,25 @@
       </c>
       <c r="D517" s="67"/>
       <c r="E517" s="68"/>
-      <c r="F517" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="H517" s="41"/>
+      <c r="F517" s="69"/>
+      <c r="G517" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H517" s="41" t="s">
+        <v>124</v>
+      </c>
       <c r="I517" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J517" s="71"/>
       <c r="K517" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="518" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A518" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B518" s="65" t="s">
         <v>215</v>
@@ -19452,23 +19457,23 @@
       <c r="E518" s="68"/>
       <c r="F518" s="69"/>
       <c r="G518" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H518" s="41" t="s">
-        <v>407</v>
+        <v>222</v>
       </c>
       <c r="I518" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J518" s="71"/>
       <c r="K518" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="519" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A519" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B519" s="65" t="s">
         <v>215</v>
@@ -19479,24 +19484,21 @@
       <c r="D519" s="67"/>
       <c r="E519" s="68"/>
       <c r="F519" s="69"/>
-      <c r="G519" s="65" t="s">
-        <v>29</v>
-      </c>
       <c r="H519" s="41" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="I519" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J519" s="71"/>
       <c r="K519" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="520" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A520" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B520" s="65" t="s">
         <v>215</v>
@@ -19508,23 +19510,23 @@
       <c r="E520" s="68"/>
       <c r="F520" s="69"/>
       <c r="G520" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H520" s="41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I520" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J520" s="71"/>
       <c r="K520" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A521" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B521" s="65" t="s">
         <v>215</v>
@@ -19536,20 +19538,20 @@
       <c r="E521" s="68"/>
       <c r="F521" s="69"/>
       <c r="G521" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H521" s="41" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="I521" s="70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J521" s="71"/>
       <c r="K521" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="522" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A522" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19562,13 +19564,10 @@
       </c>
       <c r="D522" s="67"/>
       <c r="E522" s="68"/>
-      <c r="F522" s="69"/>
-      <c r="G522" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H522" s="41" t="s">
-        <v>124</v>
-      </c>
+      <c r="F522" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="H522" s="41"/>
       <c r="I522" s="70">
         <v>72</v>
       </c>
@@ -19577,7 +19576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="523" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A523" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19592,10 +19591,10 @@
       <c r="E523" s="68"/>
       <c r="F523" s="69"/>
       <c r="G523" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H523" s="41" t="s">
-        <v>222</v>
+        <v>407</v>
       </c>
       <c r="I523" s="70">
         <v>72</v>
@@ -19620,10 +19619,10 @@
       <c r="E524" s="68"/>
       <c r="F524" s="69"/>
       <c r="G524" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H524" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I524" s="70">
         <v>72</v>
@@ -19633,7 +19632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:11" s="65" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A525" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19648,10 +19647,10 @@
       <c r="E525" s="68"/>
       <c r="F525" s="69"/>
       <c r="G525" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H525" s="41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I525" s="70">
         <v>72</v>
@@ -19661,63 +19660,69 @@
         <v>39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" s="16" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A526" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>0</v>
-      </c>
-      <c r="B526" s="114" t="s">
-        <v>344</v>
-      </c>
-      <c r="C526" s="115"/>
-      <c r="D526" s="116"/>
-      <c r="E526" s="117"/>
-      <c r="F526" s="118"/>
-      <c r="G526" s="114"/>
-      <c r="H526" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="I526" s="119"/>
-      <c r="J526" s="120" t="s">
-        <v>2</v>
-      </c>
-      <c r="K526" s="115">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B526" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C526" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D526" s="67"/>
+      <c r="E526" s="68"/>
+      <c r="F526" s="69"/>
+      <c r="G526" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H526" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="I526" s="70">
+        <v>72</v>
+      </c>
+      <c r="J526" s="71"/>
+      <c r="K526" s="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A527" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B527" s="65" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="C527" s="66" t="s">
         <v>56</v>
       </c>
       <c r="D527" s="67"/>
       <c r="E527" s="68"/>
-      <c r="F527" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="G527" s="65"/>
-      <c r="H527" s="41"/>
+      <c r="F527" s="69"/>
+      <c r="G527" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H527" s="41" t="s">
+        <v>124</v>
+      </c>
       <c r="I527" s="70">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J527" s="71"/>
       <c r="K527" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="528" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A528" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B528" s="65" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="C528" s="66" t="s">
         <v>56</v>
@@ -19726,26 +19731,26 @@
       <c r="E528" s="68"/>
       <c r="F528" s="69"/>
       <c r="G528" s="65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H528" s="41" t="s">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="I528" s="70">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J528" s="71"/>
       <c r="K528" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A529" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B529" s="65" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="C529" s="66" t="s">
         <v>56</v>
@@ -19754,28 +19759,26 @@
       <c r="E529" s="68"/>
       <c r="F529" s="69"/>
       <c r="G529" s="65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H529" s="41" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="I529" s="70">
-        <v>85</v>
-      </c>
-      <c r="J529" s="71" t="s">
-        <v>346</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J529" s="71"/>
       <c r="K529" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A530" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B530" s="65" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="C530" s="66" t="s">
         <v>56</v>
@@ -19787,79 +19790,72 @@
         <v>31</v>
       </c>
       <c r="H530" s="41" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="I530" s="70">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J530" s="71"/>
       <c r="K530" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" s="65" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B531" s="65" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="C531" s="66" t="s">
         <v>56</v>
       </c>
       <c r="D531" s="67"/>
-      <c r="E531" s="68">
-        <v>85</v>
-      </c>
-      <c r="F531" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="G531" s="65"/>
-      <c r="H531" s="41"/>
+      <c r="E531" s="68"/>
+      <c r="F531" s="69"/>
+      <c r="G531" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H531" s="41" t="s">
+        <v>268</v>
+      </c>
       <c r="I531" s="70">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J531" s="71"/>
       <c r="K531" s="66">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" s="16" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A532" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
-      </c>
-      <c r="B532" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" s="114" t="s">
         <v>344</v>
       </c>
-      <c r="C532" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D532" s="67"/>
-      <c r="E532" s="68">
-        <v>85</v>
-      </c>
-      <c r="F532" s="69"/>
-      <c r="G532" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H532" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 85</v>
-      </c>
-      <c r="I532" s="70">
-        <v>86</v>
-      </c>
-      <c r="J532" s="71"/>
-      <c r="K532" s="66">
+      <c r="C532" s="115"/>
+      <c r="D532" s="116"/>
+      <c r="E532" s="117"/>
+      <c r="F532" s="118"/>
+      <c r="G532" s="114"/>
+      <c r="H532" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="I532" s="119"/>
+      <c r="J532" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="K532" s="115">
         <v>61</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B533" s="65" t="s">
         <v>344</v>
@@ -19868,28 +19864,24 @@
         <v>56</v>
       </c>
       <c r="D533" s="67"/>
-      <c r="E533" s="68">
+      <c r="E533" s="68"/>
+      <c r="F533" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="G533" s="65"/>
+      <c r="H533" s="41"/>
+      <c r="I533" s="70">
         <v>85</v>
-      </c>
-      <c r="F533" s="69"/>
-      <c r="G533" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H533" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="I533" s="70">
-        <v>86</v>
       </c>
       <c r="J533" s="71"/>
       <c r="K533" s="66">
         <v>61</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B534" s="65" t="s">
         <v>344</v>
@@ -19898,14 +19890,16 @@
         <v>56</v>
       </c>
       <c r="D534" s="67"/>
-      <c r="E534" s="68">
+      <c r="E534" s="68"/>
+      <c r="F534" s="69"/>
+      <c r="G534" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H534" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="I534" s="70">
         <v>85</v>
-      </c>
-      <c r="F534" s="69"/>
-      <c r="G534" s="65"/>
-      <c r="H534" s="41"/>
-      <c r="I534" s="70">
-        <v>86</v>
       </c>
       <c r="J534" s="71"/>
       <c r="K534" s="66">
@@ -19913,30 +19907,203 @@
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="61"/>
-      <c r="B535" s="1" t="s">
+      <c r="A535" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B535" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C535" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D535" s="67"/>
+      <c r="E535" s="68"/>
+      <c r="F535" s="69"/>
+      <c r="G535" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H535" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="I535" s="70">
+        <v>85</v>
+      </c>
+      <c r="J535" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="K535" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A536" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>85</v>
+      </c>
+      <c r="B536" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C536" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D536" s="67"/>
+      <c r="E536" s="68"/>
+      <c r="F536" s="69"/>
+      <c r="G536" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H536" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="I536" s="70">
+        <v>85</v>
+      </c>
+      <c r="J536" s="71"/>
+      <c r="K536" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B537" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C537" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D537" s="67"/>
+      <c r="E537" s="68">
+        <v>85</v>
+      </c>
+      <c r="F537" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="G537" s="65"/>
+      <c r="H537" s="41"/>
+      <c r="I537" s="70">
+        <v>86</v>
+      </c>
+      <c r="J537" s="71"/>
+      <c r="K537" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B538" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C538" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D538" s="67"/>
+      <c r="E538" s="68">
+        <v>85</v>
+      </c>
+      <c r="F538" s="69"/>
+      <c r="G538" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H538" s="41" t="str">
+        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
+        <v>Result from scenario 85</v>
+      </c>
+      <c r="I538" s="70">
+        <v>86</v>
+      </c>
+      <c r="J538" s="71"/>
+      <c r="K538" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B539" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C539" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D539" s="67"/>
+      <c r="E539" s="68">
+        <v>85</v>
+      </c>
+      <c r="F539" s="69"/>
+      <c r="G539" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H539" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="I539" s="70">
+        <v>86</v>
+      </c>
+      <c r="J539" s="71"/>
+      <c r="K539" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" s="64">
+        <f>Table14[[#This Row],[Scenario '#]]</f>
+        <v>86</v>
+      </c>
+      <c r="B540" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="C540" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D540" s="67"/>
+      <c r="E540" s="68">
+        <v>85</v>
+      </c>
+      <c r="F540" s="69"/>
+      <c r="G540" s="65"/>
+      <c r="H540" s="41"/>
+      <c r="I540" s="70">
+        <v>86</v>
+      </c>
+      <c r="J540" s="71"/>
+      <c r="K540" s="66">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" s="61"/>
+      <c r="B541" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C535" s="3"/>
-      <c r="E535" s="10">
+      <c r="C541" s="3"/>
+      <c r="E541" s="10">
         <f>Table14[[#Totals],[Scenario '#]]</f>
         <v>86</v>
       </c>
-      <c r="F535" s="6"/>
-      <c r="H535" s="2"/>
-      <c r="I535" s="12">
+      <c r="F541" s="6"/>
+      <c r="H541" s="2"/>
+      <c r="I541" s="12">
         <f>SUBTOTAL(104,Table14[Scenario '#])</f>
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="232" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="231" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="83" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19965,13 +20132,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="230" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20102,13 +20269,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="124" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20305,13 +20472,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="111" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20523,13 +20690,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20654,13 +20821,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21924,13 +22091,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22438,13 +22605,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22869,24 +23036,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23058,10 +23225,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Solved"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23083,8 +23250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB6A8DF-4065-42B5-9CAC-CBAA6A687101}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24471,7 +24638,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>38</v>
@@ -24492,7 +24659,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>38</v>
@@ -24513,7 +24680,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>38</v>
@@ -24534,7 +24701,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>38</v>
@@ -24555,7 +24722,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24571,9 +24738,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24589,9 +24759,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 2a</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24607,9 +24780,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 3a</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24625,9 +24801,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 2b</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24643,9 +24822,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario step 3b</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24661,9 +24843,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario with Initialize</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24679,9 +24864,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario with UI Handler</v>
       </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24697,9 +24885,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removing Scenario with UI Handler 2</v>
       </c>
+      <c r="E77" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24715,9 +24906,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removal Mode "No confirmation, but removal"</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24732,6 +24926,9 @@
       <c r="D79" s="63" t="str">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Removal Mode "No confirmation &amp; no removal"</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F79" s="2"/>
     </row>
@@ -24849,15 +25046,15 @@
       </c>
       <c r="B86" s="8">
         <f>SUBTOTAL(104,Table156913141718['#])</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1">
         <f>SUBTOTAL(103,Table156913141718[Feature])</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1">
         <f>SUBTOTAL(103,Table156913141718[Result])</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="1">
@@ -24879,13 +25076,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E85 E87:E1048576">
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24978,13 +25175,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="213" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25143,13 +25340,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="201" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25454,13 +25651,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="189" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25477,13 +25674,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="cellIs" dxfId="186" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27166,13 +27363,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="174" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27608,13 +27805,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="162" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28160,13 +28357,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28356,13 +28553,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="136" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E70AB-C56B-4C31-A91F-4BFF0BE357E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC4230-F533-46DC-97DA-CEAE9C0000C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15990" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="394">
   <si>
     <t>Scenario</t>
   </si>
@@ -928,27 +928,9 @@
     <t>Removing Scenario</t>
   </si>
   <si>
-    <t>User selects "Remove Scenario" action</t>
-  </si>
-  <si>
     <t>"remove Scenario" action = red "- Scenario" button</t>
   </si>
   <si>
-    <t>User is asked to confirm removal of helper function(s)</t>
-  </si>
-  <si>
-    <t>User confirms removal of helper function(s)</t>
-  </si>
-  <si>
-    <t>Scenario is removed from ATDD.TestScriptor page</t>
-  </si>
-  <si>
-    <t>All helper functions related to scenario are removed from test codeunit</t>
-  </si>
-  <si>
-    <t>Scenario is removed from test codeunit</t>
-  </si>
-  <si>
     <t>Removing Scenario step 3a</t>
   </si>
   <si>
@@ -959,58 +941,6 @@
   </si>
   <si>
     <t>Strange error message appears: "Element to be renamed wasn't found."</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User does </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> confirm removal of helper function(s)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All helper functions related to scenario are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> removed from test codeunit</t>
-    </r>
   </si>
   <si>
     <t>Removing Scenario step 3b</t>
@@ -1164,41 +1094,9 @@
     <t>Adding Scenario (to existing test codeunit)</t>
   </si>
   <si>
-    <t>User selects this scenario line in ATDD.TestScriptor page</t>
-  </si>
-  <si>
     <t>See codeunit 50103 TestObjectWithInitializeFLX.al in AL project test-project</t>
   </si>
   <si>
-    <t>All Given/When/Then helper functions related to scenario are removed from test codeunit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Intialize helper function is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> removed</t>
-    </r>
-  </si>
-  <si>
     <t>Opened TestScriptor in VSCode after setting was set</t>
   </si>
   <si>
@@ -1250,112 +1148,19 @@
     <t>Revert Rename of Then step 2</t>
   </si>
   <si>
-    <t>Intialize helper function is not removed</t>
-  </si>
-  <si>
     <t>See codeunit 50104 TestObjectWithUIHandlerFLX.al in AL project test-project</t>
   </si>
   <si>
     <t>Removing Scenario with UI Handler</t>
   </si>
   <si>
-    <t>User confirms removal of UI handler</t>
-  </si>
-  <si>
-    <t>UI handler function is removed</t>
-  </si>
-  <si>
     <t>Removing Scenario with UI Handler 2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">User does </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> confirm removal of UI handler</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UI handler function is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">not </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>removed</t>
-    </r>
-  </si>
-  <si>
     <t>Removal Mode "No confirmation, but removal"</t>
   </si>
   <si>
-    <t>Setting atddTestScriptor.removalMode equals "No confirmation, but removal"</t>
-  </si>
-  <si>
     <t>Removal Mode "No confirmation &amp; no removal"</t>
-  </si>
-  <si>
-    <t>Setting atddTestScriptor.removalMode equals "No confirmation &amp; no removal"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All Given/When/Then helper functions related to scenario are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> not </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>removed from test codeunit</t>
-    </r>
   </si>
   <si>
     <t>Removing Scenario with Initialize</t>
@@ -1833,12 +1638,6 @@
     <t>Rename "Second Test function in existing test codeunit with valid Given-When-Then structure" to "Third Test function in existing test codeunit with valid Given-When-Then structure" and confirm</t>
   </si>
   <si>
-    <t>Test codeunit with one Test function in existing test codeunit with valid Given-When-Then structure and call to Initialize</t>
-  </si>
-  <si>
-    <t>Test codeunit with one Test function in existing test codeunit with valid Given-When-Then structure and UI Handler</t>
-  </si>
-  <si>
     <t>User selects first scenario line of existing test codeunit in ATDD.TestScriptor page</t>
   </si>
   <si>
@@ -1855,9 +1654,6 @@
   </si>
   <si>
     <t>"Full given" means a [THEN] comment line, call to helper function and no new helper function</t>
-  </si>
-  <si>
-    <t>Scenario is removed from ATTD.TestScriptor page</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +1973,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2540,9 +2336,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -2662,6 +2455,43 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2680,6 +2510,32 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2742,6 +2598,32 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2770,6 +2652,581 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2832,34 +3289,34 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2892,34 +3349,34 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2952,34 +3409,34 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0000"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3010,711 +3467,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3899,6 +3651,47 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3913,362 +3706,362 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K541" totalsRowCount="1" headerRowDxfId="232" dataDxfId="231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BF4D00C3-E1B1-43AF-B727-CD24E93B89EC}" name="Table14" displayName="Table14" ref="A1:K541" totalsRowCount="1" headerRowDxfId="227" dataDxfId="226">
   <autoFilter ref="A1:K540" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="230" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{126DDE30-F6FC-4FDE-AF87-9CE1B3F05533}" name="Column1" dataDxfId="225" totalsRowDxfId="17">
       <calculatedColumnFormula>Table14[[#This Row],[Scenario '#]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="229" totalsRowDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="228" totalsRowDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="227" totalsRowDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="226" totalsRowDxfId="13">
+    <tableColumn id="2" xr3:uid="{B104394B-17C0-4DEE-B32E-F93702CD36E1}" name="Feature" totalsRowLabel="Total" dataDxfId="224" totalsRowDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{DBB88613-266C-43B5-8498-BC6FAEA286C9}" name="UI" dataDxfId="223" totalsRowDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{34C6255A-5D6C-4161-875E-2F88A1085F27}" name="Positive-negative" dataDxfId="222" totalsRowDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{D1D1554E-D467-4545-807F-9757B09275F6}" name="Dependency" totalsRowFunction="custom" dataDxfId="221" totalsRowDxfId="13">
       <totalsRowFormula>Table14[[#Totals],[Scenario '#]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="225" totalsRowDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="224" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="223" totalsRowDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="222" totalsRowDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="221" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="220" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B9AC3CF9-58E6-40C0-9390-315FF89C7419}" name="Scenario" dataDxfId="220" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{88C23544-A804-4166-8DF0-93133B3A67AF}" name="Given-When-Then (Tag)" dataDxfId="219" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{5AC48A9D-3D8E-4B1E-A0F2-F29BD8E1D734}" name="Given-When-Then (Description)" dataDxfId="218" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{74BFFA9E-D38E-4B06-A503-1135EB85A785}" name="Scenario #" totalsRowFunction="max" dataDxfId="217" totalsRowDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{3136E83F-8489-460E-A005-8E1B7EEBC026}" name="Notes" dataDxfId="216" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{B206D1D6-F293-4319-BF64-E77AFD6CFF38}" name="GitHub Issue" dataDxfId="215" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0878DA4D-3CB5-4619-9A0A-599FABB7DC57}" name="Table15610" displayName="Table15610" ref="A1:H3" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="A1:H3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="143"/>
-    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="141">
+    <tableColumn id="1" xr3:uid="{C6EFDEDE-76B4-4209-B4EC-DA1A18EB1E97}" name="GitHub Issue" dataDxfId="108"/>
+    <tableColumn id="10" xr3:uid="{098AFD04-1402-4D76-99F4-42E88291CD78}" name="#" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{A22ED63C-C67C-4B00-9624-32C3F944037E}" name="Feature" dataDxfId="106">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="140">
+    <tableColumn id="3" xr3:uid="{0FA99C46-646D-4E8F-B0BF-1140AA37D40A}" name="Scenario" dataDxfId="105">
       <calculatedColumnFormula>VLOOKUP(Table15610[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="139"/>
-    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{5BC9D45B-40F1-46DC-B2C7-78D14AACF783}" name="Result" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{A9EC8C02-2838-4482-9A0B-CA631C93AC74}" name="Notes" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{E96BEF3B-15D4-4559-8F93-2C643E06E8D1}" name="Issue" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{97AE6093-DFB3-42D0-B2E6-8E88C3C12FA7}" name="Issue 2" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A32EDF-0443-4988-8345-B50349BD0E2C}" name="Table1569" displayName="Table1569" ref="A1:H7" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <autoFilter ref="A1:H7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="133"/>
-    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="131">
+    <tableColumn id="1" xr3:uid="{248814DF-5555-48D1-9D24-25C77E412F33}" name="GitHub Issue" dataDxfId="95"/>
+    <tableColumn id="10" xr3:uid="{DAC0FF69-4A7B-44B9-8A64-DFAA331BA6B1}" name="#" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{C47ECF80-F072-49CE-92EE-000858F57C33}" name="Feature" dataDxfId="93">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="130">
+    <tableColumn id="3" xr3:uid="{FCE57A87-2CF1-4AE6-AFB5-A6F87E64A8A7}" name="Scenario" dataDxfId="92">
       <calculatedColumnFormula>VLOOKUP(Table1569[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{6DD95B02-B080-42ED-B11F-42AF08CA790D}" name="Result" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{BA282B2B-17BD-4261-9760-F2A925429F7A}" name="Notes" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{0183AB17-AE90-4F38-BCEF-5EDD0F7F69C4}" name="Issue" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{6F37CA82-D4F1-4817-A998-D7062FF308E8}" name="Issue 2" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8B897917-DF76-417A-9052-CAD936FCC4FA}" name="Table1568" displayName="Table1568" ref="A1:G7" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="123"/>
-    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="121">
+    <tableColumn id="1" xr3:uid="{DFA97F91-F25D-410C-A738-818C1315CE90}" name="GitHub Issue" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{8A423300-CF45-42DD-9AF6-E565A7CBEE15}" name="#" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{A58FE8A3-D520-4C85-914A-401B76F604A6}" name="Feature" dataDxfId="80">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="120">
+    <tableColumn id="3" xr3:uid="{8FD6A196-893D-483F-BF09-DF7AE9ACEE4A}" name="Scenario" dataDxfId="79">
       <calculatedColumnFormula>VLOOKUP(Table1568[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{7BE5BF66-1736-41B3-815E-22C1DAA5E223}" name="Result" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{99539950-BFFA-452F-AA77-25B9B87A9CBF}" name="Notes" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{775459C3-4D9D-4D39-8F6A-F5DCF4903870}" name="Issue" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{780C6028-726C-4E93-B91B-EA6388173E09}" name="Table1567" displayName="Table1567" ref="A1:F3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:F3" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="114"/>
-    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="112">
+    <tableColumn id="1" xr3:uid="{94C77221-7074-4F1C-A74C-5E453E4BFC90}" name="GitHub Issue" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{13D7D9D4-76B1-4C39-BB48-F4BE5FCA510E}" name="#" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{F0CE7E7A-B26F-463D-BFEC-A7D26F66E924}" name="Feature" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="111">
+    <tableColumn id="3" xr3:uid="{EC4230E9-2E23-4E05-8AC2-BBCD98169A66}" name="Scenario" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(Table1567[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{9B22461A-D8F9-4348-BA40-9D96FF1E5CAE}" name="Result" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{E1ED6C50-B858-4476-B39D-6499153902DD}" name="Notes" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9AAA7B7D-0F02-47E8-8021-590D6C529FA2}" name="Table156" displayName="Table156" ref="A1:H56" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:H56" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{62FA5252-C97E-479F-BD0E-51EB8F86927E}" name="GitHub Issue" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{88279534-B9B2-45EF-85ED-48B0CB30B0FC}" name="#" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{65C1E46E-678E-4257-B598-65E6C48B5518}" name="Feature" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="103">
+    <tableColumn id="3" xr3:uid="{9BDB295D-43E6-4149-9BDB-0C68EF5BEA4F}" name="Scenario" dataDxfId="56">
       <calculatedColumnFormula>VLOOKUP(Table156[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{3D6CA3EE-871F-49D7-AEA4-105F31214D8D}" name="Result" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{08CE583F-3E90-4BB7-9FD0-B61300756B3F}" name="Notes" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{ED4FF26B-7742-450D-A2C7-E28622E770A8}" name="Issue" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{8C2A13FB-6FA9-473F-8411-E2953BA508DA}" name="Issue 2" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{244B00F4-A283-4C03-A548-5D414192658A}" name="Table15" displayName="Table15" ref="A1:F21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:F21" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="96"/>
-    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{C88BBA8B-13D1-4F8C-8228-1F627ECA93F3}" name="GitHub Issue" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{C17894F7-82C1-41F9-A109-9D2BE65F4A6B}" name="#" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{B20FB9C3-EBA7-4961-B8F0-A6492DB4ECA8}" name="Feature" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="93">
+    <tableColumn id="3" xr3:uid="{DB9C27DA-5910-400F-AEF3-F7CB64F76112}" name="Scenario" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP(Table15[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="92"/>
-    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{EE5D19B8-A5A9-46A0-9116-C9340A380AE6}" name="Result" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{EE39F3A9-2DC0-4B72-8030-6BA6C4137552}" name="Notes" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{549C6A2B-5218-4DC2-B34E-4FA680434377}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F19" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{87974612-E18C-48A1-9664-C54B638536B0}" name="GitHub Issue" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{F6A07010-F1E9-4910-AF3B-6F8DF5829579}" name="#" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{02982BB0-7410-4185-8CF1-D0B4FA55AF99}" name="Feature" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="85">
+    <tableColumn id="3" xr3:uid="{DEA89800-56FD-4648-9748-AFB5CE1C3B9D}" name="Scenario" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{777A3026-0C2D-4E8E-87BB-6E1E61B95CE5}" name="Result" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{A29A313E-BA52-41CC-802A-A04F1DB6E8D8}" name="Notes" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A9E1B84-D3AD-4457-93D0-E02565E417A9}" name="Table2" displayName="Table2" ref="A1:F7" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:F7" xr:uid="{EB128BE2-39AB-4779-BE48-2D3090EF510B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{809A052F-4CCE-4265-8EE0-6469B69CF4E9}" name="#" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{393EFC23-0E09-457A-8852-347692957937}" name="Description" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{8B34BA27-BE68-42A9-BE23-4517F07BA6FB}" name="Question" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{C8D65C97-0725-439B-8696-77108772192A}" name="Answer" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{74BF07AF-988A-4911-BCBB-A2660AF07C56}" name="GitHub Issue" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B6E42313-0DE8-4118-818A-72DE4F7F4231}" name="Status" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0CA1625E-B949-475F-AD44-FA7F1E12DD0E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G86" totalsRowCount="1" headerRowDxfId="219" dataDxfId="218">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{0CA1625E-B949-475F-AD44-FA7F1E12DD0E}" name="Table156913141718" displayName="Table156913141718" ref="A1:G86" totalsRowCount="1" headerRowDxfId="211" dataDxfId="210">
   <autoFilter ref="A1:G85" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}">
     <filterColumn colId="0">
       <filters>
-        <filter val="39"/>
+        <filter val="60"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="217" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{1A8599FD-1C61-41AF-A7FB-6EDD5FDE3FEB}" name="GitHub Issue" totalsRowLabel="Total" dataDxfId="209" totalsRowDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowFunction="max" dataDxfId="216" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="215" totalsRowDxfId="4">
+    <tableColumn id="10" xr3:uid="{1377C3C6-C300-4847-B79A-1D0F6C2AE0CC}" name="#" totalsRowFunction="max" dataDxfId="208" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{39AAC1D7-9EAD-4B4E-BA0A-8AB521EE839B}" name="Feature" totalsRowFunction="count" dataDxfId="207" totalsRowDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="214" totalsRowDxfId="3">
+    <tableColumn id="3" xr3:uid="{F0AB1435-8452-4B63-9569-71273D4BAC2D}" name="Scenario" dataDxfId="206" totalsRowDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="213" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="212" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{DAB7B1B6-F4C7-4D28-9FF3-B53BE65BB3B2}" name="Result" totalsRowFunction="count" dataDxfId="205" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EDAE2678-FD2D-44B6-9DD0-DE034D9542CC}" name="Notes" dataDxfId="204" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{61EA8510-A09F-4B09-9021-5721F13CCBF8}" name="Issue" totalsRowFunction="count" dataDxfId="203" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CD807E79-84C6-4174-92DA-26DB54E8608E}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CD807E79-84C6-4174-92DA-26DB54E8608E}" name="Table1569131417" displayName="Table1569131417" ref="A1:G2" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198">
   <autoFilter ref="A1:G2" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="208">
+    <tableColumn id="1" xr3:uid="{673102FE-495C-4F59-87B9-0B59EF49F20F}" name="GitHub Issue" dataDxfId="197">
       <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="206">
+    <tableColumn id="10" xr3:uid="{5979941B-1711-4D7C-8B8E-50A457816369}" name="#" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{A93EBCE7-5EE0-4459-AE49-29CC32041F78}" name="Feature" dataDxfId="195">
       <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="205">
+    <tableColumn id="3" xr3:uid="{3E240C7B-3FDF-455F-B3F9-1D16F0FA84E2}" name="Scenario" dataDxfId="194">
       <calculatedColumnFormula>VLOOKUP(Table1569131417[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="204"/>
-    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="203"/>
-    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="202"/>
+    <tableColumn id="7" xr3:uid="{73149383-24BF-4083-B896-7E4F67AF994B}" name="Result" dataDxfId="193"/>
+    <tableColumn id="9" xr3:uid="{F7A64097-CB13-478B-B07A-D0A3F3C1AA76}" name="Notes" dataDxfId="192"/>
+    <tableColumn id="4" xr3:uid="{6F45352D-9D31-446D-A797-1ED8F59729D4}" name="Issue" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="201" dataDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{D0EFC6B3-167C-4D39-B64D-E3BD46D148CB}" name="Table156913141516" displayName="Table156913141516" ref="A1:G5" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
   <autoFilter ref="A1:G5" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="199">
+    <tableColumn id="1" xr3:uid="{841C50AF-62ED-40B6-A5EA-BCC2B893F03A}" name="GitHub Issue" dataDxfId="185">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="197">
+    <tableColumn id="10" xr3:uid="{F503BC1B-7DB8-4002-ABF1-58ABE89E1830}" name="#" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{C571017F-6C16-4BB1-82F5-13611FFB59CF}" name="Feature" dataDxfId="183">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="196">
+    <tableColumn id="3" xr3:uid="{338C274F-0757-442C-A461-222ACF7CA161}" name="Scenario" dataDxfId="182">
       <calculatedColumnFormula>VLOOKUP(Table156913141516[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="195"/>
-    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="193"/>
+    <tableColumn id="7" xr3:uid="{C548F0C1-A750-457C-B904-D1F8B4782288}" name="Result" dataDxfId="181"/>
+    <tableColumn id="9" xr3:uid="{DB18A27F-42A0-4092-ABBD-7337C53F28D0}" name="Notes" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{D578B900-59BC-4A17-B895-07C1F3BA9A78}" name="Issue" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6AAF2E7-A1F3-4605-8BF9-A1BF72A0A475}" name="Table1569131415" displayName="Table1569131415" ref="A1:G11" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171">
   <autoFilter ref="A1:G11" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="190">
+    <tableColumn id="1" xr3:uid="{F2860C1F-2CAC-4F48-9D21-EE749371FC24}" name="GitHub Issue" dataDxfId="170">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="188">
+    <tableColumn id="10" xr3:uid="{C5E95249-B8EB-486E-8767-21D8F0A0A62C}" name="#" dataDxfId="169"/>
+    <tableColumn id="2" xr3:uid="{3D03DEE9-A69F-4186-9544-A9E1591B8341}" name="Feature" dataDxfId="168">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="187">
+    <tableColumn id="3" xr3:uid="{EBAA9733-8EE7-4AB7-AA6E-AD5B463DCCDB}" name="Scenario" dataDxfId="167">
       <calculatedColumnFormula>VLOOKUP(Table1569131415[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="186"/>
-    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{B8D9077E-097D-43F7-AB61-3DC50B07F8DB}" name="Result" dataDxfId="166"/>
+    <tableColumn id="9" xr3:uid="{D33A8DD7-138F-48EF-8A7B-F7CF762853E4}" name="Notes" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{5957F9B4-6CFA-4A46-96FE-FA6B5AD2F680}" name="Issue" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{53B13E5C-5441-4B69-91E3-36B14A182343}" name="Table15691314" displayName="Table15691314" ref="A1:G75" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
   <autoFilter ref="A1:G75" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="181">
+    <tableColumn id="1" xr3:uid="{AF78A628-9C38-4564-9808-3B26AF234F77}" name="GitHub Issue" dataDxfId="158">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="179">
+    <tableColumn id="10" xr3:uid="{2CAB733F-F4E3-4B07-84CB-D00849F9BD6C}" name="#" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{0F5DE106-934C-4581-BEC9-F2BED1604D9A}" name="Feature" dataDxfId="156">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="178">
+    <tableColumn id="3" xr3:uid="{211378E0-438E-4FA5-A4AE-A66A0C3D748F}" name="Scenario" dataDxfId="155">
       <calculatedColumnFormula>VLOOKUP(Table15691314[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="177"/>
-    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="175"/>
+    <tableColumn id="7" xr3:uid="{932BD0E7-22E6-4F2C-8057-85843CDDFC76}" name="Result" dataDxfId="154"/>
+    <tableColumn id="9" xr3:uid="{E6B98784-DB78-486D-B5E1-8E879B6CB05A}" name="Notes" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{EF5B5B9D-C80C-4F4B-B547-BA970D46AED2}" name="Issue" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{B3F603AC-EDFF-47AE-8B3E-0198F2732BD8}" name="Table156913" displayName="Table156913" ref="A1:H17" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
   <autoFilter ref="A1:H17" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="172">
+    <tableColumn id="1" xr3:uid="{F049DD95-CBB6-4CF4-AECD-FFE9EFA9225F}" name="GitHub Issue" dataDxfId="146">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="170">
+    <tableColumn id="10" xr3:uid="{3F1C7698-2293-4A2C-B7C0-4DBB6CF0E963}" name="#" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{095F1FFC-6CB5-40A3-BA57-56E07ECC5DFF}" name="Feature" dataDxfId="144">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="169">
+    <tableColumn id="3" xr3:uid="{92FC64C8-BA2C-4608-BABF-37803E5F32B7}" name="Scenario" dataDxfId="143">
       <calculatedColumnFormula>VLOOKUP(Table156913[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="167"/>
-    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="166"/>
-    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="165"/>
+    <tableColumn id="7" xr3:uid="{D8859BCF-2778-4731-9B31-282100C936B6}" name="Result" dataDxfId="142"/>
+    <tableColumn id="9" xr3:uid="{1F12BDA7-6B5C-44A5-A019-FB17D08F7B57}" name="Notes" dataDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{693E0BB4-2DC4-437F-9B72-7F30012CBE28}" name="Issue" dataDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{EF7CB576-7161-4A79-9067-E1E6E50DE81A}" name="Issue 2" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0D86B072-B738-45B9-B991-A3DF4F258129}" name="Table1561012" displayName="Table1561012" ref="A1:H20" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134">
   <autoFilter ref="A1:H20" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="162"/>
-    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="160">
+    <tableColumn id="1" xr3:uid="{55E3B8C8-F10F-4605-A66E-73817D42A4AC}" name="GitHub Issue" dataDxfId="133"/>
+    <tableColumn id="10" xr3:uid="{1D01CD7E-CE7A-46E0-9094-E48EC4E812F7}" name="#" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{74EC06EB-7CBA-45ED-ADA4-37F743DBE530}" name="Feature" dataDxfId="131">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="159">
+    <tableColumn id="3" xr3:uid="{EAC8A485-DE32-4AB9-B5F0-48E78CE4B246}" name="Scenario" dataDxfId="130">
       <calculatedColumnFormula>VLOOKUP(Table1561012[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="158"/>
-    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{BF2B6AC7-09A3-4E65-B760-CB091327A3AE}" name="Result" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{282C4C2A-2464-4CF7-9523-9A0CB7C7EE29}" name="Notes" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{C276B215-15EF-4B27-B0D5-0BE0D0B2907C}" name="Issue" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{529D0B5D-E5CF-4508-B52C-43B6A37D18CE}" name="Issue 2" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D434FA94-BA04-4027-BE83-B87EF2AF446C}" name="Table111" displayName="Table111" ref="A1:G7" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A1:G7" xr:uid="{F8344284-47AF-49AF-9E64-E03BD9F00473}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="150">
+    <tableColumn id="1" xr3:uid="{5DB71EFE-0BD0-4F57-B252-2F07EE896089}" name="GitHub Issue" dataDxfId="120"/>
+    <tableColumn id="10" xr3:uid="{952FB679-3CD2-4BAC-A972-B723C7656EBD}" name="#" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{0493B1AA-97DD-4AF0-884B-769757075C7E}" name="Feature" dataDxfId="118">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{AF7D4B28-493E-4662-8260-00BC0726EB68}" name="Scenario" dataDxfId="117">
       <calculatedColumnFormula>VLOOKUP(Table111[[#This Row],['#]],Table14[],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="146"/>
+    <tableColumn id="7" xr3:uid="{4A72ED44-050F-4EF5-876A-55D26D5DAF80}" name="Result" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{D44A7FF0-254A-482D-92E3-36D6B5CF3331}" name="Notes" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{986B8609-766C-4F17-B4FE-EE68B195D1CE}" name="Issue" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4539,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4834A1FB-B3FD-4E72-A531-171E1058A77F}">
   <dimension ref="A1:K541"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B530" sqref="B530"/>
+    <sheetView topLeftCell="B430" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B441" sqref="A441:XFD444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4600,7 +4393,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>56</v>
@@ -4608,7 +4401,7 @@
       <c r="D2" s="91"/>
       <c r="E2" s="92"/>
       <c r="F2" s="93" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
@@ -4624,7 +4417,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>56</v>
@@ -4635,7 +4428,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I3" s="101">
         <v>63</v>
@@ -4648,7 +4441,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>56</v>
@@ -4659,7 +4452,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I4" s="101">
         <v>63</v>
@@ -4672,7 +4465,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>56</v>
@@ -4683,7 +4476,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I5" s="101">
         <v>63</v>
@@ -4758,13 +4551,13 @@
         <v>29</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I8" s="12">
         <v>1</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K8" s="38">
         <v>27</v>
@@ -5115,13 +4908,13 @@
         <v>29</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I20" s="12">
         <v>3</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K20" s="38">
         <v>27</v>
@@ -5257,7 +5050,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="10"/>
       <c r="F25" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="42"/>
@@ -5287,13 +5080,13 @@
         <v>29</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I26" s="12">
         <v>8</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K26" s="38">
         <v>27</v>
@@ -5345,7 +5138,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I28" s="12">
         <v>8</v>
@@ -5373,7 +5166,7 @@
         <v>30</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I29" s="12">
         <v>8</v>
@@ -5403,13 +5196,13 @@
         <v>31</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I30" s="12">
         <v>8</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="K30" s="38">
         <v>27</v>
@@ -5429,7 +5222,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="43"/>
@@ -5459,13 +5252,13 @@
         <v>29</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I32" s="12">
         <v>64</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K32" s="38">
         <v>27</v>
@@ -5517,7 +5310,7 @@
         <v>29</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I34" s="12">
         <v>64</v>
@@ -5545,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="I35" s="12">
         <v>64</v>
@@ -5575,7 +5368,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I36" s="12">
         <v>64</v>
@@ -5601,7 +5394,7 @@
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="6" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="43"/>
@@ -5633,13 +5426,13 @@
         <v>29</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I38" s="12">
         <v>66</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K38" s="38">
         <v>27</v>
@@ -5695,7 +5488,7 @@
         <v>29</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I40" s="12">
         <v>66</v>
@@ -5725,7 +5518,7 @@
         <v>29</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I41" s="12">
         <v>66</v>
@@ -5755,7 +5548,7 @@
         <v>30</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I42" s="12">
         <v>66</v>
@@ -5787,13 +5580,13 @@
         <v>31</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I43" s="12">
         <v>66</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K43" s="38">
         <v>27</v>
@@ -5843,13 +5636,13 @@
         <v>29</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I45" s="12">
         <v>10</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K45" s="38">
         <v>27</v>
@@ -6015,13 +5808,13 @@
         <v>29</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I51" s="12">
         <v>12</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K51" s="38">
         <v>27</v>
@@ -6187,13 +5980,13 @@
         <v>29</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I57" s="12">
         <v>14</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K57" s="38">
         <v>27</v>
@@ -6355,7 +6148,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="10"/>
       <c r="F63" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="41"/>
@@ -6385,13 +6178,13 @@
         <v>29</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I64" s="12">
         <v>61</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K64" s="38">
         <v>27</v>
@@ -6415,7 +6208,7 @@
         <v>29</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I65" s="12">
         <v>61</v>
@@ -6529,7 +6322,7 @@
         <v>31</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I69" s="12">
         <v>61</v>
@@ -6607,13 +6400,13 @@
         <v>29</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I72" s="12">
         <v>4</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K72" s="38">
         <v>27</v>
@@ -6964,13 +6757,13 @@
         <v>29</v>
       </c>
       <c r="H84" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I84" s="12">
         <v>6</v>
       </c>
       <c r="J84" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K84" s="38">
         <v>27</v>
@@ -7106,7 +6899,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="10"/>
       <c r="F89" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="42"/>
@@ -7136,13 +6929,13 @@
         <v>29</v>
       </c>
       <c r="H90" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I90" s="12">
         <v>9</v>
       </c>
       <c r="J90" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K90" s="38">
         <v>27</v>
@@ -7194,7 +6987,7 @@
         <v>29</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I92" s="12">
         <v>9</v>
@@ -7222,7 +7015,7 @@
         <v>30</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="I93" s="12">
         <v>9</v>
@@ -7252,7 +7045,7 @@
         <v>31</v>
       </c>
       <c r="H94" s="43" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I94" s="12">
         <v>9</v>
@@ -7276,7 +7069,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="10"/>
       <c r="F95" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="43"/>
@@ -7306,13 +7099,13 @@
         <v>29</v>
       </c>
       <c r="H96" s="43" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I96" s="12">
         <v>65</v>
       </c>
       <c r="J96" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K96" s="38">
         <v>27</v>
@@ -7364,7 +7157,7 @@
         <v>29</v>
       </c>
       <c r="H98" s="43" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I98" s="12">
         <v>65</v>
@@ -7392,7 +7185,7 @@
         <v>30</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I99" s="12">
         <v>65</v>
@@ -7422,7 +7215,7 @@
         <v>31</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I100" s="12">
         <v>65</v>
@@ -7448,7 +7241,7 @@
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="43"/>
@@ -7480,13 +7273,13 @@
         <v>29</v>
       </c>
       <c r="H102" s="43" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I102" s="12">
         <v>67</v>
       </c>
       <c r="J102" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K102" s="38">
         <v>27</v>
@@ -7542,7 +7335,7 @@
         <v>29</v>
       </c>
       <c r="H104" s="43" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I104" s="12">
         <v>67</v>
@@ -7572,7 +7365,7 @@
         <v>29</v>
       </c>
       <c r="H105" s="43" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I105" s="12">
         <v>67</v>
@@ -7602,7 +7395,7 @@
         <v>30</v>
       </c>
       <c r="H106" s="43" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="I106" s="12">
         <v>67</v>
@@ -7634,13 +7427,13 @@
         <v>31</v>
       </c>
       <c r="H107" s="43" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I107" s="12">
         <v>67</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="K107" s="38">
         <v>27</v>
@@ -7690,13 +7483,13 @@
         <v>29</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I109" s="12">
         <v>11</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K109" s="38">
         <v>27</v>
@@ -7860,13 +7653,13 @@
         <v>29</v>
       </c>
       <c r="H115" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I115" s="12">
         <v>13</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K115" s="38">
         <v>27</v>
@@ -8032,13 +7825,13 @@
         <v>29</v>
       </c>
       <c r="H121" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I121" s="12">
         <v>15</v>
       </c>
       <c r="J121" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K121" s="38">
         <v>27</v>
@@ -8200,7 +7993,7 @@
       <c r="D127" s="39"/>
       <c r="E127" s="10"/>
       <c r="F127" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G127" s="37"/>
       <c r="H127" s="41"/>
@@ -8230,7 +8023,7 @@
         <v>29</v>
       </c>
       <c r="H128" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I128" s="12">
         <v>62</v>
@@ -8258,7 +8051,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="41" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I129" s="12">
         <v>62</v>
@@ -8342,7 +8135,7 @@
         <v>31</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I132" s="12">
         <v>62</v>
@@ -8370,7 +8163,7 @@
         <v>31</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I133" s="12">
         <v>62</v>
@@ -8472,13 +8265,13 @@
         <v>29</v>
       </c>
       <c r="H137" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I137" s="12">
         <v>16</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K137" s="38">
         <v>30</v>
@@ -8828,7 +8621,7 @@
         <v>31</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="I149" s="12">
         <v>46</v>
@@ -8858,7 +8651,7 @@
         <v>31</v>
       </c>
       <c r="H150" s="41" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="I150" s="12">
         <v>46</v>
@@ -9156,7 +8949,7 @@
         <v>31</v>
       </c>
       <c r="H160" s="41" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="I160" s="12">
         <v>19</v>
@@ -9180,7 +8973,7 @@
       <c r="D161" s="39"/>
       <c r="E161" s="10"/>
       <c r="F161" s="17" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G161" s="37"/>
       <c r="H161" s="41"/>
@@ -9210,13 +9003,13 @@
         <v>29</v>
       </c>
       <c r="H162" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I162" s="12">
         <v>44</v>
       </c>
       <c r="J162" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K162" s="38">
         <v>30</v>
@@ -9268,7 +9061,7 @@
         <v>29</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="I164" s="12">
         <v>44</v>
@@ -9296,13 +9089,13 @@
         <v>29</v>
       </c>
       <c r="H165" s="41" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="I165" s="12">
         <v>44</v>
       </c>
       <c r="J165" s="41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K165" s="38">
         <v>30</v>
@@ -9382,7 +9175,7 @@
         <v>31</v>
       </c>
       <c r="H168" s="41" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="I168" s="12">
         <v>44</v>
@@ -9410,7 +9203,7 @@
         <v>31</v>
       </c>
       <c r="H169" s="41" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="I169" s="12">
         <v>44</v>
@@ -9434,7 +9227,7 @@
       <c r="D170" s="39"/>
       <c r="E170" s="10"/>
       <c r="F170" s="17" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="G170" s="37"/>
       <c r="H170" s="41"/>
@@ -9442,7 +9235,7 @@
         <v>87</v>
       </c>
       <c r="J170" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K170" s="38">
         <v>30</v>
@@ -9466,7 +9259,7 @@
         <v>29</v>
       </c>
       <c r="H171" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I171" s="12">
         <v>87</v>
@@ -9522,13 +9315,13 @@
         <v>29</v>
       </c>
       <c r="H173" s="41" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="I173" s="12">
         <v>87</v>
       </c>
       <c r="J173" s="41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K173" s="38">
         <v>30</v>
@@ -9552,7 +9345,7 @@
         <v>29</v>
       </c>
       <c r="H174" s="41" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="I174" s="12">
         <v>87</v>
@@ -9636,7 +9429,7 @@
         <v>31</v>
       </c>
       <c r="H177" s="41" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="I177" s="12">
         <v>87</v>
@@ -9664,7 +9457,7 @@
         <v>31</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="I178" s="12">
         <v>87</v>
@@ -9692,7 +9485,7 @@
         <v>31</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="I179" s="12">
         <v>87</v>
@@ -9720,7 +9513,7 @@
         <v>31</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="I180" s="12">
         <v>87</v>
@@ -9774,13 +9567,13 @@
         <v>29</v>
       </c>
       <c r="H182" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I182" s="12">
         <v>51</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K182" s="38">
         <v>30</v>
@@ -9804,7 +9597,7 @@
         <v>29</v>
       </c>
       <c r="H183" s="41" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="I183" s="12">
         <v>51</v>
@@ -9832,13 +9625,13 @@
         <v>29</v>
       </c>
       <c r="H184" s="41" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="I184" s="12">
         <v>51</v>
       </c>
       <c r="J184" s="41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K184" s="38">
         <v>30</v>
@@ -9890,7 +9683,7 @@
         <v>31</v>
       </c>
       <c r="H186" s="41" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="I186" s="12">
         <v>51</v>
@@ -10024,13 +9817,13 @@
         <v>29</v>
       </c>
       <c r="H191" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I191" s="18">
         <v>20</v>
       </c>
       <c r="J191" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K191" s="51">
         <v>30</v>
@@ -10261,7 +10054,7 @@
         <v>31</v>
       </c>
       <c r="H199" s="41" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="I199" s="18">
         <v>21</v>
@@ -10469,7 +10262,7 @@
         <v>30</v>
       </c>
       <c r="H206" s="41" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="I206" s="18">
         <v>22</v>
@@ -10678,7 +10471,7 @@
         <v>31</v>
       </c>
       <c r="H213" s="41" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="I213" s="18">
         <v>23</v>
@@ -10756,13 +10549,13 @@
         <v>29</v>
       </c>
       <c r="H216" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I216" s="18">
         <v>24</v>
       </c>
       <c r="J216" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K216" s="51">
         <v>30</v>
@@ -10993,7 +10786,7 @@
         <v>31</v>
       </c>
       <c r="H224" s="41" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="I224" s="18">
         <v>25</v>
@@ -11082,7 +10875,7 @@
         <v>30</v>
       </c>
       <c r="H227" s="41" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="I227" s="18">
         <v>48</v>
@@ -11138,7 +10931,7 @@
         <v>25</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G229" s="31"/>
       <c r="H229" s="41"/>
@@ -11201,7 +10994,7 @@
         <v>30</v>
       </c>
       <c r="H231" s="41" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="I231" s="18">
         <v>26</v>
@@ -11257,7 +11050,7 @@
         <v>26</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G233" s="31"/>
       <c r="H233" s="41"/>
@@ -11410,7 +11203,7 @@
         <v>31</v>
       </c>
       <c r="H238" s="41" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="I238" s="18">
         <v>27</v>
@@ -11434,7 +11227,7 @@
       <c r="D239" s="52"/>
       <c r="E239" s="29"/>
       <c r="F239" s="17" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G239" s="31"/>
       <c r="H239" s="41"/>
@@ -11464,7 +11257,7 @@
         <v>29</v>
       </c>
       <c r="H240" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I240" s="18">
         <v>49</v>
@@ -11520,7 +11313,7 @@
         <v>29</v>
       </c>
       <c r="H242" s="41" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I242" s="18">
         <v>49</v>
@@ -11548,13 +11341,13 @@
         <v>29</v>
       </c>
       <c r="H243" s="41" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I243" s="18">
         <v>49</v>
       </c>
       <c r="J243" s="41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K243" s="51">
         <v>30</v>
@@ -11634,7 +11427,7 @@
         <v>31</v>
       </c>
       <c r="H246" s="41" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="I246" s="18">
         <v>49</v>
@@ -11662,7 +11455,7 @@
         <v>31</v>
       </c>
       <c r="H247" s="41" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="I247" s="18">
         <v>49</v>
@@ -11686,7 +11479,7 @@
       <c r="D248" s="52"/>
       <c r="E248" s="29"/>
       <c r="F248" s="17" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="G248" s="37"/>
       <c r="H248" s="41"/>
@@ -11716,7 +11509,7 @@
         <v>29</v>
       </c>
       <c r="H249" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I249" s="18">
         <v>88</v>
@@ -11772,7 +11565,7 @@
         <v>29</v>
       </c>
       <c r="H251" s="41" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="I251" s="18">
         <v>88</v>
@@ -11800,7 +11593,7 @@
         <v>29</v>
       </c>
       <c r="H252" s="41" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I252" s="18">
         <v>88</v>
@@ -11884,7 +11677,7 @@
         <v>31</v>
       </c>
       <c r="H255" s="41" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="I255" s="18">
         <v>88</v>
@@ -11912,7 +11705,7 @@
         <v>31</v>
       </c>
       <c r="H256" s="41" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="I256" s="18">
         <v>88</v>
@@ -11940,7 +11733,7 @@
         <v>31</v>
       </c>
       <c r="H257" s="41" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="I257" s="18">
         <v>88</v>
@@ -11968,7 +11761,7 @@
         <v>31</v>
       </c>
       <c r="H258" s="41" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="I258" s="18">
         <v>88</v>
@@ -12022,7 +11815,7 @@
         <v>29</v>
       </c>
       <c r="H260" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I260" s="18">
         <v>53</v>
@@ -12050,7 +11843,7 @@
         <v>29</v>
       </c>
       <c r="H261" s="41" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="I261" s="18">
         <v>53</v>
@@ -12078,13 +11871,13 @@
         <v>29</v>
       </c>
       <c r="H262" s="41" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="I262" s="18">
         <v>53</v>
       </c>
       <c r="J262" s="41" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="K262" s="51">
         <v>30</v>
@@ -12136,7 +11929,7 @@
         <v>31</v>
       </c>
       <c r="H264" s="41" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="I264" s="18">
         <v>53</v>
@@ -12270,13 +12063,13 @@
         <v>29</v>
       </c>
       <c r="H269" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I269" s="18">
         <v>28</v>
       </c>
       <c r="J269" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K269" s="51">
         <v>28</v>
@@ -12300,7 +12093,7 @@
         <v>30</v>
       </c>
       <c r="H270" s="41" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="I270" s="18">
         <v>28</v>
@@ -12654,7 +12447,7 @@
         <v>31</v>
       </c>
       <c r="H282" s="41" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I282" s="18">
         <v>30</v>
@@ -12980,7 +12773,7 @@
         <v>31</v>
       </c>
       <c r="H293" s="41" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I293" s="18">
         <v>32</v>
@@ -13034,13 +12827,13 @@
         <v>29</v>
       </c>
       <c r="H295" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I295" s="18">
         <v>38</v>
       </c>
       <c r="J295" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K295" s="51">
         <v>28</v>
@@ -13260,13 +13053,13 @@
         <v>29</v>
       </c>
       <c r="H303" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I303" s="12">
         <v>40</v>
       </c>
       <c r="J303" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K303" s="51">
         <v>28</v>
@@ -13290,7 +13083,7 @@
         <v>29</v>
       </c>
       <c r="H304" s="41" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I304" s="12">
         <v>40</v>
@@ -13324,7 +13117,7 @@
         <v>40</v>
       </c>
       <c r="J305" s="53" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K305" s="51">
         <v>28</v>
@@ -13376,7 +13169,7 @@
         <v>30</v>
       </c>
       <c r="H307" s="41" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I307" s="12">
         <v>40</v>
@@ -13404,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="H308" s="41" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I308" s="12">
         <v>40</v>
@@ -13432,7 +13225,7 @@
         <v>31</v>
       </c>
       <c r="H309" s="41" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I309" s="12">
         <v>40</v>
@@ -13460,7 +13253,7 @@
         <v>31</v>
       </c>
       <c r="H310" s="41" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I310" s="12">
         <v>40</v>
@@ -13488,7 +13281,7 @@
         <v>31</v>
       </c>
       <c r="H311" s="41" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I311" s="12">
         <v>40</v>
@@ -13542,13 +13335,13 @@
         <v>29</v>
       </c>
       <c r="H313" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I313" s="12">
         <v>41</v>
       </c>
       <c r="J313" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K313" s="51">
         <v>28</v>
@@ -13572,7 +13365,7 @@
         <v>29</v>
       </c>
       <c r="H314" s="41" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I314" s="12">
         <v>41</v>
@@ -13600,13 +13393,13 @@
         <v>29</v>
       </c>
       <c r="H315" s="41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I315" s="12">
         <v>41</v>
       </c>
       <c r="J315" s="53" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K315" s="51">
         <v>28</v>
@@ -13682,7 +13475,7 @@
       <c r="D318" s="52"/>
       <c r="E318" s="29"/>
       <c r="F318" s="6" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="G318" s="37"/>
       <c r="H318" s="41"/>
@@ -13712,7 +13505,7 @@
         <v>29</v>
       </c>
       <c r="H319" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I319" s="12">
         <v>89</v>
@@ -13740,7 +13533,7 @@
         <v>30</v>
       </c>
       <c r="H320" s="41" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="I320" s="12">
         <v>89</v>
@@ -13774,7 +13567,7 @@
         <v>89</v>
       </c>
       <c r="J321" s="41" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="K321" s="51">
         <v>28</v>
@@ -13796,7 +13589,7 @@
         <v>89</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="G322" s="31"/>
       <c r="H322" s="41"/>
@@ -13915,7 +13708,7 @@
         <v>90</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="G326" s="31"/>
       <c r="H326" s="41"/>
@@ -14098,7 +13891,7 @@
         <v>31</v>
       </c>
       <c r="H332" s="41" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I332" s="12">
         <v>91</v>
@@ -14176,13 +13969,13 @@
         <v>29</v>
       </c>
       <c r="H335" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I335" s="18">
         <v>33</v>
       </c>
       <c r="J335" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K335" s="51">
         <v>28</v>
@@ -14206,13 +13999,13 @@
         <v>30</v>
       </c>
       <c r="H336" s="41" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="I336" s="18">
         <v>33</v>
       </c>
       <c r="J336" s="53" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K336" s="51">
         <v>28</v>
@@ -14564,7 +14357,7 @@
         <v>31</v>
       </c>
       <c r="H348" s="41" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="I348" s="18">
         <v>35</v>
@@ -14802,7 +14595,7 @@
         <v>31</v>
       </c>
       <c r="H356" s="41" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="I356" s="18">
         <v>37</v>
@@ -14892,7 +14685,7 @@
         <v>31</v>
       </c>
       <c r="H359" s="41" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="I359" s="18">
         <v>37</v>
@@ -14946,7 +14739,7 @@
         <v>29</v>
       </c>
       <c r="H361" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I361" s="18">
         <v>39</v>
@@ -15058,7 +14851,7 @@
         <v>31</v>
       </c>
       <c r="H365" s="41" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="I365" s="18">
         <v>39</v>
@@ -15174,7 +14967,7 @@
         <v>42</v>
       </c>
       <c r="J369" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K369" s="51">
         <v>28</v>
@@ -15198,7 +14991,7 @@
         <v>29</v>
       </c>
       <c r="H370" s="41" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I370" s="18">
         <v>42</v>
@@ -15226,13 +15019,13 @@
         <v>29</v>
       </c>
       <c r="H371" s="41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I371" s="18">
         <v>42</v>
       </c>
       <c r="J371" s="53" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K371" s="51">
         <v>28</v>
@@ -15284,7 +15077,7 @@
         <v>30</v>
       </c>
       <c r="H373" s="41" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I373" s="18">
         <v>42</v>
@@ -15312,7 +15105,7 @@
         <v>31</v>
       </c>
       <c r="H374" s="41" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I374" s="18">
         <v>42</v>
@@ -15340,7 +15133,7 @@
         <v>31</v>
       </c>
       <c r="H375" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I375" s="18">
         <v>42</v>
@@ -15368,7 +15161,7 @@
         <v>31</v>
       </c>
       <c r="H376" s="41" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I376" s="18">
         <v>42</v>
@@ -15400,7 +15193,7 @@
         <v>43</v>
       </c>
       <c r="J377" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K377" s="51">
         <v>28</v>
@@ -15454,13 +15247,13 @@
         <v>29</v>
       </c>
       <c r="H379" s="41" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I379" s="18">
         <v>43</v>
       </c>
       <c r="J379" s="53" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K379" s="51">
         <v>28</v>
@@ -15564,7 +15357,7 @@
       <c r="D383" s="52"/>
       <c r="E383" s="29"/>
       <c r="F383" s="6" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="G383" s="37"/>
       <c r="H383" s="41"/>
@@ -15594,7 +15387,7 @@
         <v>29</v>
       </c>
       <c r="H384" s="41" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="I384" s="18">
         <v>92</v>
@@ -15622,7 +15415,7 @@
         <v>30</v>
       </c>
       <c r="H385" s="41" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="I385" s="18">
         <v>92</v>
@@ -15656,7 +15449,7 @@
         <v>92</v>
       </c>
       <c r="J386" s="41" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="K386" s="51">
         <v>28</v>
@@ -15678,7 +15471,7 @@
         <v>92</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G387" s="31"/>
       <c r="H387" s="41"/>
@@ -15797,7 +15590,7 @@
         <v>93</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G391" s="31"/>
       <c r="H391" s="41"/>
@@ -15890,7 +15683,7 @@
         <v>31</v>
       </c>
       <c r="H394" s="41" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="I394" s="18">
         <v>94</v>
@@ -15920,7 +15713,7 @@
         <v>31</v>
       </c>
       <c r="H395" s="41" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="I395" s="18">
         <v>94</v>
@@ -15980,7 +15773,7 @@
         <v>31</v>
       </c>
       <c r="H397" s="41" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="I397" s="18">
         <v>94</v>
@@ -16052,7 +15845,7 @@
       <c r="D400" s="67"/>
       <c r="E400" s="68"/>
       <c r="F400" s="69" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H400" s="41"/>
       <c r="I400" s="70">
@@ -16081,13 +15874,13 @@
         <v>29</v>
       </c>
       <c r="H401" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I401" s="70">
         <v>55</v>
       </c>
       <c r="J401" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K401" s="72">
         <v>38</v>
@@ -16111,7 +15904,7 @@
         <v>29</v>
       </c>
       <c r="H402" s="41" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I402" s="70">
         <v>55</v>
@@ -16169,7 +15962,7 @@
         <v>31</v>
       </c>
       <c r="H404" s="41" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="I404" s="70">
         <v>55</v>
@@ -16199,7 +15992,7 @@
         <v>31</v>
       </c>
       <c r="H405" s="41" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I405" s="70">
         <v>55</v>
@@ -16227,13 +16020,13 @@
         <v>31</v>
       </c>
       <c r="H406" s="41" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I406" s="70">
         <v>55</v>
       </c>
       <c r="J406" s="71" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="K406" s="66">
         <v>38</v>
@@ -16255,7 +16048,7 @@
         <v>55</v>
       </c>
       <c r="F407" s="69" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="H407" s="41"/>
       <c r="I407" s="70">
@@ -16317,7 +16110,7 @@
         <v>29</v>
       </c>
       <c r="H409" s="41" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I409" s="70">
         <v>73</v>
@@ -16379,7 +16172,7 @@
         <v>31</v>
       </c>
       <c r="H411" s="41" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="I411" s="70">
         <v>73</v>
@@ -16411,7 +16204,7 @@
         <v>31</v>
       </c>
       <c r="H412" s="41" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="I412" s="70">
         <v>73</v>
@@ -16441,7 +16234,7 @@
         <v>31</v>
       </c>
       <c r="H413" s="41" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="I413" s="70">
         <v>73</v>
@@ -16465,7 +16258,7 @@
       <c r="D414" s="67"/>
       <c r="E414" s="68"/>
       <c r="F414" s="69" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H414" s="41"/>
       <c r="I414" s="70">
@@ -16494,7 +16287,7 @@
         <v>29</v>
       </c>
       <c r="H415" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I415" s="70">
         <v>78</v>
@@ -16522,7 +16315,7 @@
         <v>29</v>
       </c>
       <c r="H416" s="41" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I416" s="70">
         <v>78</v>
@@ -16550,13 +16343,13 @@
         <v>29</v>
       </c>
       <c r="H417" s="41" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="I417" s="70">
         <v>78</v>
       </c>
       <c r="J417" s="41" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="K417" s="66">
         <v>38</v>
@@ -16580,13 +16373,13 @@
         <v>30</v>
       </c>
       <c r="H418" s="41" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="I418" s="70">
         <v>78</v>
       </c>
       <c r="J418" s="71" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="K418" s="66"/>
     </row>
@@ -16608,13 +16401,13 @@
         <v>31</v>
       </c>
       <c r="H419" s="41" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="I419" s="70">
         <v>78</v>
       </c>
       <c r="J419" s="71" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="K419" s="66">
         <v>38</v>
@@ -16638,13 +16431,13 @@
         <v>31</v>
       </c>
       <c r="H420" s="41" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I420" s="70">
         <v>78</v>
       </c>
       <c r="J420" s="71" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="K420" s="66">
         <v>38</v>
@@ -16668,13 +16461,13 @@
         <v>31</v>
       </c>
       <c r="H421" s="41" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="I421" s="70">
         <v>78</v>
       </c>
       <c r="J421" s="71" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="K421" s="66">
         <v>38</v>
@@ -16696,7 +16489,7 @@
         <v>78</v>
       </c>
       <c r="F422" s="69" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="H422" s="41"/>
       <c r="I422" s="70">
@@ -16758,7 +16551,7 @@
         <v>29</v>
       </c>
       <c r="H424" s="41" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I424" s="70">
         <v>79</v>
@@ -16788,7 +16581,7 @@
         <v>29</v>
       </c>
       <c r="H425" s="41" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="I425" s="70">
         <v>79</v>
@@ -16818,13 +16611,13 @@
         <v>30</v>
       </c>
       <c r="H426" s="41" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="I426" s="70">
         <v>79</v>
       </c>
       <c r="J426" s="71" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="K426" s="66">
         <v>38</v>
@@ -16850,13 +16643,13 @@
         <v>31</v>
       </c>
       <c r="H427" s="41" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="I427" s="70">
         <v>79</v>
       </c>
       <c r="J427" s="71" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="K427" s="66">
         <v>38</v>
@@ -16882,13 +16675,13 @@
         <v>31</v>
       </c>
       <c r="H428" s="41" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="I428" s="70">
         <v>79</v>
       </c>
       <c r="J428" s="71" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="K428" s="66">
         <v>38</v>
@@ -16914,25 +16707,25 @@
         <v>31</v>
       </c>
       <c r="H429" s="41" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="I429" s="70">
         <v>79</v>
       </c>
       <c r="J429" s="71" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="K429" s="66">
         <v>38</v>
       </c>
     </row>
-    <row r="430" spans="1:11" s="65" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" s="65" customFormat="1" ht="16.5" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>0</v>
       </c>
       <c r="B430" s="80" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C430" s="81"/>
       <c r="D430" s="82"/>
@@ -16956,7 +16749,7 @@
         <v>80</v>
       </c>
       <c r="B431" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C431" s="66" t="s">
         <v>56</v>
@@ -16964,7 +16757,7 @@
       <c r="D431" s="67"/>
       <c r="E431" s="68"/>
       <c r="F431" s="6" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="G431" s="37"/>
       <c r="H431" s="40"/>
@@ -16982,7 +16775,7 @@
         <v>80</v>
       </c>
       <c r="B432" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C432" s="66" t="s">
         <v>56</v>
@@ -16994,13 +16787,13 @@
         <v>29</v>
       </c>
       <c r="H432" s="41" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I432" s="70">
         <v>80</v>
       </c>
       <c r="J432" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K432" s="66">
         <v>60</v>
@@ -17012,7 +16805,7 @@
         <v>80</v>
       </c>
       <c r="B433" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C433" s="66" t="s">
         <v>56</v>
@@ -17024,7 +16817,7 @@
         <v>30</v>
       </c>
       <c r="H433" s="41" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="I433" s="70">
         <v>80</v>
@@ -17040,7 +16833,7 @@
         <v>80</v>
       </c>
       <c r="B434" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C434" s="66" t="s">
         <v>56</v>
@@ -17062,13 +16855,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="435" spans="1:11" s="113" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A435" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>81</v>
       </c>
       <c r="B435" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C435" s="66" t="s">
         <v>56</v>
@@ -17078,7 +16871,7 @@
         <v>80</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="G435" s="37"/>
       <c r="H435" s="41"/>
@@ -17096,7 +16889,7 @@
         <v>81</v>
       </c>
       <c r="B436" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C436" s="66" t="s">
         <v>56</v>
@@ -17127,7 +16920,7 @@
         <v>81</v>
       </c>
       <c r="B437" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C437" s="66" t="s">
         <v>56</v>
@@ -17157,7 +16950,7 @@
         <v>81</v>
       </c>
       <c r="B438" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C438" s="66" t="s">
         <v>56</v>
@@ -17171,7 +16964,7 @@
         <v>31</v>
       </c>
       <c r="H438" s="41" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="I438" s="70">
         <v>81</v>
@@ -17187,7 +16980,7 @@
         <v>81</v>
       </c>
       <c r="B439" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C439" s="66" t="s">
         <v>56</v>
@@ -17201,7 +16994,7 @@
         <v>31</v>
       </c>
       <c r="H439" s="41" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="I439" s="70">
         <v>81</v>
@@ -17211,13 +17004,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="440" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>82</v>
       </c>
       <c r="B440" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C440" s="66" t="s">
         <v>56</v>
@@ -17227,7 +17020,7 @@
         <v>80</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="G440" s="37"/>
       <c r="H440" s="41"/>
@@ -17245,7 +17038,7 @@
         <v>82</v>
       </c>
       <c r="B441" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C441" s="66" t="s">
         <v>56</v>
@@ -17276,7 +17069,7 @@
         <v>82</v>
       </c>
       <c r="B442" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C442" s="66" t="s">
         <v>56</v>
@@ -17290,7 +17083,7 @@
         <v>30</v>
       </c>
       <c r="H442" s="41" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="I442" s="70">
         <v>82</v>
@@ -17306,7 +17099,7 @@
         <v>82</v>
       </c>
       <c r="B443" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C443" s="66" t="s">
         <v>56</v>
@@ -17320,7 +17113,7 @@
         <v>31</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="I443" s="70">
         <v>82</v>
@@ -17336,7 +17129,7 @@
         <v>82</v>
       </c>
       <c r="B444" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C444" s="66" t="s">
         <v>56</v>
@@ -17350,7 +17143,7 @@
         <v>31</v>
       </c>
       <c r="H444" s="41" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="I444" s="70">
         <v>82</v>
@@ -17360,13 +17153,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="445" spans="1:11" s="113" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" s="113" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A445" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>83</v>
       </c>
       <c r="B445" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C445" s="66" t="s">
         <v>56</v>
@@ -17376,7 +17169,7 @@
       </c>
       <c r="E445" s="68"/>
       <c r="F445" s="6" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="G445" s="37"/>
       <c r="H445" s="41"/>
@@ -17394,7 +17187,7 @@
         <v>83</v>
       </c>
       <c r="B446" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C446" s="66" t="s">
         <v>56</v>
@@ -17408,13 +17201,13 @@
         <v>29</v>
       </c>
       <c r="H446" s="41" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="I446" s="70">
         <v>83</v>
       </c>
       <c r="J446" s="43" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="K446" s="66">
         <v>60</v>
@@ -17426,7 +17219,7 @@
         <v>83</v>
       </c>
       <c r="B447" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C447" s="66" t="s">
         <v>56</v>
@@ -17440,13 +17233,13 @@
         <v>29</v>
       </c>
       <c r="H447" s="41" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="I447" s="70">
         <v>83</v>
       </c>
       <c r="J447" s="43" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="K447" s="66">
         <v>60</v>
@@ -17458,7 +17251,7 @@
         <v>83</v>
       </c>
       <c r="B448" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C448" s="66" t="s">
         <v>56</v>
@@ -17472,7 +17265,7 @@
         <v>30</v>
       </c>
       <c r="H448" s="41" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="I448" s="70">
         <v>83</v>
@@ -17488,7 +17281,7 @@
         <v>83</v>
       </c>
       <c r="B449" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C449" s="66" t="s">
         <v>56</v>
@@ -17502,7 +17295,7 @@
         <v>31</v>
       </c>
       <c r="H449" s="41" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="I449" s="70">
         <v>83</v>
@@ -17518,7 +17311,7 @@
         <v>83</v>
       </c>
       <c r="B450" s="65" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C450" s="66" t="s">
         <v>56</v>
@@ -17532,7 +17325,7 @@
         <v>31</v>
       </c>
       <c r="H450" s="41" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="I450" s="70">
         <v>83</v>
@@ -17566,7 +17359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="452" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17582,7 +17375,9 @@
       <c r="F452" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="H452" s="41"/>
+      <c r="H452" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I452" s="70">
         <v>56</v>
       </c>
@@ -17591,7 +17386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="453" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" s="65" customFormat="1" ht="31.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17608,20 +17403,20 @@
       <c r="G453" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H453" s="41" t="s">
-        <v>403</v>
+      <c r="H453" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I453" s="70">
         <v>56</v>
       </c>
       <c r="J453" s="43" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K453" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="454" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17638,8 +17433,8 @@
       <c r="G454" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H454" s="41" t="s">
-        <v>409</v>
+      <c r="H454" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I454" s="70">
         <v>56</v>
@@ -17649,7 +17444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="455" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17666,20 +17461,20 @@
       <c r="G455" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H455" s="41" t="s">
+      <c r="H455" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I455" s="70">
+        <v>56</v>
+      </c>
+      <c r="J455" s="71" t="s">
         <v>216</v>
-      </c>
-      <c r="I455" s="70">
-        <v>56</v>
-      </c>
-      <c r="J455" s="71" t="s">
-        <v>217</v>
       </c>
       <c r="K455" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="456" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>56</v>
@@ -17696,8 +17491,8 @@
       <c r="G456" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H456" s="41" t="s">
-        <v>122</v>
+      <c r="H456" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I456" s="70">
         <v>56</v>
@@ -17707,7 +17502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="457" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17723,9 +17518,11 @@
         <v>56</v>
       </c>
       <c r="F457" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="H457" s="41"/>
+        <v>218</v>
+      </c>
+      <c r="H457" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I457" s="70">
         <v>57</v>
       </c>
@@ -17734,7 +17531,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="458" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17753,9 +17550,8 @@
       <c r="G458" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H458" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 56</v>
+      <c r="H458" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I458" s="70">
         <v>57</v>
@@ -17765,7 +17561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="459" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17784,8 +17580,8 @@
       <c r="G459" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H459" s="41" t="s">
-        <v>124</v>
+      <c r="H459" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I459" s="70">
         <v>57</v>
@@ -17795,7 +17591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="460" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17814,8 +17610,8 @@
       <c r="G460" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H460" s="41" t="s">
-        <v>218</v>
+      <c r="H460" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I460" s="70">
         <v>57</v>
@@ -17825,7 +17621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>57</v>
@@ -17841,8 +17637,8 @@
         <v>56</v>
       </c>
       <c r="F461" s="69"/>
-      <c r="H461" s="41" t="s">
-        <v>415</v>
+      <c r="H461" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I461" s="70">
         <v>57</v>
@@ -17852,7 +17648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="462" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17868,9 +17664,11 @@
         <v>57</v>
       </c>
       <c r="F462" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="H462" s="41"/>
+        <v>217</v>
+      </c>
+      <c r="H462" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I462" s="70">
         <v>58</v>
       </c>
@@ -17879,7 +17677,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="463" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17898,9 +17696,8 @@
       <c r="G463" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H463" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 57</v>
+      <c r="H463" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I463" s="70">
         <v>58</v>
@@ -17910,7 +17707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="464" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17929,8 +17726,8 @@
       <c r="G464" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H464" s="41" t="s">
-        <v>219</v>
+      <c r="H464" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I464" s="70">
         <v>58</v>
@@ -17940,7 +17737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="465" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17959,8 +17756,8 @@
       <c r="G465" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H465" s="41" t="s">
-        <v>220</v>
+      <c r="H465" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I465" s="70">
         <v>58</v>
@@ -17970,7 +17767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="466" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -17989,8 +17786,8 @@
       <c r="G466" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H466" s="41" t="s">
-        <v>222</v>
+      <c r="H466" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I466" s="70">
         <v>58</v>
@@ -18000,7 +17797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="467" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>58</v>
@@ -18019,8 +17816,8 @@
       <c r="G467" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H467" s="41" t="s">
-        <v>221</v>
+      <c r="H467" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I467" s="70">
         <v>58</v>
@@ -18030,7 +17827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18046,9 +17843,11 @@
         <v>56</v>
       </c>
       <c r="F468" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="H468" s="41"/>
+        <v>219</v>
+      </c>
+      <c r="H468" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I468" s="70">
         <v>59</v>
       </c>
@@ -18057,7 +17856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="469" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18076,9 +17875,8 @@
       <c r="G469" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H469" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 56</v>
+      <c r="H469" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I469" s="70">
         <v>59</v>
@@ -18088,7 +17886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="470" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18107,8 +17905,8 @@
       <c r="G470" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="H470" s="41" t="s">
-        <v>135</v>
+      <c r="H470" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I470" s="70">
         <v>59</v>
@@ -18118,7 +17916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="471" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>59</v>
@@ -18137,8 +17935,8 @@
       <c r="G471" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H471" s="41" t="s">
-        <v>174</v>
+      <c r="H471" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I471" s="70">
         <v>59</v>
@@ -18148,7 +17946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="472" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18164,9 +17962,11 @@
         <v>57</v>
       </c>
       <c r="F472" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="H472" s="41"/>
+        <v>221</v>
+      </c>
+      <c r="H472" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I472" s="70">
         <v>60</v>
       </c>
@@ -18175,7 +17975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="473" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18194,9 +17994,8 @@
       <c r="G473" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H473" s="41" t="str">
-        <f>_xlfn.CONCAT("Result from scenario ",Table14[[#This Row],[Dependency]])</f>
-        <v>Result from scenario 57</v>
+      <c r="H473" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I473" s="70">
         <v>60</v>
@@ -18206,7 +18005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="474" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18225,8 +18024,8 @@
       <c r="G474" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H474" s="41" t="s">
-        <v>227</v>
+      <c r="H474" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I474" s="70">
         <v>60</v>
@@ -18236,7 +18035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="475" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18255,8 +18054,8 @@
       <c r="G475" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H475" s="41" t="s">
-        <v>220</v>
+      <c r="H475" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I475" s="70">
         <v>60</v>
@@ -18266,7 +18065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="476" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18285,8 +18084,8 @@
       <c r="G476" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H476" s="41" t="s">
-        <v>222</v>
+      <c r="H476" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I476" s="70">
         <v>60</v>
@@ -18296,7 +18095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="477" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>60</v>
@@ -18315,8 +18114,8 @@
       <c r="G477" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H477" s="41" t="s">
-        <v>228</v>
+      <c r="H477" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I477" s="70">
         <v>60</v>
@@ -18326,7 +18125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="478" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18340,9 +18139,11 @@
       <c r="D478" s="67"/>
       <c r="E478" s="68"/>
       <c r="F478" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="H478" s="41"/>
+        <v>280</v>
+      </c>
+      <c r="H478" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I478" s="70">
         <v>68</v>
       </c>
@@ -18351,7 +18152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="479" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18368,20 +18169,20 @@
       <c r="G479" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H479" s="41" t="s">
-        <v>407</v>
+      <c r="H479" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I479" s="70">
         <v>68</v>
       </c>
       <c r="J479" s="71" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="K479" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="480" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18398,8 +18199,8 @@
       <c r="G480" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H480" s="41" t="s">
-        <v>265</v>
+      <c r="H480" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I480" s="70">
         <v>68</v>
@@ -18409,7 +18210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="481" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18426,8 +18227,8 @@
       <c r="G481" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H481" s="41" t="s">
-        <v>216</v>
+      <c r="H481" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I481" s="70">
         <v>68</v>
@@ -18437,7 +18238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="482" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18454,8 +18255,8 @@
       <c r="G482" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H482" s="41" t="s">
-        <v>124</v>
+      <c r="H482" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I482" s="70">
         <v>68</v>
@@ -18465,7 +18266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="483" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18482,8 +18283,8 @@
       <c r="G483" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H483" s="41" t="s">
-        <v>219</v>
+      <c r="H483" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I483" s="70">
         <v>68</v>
@@ -18493,7 +18294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="484" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18510,8 +18311,8 @@
       <c r="G484" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H484" s="41" t="s">
-        <v>222</v>
+      <c r="H484" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I484" s="70">
         <v>68</v>
@@ -18521,7 +18322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="485" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18538,8 +18339,8 @@
       <c r="G485" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H485" s="41" t="s">
-        <v>415</v>
+      <c r="H485" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I485" s="70">
         <v>68</v>
@@ -18549,7 +18350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18566,8 +18367,8 @@
       <c r="G486" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H486" s="41" t="s">
-        <v>267</v>
+      <c r="H486" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I486" s="70">
         <v>68</v>
@@ -18577,7 +18378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="487" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>68</v>
@@ -18594,8 +18395,8 @@
       <c r="G487" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H487" s="41" t="s">
-        <v>268</v>
+      <c r="H487" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I487" s="70">
         <v>68</v>
@@ -18605,7 +18406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="488" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18619,20 +18420,22 @@
       <c r="D488" s="67"/>
       <c r="E488" s="68"/>
       <c r="F488" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="H488" s="41"/>
+        <v>276</v>
+      </c>
+      <c r="H488" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I488" s="70">
         <v>69</v>
       </c>
       <c r="J488" s="71" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K488" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="489" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18649,8 +18452,8 @@
       <c r="G489" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H489" s="41" t="s">
-        <v>408</v>
+      <c r="H489" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I489" s="70">
         <v>69</v>
@@ -18660,7 +18463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18677,8 +18480,8 @@
       <c r="G490" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H490" s="41" t="s">
-        <v>265</v>
+      <c r="H490" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I490" s="70">
         <v>69</v>
@@ -18688,7 +18491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="491" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18705,8 +18508,8 @@
       <c r="G491" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H491" s="41" t="s">
-        <v>216</v>
+      <c r="H491" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I491" s="70">
         <v>69</v>
@@ -18716,7 +18519,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="492" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18733,8 +18536,8 @@
       <c r="G492" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H492" s="41" t="s">
-        <v>124</v>
+      <c r="H492" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I492" s="70">
         <v>69</v>
@@ -18744,7 +18547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="493" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18761,8 +18564,8 @@
       <c r="G493" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H493" s="41" t="s">
-        <v>219</v>
+      <c r="H493" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I493" s="70">
         <v>69</v>
@@ -18772,7 +18575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="494" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18789,8 +18592,8 @@
       <c r="G494" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="H494" s="41" t="s">
-        <v>289</v>
+      <c r="H494" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I494" s="70">
         <v>69</v>
@@ -18800,7 +18603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="495" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18817,8 +18620,8 @@
       <c r="G495" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H495" s="41" t="s">
-        <v>222</v>
+      <c r="H495" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I495" s="70">
         <v>69</v>
@@ -18828,7 +18631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="496" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18845,8 +18648,8 @@
       <c r="G496" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H496" s="41" t="s">
-        <v>415</v>
+      <c r="H496" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I496" s="70">
         <v>69</v>
@@ -18856,7 +18659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="497" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18873,8 +18676,8 @@
       <c r="G497" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H497" s="41" t="s">
-        <v>267</v>
+      <c r="H497" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I497" s="70">
         <v>69</v>
@@ -18884,7 +18687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18901,8 +18704,8 @@
       <c r="G498" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H498" s="41" t="s">
-        <v>286</v>
+      <c r="H498" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I498" s="70">
         <v>69</v>
@@ -18912,7 +18715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="499" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>69</v>
@@ -18929,8 +18732,8 @@
       <c r="G499" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H499" s="41" t="s">
-        <v>290</v>
+      <c r="H499" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I499" s="70">
         <v>69</v>
@@ -18940,7 +18743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="500" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -18954,20 +18757,22 @@
       <c r="D500" s="67"/>
       <c r="E500" s="68"/>
       <c r="F500" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="H500" s="41"/>
+        <v>277</v>
+      </c>
+      <c r="H500" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I500" s="70">
         <v>70</v>
       </c>
       <c r="J500" s="71" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K500" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="501" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -18984,8 +18789,8 @@
       <c r="G501" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H501" s="41" t="s">
-        <v>408</v>
+      <c r="H501" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I501" s="70">
         <v>70</v>
@@ -18995,7 +18800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="502" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19012,8 +18817,8 @@
       <c r="G502" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H502" s="41" t="s">
-        <v>265</v>
+      <c r="H502" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I502" s="70">
         <v>70</v>
@@ -19023,7 +18828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="503" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19040,8 +18845,8 @@
       <c r="G503" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H503" s="41" t="s">
-        <v>216</v>
+      <c r="H503" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I503" s="70">
         <v>70</v>
@@ -19051,7 +18856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="504" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19068,8 +18873,8 @@
       <c r="G504" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H504" s="41" t="s">
-        <v>124</v>
+      <c r="H504" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I504" s="70">
         <v>70</v>
@@ -19079,7 +18884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="505" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19096,8 +18901,8 @@
       <c r="G505" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H505" s="41" t="s">
-        <v>219</v>
+      <c r="H505" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I505" s="70">
         <v>70</v>
@@ -19107,7 +18912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="506" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19124,8 +18929,8 @@
       <c r="G506" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="H506" s="41" t="s">
-        <v>292</v>
+      <c r="H506" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I506" s="70">
         <v>70</v>
@@ -19135,7 +18940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="507" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19152,8 +18957,8 @@
       <c r="G507" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H507" s="41" t="s">
-        <v>222</v>
+      <c r="H507" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I507" s="70">
         <v>70</v>
@@ -19163,7 +18968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="508" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19180,8 +18985,8 @@
       <c r="G508" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H508" s="41" t="s">
-        <v>415</v>
+      <c r="H508" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I508" s="70">
         <v>70</v>
@@ -19191,7 +18996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="509" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19208,8 +19013,8 @@
       <c r="G509" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H509" s="41" t="s">
-        <v>267</v>
+      <c r="H509" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I509" s="70">
         <v>70</v>
@@ -19219,7 +19024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="510" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19236,8 +19041,8 @@
       <c r="G510" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H510" s="41" t="s">
-        <v>286</v>
+      <c r="H510" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I510" s="70">
         <v>70</v>
@@ -19247,7 +19052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="511" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>70</v>
@@ -19264,8 +19069,8 @@
       <c r="G511" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H511" s="41" t="s">
-        <v>293</v>
+      <c r="H511" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I511" s="70">
         <v>70</v>
@@ -19275,7 +19080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="512" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19289,20 +19094,22 @@
       <c r="D512" s="67"/>
       <c r="E512" s="68"/>
       <c r="F512" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="H512" s="41"/>
+        <v>278</v>
+      </c>
+      <c r="H512" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I512" s="70">
         <v>71</v>
       </c>
       <c r="J512" s="71" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="K512" s="66">
         <v>39</v>
       </c>
     </row>
-    <row r="513" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19319,8 +19126,8 @@
       <c r="G513" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H513" s="41" t="s">
-        <v>407</v>
+      <c r="H513" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I513" s="70">
         <v>71</v>
@@ -19330,7 +19137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="514" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19347,8 +19154,8 @@
       <c r="G514" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H514" s="41" t="s">
-        <v>295</v>
+      <c r="H514" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I514" s="70">
         <v>71</v>
@@ -19358,7 +19165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="515" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19375,8 +19182,8 @@
       <c r="G515" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H515" s="41" t="s">
-        <v>265</v>
+      <c r="H515" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I515" s="70">
         <v>71</v>
@@ -19386,7 +19193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="516" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19403,8 +19210,8 @@
       <c r="G516" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H516" s="41" t="s">
-        <v>216</v>
+      <c r="H516" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I516" s="70">
         <v>71</v>
@@ -19414,7 +19221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="517" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19431,8 +19238,8 @@
       <c r="G517" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H517" s="41" t="s">
-        <v>124</v>
+      <c r="H517" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I517" s="70">
         <v>71</v>
@@ -19442,7 +19249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="518" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19459,8 +19266,8 @@
       <c r="G518" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H518" s="41" t="s">
-        <v>222</v>
+      <c r="H518" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I518" s="70">
         <v>71</v>
@@ -19470,7 +19277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="519" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19484,8 +19291,8 @@
       <c r="D519" s="67"/>
       <c r="E519" s="68"/>
       <c r="F519" s="69"/>
-      <c r="H519" s="41" t="s">
-        <v>415</v>
+      <c r="H519" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I519" s="70">
         <v>71</v>
@@ -19495,7 +19302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="520" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19512,8 +19319,8 @@
       <c r="G520" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H520" s="41" t="s">
-        <v>267</v>
+      <c r="H520" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I520" s="70">
         <v>71</v>
@@ -19523,7 +19330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="521" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>71</v>
@@ -19540,8 +19347,8 @@
       <c r="G521" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H521" s="41" t="s">
-        <v>268</v>
+      <c r="H521" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I521" s="70">
         <v>71</v>
@@ -19551,7 +19358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="522" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19565,9 +19372,11 @@
       <c r="D522" s="67"/>
       <c r="E522" s="68"/>
       <c r="F522" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="H522" s="41"/>
+        <v>279</v>
+      </c>
+      <c r="H522" s="79" t="s">
+        <v>42</v>
+      </c>
       <c r="I522" s="70">
         <v>72</v>
       </c>
@@ -19576,7 +19385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="523" spans="1:11" s="65" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19593,8 +19402,8 @@
       <c r="G523" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H523" s="41" t="s">
-        <v>407</v>
+      <c r="H523" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I523" s="70">
         <v>72</v>
@@ -19604,7 +19413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="524" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19621,8 +19430,8 @@
       <c r="G524" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H524" s="41" t="s">
-        <v>297</v>
+      <c r="H524" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I524" s="70">
         <v>72</v>
@@ -19632,7 +19441,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="525" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19649,8 +19458,8 @@
       <c r="G525" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H525" s="41" t="s">
-        <v>265</v>
+      <c r="H525" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I525" s="70">
         <v>72</v>
@@ -19660,7 +19469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="526" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19677,8 +19486,8 @@
       <c r="G526" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="H526" s="41" t="s">
-        <v>216</v>
+      <c r="H526" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I526" s="70">
         <v>72</v>
@@ -19688,7 +19497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="527" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19705,8 +19514,8 @@
       <c r="G527" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H527" s="41" t="s">
-        <v>124</v>
+      <c r="H527" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I527" s="70">
         <v>72</v>
@@ -19716,7 +19525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="528" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19733,8 +19542,8 @@
       <c r="G528" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H528" s="41" t="s">
-        <v>222</v>
+      <c r="H528" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I528" s="70">
         <v>72</v>
@@ -19744,7 +19553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="529" spans="1:11" s="65" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19761,8 +19570,8 @@
       <c r="G529" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H529" s="41" t="s">
-        <v>415</v>
+      <c r="H529" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I529" s="70">
         <v>72</v>
@@ -19772,7 +19581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="530" spans="1:11" s="65" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19789,8 +19598,8 @@
       <c r="G530" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H530" s="41" t="s">
-        <v>298</v>
+      <c r="H530" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I530" s="70">
         <v>72</v>
@@ -19800,7 +19609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="531" spans="1:11" s="65" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" s="65" customFormat="1" ht="16.5" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="64">
         <f>Table14[[#This Row],[Scenario '#]]</f>
         <v>72</v>
@@ -19817,8 +19626,8 @@
       <c r="G531" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H531" s="41" t="s">
-        <v>268</v>
+      <c r="H531" s="79" t="s">
+        <v>42</v>
       </c>
       <c r="I531" s="70">
         <v>72</v>
@@ -19834,14 +19643,14 @@
         <v>0</v>
       </c>
       <c r="B532" s="114" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C532" s="115"/>
       <c r="D532" s="116"/>
       <c r="E532" s="117"/>
       <c r="F532" s="118"/>
       <c r="G532" s="114"/>
-      <c r="H532" s="122" t="s">
+      <c r="H532" s="79" t="s">
         <v>42</v>
       </c>
       <c r="I532" s="119"/>
@@ -19858,7 +19667,7 @@
         <v>85</v>
       </c>
       <c r="B533" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C533" s="66" t="s">
         <v>56</v>
@@ -19866,7 +19675,7 @@
       <c r="D533" s="67"/>
       <c r="E533" s="68"/>
       <c r="F533" s="69" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="G533" s="65"/>
       <c r="H533" s="41"/>
@@ -19884,7 +19693,7 @@
         <v>85</v>
       </c>
       <c r="B534" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C534" s="66" t="s">
         <v>56</v>
@@ -19896,7 +19705,7 @@
         <v>29</v>
       </c>
       <c r="H534" s="41" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="I534" s="70">
         <v>85</v>
@@ -19912,7 +19721,7 @@
         <v>85</v>
       </c>
       <c r="B535" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C535" s="66" t="s">
         <v>56</v>
@@ -19924,13 +19733,13 @@
         <v>30</v>
       </c>
       <c r="H535" s="41" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="I535" s="70">
         <v>85</v>
       </c>
       <c r="J535" s="71" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="K535" s="66">
         <v>61</v>
@@ -19942,7 +19751,7 @@
         <v>85</v>
       </c>
       <c r="B536" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C536" s="66" t="s">
         <v>56</v>
@@ -19954,7 +19763,7 @@
         <v>31</v>
       </c>
       <c r="H536" s="41" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I536" s="70">
         <v>85</v>
@@ -19970,7 +19779,7 @@
         <v>86</v>
       </c>
       <c r="B537" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C537" s="66" t="s">
         <v>56</v>
@@ -19980,7 +19789,7 @@
         <v>85</v>
       </c>
       <c r="F537" s="69" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G537" s="65"/>
       <c r="H537" s="41"/>
@@ -19998,7 +19807,7 @@
         <v>86</v>
       </c>
       <c r="B538" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C538" s="66" t="s">
         <v>56</v>
@@ -20029,7 +19838,7 @@
         <v>86</v>
       </c>
       <c r="B539" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C539" s="66" t="s">
         <v>56</v>
@@ -20043,7 +19852,7 @@
         <v>30</v>
       </c>
       <c r="H539" s="41" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="I539" s="70">
         <v>86</v>
@@ -20059,7 +19868,7 @@
         <v>86</v>
       </c>
       <c r="B540" s="65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C540" s="66" t="s">
         <v>56</v>
@@ -20098,12 +19907,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="75" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="84" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="74" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="83" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20132,13 +19941,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="3" operator="equal">
       <formula>"When"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="4" operator="equal">
       <formula>"Given"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
       <formula>"Then"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20199,10 +20008,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -20269,13 +20078,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20330,10 +20139,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20415,7 +20224,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -20472,13 +20281,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20529,7 +20338,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20643,7 +20452,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G6" s="99">
         <v>54</v>
@@ -20669,7 +20478,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G7" s="87">
         <v>54</v>
@@ -20690,13 +20499,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20821,13 +20630,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20878,10 +20687,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -21794,7 +21603,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G44" s="87">
         <v>51</v>
@@ -21894,7 +21703,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G48" s="87">
         <v>51</v>
@@ -21969,7 +21778,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G51" s="87">
         <v>44</v>
@@ -22054,7 +21863,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -22091,13 +21900,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22605,13 +22414,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23036,24 +22845,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E1048576 E1:E17">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23110,7 +22919,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23124,11 +22933,11 @@
         <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23146,7 +22955,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -23164,7 +22973,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -23182,7 +22991,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23196,13 +23005,13 @@
         <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E6" s="87">
         <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -23213,22 +23022,22 @@
         <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="87">
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"Solved"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23251,7 +23060,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23285,7 +23094,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -24722,7 +24531,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24743,7 +24552,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24764,7 +24573,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24785,7 +24594,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24806,7 +24615,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24827,7 +24636,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24848,7 +24657,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24869,7 +24678,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24890,7 +24699,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24911,7 +24720,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>39</v>
@@ -24932,7 +24741,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -24948,9 +24757,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename scenario</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -24966,9 +24778,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename scenario step 2a</v>
       </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -24984,9 +24799,12 @@
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename scenario step 2b</v>
       </c>
+      <c r="E82" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],11,FALSE)</f>
         <v>60</v>
@@ -25001,6 +24819,9 @@
       <c r="D83" s="63" t="str">
         <f>VLOOKUP(Table156913141718[[#This Row],['#]],Table14[],6,FALSE)</f>
         <v>Rename to already existing scenario name</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="2"/>
     </row>
@@ -25046,15 +24867,15 @@
       </c>
       <c r="B86" s="8">
         <f>SUBTOTAL(104,Table156913141718['#])</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1">
         <f>SUBTOTAL(103,Table156913141718[Feature])</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1">
         <f>SUBTOTAL(103,Table156913141718[Result])</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="1">
@@ -25076,13 +24897,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E85 E87:E1048576">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25137,7 +24958,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -25175,13 +24996,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25232,7 +25053,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -25340,13 +25161,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25401,7 +25222,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -25541,7 +25362,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G7" s="87">
         <v>51</v>
@@ -25631,7 +25452,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="G11" s="87">
         <v>80</v>
@@ -25651,13 +25472,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25674,13 +25495,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25739,7 +25560,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -26692,7 +26513,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G46" s="87">
         <v>79</v>
@@ -26718,7 +26539,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G47" s="87">
         <v>79</v>
@@ -26744,7 +26565,7 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G48" s="87">
         <v>79</v>
@@ -26770,7 +26591,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G49" s="87">
         <v>79</v>
@@ -26796,7 +26617,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G50" s="87">
         <v>51</v>
@@ -26885,7 +26706,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G54" s="87">
         <v>79</v>
@@ -26932,7 +26753,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G56" s="87">
         <v>79</v>
@@ -27084,7 +26905,7 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="G63" s="87">
         <v>80</v>
@@ -27299,7 +27120,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -27343,7 +27164,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G75" s="87">
         <v>81</v>
@@ -27363,13 +27184,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="8" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27431,10 +27252,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27805,13 +27626,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27868,10 +27689,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -27893,7 +27714,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G2" s="87">
         <v>67</v>
@@ -27918,7 +27739,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G3" s="87">
         <v>67</v>
@@ -27943,7 +27764,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G4" s="87">
         <v>67</v>
@@ -27968,7 +27789,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G5" s="87">
         <v>67</v>
@@ -27993,7 +27814,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G6" s="87">
         <v>67</v>
@@ -28018,7 +27839,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G7" s="87">
         <v>67</v>
@@ -28062,7 +27883,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G9" s="87">
         <v>67</v>
@@ -28087,7 +27908,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G10" s="87">
         <v>67</v>
@@ -28112,7 +27933,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G11" s="87">
         <v>67</v>
@@ -28137,7 +27958,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G12" s="87">
         <v>67</v>
@@ -28162,7 +27983,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G13" s="87">
         <v>67</v>
@@ -28187,7 +28008,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G14" s="87">
         <v>67</v>
@@ -28212,7 +28033,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G15" s="87">
         <v>67</v>
@@ -28237,7 +28058,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G16" s="87">
         <v>67</v>
@@ -28262,7 +28083,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G17" s="87">
         <v>67</v>
@@ -28287,7 +28108,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G18" s="87">
         <v>67</v>
@@ -28312,7 +28133,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="G19" s="87">
         <v>67</v>
@@ -28337,7 +28158,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G20" s="87">
         <v>68</v>
@@ -28357,13 +28178,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28422,7 +28243,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -28520,7 +28341,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G6" s="87">
         <v>52</v>
@@ -28545,7 +28366,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G7" s="87">
         <v>52</v>
@@ -28553,13 +28374,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
+++ b/test/test-scenarios/atdd-test-scenarios-and-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvvugt\source\repos\ATDD.TestScriptor.VSCodeExtension\test\test-scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCC4230-F533-46DC-97DA-CEAE9C0000C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE52D6F-615D-4279-8E75-83207DFED34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15990" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,9 @@
     <sheet name="20200811" sheetId="1" r:id="rId16"/>
     <sheet name="Questions" sheetId="2" r:id="rId17"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId18"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="428">
   <si>
     <t>Scenario</t>
   </si>
@@ -1421,9 +1424,6 @@
     <t>Adding Feature 2a</t>
   </si>
   <si>
-    <t>Enter "New Feature"in empty control</t>
-  </si>
-  <si>
     <t>To "Valid Then" belongs helper function CreateValidThen, this should be renamed to CreateRenamedValidThen, instead a call to MakeRenamedValidThen is created (with no comment and no helper function</t>
   </si>
   <si>
@@ -1522,9 +1522,6 @@
     <t>Call to VerifyValidThen helper function remains and is positioned after CheckRenamedValidThen</t>
   </si>
   <si>
-    <t>Given change is reverted</t>
-  </si>
-  <si>
     <t>Rename scenario step 2b</t>
   </si>
   <si>
@@ -1654,6 +1651,252 @@
   </si>
   <si>
     <t>"Full given" means a [THEN] comment line, call to helper function and no new helper function</t>
+  </si>
+  <si>
+    <t>User selects "Remove Scenario" action</t>
+  </si>
+  <si>
+    <t>User is asked to confirm removal of helper function(s)</t>
+  </si>
+  <si>
+    <t>User confirms removal of helper function(s)</t>
+  </si>
+  <si>
+    <t>Scenario is removed from ATDD.TestScriptor page</t>
+  </si>
+  <si>
+    <t>Scenario is removed from test codeunit</t>
+  </si>
+  <si>
+    <t>All helper functions related to scenario are removed from test codeunit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confirm removal of helper function(s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All helper functions related to scenario are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> removed from test codeunit</t>
+    </r>
+  </si>
+  <si>
+    <t>Test codeunit with one Test function in existing test codeunit with valid Given-When-Then structure and call to Initialize</t>
+  </si>
+  <si>
+    <t>User selects this scenario line in ATDD.TestScriptor page</t>
+  </si>
+  <si>
+    <t>All Given/When/Then helper functions related to scenario are removed from test codeunit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intialize helper function is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> removed</t>
+    </r>
+  </si>
+  <si>
+    <t>Test codeunit with one Test function in existing test codeunit with valid Given-When-Then structure and UI Handler</t>
+  </si>
+  <si>
+    <t>User confirms removal of UI handler</t>
+  </si>
+  <si>
+    <t>Intialize helper function is not removed</t>
+  </si>
+  <si>
+    <t>UI handler function is removed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confirm removal of UI handler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UI handler function is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>removed</t>
+    </r>
+  </si>
+  <si>
+    <t>Setting atddTestScriptor.removalMode equals "No confirmation, but removal"</t>
+  </si>
+  <si>
+    <t>Setting atddTestScriptor.removalMode equals "No confirmation &amp; no removal"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Given/When/Then helper functions related to scenario are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>removed from test codeunit</t>
+    </r>
+  </si>
+  <si>
+    <t>New test codeunit was created with name "New Feature", test function NewTestProcedure with call to Intitialize helper and Initialize helper function</t>
+  </si>
+  <si>
+    <t>Adding duplicate Feature</t>
+  </si>
+  <si>
+    <t>User adds Feature "New Feature"</t>
+  </si>
+  <si>
+    <t>New line appears on ATDD.TestScriptor page with FEATURE/SCENARIO "New Feature"/"New Test Procedure"</t>
+  </si>
+  <si>
+    <t>Scenario change is reverted</t>
+  </si>
+  <si>
+    <t>Feature change is reverted</t>
+  </si>
+  <si>
+    <t>Message "Feature already exists. Please update your feature definition so it is unique" appears</t>
+  </si>
+  <si>
+    <t>Adding Feature with non-alpabethic or non-numerical characters</t>
+  </si>
+  <si>
+    <t>Adding Feature with only lowercase characters</t>
+  </si>
+  <si>
+    <t>Enter "New Feature" in empty control</t>
+  </si>
+  <si>
+    <t>Enter "New Feature !@#$%^&amp;*()" in empty control</t>
+  </si>
+  <si>
+    <t>New line appears on ATDD.TestScriptor page with FEATURE/SCENARIO "New Feature !@#$%^&amp;*()"/"New Test Procedure"</t>
+  </si>
+  <si>
+    <t>Add Given "new feature all lowercase"</t>
+  </si>
+  <si>
+    <t>New line appears on ATDD.TestScriptor page with FEATURE/SCENARIO "new feature all lowercase)"/"New Test Procedure"</t>
+  </si>
+  <si>
+    <t>New test codeunit was created with name "NewFeatureAllLowercase", test function NewTestProcedure with call to Intitialize helper and Initialize helper function</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +2216,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2333,16 +2576,13 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="233">
+  <dxfs count="272">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2455,43 +2695,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2510,32 +2713,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2598,32 +2775,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2652,581 +2803,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3289,34 +2865,34 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3349,34 +2925,34 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3409,34 +2985,576 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0000"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <